--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="398" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="422" uniqueCount="144">
   <si>
     <t>sampleid</t>
   </si>
@@ -48,6 +48,12 @@
     <t>601719</t>
   </si>
   <si>
+    <t>602520</t>
+  </si>
+  <si>
+    <t>602524</t>
+  </si>
+  <si>
     <t>602525</t>
   </si>
   <si>
@@ -60,75 +66,78 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>caffeine</t>
   </si>
   <si>
+    <t>quinine</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>quinine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>papaverine</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
     <t>1-phenethyl-4-hydroxypiperidine</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
-    <t>papaverine</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>acetyl fentanyl</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+  </si>
+  <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
   </si>
   <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
@@ -141,69 +150,72 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
     <t>58-08-2</t>
   </si>
   <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>58-74-2</t>
+  </si>
+  <si>
+    <t>2784-73-8</t>
+  </si>
+  <si>
     <t>6703-27-1</t>
   </si>
   <si>
     <t>1462260-87-2</t>
   </si>
   <si>
-    <t>58-74-2</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
     <t>3258-84-2</t>
   </si>
   <si>
+    <t>519-09-5</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>519-09-5</t>
+    <t>67-71-0</t>
+  </si>
+  <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
+    <t>103-90-2</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
   </si>
   <si>
     <t>137-58-6</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
-    <t>103-90-2</t>
-  </si>
-  <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
     <t>28981-97-7</t>
   </si>
   <si>
@@ -213,64 +225,67 @@
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>DAA13NKG2Q</t>
+  </si>
+  <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
     <t>U59401ETXH</t>
   </si>
   <si>
     <t>3D9E9KK5K5</t>
   </si>
   <si>
-    <t>DAA13NKG2Q</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
-  </si>
-  <si>
     <t>6DZ28538KS</t>
   </si>
   <si>
+    <t>5353I8I6YS</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
+    <t>9H4PO4Z4FT</t>
+  </si>
+  <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
+    <t>362O9ITL9D</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>98PI200987</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>362O9ITL9D</t>
-  </si>
-  <si>
-    <t>9H4PO4Z4FT</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -477,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD58"/>
+  <dimension ref="A1:BD62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -488,169 +503,169 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" t="s">
-        <v>88</v>
-      </c>
       <c r="L1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="R1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="S1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="T1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="U1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="V1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="W1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="X1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Y1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Z1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AA1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AB1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AC1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AD1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AE1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AF1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AG1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AH1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AI1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AJ1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AK1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AL1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AM1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AN1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AP1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AQ1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AR1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AS1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AT1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AU1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AV1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AW1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AX1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AY1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AZ1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="BA1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="BB1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="BC1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="BD1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">
@@ -658,22 +673,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>10836</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H2" s="2">
         <v>45107</v>
@@ -826,22 +841,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H3" s="2">
         <v>45107</v>
@@ -850,10 +865,10 @@
         <v>1312</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -866,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -926,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -968,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>0</v>
@@ -994,22 +1009,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H4" s="2">
         <v>45107</v>
@@ -1043,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>0</v>
@@ -1094,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
@@ -1162,22 +1177,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H5" s="2">
         <v>45107</v>
@@ -1186,10 +1201,10 @@
         <v>1312</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1223,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1262,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1330,22 +1345,22 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H6" s="2">
         <v>45107</v>
@@ -1354,10 +1369,10 @@
         <v>1312</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1430,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1472,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1481,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1498,22 +1513,22 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H7" s="2">
         <v>45107</v>
@@ -1538,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1598,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1640,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -1666,22 +1681,22 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H8" s="2">
         <v>45107</v>
@@ -1766,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
@@ -1817,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="1">
         <v>0</v>
@@ -1834,22 +1849,22 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H9" s="2">
         <v>45107</v>
@@ -1895,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -1934,13 +1949,13 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AK9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
@@ -1985,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
@@ -2002,22 +2017,22 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
-        <v>3034034</v>
+        <v>165365057</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H10" s="2">
         <v>45107</v>
@@ -2026,10 +2041,10 @@
         <v>1312</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -2102,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" s="1">
         <v>0</v>
@@ -2144,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="AX10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>0</v>
@@ -2153,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="1">
         <v>0</v>
@@ -2170,22 +2185,22 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H11" s="2">
         <v>45107</v>
@@ -2219,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -2270,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="AK11" s="1">
         <v>0</v>
@@ -2338,22 +2353,22 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H12" s="2">
         <v>45107</v>
@@ -2362,10 +2377,10 @@
         <v>1455</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2387,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>0</v>
@@ -2438,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>1</v>
@@ -2489,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="BA12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="1">
         <v>0</v>
@@ -2506,22 +2521,22 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H13" s="2">
         <v>45107</v>
@@ -2530,10 +2545,10 @@
         <v>1455</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2606,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -2648,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>0</v>
@@ -2657,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2674,22 +2689,22 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>3034034</v>
+        <v>2519</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H14" s="2">
         <v>45107</v>
@@ -2698,10 +2713,10 @@
         <v>1455</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2774,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>294</v>
+        <v>140</v>
       </c>
       <c r="AK14" s="1">
         <v>0</v>
@@ -2842,22 +2857,22 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H15" s="2">
         <v>45107</v>
@@ -2942,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="AK15" s="1">
         <v>0</v>
@@ -3010,22 +3025,22 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H16" s="2">
         <v>45107</v>
@@ -3059,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>
@@ -3110,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="AK16" s="1">
         <v>0</v>
@@ -3178,22 +3193,22 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H17" s="2">
         <v>45107</v>
@@ -3202,10 +3217,10 @@
         <v>1455</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3278,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>1</v>
@@ -3329,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="1">
         <v>0</v>
@@ -3346,22 +3361,22 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H18" s="2">
         <v>45107</v>
@@ -3446,13 +3461,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -3488,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="AX18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="1">
         <v>0</v>
@@ -3497,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="1">
         <v>0</v>
@@ -3514,22 +3529,22 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <v>3345</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H19" s="2">
         <v>45107</v>
@@ -3682,22 +3697,22 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H20" s="2">
         <v>45107</v>
@@ -3706,10 +3721,10 @@
         <v>1470</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3722,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3782,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>1</v>
@@ -3833,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="1">
         <v>0</v>
@@ -3850,22 +3865,22 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H21" s="2">
         <v>45107</v>
@@ -3890,10 +3905,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -3950,13 +3965,13 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="AK21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21" s="1">
         <v>0</v>
@@ -3992,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>0</v>
@@ -4018,22 +4033,22 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H22" s="2">
         <v>45107</v>
@@ -4042,10 +4057,10 @@
         <v>1470</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -4118,13 +4133,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK22" s="1">
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4160,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="1">
         <v>0</v>
@@ -4169,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="1">
         <v>0</v>
@@ -4186,22 +4201,22 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
         <v>10836</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H23" s="2">
         <v>45100</v>
@@ -4354,20 +4369,22 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>88890</v>
+      </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H24" s="2">
         <v>45526</v>
@@ -4452,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="AK24" s="1">
         <v>1</v>
@@ -4503,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="1">
         <v>0</v>
@@ -4520,22 +4537,22 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
-        <v>165365057</v>
+        <v>12107</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H25" s="2">
         <v>45526</v>
@@ -4620,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="AK25" s="1">
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -4688,22 +4705,22 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
-        <v>12107</v>
+        <v>4680</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H26" s="2">
         <v>45526</v>
@@ -4788,13 +4805,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c r="AK26" s="1">
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4833,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="1">
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4856,22 +4873,22 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H27" s="2">
         <v>45526</v>
@@ -4955,14 +4972,12 @@
       <c r="AI27" s="1">
         <v>0</v>
       </c>
-      <c r="AJ27" s="1">
-        <v>44</v>
-      </c>
+      <c r="AJ27" s="1"/>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="1">
         <v>0</v>
@@ -5007,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="1">
         <v>0</v>
@@ -5024,22 +5039,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1">
-        <v>10836</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H28" s="2">
         <v>45526</v>
@@ -5048,10 +5061,10 @@
         <v>2211</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -5082,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="1">
         <v>0</v>
@@ -5124,13 +5137,13 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -5192,22 +5205,22 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
-        <v>5486550</v>
+        <v>5707</v>
       </c>
       <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
         <v>52</v>
       </c>
-      <c r="E29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
       <c r="G29" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H29" s="2">
         <v>45526</v>
@@ -5238,10 +5251,10 @@
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="1">
         <v>0</v>
@@ -5292,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>119</v>
+        <v>324</v>
       </c>
       <c r="AK29" s="1">
         <v>1</v>
@@ -5337,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="AY29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="1">
         <v>0</v>
@@ -5360,22 +5373,22 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
-        <v>91725431</v>
+        <v>5486550</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H30" s="2">
         <v>45526</v>
@@ -5384,10 +5397,10 @@
         <v>2211</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5460,13 +5473,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -5505,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="AY30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ30" s="1">
         <v>0</v>
@@ -5528,22 +5541,22 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>3345</v>
+        <v>91725431</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H31" s="2">
         <v>45526</v>
@@ -5552,10 +5565,10 @@
         <v>2211</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5568,10 +5581,10 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
@@ -5628,13 +5641,13 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -5696,22 +5709,22 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C32" s="1">
-        <v>4680</v>
+        <v>165365057</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H32" s="2">
         <v>45526</v>
@@ -5796,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AK32" s="1">
         <v>0</v>
@@ -5841,13 +5854,13 @@
         <v>0</v>
       </c>
       <c r="AY32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ32" s="1">
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5864,22 +5877,22 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H33" s="2">
         <v>45526</v>
@@ -5904,10 +5917,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -5963,12 +5976,14 @@
       <c r="AI33" s="1">
         <v>0</v>
       </c>
-      <c r="AJ33" s="1"/>
+      <c r="AJ33" s="1">
+        <v>191</v>
+      </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -6030,22 +6045,22 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1">
         <v>5462328</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H34" s="2">
         <v>45526</v>
@@ -6201,19 +6216,19 @@
         <v>16</v>
       </c>
       <c r="C35" s="1">
-        <v>5707</v>
+        <v>10836</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H35" s="2">
         <v>45526</v>
@@ -6222,10 +6237,10 @@
         <v>2211</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6244,10 +6259,10 @@
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
         <v>0</v>
@@ -6256,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="1">
         <v>0</v>
@@ -6298,13 +6313,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>324</v>
+        <v>231</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -6366,22 +6381,22 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1">
         <v>88890</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H36" s="2">
         <v>45526</v>
@@ -6534,22 +6549,22 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H37" s="2">
         <v>45526</v>
@@ -6558,10 +6573,10 @@
         <v>2269</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6595,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -6634,13 +6649,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="AK37" s="1">
         <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -6685,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="BA37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB37" s="1">
         <v>0</v>
@@ -6702,22 +6717,22 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1">
         <v>527015</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H38" s="2">
         <v>45526</v>
@@ -6870,22 +6885,22 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>10836</v>
+        <v>446220</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H39" s="2">
         <v>45526</v>
@@ -6894,10 +6909,10 @@
         <v>2269</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6928,13 +6943,13 @@
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -6970,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AK39" s="1">
         <v>0</v>
@@ -7038,22 +7053,22 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1">
         <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
         <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H40" s="2">
         <v>45526</v>
@@ -7206,22 +7221,22 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C41" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H41" s="2">
         <v>45526</v>
@@ -7264,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="1">
         <v>0</v>
@@ -7306,13 +7321,13 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="AK41" s="1">
         <v>0</v>
       </c>
       <c r="AL41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="1">
         <v>0</v>
@@ -7357,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="1">
         <v>0</v>
@@ -7374,22 +7389,22 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1">
         <v>10836</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H42" s="2">
         <v>45525</v>
@@ -7542,22 +7557,22 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C43" s="1">
-        <v>119478</v>
+        <v>448223</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H43" s="2">
         <v>45525</v>
@@ -7708,22 +7723,22 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H44" s="2">
         <v>45525</v>
@@ -7732,10 +7747,10 @@
         <v>2320</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7769,10 +7784,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="1">
         <v>0</v>
@@ -7807,9 +7822,7 @@
       <c r="AI44" s="1">
         <v>0</v>
       </c>
-      <c r="AJ44" s="1">
-        <v>150</v>
-      </c>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1">
         <v>0</v>
       </c>
@@ -7876,22 +7889,22 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1">
-        <v>448223</v>
+        <v>446220</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H45" s="2">
         <v>45525</v>
@@ -7900,10 +7913,10 @@
         <v>2320</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7937,10 +7950,10 @@
         <v>0</v>
       </c>
       <c r="W45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45" s="1">
         <v>0</v>
@@ -7975,7 +7988,9 @@
       <c r="AI45" s="1">
         <v>0</v>
       </c>
-      <c r="AJ45" s="1"/>
+      <c r="AJ45" s="1">
+        <v>150</v>
+      </c>
       <c r="AK45" s="1">
         <v>0</v>
       </c>
@@ -8042,22 +8057,22 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
-        <v>5707</v>
+        <v>2519</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H46" s="2">
         <v>45446</v>
@@ -8088,10 +8103,10 @@
         <v>0</v>
       </c>
       <c r="R46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="1">
         <v>0</v>
@@ -8109,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46" s="1">
         <v>0</v>
@@ -8142,13 +8157,13 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>324</v>
+        <v>140</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -8184,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="AX46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY46" s="1">
         <v>0</v>
@@ -8210,22 +8225,22 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C47" s="1">
         <v>88890</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H47" s="2">
         <v>45446</v>
@@ -8378,22 +8393,22 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
         <v>70</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H48" s="2">
         <v>45446</v>
@@ -8546,22 +8561,22 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C49" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H49" s="2">
         <v>45446</v>
@@ -8592,10 +8607,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -8613,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -8646,13 +8661,13 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="AK49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM49" s="1">
         <v>0</v>
@@ -8688,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="1">
         <v>0</v>
@@ -8714,28 +8729,28 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C50" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H50" s="2">
-        <v>45602</v>
+        <v>45649</v>
       </c>
       <c r="I50" s="1">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8745,19 +8760,19 @@
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N50" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O50" s="1">
         <v>0</v>
       </c>
       <c r="P50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="1">
         <v>0</v>
@@ -8769,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -8814,13 +8829,13 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="1">
         <v>0</v>
@@ -8882,41 +8897,41 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C51" s="1">
-        <v>3676</v>
+        <v>6213</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H51" s="2">
-        <v>45602</v>
+        <v>45649</v>
       </c>
       <c r="I51" s="1">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N51" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O51" s="1">
         <v>0</v>
@@ -8981,9 +8996,7 @@
       <c r="AI51" s="1">
         <v>0</v>
       </c>
-      <c r="AJ51" s="1">
-        <v>216</v>
-      </c>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1">
         <v>0</v>
       </c>
@@ -9024,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="AX51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="1">
         <v>0</v>
@@ -9050,28 +9063,28 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C52" s="1">
-        <v>88890</v>
+        <v>66924</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H52" s="2">
-        <v>45602</v>
+        <v>45649</v>
       </c>
       <c r="I52" s="1">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -9081,10 +9094,10 @@
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N52" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O52" s="1">
         <v>0</v>
@@ -9150,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="1">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AK52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="1">
         <v>0</v>
@@ -9201,7 +9214,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="1">
         <v>0</v>
@@ -9215,44 +9228,44 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="1">
-        <v>5707</v>
+        <v>10836</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H53" s="2">
-        <v>45602</v>
+        <v>45649</v>
       </c>
       <c r="I53" s="1">
-        <v>2713</v>
+        <v>2715</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N53" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O53" s="1">
         <v>0</v>
@@ -9267,16 +9280,16 @@
         <v>0</v>
       </c>
       <c r="S53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W53" s="1">
         <v>0</v>
@@ -9318,13 +9331,13 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>324</v>
+        <v>231</v>
       </c>
       <c r="AK53" s="1">
         <v>0</v>
       </c>
       <c r="AL53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="1">
         <v>0</v>
@@ -9383,29 +9396,29 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H54" s="2">
         <v>45602</v>
       </c>
       <c r="I54" s="1">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -9549,37 +9562,37 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C55" s="1">
-        <v>68602</v>
+        <v>1983</v>
       </c>
       <c r="D55" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G55" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H55" s="2">
         <v>45602</v>
       </c>
       <c r="I55" s="1">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -9652,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -9717,37 +9730,37 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C56" s="1">
-        <v>1983</v>
+        <v>68602</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F56" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H56" s="2">
         <v>45602</v>
       </c>
       <c r="I56" s="1">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9820,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="AK56" s="1">
         <v>0</v>
@@ -9885,10 +9898,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C57" s="1">
         <v>6213</v>
@@ -9897,19 +9910,19 @@
         <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H57" s="2">
         <v>45602</v>
       </c>
       <c r="I57" s="1">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -10051,53 +10064,53 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C58" s="1">
-        <v>2118</v>
+        <v>3345</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F58" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H58" s="2">
-        <v>45611</v>
+        <v>45602</v>
       </c>
       <c r="I58" s="1">
-        <v>2714</v>
+        <v>2716</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N58" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O58" s="1">
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -10154,66 +10167,738 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
+        <v>191</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ58" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA58" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB58" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC58" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD58" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5707</v>
+      </c>
+      <c r="D59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" s="2">
+        <v>45602</v>
+      </c>
+      <c r="I59" s="1">
+        <v>2716</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1">
+        <v>8</v>
+      </c>
+      <c r="N59" s="1">
+        <v>6</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
+        <v>0</v>
+      </c>
+      <c r="S59" s="1">
+        <v>1</v>
+      </c>
+      <c r="T59" s="1">
+        <v>1</v>
+      </c>
+      <c r="U59" s="1">
+        <v>0</v>
+      </c>
+      <c r="V59" s="1">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="1">
+        <v>324</v>
+      </c>
+      <c r="AK59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ59" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA59" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB59" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC59" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3676</v>
+      </c>
+      <c r="D60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" s="2">
+        <v>45602</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2716</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1">
+        <v>8</v>
+      </c>
+      <c r="N60" s="1">
+        <v>6</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+      <c r="P60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1">
+        <v>0</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>0</v>
+      </c>
+      <c r="U60" s="1">
+        <v>0</v>
+      </c>
+      <c r="V60" s="1">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="1">
+        <v>216</v>
+      </c>
+      <c r="AK60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ60" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA60" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB60" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC60" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD60" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" s="2">
+        <v>45602</v>
+      </c>
+      <c r="I61" s="1">
+        <v>2716</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1">
+        <v>8</v>
+      </c>
+      <c r="N61" s="1">
+        <v>6</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0</v>
+      </c>
+      <c r="U61" s="1">
+        <v>0</v>
+      </c>
+      <c r="V61" s="1">
+        <v>0</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="1">
+        <v>44</v>
+      </c>
+      <c r="AK61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ61" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA61" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB61" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC61" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2118</v>
+      </c>
+      <c r="D62" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" t="s">
+        <v>93</v>
+      </c>
+      <c r="G62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H62" s="2">
+        <v>45611</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2717</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>0</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1">
+        <v>0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="1">
         <v>122</v>
       </c>
-      <c r="AK58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR58" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD58" s="1">
+      <c r="AK62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ62" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA62" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB62" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC62" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD62" s="1">
         <v>3</v>
       </c>
     </row>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -66,51 +66,51 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>quinine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>quinine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
+    <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-hydroxypiperidine</t>
+  </si>
+  <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>papaverine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-hydroxypiperidine</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
     <t>acetyl fentanyl</t>
   </si>
   <si>
@@ -120,10 +120,13 @@
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
+    <t>lidocaine</t>
   </si>
   <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
@@ -135,9 +138,6 @@
     <t>medetomidine</t>
   </si>
   <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
@@ -150,48 +150,48 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>7361-61-7</t>
+    <t>2784-73-8</t>
   </si>
   <si>
     <t>620-71-3</t>
   </si>
   <si>
+    <t>1462260-87-2</t>
+  </si>
+  <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
     <t>58-74-2</t>
   </si>
   <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
-    <t>1462260-87-2</t>
-  </si>
-  <si>
     <t>3258-84-2</t>
   </si>
   <si>
@@ -201,10 +201,13 @@
     <t>43021-26-7</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
     <t>67-71-0</t>
   </si>
   <si>
-    <t>105-70-4</t>
+    <t>137-58-6</t>
   </si>
   <si>
     <t>103-90-2</t>
@@ -213,9 +216,6 @@
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
     <t>28981-97-7</t>
   </si>
   <si>
@@ -225,45 +225,45 @@
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
+    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
+    <t>3D9E9KK5K5</t>
+  </si>
+  <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
     <t>DAA13NKG2Q</t>
   </si>
   <si>
-    <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
     <t>6DZ28538KS</t>
   </si>
   <si>
@@ -273,19 +273,19 @@
     <t>58C337KP3E</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
+    <t>98PI200987</t>
   </si>
   <si>
     <t>362O9ITL9D</t>
   </si>
   <si>
     <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -685,7 +685,7 @@
         <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>95</v>
@@ -844,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
@@ -853,7 +853,7 @@
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
         <v>95</v>
@@ -865,10 +865,10 @@
         <v>1312</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -881,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -1021,7 +1021,7 @@
         <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>95</v>
@@ -1033,10 +1033,10 @@
         <v>1312</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>446220</v>
+        <v>2519</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
@@ -1189,7 +1189,7 @@
         <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
         <v>95</v>
@@ -1201,10 +1201,10 @@
         <v>1312</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1238,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>2519</v>
+        <v>62300</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -1445,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1516,16 +1516,16 @@
         <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>3034034</v>
+        <v>165365057</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
         <v>95</v>
@@ -1537,10 +1537,10 @@
         <v>1312</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1613,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="1">
         <v>0</v>
@@ -1684,13 +1684,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
         <v>93</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>23</v>
       </c>
       <c r="C9" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
         <v>95</v>
@@ -1949,13 +1949,13 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="1">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>24</v>
       </c>
       <c r="C10" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
         <v>95</v>
@@ -2041,10 +2041,10 @@
         <v>1312</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -2078,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -2117,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>281</v>
+        <v>150</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="1">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="1">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
@@ -2197,7 +2197,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>95</v>
@@ -2209,10 +2209,10 @@
         <v>1312</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -2225,19 +2225,19 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -2285,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
         <v>1</v>
@@ -2353,19 +2353,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>165365057</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>95</v>
@@ -2521,19 +2521,19 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
         <v>95</v>
@@ -2545,10 +2545,10 @@
         <v>1455</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="1">
         <v>0</v>
@@ -2621,10 +2621,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>1</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2689,16 +2689,16 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>2519</v>
+        <v>5462328</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -2789,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="AK14" s="1">
         <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>0</v>
@@ -2857,16 +2857,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>5462328</v>
+        <v>2519</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
         <v>93</v>
@@ -2957,13 +2957,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="AK15" s="1">
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="1">
         <v>0</v>
@@ -3025,19 +3025,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
-        <v>5707</v>
+        <v>3034034</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
         <v>95</v>
@@ -3049,10 +3049,10 @@
         <v>1455</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>
@@ -3125,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="AK16" s="1">
         <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="1">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>62300</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>
@@ -3361,19 +3361,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
         <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
       </c>
       <c r="G18" t="s">
         <v>95</v>
@@ -3401,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -3461,13 +3461,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="AX18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>0</v>
@@ -3529,19 +3529,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
         <v>95</v>
@@ -3569,10 +3569,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK19" s="1">
         <v>1</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="1">
         <v>0</v>
@@ -3697,16 +3697,16 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
         <v>93</v>
@@ -3865,19 +3865,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
         <v>3345</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
         <v>95</v>
@@ -4033,19 +4033,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <v>3034034</v>
       </c>
       <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
         <v>49</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>95</v>
@@ -4213,7 +4213,7 @@
         <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>95</v>
@@ -4369,19 +4369,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
         <v>95</v>
@@ -4468,14 +4468,12 @@
       <c r="AI24" s="1">
         <v>0</v>
       </c>
-      <c r="AJ24" s="1">
-        <v>44</v>
-      </c>
+      <c r="AJ24" s="1"/>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4520,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="1">
         <v>0</v>
@@ -4537,16 +4535,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1">
-        <v>12107</v>
+        <v>10836</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
         <v>93</v>
@@ -4595,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="1">
         <v>0</v>
@@ -4637,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="AK25" s="1">
         <v>0</v>
@@ -4688,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="1">
         <v>0</v>
@@ -4708,7 +4706,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="1">
-        <v>4680</v>
+        <v>12107</v>
       </c>
       <c r="D26" t="s">
         <v>55</v>
@@ -4805,13 +4803,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>276</v>
+        <v>104</v>
       </c>
       <c r="AK26" s="1">
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4850,13 +4848,13 @@
         <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="1">
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4873,19 +4871,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
         <v>95</v>
@@ -4972,12 +4970,14 @@
       <c r="AI27" s="1">
         <v>0</v>
       </c>
-      <c r="AJ27" s="1"/>
+      <c r="AJ27" s="1">
+        <v>44</v>
+      </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27" s="1">
         <v>0</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="1">
         <v>0</v>
@@ -5039,17 +5039,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5707</v>
+      </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
         <v>95</v>
@@ -5083,10 +5085,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
@@ -5137,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>9</v>
+        <v>324</v>
       </c>
       <c r="AK28" s="1">
         <v>1</v>
@@ -5205,19 +5207,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
         <v>95</v>
@@ -5251,10 +5253,10 @@
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
         <v>0</v>
@@ -5305,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="AK29" s="1">
         <v>1</v>
@@ -5373,19 +5375,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
-        <v>5486550</v>
+        <v>91725431</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s">
         <v>95</v>
@@ -5397,10 +5399,10 @@
         <v>2211</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5473,13 +5475,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -5518,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="AY30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="1">
         <v>0</v>
@@ -5541,19 +5543,17 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="1">
-        <v>91725431</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
         <v>95</v>
@@ -5565,10 +5565,10 @@
         <v>2211</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5641,13 +5641,13 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -5709,19 +5709,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
-        <v>165365057</v>
+        <v>5486550</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
         <v>95</v>
@@ -5733,10 +5733,10 @@
         <v>2211</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5809,10 +5809,10 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="1">
         <v>1</v>
@@ -5854,13 +5854,13 @@
         <v>0</v>
       </c>
       <c r="AY32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ32" s="1">
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5877,19 +5877,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
         <v>95</v>
@@ -5901,10 +5901,10 @@
         <v>2211</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5917,10 +5917,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -5977,10 +5977,10 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
         <v>1</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB33" s="1">
         <v>0</v>
@@ -6045,19 +6045,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
-        <v>5462328</v>
+        <v>4680</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
         <v>95</v>
@@ -6069,10 +6069,10 @@
         <v>2211</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -6145,10 +6145,10 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
         <v>1</v>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="AY34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ34" s="1">
         <v>0</v>
@@ -6213,19 +6213,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
         <v>95</v>
@@ -6237,10 +6237,10 @@
         <v>2211</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6253,10 +6253,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="1">
         <v>0</v>
@@ -6313,13 +6313,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -6381,19 +6381,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s">
         <v>95</v>
@@ -6405,10 +6405,10 @@
         <v>2269</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6481,10 +6481,10 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="AK36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1">
         <v>1</v>
@@ -6549,19 +6549,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
         <v>95</v>
@@ -6573,10 +6573,10 @@
         <v>2269</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6649,10 +6649,10 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
         <v>1</v>
@@ -6885,19 +6885,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1">
-        <v>446220</v>
+        <v>10836</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s">
         <v>95</v>
@@ -6909,10 +6909,10 @@
         <v>2269</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6943,13 +6943,13 @@
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="AK39" s="1">
         <v>0</v>
@@ -7053,19 +7053,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1">
         <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
         <v>95</v>
@@ -7221,19 +7221,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1">
-        <v>10836</v>
+        <v>446220</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
         <v>95</v>
@@ -7245,10 +7245,10 @@
         <v>2269</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -7279,13 +7279,13 @@
         <v>0</v>
       </c>
       <c r="V41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AK41" s="1">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
         <v>95</v>
@@ -7889,19 +7889,19 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C45" s="1">
         <v>446220</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
         <v>95</v>
@@ -8057,19 +8057,19 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C46" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
         <v>95</v>
@@ -8103,10 +8103,10 @@
         <v>0</v>
       </c>
       <c r="R46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="1">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="1">
         <v>0</v>
@@ -8157,13 +8157,13 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="AK46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="AX46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="1">
         <v>0</v>
@@ -8225,19 +8225,19 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
         <v>95</v>
@@ -8265,10 +8265,10 @@
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="1">
         <v>0</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK47" s="1">
         <v>1</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="BA47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="1">
         <v>0</v>
@@ -8393,19 +8393,19 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C48" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
         <v>95</v>
@@ -8433,10 +8433,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -8493,13 +8493,13 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="1">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY48" s="1">
         <v>0</v>
@@ -8561,19 +8561,19 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
         <v>95</v>
@@ -8607,10 +8607,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AK49" s="1">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="BA49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB49" s="1">
         <v>0</v>
@@ -8729,19 +8729,19 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1">
-        <v>10836</v>
+        <v>66924</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
         <v>95</v>
@@ -8750,7 +8750,7 @@
         <v>45649</v>
       </c>
       <c r="I50" s="1">
-        <v>2714</v>
+        <v>2717</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="AK50" s="1">
         <v>0</v>
@@ -8897,16 +8897,16 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51" s="1">
         <v>6213</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s">
         <v>93</v>
@@ -8918,7 +8918,7 @@
         <v>45649</v>
       </c>
       <c r="I51" s="1">
-        <v>2714</v>
+        <v>2717</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
@@ -9063,19 +9063,19 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C52" s="1">
-        <v>66924</v>
+        <v>10836</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
         <v>95</v>
@@ -9084,7 +9084,7 @@
         <v>45649</v>
       </c>
       <c r="I52" s="1">
-        <v>2714</v>
+        <v>2717</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -9118,10 +9118,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="1">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="AK52" s="1">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>69</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s">
         <v>95</v>
@@ -9252,7 +9252,7 @@
         <v>45649</v>
       </c>
       <c r="I53" s="1">
-        <v>2715</v>
+        <v>2718</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -9401,15 +9401,17 @@
       <c r="B54" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="C54" s="1">
+        <v>3676</v>
+      </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
         <v>95</v>
@@ -9418,7 +9420,7 @@
         <v>45602</v>
       </c>
       <c r="I54" s="1">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -9491,13 +9493,13 @@
         <v>0</v>
       </c>
       <c r="AH54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="AK54" s="1">
         <v>0</v>
@@ -9539,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="AX54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY54" s="1">
         <v>0</v>
@@ -9567,17 +9569,15 @@
       <c r="B55" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="1">
-        <v>1983</v>
-      </c>
+      <c r="C55" s="1"/>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
         <v>95</v>
@@ -9586,13 +9586,13 @@
         <v>45602</v>
       </c>
       <c r="I55" s="1">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -9659,13 +9659,13 @@
         <v>0</v>
       </c>
       <c r="AH55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ55" s="1">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -9733,19 +9733,19 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C56" s="1">
-        <v>68602</v>
+        <v>5707</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F56" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G56" t="s">
         <v>95</v>
@@ -9754,13 +9754,13 @@
         <v>45602</v>
       </c>
       <c r="I56" s="1">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9782,10 +9782,10 @@
         <v>0</v>
       </c>
       <c r="S56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="1">
         <v>0</v>
@@ -9833,13 +9833,13 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="AK56" s="1">
         <v>0</v>
       </c>
       <c r="AL56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM56" s="1">
         <v>0</v>
@@ -9901,19 +9901,19 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C57" s="1">
-        <v>6213</v>
+        <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
         <v>95</v>
@@ -9922,7 +9922,7 @@
         <v>45602</v>
       </c>
       <c r="I57" s="1">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -10000,12 +10000,14 @@
       <c r="AI57" s="1">
         <v>0</v>
       </c>
-      <c r="AJ57" s="1"/>
+      <c r="AJ57" s="1">
+        <v>44</v>
+      </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -10050,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB57" s="1">
         <v>0</v>
@@ -10067,19 +10069,19 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1">
-        <v>3345</v>
+        <v>1983</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G58" t="s">
         <v>95</v>
@@ -10088,13 +10090,13 @@
         <v>45602</v>
       </c>
       <c r="I58" s="1">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -10107,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -10167,13 +10169,13 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="1">
         <v>0</v>
@@ -10238,7 +10240,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D59" t="s">
         <v>53</v>
@@ -10247,7 +10249,7 @@
         <v>77</v>
       </c>
       <c r="F59" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
         <v>95</v>
@@ -10256,13 +10258,13 @@
         <v>45602</v>
       </c>
       <c r="I59" s="1">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -10275,19 +10277,19 @@
         <v>0</v>
       </c>
       <c r="P59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
       </c>
       <c r="S59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" s="1">
         <v>0</v>
@@ -10335,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
         <v>1</v>
@@ -10403,19 +10405,19 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C60" s="1">
-        <v>3676</v>
+        <v>6213</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
         <v>95</v>
@@ -10424,7 +10426,7 @@
         <v>45602</v>
       </c>
       <c r="I60" s="1">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -10502,9 +10504,7 @@
       <c r="AI60" s="1">
         <v>0</v>
       </c>
-      <c r="AJ60" s="1">
-        <v>216</v>
-      </c>
+      <c r="AJ60" s="1"/>
       <c r="AK60" s="1">
         <v>0</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="AX60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="1">
         <v>0</v>
@@ -10571,19 +10571,19 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C61" s="1">
-        <v>88890</v>
+        <v>68602</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
         <v>95</v>
@@ -10592,7 +10592,7 @@
         <v>45602</v>
       </c>
       <c r="I61" s="1">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -10671,13 +10671,13 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="BA61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB61" s="1">
         <v>0</v>
@@ -10760,7 +10760,7 @@
         <v>45611</v>
       </c>
       <c r="I62" s="1">
-        <v>2717</v>
+        <v>2720</v>
       </c>
       <c r="J62" s="1">
         <v>0</v>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -66,78 +66,78 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>heroin</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
     <t>quinine</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
+    <t>papaverine</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-hydroxypiperidine</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-hydroxypiperidine</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>papaverine</t>
-  </si>
-  <si>
     <t>acetyl fentanyl</t>
   </si>
   <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
-  </si>
-  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
     <t>lidocaine</t>
   </si>
   <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
-  </si>
-  <si>
-    <t>acetaminophen</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
@@ -150,72 +150,72 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>561-27-3</t>
   </si>
   <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
     <t>72402-53-0</t>
   </si>
   <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>6703-27-1</t>
+  </si>
+  <si>
+    <t>1462260-87-2</t>
+  </si>
+  <si>
+    <t>58-74-2</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
   </si>
   <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>1462260-87-2</t>
-  </si>
-  <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
-    <t>58-74-2</t>
-  </si>
-  <si>
     <t>3258-84-2</t>
   </si>
   <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>519-09-5</t>
   </si>
   <si>
-    <t>43021-26-7</t>
-  </si>
-  <si>
     <t>105-70-4</t>
   </si>
   <si>
     <t>67-71-0</t>
   </si>
   <si>
+    <t>103-90-2</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
     <t>137-58-6</t>
   </si>
   <si>
-    <t>103-90-2</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
     <t>28981-97-7</t>
   </si>
   <si>
@@ -225,67 +225,67 @@
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
     <t>70D95007SX</t>
   </si>
   <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
     <t>A7V27PHC7A</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
+    <t>3D9E9KK5K5</t>
+  </si>
+  <si>
+    <t>DAA13NKG2Q</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
   </si>
   <si>
     <t>M5E47P1ZCH</t>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>DAA13NKG2Q</t>
-  </si>
-  <si>
     <t>6DZ28538KS</t>
   </si>
   <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>5353I8I6YS</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
-  </si>
-  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>362O9ITL9D</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
     <t>98PI200987</t>
-  </si>
-  <si>
-    <t>362O9ITL9D</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -685,7 +685,7 @@
         <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>95</v>
@@ -844,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
@@ -853,7 +853,7 @@
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>95</v>
@@ -865,10 +865,10 @@
         <v>1312</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -1021,7 +1021,7 @@
         <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
         <v>95</v>
@@ -1033,10 +1033,10 @@
         <v>1312</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="1">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -1277,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -1357,7 +1357,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>95</v>
@@ -1369,10 +1369,10 @@
         <v>1312</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
         <v>1</v>
@@ -1516,13 +1516,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
         <v>93</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="1">
         <v>0</v>
@@ -1684,13 +1684,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
         <v>93</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="1">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="1">
-        <v>3034034</v>
+        <v>5462328</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -1861,7 +1861,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>95</v>
@@ -1873,10 +1873,10 @@
         <v>1312</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1949,13 +1949,13 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>294</v>
+        <v>201</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
       <c r="AL9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -2029,7 +2029,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
         <v>95</v>
@@ -2078,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -2117,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AK10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" s="1">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="1">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
@@ -2197,7 +2197,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
         <v>95</v>
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="1">
         <v>0</v>
@@ -2353,19 +2353,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
         <v>95</v>
@@ -2393,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="AK12" s="1">
         <v>1</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="BA12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="1">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
-        <v>5707</v>
+        <v>2519</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
         <v>93</v>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>0</v>
@@ -2621,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>324</v>
+        <v>140</v>
       </c>
       <c r="AK13" s="1">
         <v>0</v>
       </c>
       <c r="AL13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="1">
         <v>0</v>
@@ -2689,16 +2689,16 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="AK14" s="1">
         <v>0</v>
@@ -2857,16 +2857,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>2519</v>
+        <v>62300</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
         <v>93</v>
@@ -2957,13 +2957,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="AK15" s="1">
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>0</v>
@@ -3025,19 +3025,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>3034034</v>
+        <v>165365057</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
         <v>95</v>
@@ -3125,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="1">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
-        <v>62300</v>
+        <v>3034034</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
         <v>95</v>
@@ -3217,10 +3217,10 @@
         <v>1455</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3293,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="1">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AX17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="1">
         <v>0</v>
@@ -3361,19 +3361,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
         <v>95</v>
@@ -3401,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK18" s="1">
         <v>1</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="1">
         <v>0</v>
@@ -3529,19 +3529,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
         <v>95</v>
@@ -3553,10 +3553,10 @@
         <v>1455</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>1</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="1">
         <v>0</v>
@@ -3697,19 +3697,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
         <v>95</v>
@@ -3721,10 +3721,10 @@
         <v>1470</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3797,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK20" s="1">
         <v>0</v>
       </c>
       <c r="AL20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="1">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="AX20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="1">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="1">
         <v>0</v>
@@ -3865,19 +3865,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>3345</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>95</v>
@@ -4033,19 +4033,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
-        <v>3034034</v>
+        <v>88890</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
         <v>95</v>
@@ -4057,10 +4057,10 @@
         <v>1470</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -4133,13 +4133,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="AK22" s="1">
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>0</v>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="1">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
         <v>95</v>
@@ -4372,7 +4372,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D24" t="s">
         <v>54</v>
@@ -4381,7 +4381,7 @@
         <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
         <v>95</v>
@@ -4468,12 +4468,14 @@
       <c r="AI24" s="1">
         <v>0</v>
       </c>
-      <c r="AJ24" s="1"/>
+      <c r="AJ24" s="1">
+        <v>119</v>
+      </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4512,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="1">
         <v>0</v>
@@ -4535,19 +4537,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>10836</v>
+        <v>5707</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
         <v>95</v>
@@ -4559,10 +4561,10 @@
         <v>2211</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4581,10 +4583,10 @@
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1">
         <v>0</v>
@@ -4593,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1">
         <v>0</v>
@@ -4635,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -4706,7 +4708,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="1">
-        <v>12107</v>
+        <v>91725431</v>
       </c>
       <c r="D26" t="s">
         <v>55</v>
@@ -4803,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="AK26" s="1">
         <v>0</v>
@@ -4854,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4871,19 +4873,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
-        <v>88890</v>
+        <v>4680</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
         <v>95</v>
@@ -4895,10 +4897,10 @@
         <v>2211</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4971,10 +4973,10 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>1</v>
@@ -5016,13 +5018,13 @@
         <v>0</v>
       </c>
       <c r="AY27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27" s="1">
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="1">
         <v>0</v>
@@ -5039,19 +5041,17 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1">
-        <v>5707</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" t="s">
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
         <v>95</v>
@@ -5085,10 +5085,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>324</v>
+        <v>9</v>
       </c>
       <c r="AK28" s="1">
         <v>1</v>
@@ -5207,19 +5207,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1">
         <v>5462328</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
         <v>95</v>
@@ -5375,19 +5375,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
-        <v>91725431</v>
+        <v>3345</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
         <v>95</v>
@@ -5399,10 +5399,10 @@
         <v>2211</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5415,10 +5415,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -5475,13 +5475,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -5543,17 +5543,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C31" s="1">
+        <v>88890</v>
+      </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
         <v>95</v>
@@ -5641,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="AK31" s="1">
         <v>1</v>
@@ -5692,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5712,7 +5714,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <v>5486550</v>
+        <v>12107</v>
       </c>
       <c r="D32" t="s">
         <v>57</v>
@@ -5721,7 +5723,7 @@
         <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
         <v>95</v>
@@ -5733,10 +5735,10 @@
         <v>2211</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5809,13 +5811,13 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -5854,13 +5856,13 @@
         <v>0</v>
       </c>
       <c r="AY32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ32" s="1">
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5877,16 +5879,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
         <v>93</v>
@@ -5935,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="1">
         <v>0</v>
@@ -5977,13 +5979,13 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="AK33" s="1">
         <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -6028,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="1">
         <v>0</v>
@@ -6048,7 +6050,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="1">
-        <v>4680</v>
+        <v>5462507</v>
       </c>
       <c r="D34" t="s">
         <v>58</v>
@@ -6057,7 +6059,7 @@
         <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
         <v>95</v>
@@ -6069,10 +6071,10 @@
         <v>2211</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -6144,14 +6146,12 @@
       <c r="AI34" s="1">
         <v>0</v>
       </c>
-      <c r="AJ34" s="1">
-        <v>276</v>
-      </c>
+      <c r="AJ34" s="1"/>
       <c r="AK34" s="1">
         <v>0</v>
       </c>
       <c r="AL34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="1">
         <v>0</v>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="AY34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="1">
         <v>0</v>
@@ -6213,19 +6213,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
         <v>95</v>
@@ -6237,10 +6237,10 @@
         <v>2211</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6253,10 +6253,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -6313,10 +6313,10 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>1</v>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB35" s="1">
         <v>0</v>
@@ -6381,16 +6381,16 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1">
-        <v>165365057</v>
+        <v>527015</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s">
         <v>93</v>
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>281</v>
+        <v>118</v>
       </c>
       <c r="AK36" s="1">
         <v>0</v>
@@ -6549,19 +6549,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1">
         <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s">
         <v>95</v>
@@ -6717,19 +6717,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1">
-        <v>527015</v>
+        <v>446220</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s">
         <v>95</v>
@@ -6741,10 +6741,10 @@
         <v>2269</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6778,10 +6778,10 @@
         <v>0</v>
       </c>
       <c r="W38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -6817,13 +6817,13 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="AK38" s="1">
         <v>0</v>
       </c>
       <c r="AL38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="1">
         <v>0</v>
@@ -6885,19 +6885,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
         <v>95</v>
@@ -6909,10 +6909,10 @@
         <v>2269</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6925,10 +6925,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="1">
         <v>0</v>
@@ -6985,13 +6985,13 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -7053,19 +7053,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s">
         <v>95</v>
@@ -7077,10 +7077,10 @@
         <v>2269</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -7093,10 +7093,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="1">
         <v>0</v>
@@ -7153,13 +7153,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -7221,19 +7221,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s">
         <v>95</v>
@@ -7245,10 +7245,10 @@
         <v>2269</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -7282,10 +7282,10 @@
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>
@@ -7321,13 +7321,13 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="AK41" s="1">
         <v>0</v>
       </c>
       <c r="AL41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41" s="1">
         <v>0</v>
@@ -7372,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB41" s="1">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
         <v>95</v>
@@ -7557,19 +7557,19 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1">
-        <v>448223</v>
+        <v>446220</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
         <v>95</v>
@@ -7581,10 +7581,10 @@
         <v>2320</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7618,10 +7618,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -7656,7 +7656,9 @@
       <c r="AI43" s="1">
         <v>0</v>
       </c>
-      <c r="AJ43" s="1"/>
+      <c r="AJ43" s="1">
+        <v>150</v>
+      </c>
       <c r="AK43" s="1">
         <v>0</v>
       </c>
@@ -7723,16 +7725,16 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1">
         <v>119478</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
         <v>93</v>
@@ -7889,19 +7891,19 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1">
-        <v>446220</v>
+        <v>448223</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s">
         <v>95</v>
@@ -7913,10 +7915,10 @@
         <v>2320</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7950,10 +7952,10 @@
         <v>0</v>
       </c>
       <c r="W45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="1">
         <v>0</v>
@@ -7988,9 +7990,7 @@
       <c r="AI45" s="1">
         <v>0</v>
       </c>
-      <c r="AJ45" s="1">
-        <v>150</v>
-      </c>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1">
         <v>0</v>
       </c>
@@ -8057,19 +8057,19 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C46" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" t="s">
         <v>50</v>
-      </c>
-      <c r="E46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" t="s">
-        <v>49</v>
       </c>
       <c r="G46" t="s">
         <v>95</v>
@@ -8103,10 +8103,10 @@
         <v>0</v>
       </c>
       <c r="R46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="1">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AK46" s="1">
         <v>1</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB46" s="1">
         <v>0</v>
@@ -8225,19 +8225,19 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
         <v>95</v>
@@ -8265,10 +8265,10 @@
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="1">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z47" s="1">
         <v>0</v>
@@ -8325,13 +8325,13 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="AK47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="AX47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY47" s="1">
         <v>0</v>
@@ -8396,7 +8396,7 @@
         <v>19</v>
       </c>
       <c r="C48" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D48" t="s">
         <v>47</v>
@@ -8405,7 +8405,7 @@
         <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s">
         <v>95</v>
@@ -8439,10 +8439,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="1">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -8493,13 +8493,13 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM48" s="1">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="1">
         <v>0</v>
@@ -8561,19 +8561,19 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C49" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s">
         <v>95</v>
@@ -8601,10 +8601,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="1">
         <v>0</v>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK49" s="1">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="BA49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="1">
         <v>0</v>
@@ -8741,7 +8741,7 @@
         <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
         <v>95</v>
@@ -9075,7 +9075,7 @@
         <v>69</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s">
         <v>95</v>
@@ -9243,7 +9243,7 @@
         <v>69</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s">
         <v>95</v>
@@ -9401,17 +9401,15 @@
       <c r="B54" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="1">
-        <v>3676</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s">
         <v>95</v>
@@ -9493,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="AH54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ54" s="1">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="AK54" s="1">
         <v>0</v>
@@ -9541,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AX54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="1">
         <v>0</v>
@@ -9569,15 +9567,17 @@
       <c r="B55" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1">
+        <v>1983</v>
+      </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G55" t="s">
         <v>95</v>
@@ -9589,10 +9589,10 @@
         <v>2719</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -9659,13 +9659,13 @@
         <v>0</v>
       </c>
       <c r="AH55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -9733,16 +9733,16 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C56" s="1">
         <v>5707</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F56" t="s">
         <v>93</v>
@@ -9901,19 +9901,19 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C57" s="1">
-        <v>88890</v>
+        <v>6213</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
         <v>95</v>
@@ -10000,14 +10000,12 @@
       <c r="AI57" s="1">
         <v>0</v>
       </c>
-      <c r="AJ57" s="1">
-        <v>44</v>
-      </c>
+      <c r="AJ57" s="1"/>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -10052,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="1">
         <v>0</v>
@@ -10069,19 +10067,19 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1">
-        <v>1983</v>
+        <v>3345</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
         <v>95</v>
@@ -10093,10 +10091,10 @@
         <v>2719</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -10109,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -10169,13 +10167,13 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM58" s="1">
         <v>0</v>
@@ -10237,19 +10235,19 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C59" s="1">
-        <v>3345</v>
+        <v>68602</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s">
         <v>95</v>
@@ -10277,10 +10275,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -10337,13 +10335,13 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="AK59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -10405,19 +10403,19 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C60" s="1">
-        <v>6213</v>
+        <v>88890</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s">
         <v>95</v>
@@ -10504,12 +10502,14 @@
       <c r="AI60" s="1">
         <v>0</v>
       </c>
-      <c r="AJ60" s="1"/>
+      <c r="AJ60" s="1">
+        <v>44</v>
+      </c>
       <c r="AK60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="BA60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB60" s="1">
         <v>0</v>
@@ -10574,7 +10574,7 @@
         <v>40</v>
       </c>
       <c r="C61" s="1">
-        <v>68602</v>
+        <v>3676</v>
       </c>
       <c r="D61" t="s">
         <v>66</v>
@@ -10583,7 +10583,7 @@
         <v>90</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s">
         <v>95</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AK61" s="1">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="AX61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY61" s="1">
         <v>0</v>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="422" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="506" uniqueCount="155">
   <si>
     <t>sampleid</t>
   </si>
@@ -51,6 +51,12 @@
     <t>602520</t>
   </si>
   <si>
+    <t>602521</t>
+  </si>
+  <si>
+    <t>602522</t>
+  </si>
+  <si>
     <t>602524</t>
   </si>
   <si>
@@ -66,78 +72,87 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>caffeine</t>
   </si>
   <si>
+    <t>quinine</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>quinine</t>
-  </si>
-  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
+    <t>papaverine</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-hydroxypiperidine</t>
+  </si>
+  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
-    <t>papaverine</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-hydroxypiperidine</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
     <t>acetyl fentanyl</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
-  </si>
-  <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
+    <t>procaine</t>
+  </si>
+  <si>
+    <t>despropionyl p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
     <t>acetaminophen</t>
   </si>
   <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
-  </si>
-  <si>
     <t>alprazolam</t>
   </si>
   <si>
@@ -150,72 +165,81 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>50-36-2</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>58-08-2</t>
   </si>
   <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
     <t>6703-27-1</t>
   </si>
   <si>
+    <t>58-74-2</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
+    <t>2784-73-8</t>
+  </si>
+  <si>
     <t>1462260-87-2</t>
   </si>
   <si>
-    <t>58-74-2</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
     <t>3258-84-2</t>
   </si>
   <si>
+    <t>519-09-5</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>519-09-5</t>
-  </si>
-  <si>
     <t>105-70-4</t>
   </si>
   <si>
     <t>67-71-0</t>
   </si>
   <si>
+    <t>59-46-1</t>
+  </si>
+  <si>
+    <t>122861-41-0</t>
+  </si>
+  <si>
+    <t>71368-80-4</t>
+  </si>
+  <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
     <t>103-90-2</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
-  </si>
-  <si>
     <t>28981-97-7</t>
   </si>
   <si>
@@ -225,67 +249,76 @@
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>A7V27PHC7A</t>
-  </si>
-  <si>
     <t>U59401ETXH</t>
   </si>
   <si>
+    <t>DAA13NKG2Q</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
     <t>3D9E9KK5K5</t>
   </si>
   <si>
-    <t>DAA13NKG2Q</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
-  </si>
-  <si>
     <t>6DZ28538KS</t>
   </si>
   <si>
+    <t>5353I8I6YS</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
-  </si>
-  <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
+    <t>4Z8Y51M438</t>
+  </si>
+  <si>
+    <t>R8ZH1EQ95Y</t>
+  </si>
+  <si>
+    <t>YMC9OT97Z1</t>
+  </si>
+  <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
     <t>362O9ITL9D</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -492,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD62"/>
+  <dimension ref="A1:BD76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -503,169 +536,169 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="M1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="N1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="O1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="Q1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="R1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="S1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="T1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="U1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="V1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="W1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="X1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="Y1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Z1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AA1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AB1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AC1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AD1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AE1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AF1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AG1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AH1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AI1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AJ1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AK1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AL1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AM1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AN1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AO1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AP1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AQ1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AR1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AS1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AT1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AU1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AV1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="AW1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AX1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="AY1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AZ1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="BA1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="BB1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="BC1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="BD1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
@@ -673,22 +706,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>10836</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H2" s="2">
         <v>45107</v>
@@ -841,22 +874,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2">
         <v>45107</v>
@@ -865,10 +898,10 @@
         <v>1312</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -902,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -941,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1009,22 +1042,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H4" s="2">
         <v>45107</v>
@@ -1033,10 +1066,10 @@
         <v>1312</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1049,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1109,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1151,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>0</v>
@@ -1177,22 +1210,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H5" s="2">
         <v>45107</v>
@@ -1201,10 +1234,10 @@
         <v>1312</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1226,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -1238,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1277,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1345,22 +1378,22 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H6" s="2">
         <v>45107</v>
@@ -1369,10 +1402,10 @@
         <v>1312</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1385,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1445,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>1</v>
@@ -1496,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1513,22 +1546,22 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
-        <v>62300</v>
+        <v>2519</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H7" s="2">
         <v>45107</v>
@@ -1613,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1655,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -1681,22 +1714,22 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
-        <v>165365057</v>
+        <v>3034034</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H8" s="2">
         <v>45107</v>
@@ -1705,10 +1738,10 @@
         <v>1312</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1781,13 +1814,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -1823,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AX8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="1">
         <v>0</v>
@@ -1832,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="1">
         <v>0</v>
@@ -1849,22 +1882,22 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H9" s="2">
         <v>45107</v>
@@ -1949,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
@@ -2017,22 +2050,22 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H10" s="2">
         <v>45107</v>
@@ -2041,10 +2074,10 @@
         <v>1312</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -2066,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="1">
         <v>0</v>
@@ -2117,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="1">
         <v>1</v>
@@ -2168,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="1">
         <v>0</v>
@@ -2185,22 +2218,22 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
-        <v>3034034</v>
+        <v>88890</v>
       </c>
       <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H11" s="2">
         <v>45107</v>
@@ -2285,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -2327,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>0</v>
@@ -2336,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="1">
         <v>0</v>
@@ -2353,22 +2386,22 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H12" s="2">
         <v>45107</v>
@@ -2377,10 +2410,10 @@
         <v>1455</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2393,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2453,13 +2486,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="1">
         <v>0</v>
@@ -2495,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="AX12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="1">
         <v>0</v>
@@ -2521,22 +2554,22 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
-        <v>2519</v>
+        <v>165365057</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H13" s="2">
         <v>45107</v>
@@ -2545,10 +2578,10 @@
         <v>1455</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2621,13 +2654,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>140</v>
+        <v>281</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -2663,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>0</v>
@@ -2672,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2689,22 +2722,22 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H14" s="2">
         <v>45107</v>
@@ -2738,10 +2771,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2789,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="AK14" s="1">
         <v>0</v>
@@ -2857,22 +2890,22 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H15" s="2">
         <v>45107</v>
@@ -2906,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -2957,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="AK15" s="1">
         <v>0</v>
@@ -3025,22 +3058,22 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H16" s="2">
         <v>45107</v>
@@ -3125,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="AK16" s="1">
         <v>1</v>
@@ -3193,22 +3226,22 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
-        <v>3034034</v>
+        <v>5462328</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H17" s="2">
         <v>45107</v>
@@ -3217,10 +3250,10 @@
         <v>1455</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3293,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>294</v>
+        <v>201</v>
       </c>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17" s="1">
         <v>0</v>
@@ -3335,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AX17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>0</v>
@@ -3364,19 +3397,19 @@
         <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H18" s="2">
         <v>45107</v>
@@ -3461,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -3503,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="AX18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="1">
         <v>0</v>
@@ -3512,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="1">
         <v>0</v>
@@ -3529,22 +3562,22 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D19" t="s">
         <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H19" s="2">
         <v>45107</v>
@@ -3553,10 +3586,10 @@
         <v>1455</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3569,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -3629,10 +3662,10 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>1</v>
@@ -3697,22 +3730,22 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <v>3034034</v>
       </c>
       <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H20" s="2">
         <v>45107</v>
@@ -3871,16 +3904,16 @@
         <v>3345</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H21" s="2">
         <v>45107</v>
@@ -4033,22 +4066,22 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
         <v>88890</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H22" s="2">
         <v>45107</v>
@@ -4201,22 +4234,22 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
         <v>10836</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H23" s="2">
         <v>45100</v>
@@ -4369,22 +4402,22 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
         <v>5486550</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H24" s="2">
         <v>45526</v>
@@ -4537,22 +4570,22 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1">
-        <v>5707</v>
+        <v>10836</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H25" s="2">
         <v>45526</v>
@@ -4561,10 +4594,10 @@
         <v>2211</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4583,10 +4616,10 @@
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="1">
         <v>0</v>
@@ -4595,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="1">
         <v>0</v>
@@ -4637,13 +4670,13 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>324</v>
+        <v>231</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -4705,22 +4738,22 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1">
-        <v>91725431</v>
+        <v>165365057</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H26" s="2">
         <v>45526</v>
@@ -4805,13 +4838,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="AK26" s="1">
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4856,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4873,22 +4906,22 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1">
-        <v>4680</v>
+        <v>5462328</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H27" s="2">
         <v>45526</v>
@@ -4897,10 +4930,10 @@
         <v>2211</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4973,10 +5006,10 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>1</v>
@@ -5018,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="AY27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="1">
         <v>0</v>
@@ -5041,20 +5074,22 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3345</v>
+      </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H28" s="2">
         <v>45526</v>
@@ -5079,10 +5114,10 @@
         <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -5139,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="AK28" s="1">
         <v>1</v>
@@ -5207,22 +5242,22 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H29" s="2">
         <v>45526</v>
@@ -5253,10 +5288,10 @@
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="1">
         <v>0</v>
@@ -5307,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="AK29" s="1">
         <v>1</v>
@@ -5375,22 +5410,22 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>3345</v>
+        <v>4680</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G30" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H30" s="2">
         <v>45526</v>
@@ -5399,10 +5434,10 @@
         <v>2211</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5415,10 +5450,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -5475,10 +5510,10 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>191</v>
+        <v>276</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
         <v>1</v>
@@ -5520,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="AY30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ30" s="1">
         <v>0</v>
@@ -5543,22 +5578,22 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H31" s="2">
         <v>45526</v>
@@ -5567,10 +5602,10 @@
         <v>2211</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5643,13 +5678,13 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -5711,22 +5746,22 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
-        <v>12107</v>
+        <v>5462507</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H32" s="2">
         <v>45526</v>
@@ -5735,10 +5770,10 @@
         <v>2211</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5810,9 +5845,7 @@
       <c r="AI32" s="1">
         <v>0</v>
       </c>
-      <c r="AJ32" s="1">
-        <v>104</v>
-      </c>
+      <c r="AJ32" s="1"/>
       <c r="AK32" s="1">
         <v>0</v>
       </c>
@@ -5862,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5879,22 +5912,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1">
-        <v>10836</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H33" s="2">
         <v>45526</v>
@@ -5903,10 +5934,10 @@
         <v>2211</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5937,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="1">
         <v>0</v>
@@ -5979,13 +6010,13 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -6047,22 +6078,22 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D34" t="s">
         <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H34" s="2">
         <v>45526</v>
@@ -6146,12 +6177,14 @@
       <c r="AI34" s="1">
         <v>0</v>
       </c>
-      <c r="AJ34" s="1"/>
+      <c r="AJ34" s="1">
+        <v>44</v>
+      </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34" s="1">
         <v>0</v>
@@ -6196,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="BA34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB34" s="1">
         <v>0</v>
@@ -6213,22 +6246,22 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>165365057</v>
+        <v>91725431</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H35" s="2">
         <v>45526</v>
@@ -6313,13 +6346,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>281</v>
+        <v>10</v>
       </c>
       <c r="AK35" s="1">
         <v>0</v>
       </c>
       <c r="AL35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -6364,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="1">
         <v>0</v>
@@ -6381,28 +6414,28 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1">
-        <v>527015</v>
+        <v>10836</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H36" s="2">
         <v>45526</v>
       </c>
       <c r="I36" s="1">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -6439,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="1">
         <v>0</v>
@@ -6481,13 +6514,13 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="AK36" s="1">
         <v>0</v>
       </c>
       <c r="AL36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -6532,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="1">
         <v>0</v>
@@ -6549,34 +6582,34 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
-        <v>88890</v>
+        <v>527015</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H37" s="2">
         <v>45526</v>
       </c>
       <c r="I37" s="1">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6649,10 +6682,10 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>1</v>
@@ -6717,28 +6750,28 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1">
         <v>446220</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H38" s="2">
         <v>45526</v>
       </c>
       <c r="I38" s="1">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -6891,22 +6924,22 @@
         <v>3345</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H39" s="2">
         <v>45526</v>
       </c>
       <c r="I39" s="1">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -7053,28 +7086,28 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1">
-        <v>10836</v>
+        <v>165365057</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H40" s="2">
         <v>45526</v>
       </c>
       <c r="I40" s="1">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -7111,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="1">
         <v>0</v>
@@ -7153,13 +7186,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="AK40" s="1">
         <v>0</v>
       </c>
       <c r="AL40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -7204,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB40" s="1">
         <v>0</v>
@@ -7221,34 +7254,34 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H41" s="2">
         <v>45526</v>
       </c>
       <c r="I41" s="1">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -7321,10 +7354,10 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="AK41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="1">
         <v>1</v>
@@ -7389,28 +7422,28 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1">
         <v>10836</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H42" s="2">
         <v>45525</v>
       </c>
       <c r="I42" s="1">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -7557,28 +7590,28 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C43" s="1">
         <v>446220</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H43" s="2">
         <v>45525</v>
       </c>
       <c r="I43" s="1">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7725,28 +7758,28 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
-        <v>119478</v>
+        <v>448223</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F44" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H44" s="2">
         <v>45525</v>
       </c>
       <c r="I44" s="1">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -7891,28 +7924,28 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1">
-        <v>448223</v>
+        <v>119478</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G45" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H45" s="2">
         <v>45525</v>
       </c>
       <c r="I45" s="1">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
@@ -8057,28 +8090,28 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C46" s="1">
         <v>88890</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H46" s="2">
         <v>45446</v>
       </c>
       <c r="I46" s="1">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -8225,28 +8258,28 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C47" s="1">
         <v>2519</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G47" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H47" s="2">
         <v>45446</v>
       </c>
       <c r="I47" s="1">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -8393,28 +8426,28 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1">
         <v>5707</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H48" s="2">
         <v>45446</v>
       </c>
       <c r="I48" s="1">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8567,22 +8600,22 @@
         <v>3345</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G49" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H49" s="2">
         <v>45446</v>
       </c>
       <c r="I49" s="1">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -8729,28 +8762,28 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1">
         <v>66924</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H50" s="2">
         <v>45649</v>
       </c>
       <c r="I50" s="1">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8897,34 +8930,34 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H51" s="2">
         <v>45649</v>
       </c>
       <c r="I51" s="1">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -8952,10 +8985,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -8996,7 +9029,9 @@
       <c r="AI51" s="1">
         <v>0</v>
       </c>
-      <c r="AJ51" s="1"/>
+      <c r="AJ51" s="1">
+        <v>231</v>
+      </c>
       <c r="AK51" s="1">
         <v>0</v>
       </c>
@@ -9063,34 +9098,34 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C52" s="1">
-        <v>10836</v>
+        <v>6213</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G52" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H52" s="2">
         <v>45649</v>
       </c>
       <c r="I52" s="1">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -9118,10 +9153,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -9162,9 +9197,7 @@
       <c r="AI52" s="1">
         <v>0</v>
       </c>
-      <c r="AJ52" s="1">
-        <v>231</v>
-      </c>
+      <c r="AJ52" s="1"/>
       <c r="AK52" s="1">
         <v>0</v>
       </c>
@@ -9231,41 +9264,41 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1">
-        <v>10836</v>
+        <v>4914</v>
       </c>
       <c r="D53" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H53" s="2">
-        <v>45649</v>
+        <v>45664</v>
       </c>
       <c r="I53" s="1">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N53" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O53" s="1">
         <v>0</v>
@@ -9286,10 +9319,10 @@
         <v>0</v>
       </c>
       <c r="U53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53" s="1">
         <v>0</v>
@@ -9331,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="AK53" s="1">
         <v>0</v>
@@ -9373,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="AX53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY53" s="1">
         <v>0</v>
@@ -9396,26 +9429,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C54" s="1">
+        <v>21812144</v>
+      </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H54" s="2">
-        <v>45602</v>
+        <v>45664</v>
       </c>
       <c r="I54" s="1">
         <v>2719</v>
@@ -9428,10 +9463,10 @@
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N54" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O54" s="1">
         <v>0</v>
@@ -9491,19 +9526,19 @@
         <v>0</v>
       </c>
       <c r="AH54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="AK54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM54" s="1">
         <v>0</v>
@@ -9551,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="BB54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC54" s="1">
         <v>0</v>
@@ -9562,28 +9597,28 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1">
-        <v>1983</v>
+        <v>10836</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G55" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H55" s="2">
-        <v>45602</v>
+        <v>45664</v>
       </c>
       <c r="I55" s="1">
         <v>2719</v>
@@ -9596,10 +9631,10 @@
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N55" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O55" s="1">
         <v>0</v>
@@ -9623,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W55" s="1">
         <v>0</v>
@@ -9665,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -9730,44 +9765,44 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C56" s="1">
-        <v>5707</v>
+        <v>4914</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F56" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G56" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H56" s="2">
-        <v>45602</v>
+        <v>45664</v>
       </c>
       <c r="I56" s="1">
         <v>2719</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N56" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O56" s="1">
         <v>0</v>
@@ -9782,10 +9817,10 @@
         <v>0</v>
       </c>
       <c r="S56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="1">
         <v>0</v>
@@ -9833,13 +9868,13 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="AK56" s="1">
         <v>0</v>
       </c>
       <c r="AL56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="1">
         <v>0</v>
@@ -9875,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="AX56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY56" s="1">
         <v>0</v>
@@ -9898,44 +9933,44 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C57" s="1">
-        <v>6213</v>
+        <v>12562546</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G57" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H57" s="2">
-        <v>45602</v>
+        <v>45664</v>
       </c>
       <c r="I57" s="1">
         <v>2719</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N57" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O57" s="1">
         <v>0</v>
@@ -10000,7 +10035,9 @@
       <c r="AI57" s="1">
         <v>0</v>
       </c>
-      <c r="AJ57" s="1"/>
+      <c r="AJ57" s="1">
+        <v>136</v>
+      </c>
       <c r="AK57" s="1">
         <v>0</v>
       </c>
@@ -10017,13 +10054,13 @@
         <v>0</v>
       </c>
       <c r="AP57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ57" s="1">
         <v>0</v>
       </c>
       <c r="AR57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS57" s="1">
         <v>0</v>
@@ -10064,7 +10101,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -10073,19 +10110,19 @@
         <v>3345</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G58" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H58" s="2">
-        <v>45602</v>
+        <v>45664</v>
       </c>
       <c r="I58" s="1">
         <v>2719</v>
@@ -10098,10 +10135,10 @@
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N58" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O58" s="1">
         <v>0</v>
@@ -10232,28 +10269,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C59" s="1">
-        <v>68602</v>
+        <v>88890</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G59" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H59" s="2">
-        <v>45602</v>
+        <v>45664</v>
       </c>
       <c r="I59" s="1">
         <v>2719</v>
@@ -10266,10 +10303,10 @@
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N59" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O59" s="1">
         <v>0</v>
@@ -10335,13 +10372,13 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -10386,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="BA59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB59" s="1">
         <v>0</v>
@@ -10400,44 +10437,44 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C60" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G60" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H60" s="2">
-        <v>45602</v>
+        <v>45664</v>
       </c>
       <c r="I60" s="1">
         <v>2719</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N60" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O60" s="1">
         <v>0</v>
@@ -10503,10 +10540,10 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
         <v>1</v>
@@ -10554,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="BA60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="1">
         <v>0</v>
@@ -10568,44 +10605,44 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C61" s="1">
-        <v>3676</v>
+        <v>68602</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G61" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H61" s="2">
-        <v>45602</v>
+        <v>45664</v>
       </c>
       <c r="I61" s="1">
         <v>2719</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N61" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O61" s="1">
         <v>0</v>
@@ -10671,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AK61" s="1">
         <v>0</v>
@@ -10713,7 +10750,7 @@
         <v>0</v>
       </c>
       <c r="AX61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY61" s="1">
         <v>0</v>
@@ -10736,44 +10773,44 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1">
-        <v>2118</v>
+        <v>5462328</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G62" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H62" s="2">
-        <v>45611</v>
+        <v>45664</v>
       </c>
       <c r="I62" s="1">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N62" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O62" s="1">
         <v>0</v>
@@ -10839,66 +10876,2410 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
+        <v>201</v>
+      </c>
+      <c r="AK62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ62" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA62" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB62" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC62" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD62" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5707</v>
+      </c>
+      <c r="D63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" t="s">
+        <v>106</v>
+      </c>
+      <c r="H63" s="2">
+        <v>45664</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2719</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1">
+        <v>13</v>
+      </c>
+      <c r="N63" s="1">
+        <v>7</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>1</v>
+      </c>
+      <c r="S63" s="1">
+        <v>1</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0</v>
+      </c>
+      <c r="V63" s="1">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="1">
+        <v>324</v>
+      </c>
+      <c r="AK63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ63" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB63" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC63" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6213</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" t="s">
+        <v>106</v>
+      </c>
+      <c r="H64" s="2">
+        <v>45664</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2719</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1">
+        <v>13</v>
+      </c>
+      <c r="N64" s="1">
+        <v>7</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1">
+        <v>0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ64" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA64" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB64" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC64" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD64" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" t="s">
+        <v>104</v>
+      </c>
+      <c r="G65" t="s">
+        <v>106</v>
+      </c>
+      <c r="H65" s="2">
+        <v>45664</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2719</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1">
+        <v>13</v>
+      </c>
+      <c r="N65" s="1">
+        <v>7</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0</v>
+      </c>
+      <c r="U65" s="1">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="1">
+        <v>135</v>
+      </c>
+      <c r="AK65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ65" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA65" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB65" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC65" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10836</v>
+      </c>
+      <c r="D66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" t="s">
+        <v>77</v>
+      </c>
+      <c r="F66" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66" t="s">
+        <v>106</v>
+      </c>
+      <c r="H66" s="2">
+        <v>45664</v>
+      </c>
+      <c r="I66" s="1">
+        <v>2720</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1">
+        <v>1</v>
+      </c>
+      <c r="N66" s="1">
+        <v>1</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+      <c r="U66" s="1">
+        <v>1</v>
+      </c>
+      <c r="V66" s="1">
+        <v>1</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="1">
+        <v>231</v>
+      </c>
+      <c r="AK66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ66" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA66" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB66" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC66" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD66" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="1">
+        <v>10836</v>
+      </c>
+      <c r="D67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67" t="s">
+        <v>106</v>
+      </c>
+      <c r="H67" s="2">
+        <v>45649</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2721</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1">
+        <v>0</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1">
+        <v>1</v>
+      </c>
+      <c r="V67" s="1">
+        <v>1</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="1">
+        <v>231</v>
+      </c>
+      <c r="AK67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD67" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" t="s">
+        <v>53</v>
+      </c>
+      <c r="F68" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68" t="s">
+        <v>106</v>
+      </c>
+      <c r="H68" s="2">
+        <v>45602</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2722</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1">
+        <v>8</v>
+      </c>
+      <c r="N68" s="1">
+        <v>6</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
+      <c r="U68" s="1">
+        <v>0</v>
+      </c>
+      <c r="V68" s="1">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ68" s="1">
+        <v>135</v>
+      </c>
+      <c r="AK68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ68" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA68" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB68" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC68" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="1">
+        <v>6213</v>
+      </c>
+      <c r="D69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" t="s">
+        <v>106</v>
+      </c>
+      <c r="H69" s="2">
+        <v>45602</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2722</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1">
+        <v>8</v>
+      </c>
+      <c r="N69" s="1">
+        <v>6</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1">
+        <v>0</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0</v>
+      </c>
+      <c r="U69" s="1">
+        <v>0</v>
+      </c>
+      <c r="V69" s="1">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ69" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA69" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB69" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC69" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD69" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="1">
+        <v>68602</v>
+      </c>
+      <c r="D70" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" t="s">
+        <v>106</v>
+      </c>
+      <c r="H70" s="2">
+        <v>45602</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2722</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1">
+        <v>8</v>
+      </c>
+      <c r="N70" s="1">
+        <v>6</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1">
+        <v>0</v>
+      </c>
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1">
+        <v>0</v>
+      </c>
+      <c r="U70" s="1">
+        <v>0</v>
+      </c>
+      <c r="V70" s="1">
+        <v>0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="1">
+        <v>224</v>
+      </c>
+      <c r="AK70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ70" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA70" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB70" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC70" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD70" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3676</v>
+      </c>
+      <c r="D71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" t="s">
+        <v>53</v>
+      </c>
+      <c r="G71" t="s">
+        <v>106</v>
+      </c>
+      <c r="H71" s="2">
+        <v>45602</v>
+      </c>
+      <c r="I71" s="1">
+        <v>2722</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1">
+        <v>8</v>
+      </c>
+      <c r="N71" s="1">
+        <v>6</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
+      </c>
+      <c r="U71" s="1">
+        <v>0</v>
+      </c>
+      <c r="V71" s="1">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="1">
+        <v>216</v>
+      </c>
+      <c r="AK71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD71" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1983</v>
+      </c>
+      <c r="D72" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" t="s">
+        <v>101</v>
+      </c>
+      <c r="F72" t="s">
+        <v>104</v>
+      </c>
+      <c r="G72" t="s">
+        <v>106</v>
+      </c>
+      <c r="H72" s="2">
+        <v>45602</v>
+      </c>
+      <c r="I72" s="1">
+        <v>2722</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1">
+        <v>8</v>
+      </c>
+      <c r="N72" s="1">
+        <v>6</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1">
+        <v>0</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1">
+        <v>0</v>
+      </c>
+      <c r="V72" s="1">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1">
+        <v>0</v>
+      </c>
+      <c r="X72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="1">
+        <v>114</v>
+      </c>
+      <c r="AK72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ72" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA72" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB72" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC72" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD72" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3345</v>
+      </c>
+      <c r="D73" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" t="s">
+        <v>53</v>
+      </c>
+      <c r="G73" t="s">
+        <v>106</v>
+      </c>
+      <c r="H73" s="2">
+        <v>45602</v>
+      </c>
+      <c r="I73" s="1">
+        <v>2722</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1">
+        <v>8</v>
+      </c>
+      <c r="N73" s="1">
+        <v>6</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>1</v>
+      </c>
+      <c r="R73" s="1">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1">
+        <v>0</v>
+      </c>
+      <c r="V73" s="1">
+        <v>0</v>
+      </c>
+      <c r="W73" s="1">
+        <v>0</v>
+      </c>
+      <c r="X73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="1">
+        <v>191</v>
+      </c>
+      <c r="AK73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ73" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA73" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB73" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC73" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD73" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5707</v>
+      </c>
+      <c r="D74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" t="s">
+        <v>104</v>
+      </c>
+      <c r="G74" t="s">
+        <v>106</v>
+      </c>
+      <c r="H74" s="2">
+        <v>45602</v>
+      </c>
+      <c r="I74" s="1">
+        <v>2722</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1">
+        <v>8</v>
+      </c>
+      <c r="N74" s="1">
+        <v>6</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1">
+        <v>1</v>
+      </c>
+      <c r="T74" s="1">
+        <v>1</v>
+      </c>
+      <c r="U74" s="1">
+        <v>0</v>
+      </c>
+      <c r="V74" s="1">
+        <v>0</v>
+      </c>
+      <c r="W74" s="1">
+        <v>0</v>
+      </c>
+      <c r="X74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="1">
+        <v>324</v>
+      </c>
+      <c r="AK74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ74" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA74" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB74" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC74" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD74" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="1">
+        <v>88890</v>
+      </c>
+      <c r="D75" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" t="s">
+        <v>85</v>
+      </c>
+      <c r="F75" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" t="s">
+        <v>106</v>
+      </c>
+      <c r="H75" s="2">
+        <v>45602</v>
+      </c>
+      <c r="I75" s="1">
+        <v>2722</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1">
+        <v>8</v>
+      </c>
+      <c r="N75" s="1">
+        <v>6</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>0</v>
+      </c>
+      <c r="R75" s="1">
+        <v>0</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1">
+        <v>0</v>
+      </c>
+      <c r="U75" s="1">
+        <v>0</v>
+      </c>
+      <c r="V75" s="1">
+        <v>0</v>
+      </c>
+      <c r="W75" s="1">
+        <v>0</v>
+      </c>
+      <c r="X75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="1">
+        <v>44</v>
+      </c>
+      <c r="AK75" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL75" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ75" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA75" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB75" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC75" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD75" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2118</v>
+      </c>
+      <c r="D76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" t="s">
+        <v>104</v>
+      </c>
+      <c r="G76" t="s">
+        <v>106</v>
+      </c>
+      <c r="H76" s="2">
+        <v>45611</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2723</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1</v>
+      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1">
+        <v>1</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0</v>
+      </c>
+      <c r="P76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>0</v>
+      </c>
+      <c r="R76" s="1">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1">
+        <v>0</v>
+      </c>
+      <c r="U76" s="1">
+        <v>0</v>
+      </c>
+      <c r="V76" s="1">
+        <v>0</v>
+      </c>
+      <c r="W76" s="1">
+        <v>0</v>
+      </c>
+      <c r="X76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="1">
         <v>122</v>
       </c>
-      <c r="AK62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR62" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ62" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA62" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB62" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC62" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD62" s="1">
+      <c r="AK76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR76" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD76" s="1">
         <v>3</v>
       </c>
     </row>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -87,22 +87,22 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
     <t>caffeine</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
+    <t>quinine</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>quinine</t>
+    <t>phenethyl 4-ANPP</t>
   </si>
   <si>
     <t>fentanyl</t>
@@ -111,34 +111,34 @@
     <t>xylazine</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
+    <t>papaverine</t>
   </si>
   <si>
     <t>1-phenethyl-4-hydroxypiperidine</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
-    <t>papaverine</t>
   </si>
   <si>
     <t>acetyl fentanyl</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
+    <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>1,3-Diacetin</t>
@@ -147,25 +147,25 @@
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+    <t>procaine</t>
   </si>
   <si>
-    <t>procaine</t>
+    <t>despropionyl p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
     <t>medetomidine</t>
   </si>
   <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>despropionyl p-fluorofentanyl</t>
+    <t>acetaminophen</t>
   </si>
   <si>
     <t>tramadol</t>
-  </si>
-  <si>
-    <t>acetaminophen</t>
   </si>
   <si>
     <t>lidocaine</t>
@@ -186,22 +186,22 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
     <t>58-08-2</t>
   </si>
   <si>
-    <t/>
+    <t>72402-53-0</t>
   </si>
   <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>72402-53-0</t>
+    <t/>
   </si>
   <si>
     <t>437-38-7</t>
@@ -210,10 +210,7 @@
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>6703-27-1</t>
+    <t>50-36-2</t>
   </si>
   <si>
     <t>2784-73-8</t>
@@ -222,19 +219,22 @@
     <t>620-71-3</t>
   </si>
   <si>
-    <t>1462260-87-2</t>
+    <t>6703-27-1</t>
   </si>
   <si>
     <t>58-74-2</t>
   </si>
   <si>
+    <t>1462260-87-2</t>
+  </si>
+  <si>
     <t>3258-84-2</t>
   </si>
   <si>
-    <t>43021-26-7</t>
+    <t>519-09-5</t>
   </si>
   <si>
-    <t>519-09-5</t>
+    <t>43021-26-7</t>
   </si>
   <si>
     <t>105-70-4</t>
@@ -246,19 +246,19 @@
     <t>59-46-1</t>
   </si>
   <si>
-    <t>86347-14-0</t>
+    <t>122861-41-0</t>
   </si>
   <si>
     <t>71368-80-4</t>
   </si>
   <si>
-    <t>122861-41-0</t>
+    <t>86347-14-0</t>
+  </si>
+  <si>
+    <t>103-90-2</t>
   </si>
   <si>
     <t>123154-38-1</t>
-  </si>
-  <si>
-    <t>103-90-2</t>
   </si>
   <si>
     <t>137-58-6</t>
@@ -276,19 +276,19 @@
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
+    <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
+    <t>3G6A5W338E</t>
   </si>
   <si>
     <t>A7V27PHC7A</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
   </si>
   <si>
     <t>UF599785JZ</t>
@@ -297,10 +297,7 @@
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
+    <t>I5Y540LHVR</t>
   </si>
   <si>
     <t>M5E47P1ZCH</t>
@@ -309,19 +306,22 @@
     <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>3D9E9KK5K5</t>
+    <t>U59401ETXH</t>
   </si>
   <si>
     <t>DAA13NKG2Q</t>
   </si>
   <si>
+    <t>3D9E9KK5K5</t>
+  </si>
+  <si>
     <t>6DZ28538KS</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
+    <t>5353I8I6YS</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
+    <t>58C337KP3E</t>
   </si>
   <si>
     <t>G45CU3Z186</t>
@@ -333,19 +333,19 @@
     <t>4Z8Y51M438</t>
   </si>
   <si>
-    <t>MR15E85MQM</t>
+    <t>R8ZH1EQ95Y</t>
   </si>
   <si>
     <t>YMC9OT97Z1</t>
   </si>
   <si>
-    <t>R8ZH1EQ95Y</t>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
+    <t>362O9ITL9D</t>
   </si>
   <si>
     <t>39J1LGJ30J</t>
-  </si>
-  <si>
-    <t>362O9ITL9D</t>
   </si>
   <si>
     <t>98PI200987</t>
@@ -751,7 +751,7 @@
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>117</v>
@@ -910,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>2519</v>
+        <v>62300</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>0</v>
@@ -1078,16 +1078,16 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
@@ -1099,10 +1099,10 @@
         <v>1312</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <v>1</v>
@@ -1246,13 +1246,13 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>5462328</v>
+        <v>2519</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
         <v>115</v>
@@ -1343,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
         <v>117</v>
@@ -1603,10 +1603,10 @@
         <v>1312</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1679,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1750,16 +1750,16 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3034034</v>
+        <v>165365057</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
         <v>117</v>
@@ -1771,10 +1771,10 @@
         <v>1312</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1847,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="AX8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="1">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
         <v>117</v>
@@ -2254,7 +2254,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
@@ -2263,7 +2263,7 @@
         <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
         <v>117</v>
@@ -2275,10 +2275,10 @@
         <v>1312</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -2312,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
@@ -2351,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="AK11" s="1">
         <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>26</v>
       </c>
       <c r="C12" s="1">
-        <v>5462328</v>
+        <v>2519</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
         <v>115</v>
@@ -2519,13 +2519,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="AK12" s="1">
         <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="1">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="AX12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="1">
         <v>0</v>
@@ -2590,16 +2590,16 @@
         <v>27</v>
       </c>
       <c r="C13" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D13" t="s">
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
         <v>117</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="1">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2755,16 +2755,16 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
         <v>115</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="AK14" s="1">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="1">
-        <v>2519</v>
+        <v>62300</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -3023,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="AK15" s="1">
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>0</v>
@@ -3091,19 +3091,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
         <v>117</v>
@@ -3115,10 +3115,10 @@
         <v>1455</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3140,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>1</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="1">
         <v>0</v>
@@ -3262,16 +3262,16 @@
         <v>29</v>
       </c>
       <c r="C17" s="1">
-        <v>3034034</v>
+        <v>165365057</v>
       </c>
       <c r="D17" t="s">
         <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
         <v>117</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17" s="1">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="AX17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="1">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
         <v>117</v>
@@ -3451,10 +3451,10 @@
         <v>1455</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="1">
         <v>0</v>
@@ -3527,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
         <v>1</v>
@@ -3595,19 +3595,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
         <v>117</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="AK19" s="1">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="1">
         <v>0</v>
@@ -3763,19 +3763,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G20" t="s">
         <v>117</v>
@@ -3787,10 +3787,10 @@
         <v>1470</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3863,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>1</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="1">
         <v>0</v>
@@ -3931,19 +3931,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
         <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
       </c>
       <c r="G21" t="s">
         <v>117</v>
@@ -3971,10 +3971,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="AK21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21" s="1">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>0</v>
@@ -4102,16 +4102,16 @@
         <v>27</v>
       </c>
       <c r="C22" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D22" t="s">
         <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
         <v>117</v>
@@ -4123,10 +4123,10 @@
         <v>1470</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -4199,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK22" s="1">
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="1">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="1">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
         <v>117</v>
@@ -4438,7 +4438,7 @@
         <v>33</v>
       </c>
       <c r="C24" s="1">
-        <v>5486550</v>
+        <v>5462507</v>
       </c>
       <c r="D24" t="s">
         <v>66</v>
@@ -4447,7 +4447,7 @@
         <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
         <v>117</v>
@@ -4456,7 +4456,7 @@
         <v>45526</v>
       </c>
       <c r="I24" s="1">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4534,14 +4534,12 @@
       <c r="AI24" s="1">
         <v>0</v>
       </c>
-      <c r="AJ24" s="1">
-        <v>119</v>
-      </c>
+      <c r="AJ24" s="1"/>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4580,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="1">
         <v>0</v>
@@ -4603,19 +4601,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
         <v>117</v>
@@ -4624,13 +4622,13 @@
         <v>45526</v>
       </c>
       <c r="I25" s="1">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4643,10 +4641,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -4661,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1">
         <v>0</v>
@@ -4703,13 +4701,13 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -4774,7 +4772,7 @@
         <v>34</v>
       </c>
       <c r="C26" s="1">
-        <v>5462507</v>
+        <v>12107</v>
       </c>
       <c r="D26" t="s">
         <v>67</v>
@@ -4783,7 +4781,7 @@
         <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -4792,13 +4790,13 @@
         <v>45526</v>
       </c>
       <c r="I26" s="1">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4870,7 +4868,9 @@
       <c r="AI26" s="1">
         <v>0</v>
       </c>
-      <c r="AJ26" s="1"/>
+      <c r="AJ26" s="1">
+        <v>104</v>
+      </c>
       <c r="AK26" s="1">
         <v>0</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4937,19 +4937,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1">
-        <v>165365057</v>
+        <v>5486550</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G27" t="s">
         <v>117</v>
@@ -4958,13 +4958,13 @@
         <v>45526</v>
       </c>
       <c r="I27" s="1">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -5037,10 +5037,10 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>1</v>
@@ -5082,13 +5082,13 @@
         <v>0</v>
       </c>
       <c r="AY27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27" s="1">
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="1">
         <v>0</v>
@@ -5105,19 +5105,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <v>88890</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G28" t="s">
         <v>117</v>
@@ -5126,7 +5126,7 @@
         <v>45526</v>
       </c>
       <c r="I28" s="1">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -5273,17 +5273,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4680</v>
+      </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
         <v>117</v>
@@ -5292,13 +5294,13 @@
         <v>45526</v>
       </c>
       <c r="I29" s="1">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5371,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>9</v>
+        <v>276</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
         <v>1</v>
@@ -5416,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="AY29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ29" s="1">
         <v>0</v>
@@ -5439,19 +5441,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
-        <v>12107</v>
+        <v>5462328</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
         <v>117</v>
@@ -5460,13 +5462,13 @@
         <v>45526</v>
       </c>
       <c r="I30" s="1">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5539,13 +5541,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -5590,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="BA30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="1">
         <v>0</v>
@@ -5607,19 +5609,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1">
-        <v>5462328</v>
+        <v>10836</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G31" t="s">
         <v>117</v>
@@ -5628,13 +5630,13 @@
         <v>45526</v>
       </c>
       <c r="I31" s="1">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5665,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="1">
         <v>0</v>
@@ -5707,13 +5709,13 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -5775,19 +5777,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G32" t="s">
         <v>117</v>
@@ -5796,13 +5798,13 @@
         <v>45526</v>
       </c>
       <c r="I32" s="1">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5821,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="1">
         <v>0</v>
@@ -5875,10 +5877,10 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
         <v>1</v>
@@ -5926,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5945,17 +5947,15 @@
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="1">
-        <v>91725431</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G33" t="s">
         <v>117</v>
@@ -5964,13 +5964,13 @@
         <v>45526</v>
       </c>
       <c r="I33" s="1">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -6043,13 +6043,13 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="1">
-        <v>4680</v>
+        <v>91725431</v>
       </c>
       <c r="D34" t="s">
         <v>70</v>
@@ -6132,7 +6132,7 @@
         <v>45526</v>
       </c>
       <c r="I34" s="1">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -6211,13 +6211,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="AK34" s="1">
         <v>0</v>
       </c>
       <c r="AL34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="1">
         <v>0</v>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="AY34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="1">
         <v>0</v>
@@ -6279,19 +6279,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
         <v>117</v>
@@ -6300,7 +6300,7 @@
         <v>45526</v>
       </c>
       <c r="I35" s="1">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -6319,16 +6319,16 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="1">
         <v>0</v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK35" s="1">
         <v>1</v>
@@ -6447,19 +6447,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1">
-        <v>527015</v>
+        <v>88890</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
         <v>117</v>
@@ -6468,13 +6468,13 @@
         <v>45526</v>
       </c>
       <c r="I36" s="1">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6547,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
         <v>1</v>
@@ -6615,19 +6615,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G37" t="s">
         <v>117</v>
@@ -6636,13 +6636,13 @@
         <v>45526</v>
       </c>
       <c r="I37" s="1">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6676,10 +6676,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -6715,13 +6715,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="AK37" s="1">
         <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="BA37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB37" s="1">
         <v>0</v>
@@ -6783,19 +6783,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
-        <v>88890</v>
+        <v>527015</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
         <v>117</v>
@@ -6804,13 +6804,13 @@
         <v>45526</v>
       </c>
       <c r="I38" s="1">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6883,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>1</v>
@@ -6951,19 +6951,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G39" t="s">
         <v>117</v>
@@ -6972,13 +6972,13 @@
         <v>45526</v>
       </c>
       <c r="I39" s="1">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -7012,10 +7012,10 @@
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -7051,13 +7051,13 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>281</v>
+        <v>150</v>
       </c>
       <c r="AK39" s="1">
         <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="1">
         <v>0</v>
@@ -7119,19 +7119,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G40" t="s">
         <v>117</v>
@@ -7140,13 +7140,13 @@
         <v>45526</v>
       </c>
       <c r="I40" s="1">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -7159,10 +7159,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="1">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -7287,19 +7287,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
         <v>117</v>
@@ -7308,13 +7308,13 @@
         <v>45526</v>
       </c>
       <c r="I41" s="1">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -7327,10 +7327,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="1">
         <v>0</v>
@@ -7387,13 +7387,13 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="AK41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41" s="1">
         <v>0</v>
@@ -7467,7 +7467,7 @@
         <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G42" t="s">
         <v>117</v>
@@ -7476,7 +7476,7 @@
         <v>45525</v>
       </c>
       <c r="I42" s="1">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -7623,19 +7623,19 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C43" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G43" t="s">
         <v>117</v>
@@ -7644,13 +7644,13 @@
         <v>45525</v>
       </c>
       <c r="I43" s="1">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7684,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -7722,7 +7722,9 @@
       <c r="AI43" s="1">
         <v>0</v>
       </c>
-      <c r="AJ43" s="1"/>
+      <c r="AJ43" s="1">
+        <v>150</v>
+      </c>
       <c r="AK43" s="1">
         <v>0</v>
       </c>
@@ -7789,19 +7791,19 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1">
-        <v>446220</v>
+        <v>448223</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G44" t="s">
         <v>117</v>
@@ -7810,13 +7812,13 @@
         <v>45525</v>
       </c>
       <c r="I44" s="1">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7850,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="1">
         <v>0</v>
@@ -7888,9 +7890,7 @@
       <c r="AI44" s="1">
         <v>0</v>
       </c>
-      <c r="AJ44" s="1">
-        <v>150</v>
-      </c>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1">
         <v>0</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="1">
-        <v>448223</v>
+        <v>119478</v>
       </c>
       <c r="D45" t="s">
         <v>73</v>
@@ -7978,7 +7978,7 @@
         <v>45525</v>
       </c>
       <c r="I45" s="1">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
@@ -8123,19 +8123,19 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
         <v>117</v>
@@ -8144,7 +8144,7 @@
         <v>45446</v>
       </c>
       <c r="I46" s="1">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -8163,16 +8163,16 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="1">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="AK46" s="1">
         <v>1</v>
@@ -8291,19 +8291,19 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C47" s="1">
         <v>2519</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G47" t="s">
         <v>117</v>
@@ -8312,7 +8312,7 @@
         <v>45446</v>
       </c>
       <c r="I47" s="1">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -8459,19 +8459,19 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C48" s="1">
         <v>88890</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G48" t="s">
         <v>117</v>
@@ -8480,7 +8480,7 @@
         <v>45446</v>
       </c>
       <c r="I48" s="1">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8627,19 +8627,19 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C49" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G49" t="s">
         <v>117</v>
@@ -8648,7 +8648,7 @@
         <v>45446</v>
       </c>
       <c r="I49" s="1">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -8667,16 +8667,16 @@
         <v>0</v>
       </c>
       <c r="P49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK49" s="1">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>103</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G50" t="s">
         <v>117</v>
@@ -8816,7 +8816,7 @@
         <v>45649</v>
       </c>
       <c r="I50" s="1">
-        <v>2723</v>
+        <v>2727</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8984,7 +8984,7 @@
         <v>45649</v>
       </c>
       <c r="I51" s="1">
-        <v>2723</v>
+        <v>2727</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
@@ -9141,7 +9141,7 @@
         <v>86</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G52" t="s">
         <v>117</v>
@@ -9150,7 +9150,7 @@
         <v>45649</v>
       </c>
       <c r="I52" s="1">
-        <v>2723</v>
+        <v>2727</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -9297,19 +9297,19 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C53" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G53" t="s">
         <v>117</v>
@@ -9318,13 +9318,13 @@
         <v>45664</v>
       </c>
       <c r="I53" s="1">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -9337,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="P53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" s="1">
         <v>0</v>
@@ -9397,10 +9397,10 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
         <v>1</v>
@@ -9465,19 +9465,19 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G54" t="s">
         <v>117</v>
@@ -9486,7 +9486,7 @@
         <v>45664</v>
       </c>
       <c r="I54" s="1">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -9505,10 +9505,10 @@
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="1">
         <v>0</v>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AK54" s="1">
         <v>1</v>
@@ -9635,12 +9635,14 @@
       <c r="B55" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1">
+        <v>4914</v>
+      </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
         <v>115</v>
@@ -9652,7 +9654,7 @@
         <v>45664</v>
       </c>
       <c r="I55" s="1">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
@@ -9725,13 +9727,13 @@
         <v>0</v>
       </c>
       <c r="AH55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="1">
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -9773,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY55" s="1">
         <v>0</v>
@@ -9799,7 +9801,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1">
         <v>4914</v>
@@ -9811,7 +9813,7 @@
         <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G56" t="s">
         <v>117</v>
@@ -9820,13 +9822,13 @@
         <v>45664</v>
       </c>
       <c r="I56" s="1">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9967,19 +9969,19 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1">
-        <v>68602</v>
+        <v>88890</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F57" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G57" t="s">
         <v>117</v>
@@ -9988,13 +9990,13 @@
         <v>45664</v>
       </c>
       <c r="I57" s="1">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -10067,13 +10069,13 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB57" s="1">
         <v>0</v>
@@ -10135,19 +10137,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1">
-        <v>88890</v>
+        <v>21812144</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G58" t="s">
         <v>117</v>
@@ -10156,7 +10158,7 @@
         <v>45664</v>
       </c>
       <c r="I58" s="1">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -10235,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="AK58" s="1">
         <v>1</v>
@@ -10286,10 +10288,10 @@
         <v>0</v>
       </c>
       <c r="BA58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC58" s="1">
         <v>0</v>
@@ -10303,19 +10305,19 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C59" s="1">
-        <v>6213</v>
+        <v>12562546</v>
       </c>
       <c r="D59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G59" t="s">
         <v>117</v>
@@ -10324,13 +10326,13 @@
         <v>45664</v>
       </c>
       <c r="I59" s="1">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -10402,7 +10404,9 @@
       <c r="AI59" s="1">
         <v>0</v>
       </c>
-      <c r="AJ59" s="1"/>
+      <c r="AJ59" s="1">
+        <v>136</v>
+      </c>
       <c r="AK59" s="1">
         <v>0</v>
       </c>
@@ -10419,13 +10423,13 @@
         <v>0</v>
       </c>
       <c r="AP59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ59" s="1">
         <v>0</v>
       </c>
       <c r="AR59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS59" s="1">
         <v>0</v>
@@ -10469,19 +10473,19 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1">
-        <v>5707</v>
+        <v>10836</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G60" t="s">
         <v>117</v>
@@ -10490,13 +10494,13 @@
         <v>45664</v>
       </c>
       <c r="I60" s="1">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -10515,10 +10519,10 @@
         <v>0</v>
       </c>
       <c r="R60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
@@ -10527,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W60" s="1">
         <v>0</v>
@@ -10569,13 +10573,13 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>324</v>
+        <v>231</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -10637,16 +10641,14 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="1">
-        <v>62300</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C61" s="1"/>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F61" t="s">
         <v>115</v>
@@ -10658,7 +10660,7 @@
         <v>45664</v>
       </c>
       <c r="I61" s="1">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
@@ -10731,19 +10733,19 @@
         <v>0</v>
       </c>
       <c r="AH61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI61" s="1">
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>275</v>
+        <v>135</v>
       </c>
       <c r="AK61" s="1">
         <v>0</v>
       </c>
       <c r="AL61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -10805,19 +10807,19 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C62" s="1">
-        <v>4914</v>
+        <v>6213</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G62" t="s">
         <v>117</v>
@@ -10826,7 +10828,7 @@
         <v>45664</v>
       </c>
       <c r="I62" s="1">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -10904,9 +10906,7 @@
       <c r="AI62" s="1">
         <v>0</v>
       </c>
-      <c r="AJ62" s="1">
-        <v>287</v>
-      </c>
+      <c r="AJ62" s="1"/>
       <c r="AK62" s="1">
         <v>0</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="AX62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="1">
         <v>0</v>
@@ -10973,16 +10973,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C63" s="1">
-        <v>12562546</v>
+        <v>68602</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F63" t="s">
         <v>115</v>
@@ -10994,7 +10994,7 @@
         <v>45664</v>
       </c>
       <c r="I63" s="1">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="AK63" s="1">
         <v>0</v>
@@ -11091,13 +11091,13 @@
         <v>0</v>
       </c>
       <c r="AP63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63" s="1">
         <v>0</v>
       </c>
       <c r="AR63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS63" s="1">
         <v>0</v>
@@ -11141,19 +11141,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C64" s="1">
-        <v>10836</v>
+        <v>5707</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F64" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G64" t="s">
         <v>117</v>
@@ -11162,13 +11162,13 @@
         <v>45664</v>
       </c>
       <c r="I64" s="1">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -11187,10 +11187,10 @@
         <v>0</v>
       </c>
       <c r="R64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64" s="1">
         <v>0</v>
@@ -11241,13 +11241,13 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11309,19 +11309,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1">
-        <v>21812144</v>
+        <v>5462328</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G65" t="s">
         <v>117</v>
@@ -11330,7 +11330,7 @@
         <v>45664</v>
       </c>
       <c r="I65" s="1">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="J65" s="1">
         <v>1</v>
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="AK65" s="1">
         <v>1</v>
@@ -11463,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="BB65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC65" s="1">
         <v>0</v>
@@ -11489,7 +11489,7 @@
         <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G66" t="s">
         <v>117</v>
@@ -11498,7 +11498,7 @@
         <v>45664</v>
       </c>
       <c r="I66" s="1">
-        <v>2725</v>
+        <v>2729</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -11645,19 +11645,19 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C67" s="1">
-        <v>5462328</v>
+        <v>1983</v>
       </c>
       <c r="D67" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E67" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G67" t="s">
         <v>117</v>
@@ -11666,13 +11666,13 @@
         <v>45665</v>
       </c>
       <c r="I67" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -11745,13 +11745,13 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="AK67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="1">
         <v>0</v>
@@ -11813,19 +11813,19 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C68" s="1">
-        <v>10836</v>
+        <v>5707</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E68" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F68" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G68" t="s">
         <v>117</v>
@@ -11834,13 +11834,13 @@
         <v>45665</v>
       </c>
       <c r="I68" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -11859,10 +11859,10 @@
         <v>0</v>
       </c>
       <c r="R68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" s="1">
         <v>0</v>
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68" s="1">
         <v>0</v>
@@ -11913,13 +11913,13 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="AK68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM68" s="1">
         <v>0</v>
@@ -11981,19 +11981,19 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C69" s="1">
-        <v>88890</v>
+        <v>12562546</v>
       </c>
       <c r="D69" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E69" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F69" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G69" t="s">
         <v>117</v>
@@ -12002,13 +12002,13 @@
         <v>45665</v>
       </c>
       <c r="I69" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -12081,13 +12081,13 @@
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AK69" s="1">
         <v>0</v>
       </c>
       <c r="AL69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -12096,16 +12096,16 @@
         <v>0</v>
       </c>
       <c r="AO69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS69" s="1">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="BA69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB69" s="1">
         <v>0</v>
@@ -12149,16 +12149,14 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="1">
-        <v>21812144</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C70" s="1"/>
       <c r="D70" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E70" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="F70" t="s">
         <v>115</v>
@@ -12170,7 +12168,7 @@
         <v>45665</v>
       </c>
       <c r="I70" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -12243,19 +12241,19 @@
         <v>0</v>
       </c>
       <c r="AH70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI70" s="1">
         <v>0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="AK70" s="1">
         <v>0</v>
       </c>
       <c r="AL70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70" s="1">
         <v>0</v>
@@ -12303,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="BB70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC70" s="1">
         <v>0</v>
@@ -12317,16 +12315,16 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C71" s="1">
-        <v>33741</v>
+        <v>62300</v>
       </c>
       <c r="D71" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s">
         <v>115</v>
@@ -12338,7 +12336,7 @@
         <v>45665</v>
       </c>
       <c r="I71" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -12396,7 +12394,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD71" s="1">
         <v>0</v>
@@ -12417,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="AK71" s="1">
         <v>0</v>
@@ -12485,16 +12483,16 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1">
-        <v>1983</v>
+        <v>446220</v>
       </c>
       <c r="D72" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E72" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F72" t="s">
         <v>115</v>
@@ -12506,7 +12504,7 @@
         <v>45665</v>
       </c>
       <c r="I72" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -12549,7 +12547,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72" s="1">
         <v>0</v>
@@ -12585,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="AK72" s="1">
         <v>0</v>
@@ -12653,16 +12651,16 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C73" s="1">
-        <v>5486550</v>
+        <v>21812144</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F73" t="s">
         <v>115</v>
@@ -12674,7 +12672,7 @@
         <v>45665</v>
       </c>
       <c r="I73" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -12753,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="AJ73" s="1">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="AK73" s="1">
         <v>0</v>
@@ -12798,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="AY73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ73" s="1">
         <v>0</v>
@@ -12807,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="BB73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC73" s="1">
         <v>0</v>
@@ -12821,19 +12819,19 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C74" s="1">
-        <v>12562546</v>
+        <v>33741</v>
       </c>
       <c r="D74" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G74" t="s">
         <v>117</v>
@@ -12842,13 +12840,13 @@
         <v>45665</v>
       </c>
       <c r="I74" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -12900,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="AC74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD74" s="1">
         <v>0</v>
@@ -12921,13 +12919,13 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="1">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="AK74" s="1">
         <v>0</v>
       </c>
       <c r="AL74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM74" s="1">
         <v>0</v>
@@ -12936,16 +12934,16 @@
         <v>0</v>
       </c>
       <c r="AO74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS74" s="1">
         <v>0</v>
@@ -12989,16 +12987,16 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C75" s="1">
-        <v>62300</v>
+        <v>3676</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E75" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F75" t="s">
         <v>115</v>
@@ -13010,7 +13008,7 @@
         <v>45665</v>
       </c>
       <c r="I75" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -13089,13 +13087,13 @@
         <v>0</v>
       </c>
       <c r="AJ75" s="1">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="AK75" s="1">
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -13131,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="AX75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY75" s="1">
         <v>0</v>
@@ -13157,17 +13155,19 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3345</v>
+      </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F76" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G76" t="s">
         <v>117</v>
@@ -13176,13 +13176,13 @@
         <v>45665</v>
       </c>
       <c r="I76" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -13195,10 +13195,10 @@
         <v>0</v>
       </c>
       <c r="P76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -13249,19 +13249,19 @@
         <v>0</v>
       </c>
       <c r="AH76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI76" s="1">
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="AK76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM76" s="1">
         <v>0</v>
@@ -13323,16 +13323,16 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C77" s="1">
-        <v>3676</v>
+        <v>5462507</v>
       </c>
       <c r="D77" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F77" t="s">
         <v>115</v>
@@ -13344,7 +13344,7 @@
         <v>45665</v>
       </c>
       <c r="I77" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -13422,9 +13422,7 @@
       <c r="AI77" s="1">
         <v>0</v>
       </c>
-      <c r="AJ77" s="1">
-        <v>216</v>
-      </c>
+      <c r="AJ77" s="1"/>
       <c r="AK77" s="1">
         <v>0</v>
       </c>
@@ -13465,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="AX77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY77" s="1">
         <v>0</v>
@@ -13491,19 +13489,19 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C78" s="1">
-        <v>68602</v>
+        <v>5462328</v>
       </c>
       <c r="D78" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E78" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G78" t="s">
         <v>117</v>
@@ -13512,13 +13510,13 @@
         <v>45665</v>
       </c>
       <c r="I78" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -13591,13 +13589,13 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="1">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="AK78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -13659,19 +13657,19 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C79" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D79" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E79" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F79" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G79" t="s">
         <v>117</v>
@@ -13680,13 +13678,13 @@
         <v>45665</v>
       </c>
       <c r="I79" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1">
@@ -13699,10 +13697,10 @@
         <v>0</v>
       </c>
       <c r="P79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" s="1">
         <v>0</v>
@@ -13717,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="V79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W79" s="1">
         <v>0</v>
@@ -13759,13 +13757,13 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -13827,19 +13825,19 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C80" s="1">
-        <v>5707</v>
+        <v>68602</v>
       </c>
       <c r="D80" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F80" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G80" t="s">
         <v>117</v>
@@ -13848,13 +13846,13 @@
         <v>45665</v>
       </c>
       <c r="I80" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1">
@@ -13873,10 +13871,10 @@
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80" s="1">
         <v>0</v>
@@ -13927,13 +13925,13 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="AK80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -13995,16 +13993,16 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C81" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E81" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F81" t="s">
         <v>115</v>
@@ -14016,7 +14014,7 @@
         <v>45665</v>
       </c>
       <c r="I81" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J81" s="1">
         <v>0</v>
@@ -14094,12 +14092,14 @@
       <c r="AI81" s="1">
         <v>0</v>
       </c>
-      <c r="AJ81" s="1"/>
+      <c r="AJ81" s="1">
+        <v>44</v>
+      </c>
       <c r="AK81" s="1">
         <v>0</v>
       </c>
       <c r="AL81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM81" s="1">
         <v>0</v>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="BA81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB81" s="1">
         <v>0</v>
@@ -14161,16 +14161,16 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C82" s="1">
-        <v>446220</v>
+        <v>5486550</v>
       </c>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E82" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F82" t="s">
         <v>115</v>
@@ -14182,7 +14182,7 @@
         <v>45665</v>
       </c>
       <c r="I82" s="1">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="J82" s="1">
         <v>0</v>
@@ -14225,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y82" s="1">
         <v>0</v>
@@ -14261,13 +14261,13 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="AK82" s="1">
         <v>0</v>
       </c>
       <c r="AL82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM82" s="1">
         <v>0</v>
@@ -14306,7 +14306,7 @@
         <v>0</v>
       </c>
       <c r="AY82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ82" s="1">
         <v>0</v>
@@ -14341,7 +14341,7 @@
         <v>86</v>
       </c>
       <c r="F83" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G83" t="s">
         <v>117</v>
@@ -14350,7 +14350,7 @@
         <v>45649</v>
       </c>
       <c r="I83" s="1">
-        <v>2727</v>
+        <v>2731</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -14497,19 +14497,19 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C84" s="1">
-        <v>3676</v>
+        <v>1983</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F84" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G84" t="s">
         <v>117</v>
@@ -14518,13 +14518,13 @@
         <v>45602</v>
       </c>
       <c r="I84" s="1">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="J84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
@@ -14597,7 +14597,7 @@
         <v>0</v>
       </c>
       <c r="AJ84" s="1">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="AK84" s="1">
         <v>0</v>
@@ -14639,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="AX84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY84" s="1">
         <v>0</v>
@@ -14665,19 +14665,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C85" s="1">
-        <v>6213</v>
+        <v>3345</v>
       </c>
       <c r="D85" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E85" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F85" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G85" t="s">
         <v>117</v>
@@ -14686,7 +14686,7 @@
         <v>45602</v>
       </c>
       <c r="I85" s="1">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -14705,10 +14705,10 @@
         <v>0</v>
       </c>
       <c r="P85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" s="1">
         <v>0</v>
@@ -14764,12 +14764,14 @@
       <c r="AI85" s="1">
         <v>0</v>
       </c>
-      <c r="AJ85" s="1"/>
+      <c r="AJ85" s="1">
+        <v>191</v>
+      </c>
       <c r="AK85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -14831,19 +14833,19 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C86" s="1">
-        <v>1983</v>
+        <v>68602</v>
       </c>
       <c r="D86" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E86" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F86" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G86" t="s">
         <v>117</v>
@@ -14852,13 +14854,13 @@
         <v>45602</v>
       </c>
       <c r="I86" s="1">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="J86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
@@ -14931,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="AJ86" s="1">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="AK86" s="1">
         <v>0</v>
@@ -14999,19 +15001,17 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C87" s="1">
-        <v>3345</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C87" s="1"/>
       <c r="D87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E87" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F87" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G87" t="s">
         <v>117</v>
@@ -15020,7 +15020,7 @@
         <v>45602</v>
       </c>
       <c r="I87" s="1">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -15039,10 +15039,10 @@
         <v>0</v>
       </c>
       <c r="P87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87" s="1">
         <v>0</v>
@@ -15093,19 +15093,19 @@
         <v>0</v>
       </c>
       <c r="AH87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ87" s="1">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="AK87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87" s="1">
         <v>0</v>
@@ -15167,19 +15167,19 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C88" s="1">
-        <v>68602</v>
+        <v>6213</v>
       </c>
       <c r="D88" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E88" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F88" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G88" t="s">
         <v>117</v>
@@ -15188,7 +15188,7 @@
         <v>45602</v>
       </c>
       <c r="I88" s="1">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="J88" s="1">
         <v>1</v>
@@ -15266,9 +15266,7 @@
       <c r="AI88" s="1">
         <v>0</v>
       </c>
-      <c r="AJ88" s="1">
-        <v>224</v>
-      </c>
+      <c r="AJ88" s="1"/>
       <c r="AK88" s="1">
         <v>0</v>
       </c>
@@ -15335,17 +15333,19 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
-      </c>
-      <c r="C89" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C89" s="1">
+        <v>88890</v>
+      </c>
       <c r="D89" t="s">
         <v>58</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G89" t="s">
         <v>117</v>
@@ -15354,7 +15354,7 @@
         <v>45602</v>
       </c>
       <c r="I89" s="1">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -15427,19 +15427,19 @@
         <v>0</v>
       </c>
       <c r="AH89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ89" s="1">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AK89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM89" s="1">
         <v>0</v>
@@ -15484,7 +15484,7 @@
         <v>0</v>
       </c>
       <c r="BA89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB89" s="1">
         <v>0</v>
@@ -15501,19 +15501,19 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C90" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D90" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E90" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G90" t="s">
         <v>117</v>
@@ -15522,7 +15522,7 @@
         <v>45602</v>
       </c>
       <c r="I90" s="1">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="J90" s="1">
         <v>1</v>
@@ -15601,13 +15601,13 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="1">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="AK90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -15643,7 +15643,7 @@
         <v>0</v>
       </c>
       <c r="AX90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY90" s="1">
         <v>0</v>
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
       <c r="BA90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB90" s="1">
         <v>0</v>
@@ -15690,7 +15690,7 @@
         <v>45602</v>
       </c>
       <c r="I91" s="1">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="J91" s="1">
         <v>0</v>
@@ -15858,7 +15858,7 @@
         <v>45611</v>
       </c>
       <c r="I92" s="1">
-        <v>2729</v>
+        <v>2733</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
@@ -16005,19 +16005,19 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C93" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E93" t="s">
         <v>88</v>
       </c>
       <c r="F93" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G93" t="s">
         <v>117</v>
@@ -16026,7 +16026,7 @@
         <v>45666</v>
       </c>
       <c r="I93" s="1">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="J93" s="1">
         <v>1</v>
@@ -16105,7 +16105,7 @@
         <v>0</v>
       </c>
       <c r="AJ93" s="1">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AK93" s="1">
         <v>1</v>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="BA93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB93" s="1">
         <v>0</v>
@@ -16173,19 +16173,19 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C94" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D94" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G94" t="s">
         <v>117</v>
@@ -16194,7 +16194,7 @@
         <v>45666</v>
       </c>
       <c r="I94" s="1">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
@@ -16213,10 +16213,10 @@
         <v>0</v>
       </c>
       <c r="P94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94" s="1">
         <v>0</v>
@@ -16273,7 +16273,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AK94" s="1">
         <v>1</v>
@@ -16341,16 +16341,16 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C95" s="1">
-        <v>10836</v>
+        <v>5462507</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E95" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F95" t="s">
         <v>115</v>
@@ -16362,7 +16362,7 @@
         <v>45666</v>
       </c>
       <c r="I95" s="1">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="J95" s="1">
         <v>0</v>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="V95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W95" s="1">
         <v>0</v>
@@ -16440,9 +16440,7 @@
       <c r="AI95" s="1">
         <v>0</v>
       </c>
-      <c r="AJ95" s="1">
-        <v>231</v>
-      </c>
+      <c r="AJ95" s="1"/>
       <c r="AK95" s="1">
         <v>0</v>
       </c>
@@ -16509,16 +16507,16 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C96" s="1">
-        <v>26879</v>
+        <v>10836</v>
       </c>
       <c r="D96" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E96" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F96" t="s">
         <v>115</v>
@@ -16530,7 +16528,7 @@
         <v>45666</v>
       </c>
       <c r="I96" s="1">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="J96" s="1">
         <v>0</v>
@@ -16567,7 +16565,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W96" s="1">
         <v>0</v>
@@ -16582,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="AA96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB96" s="1">
         <v>0</v>
@@ -16609,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="1">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="AK96" s="1">
         <v>0</v>
@@ -16651,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="AX96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY96" s="1">
         <v>0</v>
@@ -16677,19 +16675,19 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C97" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D97" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E97" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F97" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G97" t="s">
         <v>117</v>
@@ -16698,7 +16696,7 @@
         <v>45666</v>
       </c>
       <c r="I97" s="1">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="J97" s="1">
         <v>1</v>
@@ -16717,10 +16715,10 @@
         <v>0</v>
       </c>
       <c r="P97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R97" s="1">
         <v>0</v>
@@ -16777,7 +16775,7 @@
         <v>0</v>
       </c>
       <c r="AJ97" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK97" s="1">
         <v>1</v>
@@ -16828,7 +16826,7 @@
         <v>0</v>
       </c>
       <c r="BA97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB97" s="1">
         <v>0</v>
@@ -16845,16 +16843,16 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C98" s="1">
-        <v>5462507</v>
+        <v>26879</v>
       </c>
       <c r="D98" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E98" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F98" t="s">
         <v>115</v>
@@ -16866,7 +16864,7 @@
         <v>45666</v>
       </c>
       <c r="I98" s="1">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="J98" s="1">
         <v>0</v>
@@ -16918,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="AA98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB98" s="1">
         <v>0</v>
@@ -16944,7 +16942,9 @@
       <c r="AI98" s="1">
         <v>0</v>
       </c>
-      <c r="AJ98" s="1"/>
+      <c r="AJ98" s="1">
+        <v>214</v>
+      </c>
       <c r="AK98" s="1">
         <v>0</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>0</v>
       </c>
       <c r="AX98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY98" s="1">
         <v>0</v>
@@ -17011,16 +17011,16 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C99" s="1">
         <v>5486550</v>
       </c>
       <c r="D99" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E99" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F99" t="s">
         <v>115</v>
@@ -17032,7 +17032,7 @@
         <v>45666</v>
       </c>
       <c r="I99" s="1">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="J99" s="1">
         <v>0</v>
@@ -17179,19 +17179,19 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C100" s="1">
         <v>88890</v>
       </c>
       <c r="D100" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F100" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G100" t="s">
         <v>117</v>
@@ -17200,7 +17200,7 @@
         <v>45666</v>
       </c>
       <c r="I100" s="1">
-        <v>2731</v>
+        <v>2735</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -17359,7 +17359,7 @@
         <v>92</v>
       </c>
       <c r="F101" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G101" t="s">
         <v>117</v>
@@ -17368,7 +17368,7 @@
         <v>45666</v>
       </c>
       <c r="I101" s="1">
-        <v>2731</v>
+        <v>2735</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -17515,19 +17515,19 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C102" s="1">
-        <v>5462328</v>
+        <v>26879</v>
       </c>
       <c r="D102" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E102" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="F102" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G102" t="s">
         <v>117</v>
@@ -17536,13 +17536,13 @@
         <v>45666</v>
       </c>
       <c r="I102" s="1">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="J102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1">
@@ -17588,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="AA102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB102" s="1">
         <v>0</v>
@@ -17615,13 +17615,13 @@
         <v>0</v>
       </c>
       <c r="AJ102" s="1">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="AK102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM102" s="1">
         <v>0</v>
@@ -17657,7 +17657,7 @@
         <v>0</v>
       </c>
       <c r="AX102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY102" s="1">
         <v>0</v>
@@ -17686,7 +17686,7 @@
         <v>33</v>
       </c>
       <c r="C103" s="1">
-        <v>5486550</v>
+        <v>5462507</v>
       </c>
       <c r="D103" t="s">
         <v>66</v>
@@ -17704,7 +17704,7 @@
         <v>45666</v>
       </c>
       <c r="I103" s="1">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="J103" s="1">
         <v>0</v>
@@ -17782,14 +17782,12 @@
       <c r="AI103" s="1">
         <v>0</v>
       </c>
-      <c r="AJ103" s="1">
-        <v>119</v>
-      </c>
+      <c r="AJ103" s="1"/>
       <c r="AK103" s="1">
         <v>0</v>
       </c>
       <c r="AL103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM103" s="1">
         <v>0</v>
@@ -17828,7 +17826,7 @@
         <v>0</v>
       </c>
       <c r="AY103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ103" s="1">
         <v>0</v>
@@ -17851,19 +17849,19 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C104" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D104" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E104" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F104" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G104" t="s">
         <v>117</v>
@@ -17872,13 +17870,13 @@
         <v>45666</v>
       </c>
       <c r="I104" s="1">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="J104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1">
@@ -17951,10 +17949,10 @@
         <v>0</v>
       </c>
       <c r="AJ104" s="1">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="AK104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL104" s="1">
         <v>1</v>
@@ -17996,13 +17994,13 @@
         <v>0</v>
       </c>
       <c r="AY104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ104" s="1">
         <v>0</v>
       </c>
       <c r="BA104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB104" s="1">
         <v>0</v>
@@ -18019,19 +18017,19 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C105" s="1">
-        <v>26879</v>
+        <v>88890</v>
       </c>
       <c r="D105" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E105" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F105" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G105" t="s">
         <v>117</v>
@@ -18040,13 +18038,13 @@
         <v>45666</v>
       </c>
       <c r="I105" s="1">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="J105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1">
@@ -18092,7 +18090,7 @@
         <v>0</v>
       </c>
       <c r="AA105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB105" s="1">
         <v>0</v>
@@ -18119,13 +18117,13 @@
         <v>0</v>
       </c>
       <c r="AJ105" s="1">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="AK105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM105" s="1">
         <v>0</v>
@@ -18161,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="AX105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY105" s="1">
         <v>0</v>
@@ -18170,7 +18168,7 @@
         <v>0</v>
       </c>
       <c r="BA105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB105" s="1">
         <v>0</v>
@@ -18187,19 +18185,19 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C106" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D106" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E106" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F106" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G106" t="s">
         <v>117</v>
@@ -18208,13 +18206,13 @@
         <v>45666</v>
       </c>
       <c r="I106" s="1">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="J106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1">
@@ -18227,10 +18225,10 @@
         <v>0</v>
       </c>
       <c r="P106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R106" s="1">
         <v>0</v>
@@ -18286,12 +18284,14 @@
       <c r="AI106" s="1">
         <v>0</v>
       </c>
-      <c r="AJ106" s="1"/>
+      <c r="AJ106" s="1">
+        <v>191</v>
+      </c>
       <c r="AK106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -18353,19 +18353,19 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C107" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D107" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F107" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G107" t="s">
         <v>117</v>
@@ -18374,7 +18374,7 @@
         <v>45666</v>
       </c>
       <c r="I107" s="1">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="J107" s="1">
         <v>1</v>
@@ -18393,10 +18393,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -18453,7 +18453,7 @@
         <v>0</v>
       </c>
       <c r="AJ107" s="1">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AK107" s="1">
         <v>1</v>
@@ -18533,7 +18533,7 @@
         <v>86</v>
       </c>
       <c r="F108" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G108" t="s">
         <v>117</v>
@@ -18542,7 +18542,7 @@
         <v>45666</v>
       </c>
       <c r="I108" s="1">
-        <v>2774</v>
+        <v>2778</v>
       </c>
       <c r="J108" s="1">
         <v>1</v>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -87,34 +87,37 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>quinine</t>
+  </si>
+  <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>4-ANPP</t>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
   </si>
   <si>
     <t>caffeine</t>
   </si>
   <si>
-    <t>quinine</t>
+    <t>papaverine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
@@ -123,52 +126,49 @@
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>papaverine</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-hydroxypiperidine</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
+    <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
     <t>acetyl fentanyl</t>
   </si>
   <si>
+    <t>methyl ecgonidine (MED)</t>
+  </si>
+  <si>
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
+    <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
     <t>procaine</t>
   </si>
   <si>
-    <t>despropionyl p-fluorofentanyl</t>
+    <t>medetomidine</t>
   </si>
   <si>
     <t>bromazolam</t>
   </si>
   <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>acetaminophen</t>
+    <t>lidocaine</t>
   </si>
   <si>
     <t>tramadol</t>
   </si>
   <si>
-    <t>lidocaine</t>
+    <t>acetaminophen</t>
   </si>
   <si>
     <t>alprazolam</t>
@@ -186,34 +186,37 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>58-08-2</t>
   </si>
   <si>
-    <t>72402-53-0</t>
+    <t>58-74-2</t>
   </si>
   <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
+    <t>1462260-87-2</t>
   </si>
   <si>
     <t>620-71-3</t>
@@ -222,46 +225,43 @@
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>58-74-2</t>
-  </si>
-  <si>
-    <t>1462260-87-2</t>
+    <t>2784-73-8</t>
   </si>
   <si>
     <t>3258-84-2</t>
   </si>
   <si>
+    <t>43021-26-7</t>
+  </si>
+  <si>
     <t>519-09-5</t>
   </si>
   <si>
-    <t>43021-26-7</t>
+    <t>67-71-0</t>
   </si>
   <si>
     <t>105-70-4</t>
   </si>
   <si>
-    <t>67-71-0</t>
+    <t>122861-41-0</t>
   </si>
   <si>
     <t>59-46-1</t>
   </si>
   <si>
-    <t>122861-41-0</t>
+    <t>86347-14-0</t>
   </si>
   <si>
     <t>71368-80-4</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
-    <t>103-90-2</t>
+    <t>137-58-6</t>
   </si>
   <si>
     <t>123154-38-1</t>
   </si>
   <si>
-    <t>137-58-6</t>
+    <t>103-90-2</t>
   </si>
   <si>
     <t>28981-97-7</t>
@@ -276,31 +276,34 @@
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
-    <t>A7V27PHC7A</t>
+    <t>DAA13NKG2Q</t>
   </si>
   <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
+    <t>3D9E9KK5K5</t>
   </si>
   <si>
     <t>UYP5ZQI00T</t>
@@ -309,46 +312,43 @@
     <t>U59401ETXH</t>
   </si>
   <si>
-    <t>DAA13NKG2Q</t>
-  </si>
-  <si>
-    <t>3D9E9KK5K5</t>
+    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>6DZ28538KS</t>
   </si>
   <si>
+    <t>58C337KP3E</t>
+  </si>
+  <si>
     <t>5353I8I6YS</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
+    <t>9H4PO4Z4FT</t>
   </si>
   <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>9H4PO4Z4FT</t>
+    <t>R8ZH1EQ95Y</t>
   </si>
   <si>
     <t>4Z8Y51M438</t>
   </si>
   <si>
-    <t>R8ZH1EQ95Y</t>
+    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>YMC9OT97Z1</t>
   </si>
   <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>362O9ITL9D</t>
+    <t>98PI200987</t>
   </si>
   <si>
     <t>39J1LGJ30J</t>
   </si>
   <si>
-    <t>98PI200987</t>
+    <t>362O9ITL9D</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -751,7 +751,7 @@
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
         <v>117</v>
@@ -760,7 +760,7 @@
         <v>45107</v>
       </c>
       <c r="I2" s="1">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -919,7 +919,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
         <v>117</v>
@@ -928,13 +928,13 @@
         <v>45107</v>
       </c>
       <c r="I3" s="1">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -1007,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
@@ -1087,7 +1087,7 @@
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
@@ -1096,7 +1096,7 @@
         <v>45107</v>
       </c>
       <c r="I4" s="1">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>2519</v>
+        <v>3034034</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -1255,7 +1255,7 @@
         <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>117</v>
@@ -1264,13 +1264,13 @@
         <v>45107</v>
       </c>
       <c r="I5" s="1">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>140</v>
+        <v>294</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>3034034</v>
+        <v>62300</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -1423,7 +1423,7 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
@@ -1432,13 +1432,13 @@
         <v>45107</v>
       </c>
       <c r="I6" s="1">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -1591,7 +1591,7 @@
         <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
         <v>117</v>
@@ -1600,13 +1600,13 @@
         <v>45107</v>
       </c>
       <c r="I7" s="1">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1679,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <v>1</v>
@@ -1750,13 +1750,13 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>165365057</v>
+        <v>5462328</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>115</v>
@@ -1768,7 +1768,7 @@
         <v>45107</v>
       </c>
       <c r="I8" s="1">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="1">
         <v>0</v>
@@ -1918,16 +1918,16 @@
         <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
         <v>117</v>
@@ -1936,13 +1936,13 @@
         <v>45107</v>
       </c>
       <c r="I9" s="1">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1955,19 +1955,19 @@
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -2015,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="1">
         <v>1</v>
@@ -2086,13 +2086,13 @@
         <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
         <v>115</v>
@@ -2104,7 +2104,7 @@
         <v>45107</v>
       </c>
       <c r="I10" s="1">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="1">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>446220</v>
+        <v>2519</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
@@ -2263,7 +2263,7 @@
         <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>117</v>
@@ -2272,13 +2272,13 @@
         <v>45107</v>
       </c>
       <c r="I11" s="1">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -2312,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK11" s="1">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="1">
         <v>0</v>
@@ -2419,16 +2419,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
         <v>115</v>
@@ -2440,7 +2440,7 @@
         <v>45107</v>
       </c>
       <c r="I12" s="1">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="1">
         <v>0</v>
@@ -2519,13 +2519,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="AK12" s="1">
         <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" s="1">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="AX12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>0</v>
@@ -2587,19 +2587,19 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
-        <v>3034034</v>
+        <v>165365057</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
         <v>117</v>
@@ -2608,7 +2608,7 @@
         <v>45107</v>
       </c>
       <c r="I13" s="1">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2755,16 +2755,16 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1">
         <v>5462328</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
         <v>115</v>
@@ -2776,7 +2776,7 @@
         <v>45107</v>
       </c>
       <c r="I14" s="1">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2923,16 +2923,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1">
-        <v>62300</v>
+        <v>2519</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
         <v>115</v>
@@ -2944,7 +2944,7 @@
         <v>45107</v>
       </c>
       <c r="I15" s="1">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -3023,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="AK15" s="1">
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="1">
         <v>0</v>
@@ -3091,19 +3091,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
         <v>88890</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
         <v>117</v>
@@ -3112,7 +3112,7 @@
         <v>45107</v>
       </c>
       <c r="I16" s="1">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -3259,19 +3259,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
         <v>117</v>
@@ -3280,13 +3280,13 @@
         <v>45107</v>
       </c>
       <c r="I17" s="1">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3359,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>1</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="1">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
         <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" t="s">
-        <v>115</v>
       </c>
       <c r="G18" t="s">
         <v>117</v>
@@ -3448,13 +3448,13 @@
         <v>45107</v>
       </c>
       <c r="I18" s="1">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>0</v>
@@ -3527,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="1">
         <v>1</v>
@@ -3595,19 +3595,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
         <v>117</v>
@@ -3616,7 +3616,7 @@
         <v>45107</v>
       </c>
       <c r="I19" s="1">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -3695,13 +3695,13 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="1">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="1">
         <v>0</v>
@@ -3763,19 +3763,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
         <v>117</v>
@@ -3784,13 +3784,13 @@
         <v>45107</v>
       </c>
       <c r="I20" s="1">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK20" s="1">
         <v>0</v>
       </c>
       <c r="AL20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="1">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="AX20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="1">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="1">
         <v>0</v>
@@ -3931,19 +3931,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
         <v>117</v>
@@ -3952,13 +3952,13 @@
         <v>45107</v>
       </c>
       <c r="I21" s="1">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3971,10 +3971,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
         <v>1</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="1">
         <v>0</v>
@@ -4099,19 +4099,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
         <v>117</v>
@@ -4120,7 +4120,7 @@
         <v>45107</v>
       </c>
       <c r="I22" s="1">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -4139,10 +4139,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -4199,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
         <v>117</v>
@@ -4288,7 +4288,7 @@
         <v>45100</v>
       </c>
       <c r="I23" s="1">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4435,19 +4435,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
         <v>117</v>
@@ -4456,7 +4456,7 @@
         <v>45526</v>
       </c>
       <c r="I24" s="1">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4534,12 +4534,14 @@
       <c r="AI24" s="1">
         <v>0</v>
       </c>
-      <c r="AJ24" s="1"/>
+      <c r="AJ24" s="1">
+        <v>201</v>
+      </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4601,19 +4603,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1">
         <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
         <v>117</v>
@@ -4622,7 +4624,7 @@
         <v>45526</v>
       </c>
       <c r="I25" s="1">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4769,16 +4771,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>12107</v>
+        <v>165365057</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -4790,7 +4792,7 @@
         <v>45526</v>
       </c>
       <c r="I26" s="1">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -4869,13 +4871,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="AK26" s="1">
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4937,19 +4939,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1">
-        <v>5486550</v>
+        <v>4680</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G27" t="s">
         <v>117</v>
@@ -4958,13 +4960,13 @@
         <v>45526</v>
       </c>
       <c r="I27" s="1">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -5037,10 +5039,10 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>1</v>
@@ -5105,19 +5107,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
         <v>117</v>
@@ -5126,7 +5128,7 @@
         <v>45526</v>
       </c>
       <c r="I28" s="1">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -5151,10 +5153,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
@@ -5205,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AK28" s="1">
         <v>1</v>
@@ -5256,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="1">
         <v>0</v>
@@ -5273,16 +5275,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1">
-        <v>4680</v>
+        <v>91725431</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
         <v>115</v>
@@ -5294,7 +5296,7 @@
         <v>45526</v>
       </c>
       <c r="I29" s="1">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -5373,13 +5375,13 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="AK29" s="1">
         <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5418,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="AY29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="1">
         <v>0</v>
@@ -5441,19 +5443,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G30" t="s">
         <v>117</v>
@@ -5462,7 +5464,7 @@
         <v>45526</v>
       </c>
       <c r="I30" s="1">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -5541,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AK30" s="1">
         <v>1</v>
@@ -5592,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="BA30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB30" s="1">
         <v>0</v>
@@ -5609,16 +5611,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
-        <v>10836</v>
+        <v>12107</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
         <v>115</v>
@@ -5630,7 +5632,7 @@
         <v>45526</v>
       </c>
       <c r="I31" s="1">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -5667,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="1">
         <v>0</v>
@@ -5709,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="AK31" s="1">
         <v>0</v>
@@ -5760,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5777,19 +5779,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1">
-        <v>165365057</v>
+        <v>5486550</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
         <v>117</v>
@@ -5798,13 +5800,13 @@
         <v>45526</v>
       </c>
       <c r="I32" s="1">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5877,10 +5879,10 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="1">
         <v>1</v>
@@ -5922,13 +5924,13 @@
         <v>0</v>
       </c>
       <c r="AY32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ32" s="1">
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5949,13 +5951,13 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
         <v>117</v>
@@ -5964,7 +5966,7 @@
         <v>45526</v>
       </c>
       <c r="I33" s="1">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -6114,7 +6116,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="1">
-        <v>91725431</v>
+        <v>5462507</v>
       </c>
       <c r="D34" t="s">
         <v>70</v>
@@ -6123,7 +6125,7 @@
         <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
         <v>117</v>
@@ -6132,13 +6134,13 @@
         <v>45526</v>
       </c>
       <c r="I34" s="1">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -6210,9 +6212,7 @@
       <c r="AI34" s="1">
         <v>0</v>
       </c>
-      <c r="AJ34" s="1">
-        <v>10</v>
-      </c>
+      <c r="AJ34" s="1"/>
       <c r="AK34" s="1">
         <v>0</v>
       </c>
@@ -6279,19 +6279,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1">
-        <v>5707</v>
+        <v>10836</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G35" t="s">
         <v>117</v>
@@ -6300,13 +6300,13 @@
         <v>45526</v>
       </c>
       <c r="I35" s="1">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6325,10 +6325,10 @@
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
         <v>0</v>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="1">
         <v>0</v>
@@ -6379,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>324</v>
+        <v>231</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -6450,7 +6450,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D36" t="s">
         <v>58</v>
@@ -6459,7 +6459,7 @@
         <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
         <v>117</v>
@@ -6468,7 +6468,7 @@
         <v>45526</v>
       </c>
       <c r="I36" s="1">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6508,10 +6508,10 @@
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -6547,13 +6547,13 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AK36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="1">
         <v>0</v>
@@ -6615,16 +6615,16 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
         <v>115</v>
@@ -6636,7 +6636,7 @@
         <v>45526</v>
       </c>
       <c r="I37" s="1">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="1">
         <v>0</v>
@@ -6715,13 +6715,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="AK37" s="1">
         <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="BA37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="1">
         <v>0</v>
@@ -6783,19 +6783,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C38" s="1">
-        <v>527015</v>
+        <v>3345</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
         <v>117</v>
@@ -6804,13 +6804,13 @@
         <v>45526</v>
       </c>
       <c r="I38" s="1">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6823,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -6883,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>1</v>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="1">
         <v>0</v>
@@ -6951,19 +6951,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G39" t="s">
         <v>117</v>
@@ -6972,13 +6972,13 @@
         <v>45526</v>
       </c>
       <c r="I39" s="1">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -7012,10 +7012,10 @@
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -7051,13 +7051,13 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="AK39" s="1">
         <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB39" s="1">
         <v>0</v>
@@ -7119,19 +7119,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G40" t="s">
         <v>117</v>
@@ -7140,13 +7140,13 @@
         <v>45526</v>
       </c>
       <c r="I40" s="1">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="1">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="AK40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB40" s="1">
         <v>0</v>
@@ -7287,19 +7287,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
-        <v>3345</v>
+        <v>527015</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G41" t="s">
         <v>117</v>
@@ -7308,13 +7308,13 @@
         <v>45526</v>
       </c>
       <c r="I41" s="1">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -7327,10 +7327,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -7387,10 +7387,10 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="AK41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="1">
         <v>1</v>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB41" s="1">
         <v>0</v>
@@ -7467,7 +7467,7 @@
         <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G42" t="s">
         <v>117</v>
@@ -7476,7 +7476,7 @@
         <v>45525</v>
       </c>
       <c r="I42" s="1">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -7623,19 +7623,19 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G43" t="s">
         <v>117</v>
@@ -7644,13 +7644,13 @@
         <v>45525</v>
       </c>
       <c r="I43" s="1">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7684,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -7722,9 +7722,7 @@
       <c r="AI43" s="1">
         <v>0</v>
       </c>
-      <c r="AJ43" s="1">
-        <v>150</v>
-      </c>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1">
         <v>0</v>
       </c>
@@ -7791,19 +7789,19 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1">
-        <v>448223</v>
+        <v>446220</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
         <v>117</v>
@@ -7812,13 +7810,13 @@
         <v>45525</v>
       </c>
       <c r="I44" s="1">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7852,10 +7850,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44" s="1">
         <v>0</v>
@@ -7890,7 +7888,9 @@
       <c r="AI44" s="1">
         <v>0</v>
       </c>
-      <c r="AJ44" s="1"/>
+      <c r="AJ44" s="1">
+        <v>150</v>
+      </c>
       <c r="AK44" s="1">
         <v>0</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="1">
-        <v>119478</v>
+        <v>448223</v>
       </c>
       <c r="D45" t="s">
         <v>73</v>
@@ -7978,7 +7978,7 @@
         <v>45525</v>
       </c>
       <c r="I45" s="1">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
@@ -8123,19 +8123,19 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C46" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G46" t="s">
         <v>117</v>
@@ -8144,7 +8144,7 @@
         <v>45446</v>
       </c>
       <c r="I46" s="1">
-        <v>2325</v>
+        <v>2328</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -8163,10 +8163,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="1">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK46" s="1">
         <v>1</v>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB46" s="1">
         <v>0</v>
@@ -8291,19 +8291,19 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1">
         <v>2519</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G47" t="s">
         <v>117</v>
@@ -8312,7 +8312,7 @@
         <v>45446</v>
       </c>
       <c r="I47" s="1">
-        <v>2325</v>
+        <v>2328</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -8459,19 +8459,19 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C48" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G48" t="s">
         <v>117</v>
@@ -8480,7 +8480,7 @@
         <v>45446</v>
       </c>
       <c r="I48" s="1">
-        <v>2325</v>
+        <v>2328</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8499,10 +8499,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK48" s="1">
         <v>1</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="1">
         <v>0</v>
@@ -8627,19 +8627,19 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" s="1">
         <v>5707</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E49" t="s">
         <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G49" t="s">
         <v>117</v>
@@ -8648,7 +8648,7 @@
         <v>45446</v>
       </c>
       <c r="I49" s="1">
-        <v>2325</v>
+        <v>2328</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -8795,19 +8795,19 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C50" s="1">
-        <v>66924</v>
+        <v>10836</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G50" t="s">
         <v>117</v>
@@ -8816,7 +8816,7 @@
         <v>45649</v>
       </c>
       <c r="I50" s="1">
-        <v>2727</v>
+        <v>2730</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8850,10 +8850,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="AK50" s="1">
         <v>0</v>
@@ -8963,16 +8963,16 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="1">
         <v>6213</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F51" t="s">
         <v>115</v>
@@ -8984,7 +8984,7 @@
         <v>45649</v>
       </c>
       <c r="I51" s="1">
-        <v>2727</v>
+        <v>2730</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
@@ -9129,19 +9129,19 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C52" s="1">
-        <v>10836</v>
+        <v>66924</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G52" t="s">
         <v>117</v>
@@ -9150,7 +9150,7 @@
         <v>45649</v>
       </c>
       <c r="I52" s="1">
-        <v>2727</v>
+        <v>2730</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -9229,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="1">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="AK52" s="1">
         <v>0</v>
@@ -9297,19 +9297,19 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C53" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G53" t="s">
         <v>117</v>
@@ -9318,13 +9318,13 @@
         <v>45664</v>
       </c>
       <c r="I53" s="1">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -9343,10 +9343,10 @@
         <v>0</v>
       </c>
       <c r="R53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="1">
         <v>0</v>
@@ -9397,10 +9397,10 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
         <v>1</v>
@@ -9465,19 +9465,17 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="1">
-        <v>3345</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C54" s="1"/>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G54" t="s">
         <v>117</v>
@@ -9486,13 +9484,13 @@
         <v>45664</v>
       </c>
       <c r="I54" s="1">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -9505,10 +9503,10 @@
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" s="1">
         <v>0</v>
@@ -9559,19 +9557,19 @@
         <v>0</v>
       </c>
       <c r="AH54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54" s="1">
         <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="AK54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="1">
         <v>0</v>
@@ -9633,10 +9631,10 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C55" s="1">
-        <v>4914</v>
+        <v>21812144</v>
       </c>
       <c r="D55" t="s">
         <v>76</v>
@@ -9645,7 +9643,7 @@
         <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G55" t="s">
         <v>117</v>
@@ -9654,13 +9652,13 @@
         <v>45664</v>
       </c>
       <c r="I55" s="1">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -9733,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="AK55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM55" s="1">
         <v>0</v>
@@ -9775,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="1">
         <v>0</v>
@@ -9787,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC55" s="1">
         <v>0</v>
@@ -9801,19 +9799,19 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C56" s="1">
         <v>4914</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G56" t="s">
         <v>117</v>
@@ -9822,13 +9820,13 @@
         <v>45664</v>
       </c>
       <c r="I56" s="1">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9969,19 +9967,19 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C57" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G57" t="s">
         <v>117</v>
@@ -9990,7 +9988,7 @@
         <v>45664</v>
       </c>
       <c r="I57" s="1">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -10009,10 +10007,10 @@
         <v>0</v>
       </c>
       <c r="P57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -10069,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK57" s="1">
         <v>1</v>
@@ -10120,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="1">
         <v>0</v>
@@ -10137,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C58" s="1">
-        <v>21812144</v>
+        <v>6213</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G58" t="s">
         <v>117</v>
@@ -10158,7 +10156,7 @@
         <v>45664</v>
       </c>
       <c r="I58" s="1">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -10236,14 +10234,12 @@
       <c r="AI58" s="1">
         <v>0</v>
       </c>
-      <c r="AJ58" s="1">
-        <v>167</v>
-      </c>
+      <c r="AJ58" s="1"/>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="1">
         <v>0</v>
@@ -10291,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="BB58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC58" s="1">
         <v>0</v>
@@ -10305,19 +10301,19 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C59" s="1">
-        <v>12562546</v>
+        <v>88890</v>
       </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G59" t="s">
         <v>117</v>
@@ -10326,13 +10322,13 @@
         <v>45664</v>
       </c>
       <c r="I59" s="1">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -10405,13 +10401,13 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -10423,13 +10419,13 @@
         <v>0</v>
       </c>
       <c r="AP59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ59" s="1">
         <v>0</v>
       </c>
       <c r="AR59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS59" s="1">
         <v>0</v>
@@ -10456,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="BA59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB59" s="1">
         <v>0</v>
@@ -10473,19 +10469,19 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C60" s="1">
-        <v>10836</v>
+        <v>5462328</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E60" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F60" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G60" t="s">
         <v>117</v>
@@ -10494,13 +10490,13 @@
         <v>45664</v>
       </c>
       <c r="I60" s="1">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -10531,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60" s="1">
         <v>0</v>
@@ -10573,13 +10569,13 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="AK60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -10643,12 +10639,14 @@
       <c r="B61" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="1">
+        <v>68602</v>
+      </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="F61" t="s">
         <v>115</v>
@@ -10660,7 +10658,7 @@
         <v>45664</v>
       </c>
       <c r="I61" s="1">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
@@ -10733,13 +10731,13 @@
         <v>0</v>
       </c>
       <c r="AH61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="1">
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c r="AK61" s="1">
         <v>0</v>
@@ -10807,19 +10805,19 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D62" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E62" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G62" t="s">
         <v>117</v>
@@ -10828,13 +10826,13 @@
         <v>45664</v>
       </c>
       <c r="I62" s="1">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="J62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -10865,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W62" s="1">
         <v>0</v>
@@ -10906,7 +10904,9 @@
       <c r="AI62" s="1">
         <v>0</v>
       </c>
-      <c r="AJ62" s="1"/>
+      <c r="AJ62" s="1">
+        <v>231</v>
+      </c>
       <c r="AK62" s="1">
         <v>0</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>48</v>
       </c>
       <c r="C63" s="1">
-        <v>68602</v>
+        <v>12562546</v>
       </c>
       <c r="D63" t="s">
         <v>79</v>
@@ -10994,7 +10994,7 @@
         <v>45664</v>
       </c>
       <c r="I63" s="1">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="AK63" s="1">
         <v>0</v>
@@ -11091,13 +11091,13 @@
         <v>0</v>
       </c>
       <c r="AP63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ63" s="1">
         <v>0</v>
       </c>
       <c r="AR63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS63" s="1">
         <v>0</v>
@@ -11141,19 +11141,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C64" s="1">
-        <v>5707</v>
+        <v>4914</v>
       </c>
       <c r="D64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" t="s">
         <v>64</v>
-      </c>
-      <c r="E64" t="s">
-        <v>93</v>
-      </c>
-      <c r="F64" t="s">
-        <v>62</v>
       </c>
       <c r="G64" t="s">
         <v>117</v>
@@ -11162,7 +11162,7 @@
         <v>45664</v>
       </c>
       <c r="I64" s="1">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -11187,10 +11187,10 @@
         <v>0</v>
       </c>
       <c r="R64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
@@ -11241,13 +11241,13 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="AK64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11283,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="AX64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY64" s="1">
         <v>0</v>
@@ -11309,19 +11309,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G65" t="s">
         <v>117</v>
@@ -11330,13 +11330,13 @@
         <v>45664</v>
       </c>
       <c r="I65" s="1">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11409,10 +11409,10 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>1</v>
@@ -11489,7 +11489,7 @@
         <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G66" t="s">
         <v>117</v>
@@ -11498,7 +11498,7 @@
         <v>45664</v>
       </c>
       <c r="I66" s="1">
-        <v>2729</v>
+        <v>2732</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -11645,16 +11645,16 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C67" s="1">
-        <v>1983</v>
+        <v>62300</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
@@ -11666,7 +11666,7 @@
         <v>45665</v>
       </c>
       <c r="I67" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -11745,13 +11745,13 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c r="AK67" s="1">
         <v>0</v>
       </c>
       <c r="AL67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM67" s="1">
         <v>0</v>
@@ -11813,19 +11813,19 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D68" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" t="s">
         <v>64</v>
-      </c>
-      <c r="E68" t="s">
-        <v>93</v>
-      </c>
-      <c r="F68" t="s">
-        <v>62</v>
       </c>
       <c r="G68" t="s">
         <v>117</v>
@@ -11834,7 +11834,7 @@
         <v>45665</v>
       </c>
       <c r="I68" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J68" s="1">
         <v>1</v>
@@ -11853,16 +11853,16 @@
         <v>0</v>
       </c>
       <c r="P68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" s="1">
         <v>0</v>
@@ -11913,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="AK68" s="1">
         <v>1</v>
@@ -11981,10 +11981,10 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C69" s="1">
-        <v>12562546</v>
+        <v>68602</v>
       </c>
       <c r="D69" t="s">
         <v>78</v>
@@ -11993,7 +11993,7 @@
         <v>107</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G69" t="s">
         <v>117</v>
@@ -12002,13 +12002,13 @@
         <v>45665</v>
       </c>
       <c r="I69" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -12081,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="AK69" s="1">
         <v>0</v>
@@ -12096,16 +12096,16 @@
         <v>0</v>
       </c>
       <c r="AO69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS69" s="1">
         <v>0</v>
@@ -12149,17 +12149,19 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5462328</v>
+      </c>
       <c r="D70" t="s">
         <v>62</v>
       </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F70" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G70" t="s">
         <v>117</v>
@@ -12168,13 +12170,13 @@
         <v>45665</v>
       </c>
       <c r="I70" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -12241,19 +12243,19 @@
         <v>0</v>
       </c>
       <c r="AH70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI70" s="1">
         <v>0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM70" s="1">
         <v>0</v>
@@ -12315,16 +12317,16 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C71" s="1">
-        <v>62300</v>
+        <v>21812144</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F71" t="s">
         <v>115</v>
@@ -12336,7 +12338,7 @@
         <v>45665</v>
       </c>
       <c r="I71" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -12415,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="AK71" s="1">
         <v>0</v>
@@ -12469,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="BB71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC71" s="1">
         <v>0</v>
@@ -12483,16 +12485,16 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C72" s="1">
         <v>446220</v>
       </c>
       <c r="D72" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E72" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F72" t="s">
         <v>115</v>
@@ -12504,7 +12506,7 @@
         <v>45665</v>
       </c>
       <c r="I72" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -12651,16 +12653,16 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C73" s="1">
-        <v>21812144</v>
+        <v>88890</v>
       </c>
       <c r="D73" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F73" t="s">
         <v>115</v>
@@ -12672,7 +12674,7 @@
         <v>45665</v>
       </c>
       <c r="I73" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -12751,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="AJ73" s="1">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="AK73" s="1">
         <v>0</v>
@@ -12802,10 +12804,10 @@
         <v>0</v>
       </c>
       <c r="BA73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC73" s="1">
         <v>0</v>
@@ -12819,16 +12821,16 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" s="1">
-        <v>33741</v>
+        <v>3676</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F74" t="s">
         <v>115</v>
@@ -12840,7 +12842,7 @@
         <v>45665</v>
       </c>
       <c r="I74" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -12898,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="AC74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD74" s="1">
         <v>0</v>
@@ -12919,13 +12921,13 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="1">
-        <v>313</v>
+        <v>216</v>
       </c>
       <c r="AK74" s="1">
         <v>0</v>
       </c>
       <c r="AL74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74" s="1">
         <v>0</v>
@@ -12961,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="AX74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY74" s="1">
         <v>0</v>
@@ -12987,19 +12989,19 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C75" s="1">
-        <v>3676</v>
+        <v>5707</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E75" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F75" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G75" t="s">
         <v>117</v>
@@ -13008,13 +13010,13 @@
         <v>45665</v>
       </c>
       <c r="I75" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -13033,10 +13035,10 @@
         <v>0</v>
       </c>
       <c r="R75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" s="1">
         <v>0</v>
@@ -13087,13 +13089,13 @@
         <v>0</v>
       </c>
       <c r="AJ75" s="1">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="AK75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -13129,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="AX75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY75" s="1">
         <v>0</v>
@@ -13155,19 +13157,19 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C76" s="1">
-        <v>3345</v>
+        <v>5486550</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E76" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G76" t="s">
         <v>117</v>
@@ -13176,13 +13178,13 @@
         <v>45665</v>
       </c>
       <c r="I76" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -13195,10 +13197,10 @@
         <v>0</v>
       </c>
       <c r="P76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -13255,10 +13257,10 @@
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="AK76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76" s="1">
         <v>1</v>
@@ -13300,7 +13302,7 @@
         <v>0</v>
       </c>
       <c r="AY76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ76" s="1">
         <v>0</v>
@@ -13323,16 +13325,16 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C77" s="1">
-        <v>5462507</v>
+        <v>33741</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E77" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F77" t="s">
         <v>115</v>
@@ -13344,7 +13346,7 @@
         <v>45665</v>
       </c>
       <c r="I77" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -13402,7 +13404,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD77" s="1">
         <v>0</v>
@@ -13422,12 +13424,14 @@
       <c r="AI77" s="1">
         <v>0</v>
       </c>
-      <c r="AJ77" s="1"/>
+      <c r="AJ77" s="1">
+        <v>313</v>
+      </c>
       <c r="AK77" s="1">
         <v>0</v>
       </c>
       <c r="AL77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -13489,19 +13493,17 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" s="1">
-        <v>5462328</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C78" s="1"/>
       <c r="D78" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E78" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F78" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G78" t="s">
         <v>117</v>
@@ -13510,13 +13512,13 @@
         <v>45665</v>
       </c>
       <c r="I78" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -13583,19 +13585,19 @@
         <v>0</v>
       </c>
       <c r="AH78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI78" s="1">
         <v>0</v>
       </c>
       <c r="AJ78" s="1">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="AK78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -13657,16 +13659,16 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C79" s="1">
-        <v>10836</v>
+        <v>1983</v>
       </c>
       <c r="D79" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F79" t="s">
         <v>115</v>
@@ -13678,7 +13680,7 @@
         <v>45665</v>
       </c>
       <c r="I79" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
@@ -13715,7 +13717,7 @@
         <v>0</v>
       </c>
       <c r="V79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W79" s="1">
         <v>0</v>
@@ -13757,7 +13759,7 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="1">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="AK79" s="1">
         <v>0</v>
@@ -13828,7 +13830,7 @@
         <v>48</v>
       </c>
       <c r="C80" s="1">
-        <v>68602</v>
+        <v>12562546</v>
       </c>
       <c r="D80" t="s">
         <v>79</v>
@@ -13837,7 +13839,7 @@
         <v>108</v>
       </c>
       <c r="F80" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G80" t="s">
         <v>117</v>
@@ -13846,13 +13848,13 @@
         <v>45665</v>
       </c>
       <c r="I80" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1">
@@ -13925,7 +13927,7 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="AK80" s="1">
         <v>0</v>
@@ -13940,16 +13942,16 @@
         <v>0</v>
       </c>
       <c r="AO80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS80" s="1">
         <v>0</v>
@@ -13993,16 +13995,16 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C81" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D81" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E81" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F81" t="s">
         <v>115</v>
@@ -14014,7 +14016,7 @@
         <v>45665</v>
       </c>
       <c r="I81" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J81" s="1">
         <v>0</v>
@@ -14092,14 +14094,12 @@
       <c r="AI81" s="1">
         <v>0</v>
       </c>
-      <c r="AJ81" s="1">
-        <v>44</v>
-      </c>
+      <c r="AJ81" s="1"/>
       <c r="AK81" s="1">
         <v>0</v>
       </c>
       <c r="AL81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81" s="1">
         <v>0</v>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="BA81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB81" s="1">
         <v>0</v>
@@ -14161,16 +14161,16 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C82" s="1">
-        <v>5486550</v>
+        <v>10836</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E82" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F82" t="s">
         <v>115</v>
@@ -14182,7 +14182,7 @@
         <v>45665</v>
       </c>
       <c r="I82" s="1">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J82" s="1">
         <v>0</v>
@@ -14219,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="V82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W82" s="1">
         <v>0</v>
@@ -14261,13 +14261,13 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="AK82" s="1">
         <v>0</v>
       </c>
       <c r="AL82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82" s="1">
         <v>0</v>
@@ -14306,7 +14306,7 @@
         <v>0</v>
       </c>
       <c r="AY82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ82" s="1">
         <v>0</v>
@@ -14341,7 +14341,7 @@
         <v>86</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G83" t="s">
         <v>117</v>
@@ -14350,7 +14350,7 @@
         <v>45649</v>
       </c>
       <c r="I83" s="1">
-        <v>2731</v>
+        <v>2734</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -14497,16 +14497,16 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C84" s="1">
-        <v>1983</v>
+        <v>5707</v>
       </c>
       <c r="D84" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E84" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F84" t="s">
         <v>115</v>
@@ -14518,7 +14518,7 @@
         <v>45602</v>
       </c>
       <c r="I84" s="1">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="J84" s="1">
         <v>0</v>
@@ -14546,10 +14546,10 @@
         <v>0</v>
       </c>
       <c r="S84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84" s="1">
         <v>0</v>
@@ -14597,13 +14597,13 @@
         <v>0</v>
       </c>
       <c r="AJ84" s="1">
-        <v>114</v>
+        <v>324</v>
       </c>
       <c r="AK84" s="1">
         <v>0</v>
       </c>
       <c r="AL84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -14665,19 +14665,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C85" s="1">
-        <v>3345</v>
+        <v>6213</v>
       </c>
       <c r="D85" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E85" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F85" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G85" t="s">
         <v>117</v>
@@ -14686,7 +14686,7 @@
         <v>45602</v>
       </c>
       <c r="I85" s="1">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -14705,10 +14705,10 @@
         <v>0</v>
       </c>
       <c r="P85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85" s="1">
         <v>0</v>
@@ -14764,14 +14764,12 @@
       <c r="AI85" s="1">
         <v>0</v>
       </c>
-      <c r="AJ85" s="1">
-        <v>191</v>
-      </c>
+      <c r="AJ85" s="1"/>
       <c r="AK85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -14833,19 +14831,19 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C86" s="1">
-        <v>68602</v>
+        <v>1983</v>
       </c>
       <c r="D86" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E86" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G86" t="s">
         <v>117</v>
@@ -14854,13 +14852,13 @@
         <v>45602</v>
       </c>
       <c r="I86" s="1">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="J86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
@@ -14933,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="AJ86" s="1">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="AK86" s="1">
         <v>0</v>
@@ -15001,17 +14999,19 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3676</v>
+      </c>
       <c r="D87" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E87" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G87" t="s">
         <v>117</v>
@@ -15020,7 +15020,7 @@
         <v>45602</v>
       </c>
       <c r="I87" s="1">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -15093,13 +15093,13 @@
         <v>0</v>
       </c>
       <c r="AH87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ87" s="1">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="AK87" s="1">
         <v>0</v>
@@ -15141,7 +15141,7 @@
         <v>0</v>
       </c>
       <c r="AX87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY87" s="1">
         <v>0</v>
@@ -15167,19 +15167,19 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C88" s="1">
-        <v>6213</v>
+        <v>88890</v>
       </c>
       <c r="D88" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E88" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G88" t="s">
         <v>117</v>
@@ -15188,7 +15188,7 @@
         <v>45602</v>
       </c>
       <c r="I88" s="1">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="J88" s="1">
         <v>1</v>
@@ -15266,12 +15266,14 @@
       <c r="AI88" s="1">
         <v>0</v>
       </c>
-      <c r="AJ88" s="1"/>
+      <c r="AJ88" s="1">
+        <v>44</v>
+      </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM88" s="1">
         <v>0</v>
@@ -15316,7 +15318,7 @@
         <v>0</v>
       </c>
       <c r="BA88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB88" s="1">
         <v>0</v>
@@ -15333,19 +15335,19 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C89" s="1">
-        <v>88890</v>
+        <v>68602</v>
       </c>
       <c r="D89" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E89" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G89" t="s">
         <v>117</v>
@@ -15354,7 +15356,7 @@
         <v>45602</v>
       </c>
       <c r="I89" s="1">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -15433,13 +15435,13 @@
         <v>0</v>
       </c>
       <c r="AJ89" s="1">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AK89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89" s="1">
         <v>0</v>
@@ -15484,7 +15486,7 @@
         <v>0</v>
       </c>
       <c r="BA89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB89" s="1">
         <v>0</v>
@@ -15501,19 +15503,19 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C90" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D90" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E90" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F90" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G90" t="s">
         <v>117</v>
@@ -15522,7 +15524,7 @@
         <v>45602</v>
       </c>
       <c r="I90" s="1">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="J90" s="1">
         <v>1</v>
@@ -15541,10 +15543,10 @@
         <v>0</v>
       </c>
       <c r="P90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90" s="1">
         <v>0</v>
@@ -15601,13 +15603,13 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="1">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="AK90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -15643,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="AX90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY90" s="1">
         <v>0</v>
@@ -15669,19 +15671,17 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
-      </c>
-      <c r="C91" s="1">
-        <v>5707</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C91" s="1"/>
       <c r="D91" t="s">
         <v>64</v>
       </c>
       <c r="E91" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F91" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G91" t="s">
         <v>117</v>
@@ -15690,13 +15690,13 @@
         <v>45602</v>
       </c>
       <c r="I91" s="1">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="J91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1">
@@ -15718,10 +15718,10 @@
         <v>0</v>
       </c>
       <c r="S91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U91" s="1">
         <v>0</v>
@@ -15763,19 +15763,19 @@
         <v>0</v>
       </c>
       <c r="AH91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ91" s="1">
-        <v>324</v>
+        <v>135</v>
       </c>
       <c r="AK91" s="1">
         <v>0</v>
       </c>
       <c r="AL91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91" s="1">
         <v>0</v>
@@ -15858,7 +15858,7 @@
         <v>45611</v>
       </c>
       <c r="I92" s="1">
-        <v>2733</v>
+        <v>2736</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
@@ -16005,19 +16005,19 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C93" s="1">
-        <v>88890</v>
+        <v>26879</v>
       </c>
       <c r="D93" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E93" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="F93" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G93" t="s">
         <v>117</v>
@@ -16026,13 +16026,13 @@
         <v>45666</v>
       </c>
       <c r="I93" s="1">
-        <v>2734</v>
+        <v>2737</v>
       </c>
       <c r="J93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -16078,7 +16078,7 @@
         <v>0</v>
       </c>
       <c r="AA93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB93" s="1">
         <v>0</v>
@@ -16105,13 +16105,13 @@
         <v>0</v>
       </c>
       <c r="AJ93" s="1">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="AK93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM93" s="1">
         <v>0</v>
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="AX93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY93" s="1">
         <v>0</v>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="BA93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB93" s="1">
         <v>0</v>
@@ -16173,19 +16173,19 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C94" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D94" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E94" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G94" t="s">
         <v>117</v>
@@ -16194,7 +16194,7 @@
         <v>45666</v>
       </c>
       <c r="I94" s="1">
-        <v>2734</v>
+        <v>2737</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
@@ -16273,7 +16273,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AK94" s="1">
         <v>1</v>
@@ -16324,7 +16324,7 @@
         <v>0</v>
       </c>
       <c r="BA94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB94" s="1">
         <v>0</v>
@@ -16341,16 +16341,16 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C95" s="1">
         <v>5462507</v>
       </c>
       <c r="D95" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E95" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F95" t="s">
         <v>115</v>
@@ -16362,7 +16362,7 @@
         <v>45666</v>
       </c>
       <c r="I95" s="1">
-        <v>2734</v>
+        <v>2737</v>
       </c>
       <c r="J95" s="1">
         <v>0</v>
@@ -16528,7 +16528,7 @@
         <v>45666</v>
       </c>
       <c r="I96" s="1">
-        <v>2734</v>
+        <v>2737</v>
       </c>
       <c r="J96" s="1">
         <v>0</v>
@@ -16675,19 +16675,19 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C97" s="1">
-        <v>3345</v>
+        <v>5486550</v>
       </c>
       <c r="D97" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E97" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F97" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G97" t="s">
         <v>117</v>
@@ -16696,13 +16696,13 @@
         <v>45666</v>
       </c>
       <c r="I97" s="1">
-        <v>2734</v>
+        <v>2737</v>
       </c>
       <c r="J97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1">
@@ -16715,10 +16715,10 @@
         <v>0</v>
       </c>
       <c r="P97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R97" s="1">
         <v>0</v>
@@ -16775,10 +16775,10 @@
         <v>0</v>
       </c>
       <c r="AJ97" s="1">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="AK97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL97" s="1">
         <v>1</v>
@@ -16820,7 +16820,7 @@
         <v>0</v>
       </c>
       <c r="AY97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ97" s="1">
         <v>0</v>
@@ -16843,19 +16843,19 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C98" s="1">
-        <v>26879</v>
+        <v>3345</v>
       </c>
       <c r="D98" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E98" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F98" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G98" t="s">
         <v>117</v>
@@ -16864,13 +16864,13 @@
         <v>45666</v>
       </c>
       <c r="I98" s="1">
-        <v>2734</v>
+        <v>2737</v>
       </c>
       <c r="J98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1">
@@ -16883,10 +16883,10 @@
         <v>0</v>
       </c>
       <c r="P98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98" s="1">
         <v>0</v>
@@ -16916,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="AA98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB98" s="1">
         <v>0</v>
@@ -16943,13 +16943,13 @@
         <v>0</v>
       </c>
       <c r="AJ98" s="1">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="AK98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM98" s="1">
         <v>0</v>
@@ -16985,7 +16985,7 @@
         <v>0</v>
       </c>
       <c r="AX98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY98" s="1">
         <v>0</v>
@@ -17011,19 +17011,19 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C99" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D99" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E99" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F99" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G99" t="s">
         <v>117</v>
@@ -17032,13 +17032,13 @@
         <v>45666</v>
       </c>
       <c r="I99" s="1">
-        <v>2734</v>
+        <v>2737</v>
       </c>
       <c r="J99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1">
@@ -17111,10 +17111,10 @@
         <v>0</v>
       </c>
       <c r="AJ99" s="1">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="AK99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL99" s="1">
         <v>1</v>
@@ -17156,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="AY99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ99" s="1">
         <v>0</v>
@@ -17179,19 +17179,19 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C100" s="1">
         <v>88890</v>
       </c>
       <c r="D100" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E100" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F100" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G100" t="s">
         <v>117</v>
@@ -17200,7 +17200,7 @@
         <v>45666</v>
       </c>
       <c r="I100" s="1">
-        <v>2735</v>
+        <v>2738</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -17347,19 +17347,19 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C101" s="1">
         <v>3345</v>
       </c>
       <c r="D101" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G101" t="s">
         <v>117</v>
@@ -17368,7 +17368,7 @@
         <v>45666</v>
       </c>
       <c r="I101" s="1">
-        <v>2735</v>
+        <v>2738</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -17515,16 +17515,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C102" s="1">
-        <v>26879</v>
+        <v>5486550</v>
       </c>
       <c r="D102" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E102" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F102" t="s">
         <v>115</v>
@@ -17536,7 +17536,7 @@
         <v>45666</v>
       </c>
       <c r="I102" s="1">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="J102" s="1">
         <v>0</v>
@@ -17588,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="AA102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="1">
         <v>0</v>
@@ -17615,13 +17615,13 @@
         <v>0</v>
       </c>
       <c r="AJ102" s="1">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="AK102" s="1">
         <v>0</v>
       </c>
       <c r="AL102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM102" s="1">
         <v>0</v>
@@ -17657,10 +17657,10 @@
         <v>0</v>
       </c>
       <c r="AX102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ102" s="1">
         <v>0</v>
@@ -17683,16 +17683,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C103" s="1">
         <v>5462507</v>
       </c>
       <c r="D103" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E103" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F103" t="s">
         <v>115</v>
@@ -17704,7 +17704,7 @@
         <v>45666</v>
       </c>
       <c r="I103" s="1">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="J103" s="1">
         <v>0</v>
@@ -17849,16 +17849,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C104" s="1">
-        <v>5486550</v>
+        <v>26879</v>
       </c>
       <c r="D104" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E104" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F104" t="s">
         <v>115</v>
@@ -17870,7 +17870,7 @@
         <v>45666</v>
       </c>
       <c r="I104" s="1">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="J104" s="1">
         <v>0</v>
@@ -17922,7 +17922,7 @@
         <v>0</v>
       </c>
       <c r="AA104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB104" s="1">
         <v>0</v>
@@ -17949,13 +17949,13 @@
         <v>0</v>
       </c>
       <c r="AJ104" s="1">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="AK104" s="1">
         <v>0</v>
       </c>
       <c r="AL104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -17991,10 +17991,10 @@
         <v>0</v>
       </c>
       <c r="AX104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ104" s="1">
         <v>0</v>
@@ -18017,19 +18017,19 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C105" s="1">
         <v>88890</v>
       </c>
       <c r="D105" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F105" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G105" t="s">
         <v>117</v>
@@ -18038,7 +18038,7 @@
         <v>45666</v>
       </c>
       <c r="I105" s="1">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="J105" s="1">
         <v>1</v>
@@ -18185,19 +18185,19 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C106" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D106" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E106" t="s">
         <v>92</v>
       </c>
       <c r="F106" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G106" t="s">
         <v>117</v>
@@ -18206,7 +18206,7 @@
         <v>45666</v>
       </c>
       <c r="I106" s="1">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="J106" s="1">
         <v>1</v>
@@ -18225,10 +18225,10 @@
         <v>0</v>
       </c>
       <c r="P106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R106" s="1">
         <v>0</v>
@@ -18285,7 +18285,7 @@
         <v>0</v>
       </c>
       <c r="AJ106" s="1">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AK106" s="1">
         <v>1</v>
@@ -18356,7 +18356,7 @@
         <v>28</v>
       </c>
       <c r="C107" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D107" t="s">
         <v>61</v>
@@ -18365,7 +18365,7 @@
         <v>91</v>
       </c>
       <c r="F107" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G107" t="s">
         <v>117</v>
@@ -18374,7 +18374,7 @@
         <v>45666</v>
       </c>
       <c r="I107" s="1">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="J107" s="1">
         <v>1</v>
@@ -18393,10 +18393,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -18453,7 +18453,7 @@
         <v>0</v>
       </c>
       <c r="AJ107" s="1">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AK107" s="1">
         <v>1</v>
@@ -18533,7 +18533,7 @@
         <v>86</v>
       </c>
       <c r="F108" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G108" t="s">
         <v>117</v>
@@ -18542,7 +18542,7 @@
         <v>45666</v>
       </c>
       <c r="I108" s="1">
-        <v>2778</v>
+        <v>2781</v>
       </c>
       <c r="J108" s="1">
         <v>1</v>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -87,49 +87,49 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>caffeine</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>quinine</t>
+  </si>
+  <si>
+    <t>xylazine</t>
   </si>
   <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>papaverine</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
+    <t>fentanyl</t>
   </si>
   <si>
     <t>1-phenethyl-4-hydroxypiperidine</t>
   </si>
   <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
+    <t>papaverine</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>acetyl fentanyl</t>
@@ -141,34 +141,34 @@
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
+    <t>bromazolam</t>
   </si>
   <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
-    <t>despropionyl p-fluorofentanyl</t>
+    <t>medetomidine</t>
   </si>
   <si>
     <t>procaine</t>
   </si>
   <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
+    <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
     <t>tramadol</t>
   </si>
   <si>
     <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
   </si>
   <si>
     <t>alprazolam</t>
@@ -186,46 +186,46 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
     <t>50-36-2</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>72402-53-0</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
   </si>
   <si>
     <t>90736-23-5</t>
   </si>
   <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
     <t>437-38-7</t>
   </si>
   <si>
-    <t>561-27-3</t>
+    <t>2784-73-8</t>
   </si>
   <si>
-    <t>7361-61-7</t>
+    <t>6703-27-1</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>58-08-2</t>
+    <t>1462260-87-2</t>
   </si>
   <si>
     <t>58-74-2</t>
   </si>
   <si>
-    <t>1462260-87-2</t>
-  </si>
-  <si>
     <t>620-71-3</t>
-  </si>
-  <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
   </si>
   <si>
     <t>3258-84-2</t>
@@ -237,31 +237,31 @@
     <t>519-09-5</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
     <t>67-71-0</t>
   </si>
   <si>
-    <t>105-70-4</t>
+    <t>71368-80-4</t>
   </si>
   <si>
-    <t>122861-41-0</t>
+    <t>86347-14-0</t>
   </si>
   <si>
     <t>59-46-1</t>
   </si>
   <si>
-    <t>86347-14-0</t>
-  </si>
-  <si>
-    <t>71368-80-4</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
+    <t>122861-41-0</t>
   </si>
   <si>
     <t>123154-38-1</t>
   </si>
   <si>
     <t>103-90-2</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
   </si>
   <si>
     <t>28981-97-7</t>
@@ -276,6 +276,9 @@
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
@@ -285,34 +288,31 @@
     <t>A7V27PHC7A</t>
   </si>
   <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
     <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
   </si>
   <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>70D95007SX</t>
+    <t>M5E47P1ZCH</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
+    <t>U59401ETXH</t>
   </si>
   <si>
-    <t>3G6A5W338E</t>
+    <t>3D9E9KK5K5</t>
   </si>
   <si>
     <t>DAA13NKG2Q</t>
   </si>
   <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>6DZ28538KS</t>
@@ -324,31 +324,31 @@
     <t>5353I8I6YS</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
+    <t>YMC9OT97Z1</t>
   </si>
   <si>
-    <t>R8ZH1EQ95Y</t>
+    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>4Z8Y51M438</t>
   </si>
   <si>
-    <t>MR15E85MQM</t>
-  </si>
-  <si>
-    <t>YMC9OT97Z1</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
+    <t>R8ZH1EQ95Y</t>
   </si>
   <si>
     <t>39J1LGJ30J</t>
   </si>
   <si>
     <t>362O9ITL9D</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -751,7 +751,7 @@
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>117</v>
@@ -910,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -919,7 +919,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
         <v>117</v>
@@ -931,10 +931,10 @@
         <v>1313</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="1">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
@@ -1087,7 +1087,7 @@
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>3034034</v>
+        <v>446220</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -1255,7 +1255,7 @@
         <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
         <v>117</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>294</v>
+        <v>150</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
         <v>115</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>117</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1679,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -1750,13 +1750,13 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
         <v>115</v>
@@ -1796,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
@@ -1918,13 +1918,13 @@
         <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -1964,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
@@ -2086,13 +2086,13 @@
         <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>165365057</v>
+        <v>5462328</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
         <v>115</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="1">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
@@ -2263,7 +2263,7 @@
         <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
         <v>117</v>
@@ -2275,10 +2275,10 @@
         <v>1313</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -2351,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>0</v>
@@ -2419,13 +2419,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>93</v>
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="AK12" s="1">
         <v>0</v>
@@ -2587,19 +2587,19 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>165365057</v>
+        <v>2519</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
         <v>117</v>
@@ -2611,10 +2611,10 @@
         <v>1456</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="1">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>29</v>
       </c>
       <c r="C14" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
         <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
         <v>115</v>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="AK14" s="1">
         <v>0</v>
@@ -2923,16 +2923,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
-        <v>2519</v>
+        <v>62300</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
         <v>115</v>
@@ -3023,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="AK15" s="1">
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>0</v>
@@ -3091,19 +3091,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>88890</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
         <v>117</v>
@@ -3259,19 +3259,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
         <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" t="s">
-        <v>115</v>
       </c>
       <c r="G17" t="s">
         <v>117</v>
@@ -3283,10 +3283,10 @@
         <v>1456</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3299,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
         <v>1</v>
@@ -3427,19 +3427,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
         <v>117</v>
@@ -3467,10 +3467,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="AK18" s="1">
         <v>1</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="1">
         <v>0</v>
@@ -3595,19 +3595,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
         <v>3034034</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
         <v>117</v>
@@ -3763,19 +3763,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>3034034</v>
+        <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G20" t="s">
         <v>117</v>
@@ -3787,10 +3787,10 @@
         <v>1471</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="AK20" s="1">
         <v>0</v>
       </c>
       <c r="AL20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20" s="1">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="AX20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="1">
         <v>0</v>
@@ -3931,19 +3931,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
         <v>117</v>
@@ -3955,10 +3955,10 @@
         <v>1471</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="1">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="1">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="1">
         <v>0</v>
@@ -4099,19 +4099,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1">
         <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
         <v>117</v>
@@ -4279,7 +4279,7 @@
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
         <v>117</v>
@@ -4435,19 +4435,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <v>5462328</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
         <v>117</v>
@@ -4603,19 +4603,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G25" t="s">
         <v>117</v>
@@ -4627,10 +4627,10 @@
         <v>2214</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4643,10 +4643,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="1">
         <v>0</v>
@@ -4703,13 +4703,13 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -4771,19 +4771,17 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="1">
-        <v>165365057</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -4795,10 +4793,10 @@
         <v>2214</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4871,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>281</v>
+        <v>9</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
         <v>1</v>
@@ -4922,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4939,10 +4937,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
-        <v>4680</v>
+        <v>5462507</v>
       </c>
       <c r="D27" t="s">
         <v>66</v>
@@ -4951,7 +4949,7 @@
         <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
         <v>117</v>
@@ -4963,10 +4961,10 @@
         <v>2214</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -5038,14 +5036,12 @@
       <c r="AI27" s="1">
         <v>0</v>
       </c>
-      <c r="AJ27" s="1">
-        <v>276</v>
-      </c>
+      <c r="AJ27" s="1"/>
       <c r="AK27" s="1">
         <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="1">
         <v>0</v>
@@ -5084,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="AY27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="1">
         <v>0</v>
@@ -5107,19 +5103,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
         <v>117</v>
@@ -5153,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
@@ -5207,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AK28" s="1">
         <v>1</v>
@@ -5258,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB28" s="1">
         <v>0</v>
@@ -5275,10 +5271,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1">
-        <v>91725431</v>
+        <v>5486550</v>
       </c>
       <c r="D29" t="s">
         <v>67</v>
@@ -5287,7 +5283,7 @@
         <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
         <v>117</v>
@@ -5299,10 +5295,10 @@
         <v>2214</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5375,13 +5371,13 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5420,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AY29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ29" s="1">
         <v>0</v>
@@ -5443,19 +5439,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
         <v>117</v>
@@ -5467,10 +5463,10 @@
         <v>2214</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5543,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
         <v>1</v>
@@ -5611,10 +5607,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1">
-        <v>12107</v>
+        <v>91725431</v>
       </c>
       <c r="D31" t="s">
         <v>68</v>
@@ -5711,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="AK31" s="1">
         <v>0</v>
@@ -5762,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5779,19 +5775,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>5486550</v>
+        <v>3345</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
         <v>117</v>
@@ -5819,10 +5815,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="1">
         <v>0</v>
@@ -5879,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="AK32" s="1">
         <v>1</v>
@@ -5924,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="AY32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ32" s="1">
         <v>0</v>
@@ -5947,17 +5943,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5707</v>
+      </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
         <v>117</v>
@@ -5991,10 +5989,10 @@
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="1">
         <v>0</v>
@@ -6045,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>9</v>
+        <v>324</v>
       </c>
       <c r="AK33" s="1">
         <v>1</v>
@@ -6113,19 +6111,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
-        <v>5462507</v>
+        <v>4680</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G34" t="s">
         <v>117</v>
@@ -6137,10 +6135,10 @@
         <v>2214</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -6212,12 +6210,14 @@
       <c r="AI34" s="1">
         <v>0</v>
       </c>
-      <c r="AJ34" s="1"/>
+      <c r="AJ34" s="1">
+        <v>276</v>
+      </c>
       <c r="AK34" s="1">
         <v>0</v>
       </c>
       <c r="AL34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34" s="1">
         <v>0</v>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="AY34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ34" s="1">
         <v>0</v>
@@ -6279,16 +6279,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
-        <v>10836</v>
+        <v>12107</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
         <v>115</v>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="1">
         <v>0</v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="AK35" s="1">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB35" s="1">
         <v>0</v>
@@ -6447,19 +6447,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1">
-        <v>446220</v>
+        <v>527015</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
         <v>117</v>
@@ -6471,10 +6471,10 @@
         <v>2275</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6508,10 +6508,10 @@
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -6547,13 +6547,13 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="AK36" s="1">
         <v>0</v>
       </c>
       <c r="AL36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB36" s="1">
         <v>0</v>
@@ -6615,19 +6615,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
         <v>117</v>
@@ -6639,10 +6639,10 @@
         <v>2275</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="1">
         <v>0</v>
@@ -6715,13 +6715,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="BA37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB37" s="1">
         <v>0</v>
@@ -6783,19 +6783,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
         <v>117</v>
@@ -6807,10 +6807,10 @@
         <v>2275</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6823,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="1">
         <v>0</v>
@@ -6883,13 +6883,13 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -6951,16 +6951,16 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1">
         <v>165365057</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F39" t="s">
         <v>115</v>
@@ -7119,19 +7119,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
         <v>117</v>
@@ -7159,10 +7159,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK40" s="1">
         <v>1</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="1">
         <v>0</v>
@@ -7287,19 +7287,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1">
-        <v>527015</v>
+        <v>446220</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
         <v>117</v>
@@ -7311,10 +7311,10 @@
         <v>2275</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -7348,10 +7348,10 @@
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>
@@ -7387,13 +7387,13 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="AK41" s="1">
         <v>0</v>
       </c>
       <c r="AL41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="1">
         <v>0</v>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="1">
         <v>0</v>
@@ -7467,7 +7467,7 @@
         <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
         <v>117</v>
@@ -7623,19 +7623,19 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F43" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
         <v>117</v>
@@ -7647,10 +7647,10 @@
         <v>2326</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7684,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -7722,7 +7722,9 @@
       <c r="AI43" s="1">
         <v>0</v>
       </c>
-      <c r="AJ43" s="1"/>
+      <c r="AJ43" s="1">
+        <v>150</v>
+      </c>
       <c r="AK43" s="1">
         <v>0</v>
       </c>
@@ -7789,19 +7791,19 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G44" t="s">
         <v>117</v>
@@ -7813,10 +7815,10 @@
         <v>2326</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7850,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="1">
         <v>0</v>
@@ -7888,9 +7890,7 @@
       <c r="AI44" s="1">
         <v>0</v>
       </c>
-      <c r="AJ44" s="1">
-        <v>150</v>
-      </c>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1">
         <v>0</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D46" t="s">
         <v>57</v>
@@ -8135,7 +8135,7 @@
         <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
         <v>117</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46" s="1">
         <v>0</v>
@@ -8223,13 +8223,13 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="AX46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY46" s="1">
         <v>0</v>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB46" s="1">
         <v>0</v>
@@ -8291,19 +8291,19 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
         <v>117</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1">
         <v>0</v>
@@ -8391,13 +8391,13 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AK47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="AX47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY47" s="1">
         <v>0</v>
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="BA47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB47" s="1">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
         <v>117</v>
@@ -8627,19 +8627,19 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="1">
         <v>5707</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G49" t="s">
         <v>117</v>
@@ -8807,7 +8807,7 @@
         <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
         <v>117</v>
@@ -8966,7 +8966,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="1">
-        <v>6213</v>
+        <v>66924</v>
       </c>
       <c r="D51" t="s">
         <v>74</v>
@@ -8975,7 +8975,7 @@
         <v>103</v>
       </c>
       <c r="F51" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
         <v>117</v>
@@ -8987,10 +8987,10 @@
         <v>2730</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -9062,7 +9062,9 @@
       <c r="AI51" s="1">
         <v>0</v>
       </c>
-      <c r="AJ51" s="1"/>
+      <c r="AJ51" s="1">
+        <v>2</v>
+      </c>
       <c r="AK51" s="1">
         <v>0</v>
       </c>
@@ -9132,7 +9134,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="1">
-        <v>66924</v>
+        <v>6213</v>
       </c>
       <c r="D52" t="s">
         <v>75</v>
@@ -9141,7 +9143,7 @@
         <v>104</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G52" t="s">
         <v>117</v>
@@ -9153,10 +9155,10 @@
         <v>2730</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -9228,9 +9230,7 @@
       <c r="AI52" s="1">
         <v>0</v>
       </c>
-      <c r="AJ52" s="1">
-        <v>2</v>
-      </c>
+      <c r="AJ52" s="1"/>
       <c r="AK52" s="1">
         <v>0</v>
       </c>
@@ -9297,19 +9297,19 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C53" s="1">
-        <v>5707</v>
+        <v>12562546</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G53" t="s">
         <v>117</v>
@@ -9321,10 +9321,10 @@
         <v>2731</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -9343,10 +9343,10 @@
         <v>0</v>
       </c>
       <c r="R53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" s="1">
         <v>0</v>
@@ -9397,13 +9397,13 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>324</v>
+        <v>136</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="1">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="AP53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ53" s="1">
         <v>0</v>
       </c>
       <c r="AR53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS53" s="1">
         <v>0</v>
@@ -9465,14 +9465,14 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F54" t="s">
         <v>115</v>
@@ -9631,19 +9631,19 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C55" s="1">
-        <v>21812144</v>
+        <v>10836</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G55" t="s">
         <v>117</v>
@@ -9655,10 +9655,10 @@
         <v>2731</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W55" s="1">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="AK55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="1">
         <v>0</v>
@@ -9785,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="1">
         <v>0</v>
@@ -9799,19 +9799,19 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C56" s="1">
-        <v>4914</v>
+        <v>3345</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G56" t="s">
         <v>117</v>
@@ -9823,10 +9823,10 @@
         <v>2731</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9839,10 +9839,10 @@
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
@@ -9899,13 +9899,13 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="AK56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM56" s="1">
         <v>0</v>
@@ -9941,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="AX56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY56" s="1">
         <v>0</v>
@@ -9967,19 +9967,19 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C57" s="1">
-        <v>3345</v>
+        <v>68602</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G57" t="s">
         <v>117</v>
@@ -9991,10 +9991,10 @@
         <v>2731</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -10007,10 +10007,10 @@
         <v>0</v>
       </c>
       <c r="P57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -10067,13 +10067,13 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1">
-        <v>6213</v>
+        <v>88890</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G58" t="s">
         <v>117</v>
@@ -10234,12 +10234,14 @@
       <c r="AI58" s="1">
         <v>0</v>
       </c>
-      <c r="AJ58" s="1"/>
+      <c r="AJ58" s="1">
+        <v>44</v>
+      </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM58" s="1">
         <v>0</v>
@@ -10284,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB58" s="1">
         <v>0</v>
@@ -10301,19 +10303,19 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G59" t="s">
         <v>117</v>
@@ -10325,10 +10327,10 @@
         <v>2731</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -10401,13 +10403,13 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="AK59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="AX59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY59" s="1">
         <v>0</v>
@@ -10452,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="BA59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB59" s="1">
         <v>0</v>
@@ -10469,19 +10471,19 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1">
-        <v>5462328</v>
+        <v>21812144</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G60" t="s">
         <v>117</v>
@@ -10569,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="AK60" s="1">
         <v>1</v>
@@ -10623,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="BB60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC60" s="1">
         <v>0</v>
@@ -10637,19 +10639,19 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C61" s="1">
-        <v>68602</v>
+        <v>6213</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F61" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G61" t="s">
         <v>117</v>
@@ -10661,10 +10663,10 @@
         <v>2731</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -10736,9 +10738,7 @@
       <c r="AI61" s="1">
         <v>0</v>
       </c>
-      <c r="AJ61" s="1">
-        <v>224</v>
-      </c>
+      <c r="AJ61" s="1"/>
       <c r="AK61" s="1">
         <v>0</v>
       </c>
@@ -10805,19 +10805,19 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C62" s="1">
-        <v>10836</v>
+        <v>5707</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E62" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F62" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
         <v>117</v>
@@ -10829,10 +10829,10 @@
         <v>2731</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -10851,10 +10851,10 @@
         <v>0</v>
       </c>
       <c r="R62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62" s="1">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10973,16 +10973,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C63" s="1">
-        <v>12562546</v>
+        <v>62300</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F63" t="s">
         <v>115</v>
@@ -11073,13 +11073,13 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="AK63" s="1">
         <v>0</v>
       </c>
       <c r="AL63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -11091,13 +11091,13 @@
         <v>0</v>
       </c>
       <c r="AP63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63" s="1">
         <v>0</v>
       </c>
       <c r="AR63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS63" s="1">
         <v>0</v>
@@ -11141,19 +11141,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C64" s="1">
-        <v>4914</v>
+        <v>5462328</v>
       </c>
       <c r="D64" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G64" t="s">
         <v>117</v>
@@ -11241,13 +11241,13 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>287</v>
+        <v>201</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11283,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="AX64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY64" s="1">
         <v>0</v>
@@ -11309,19 +11309,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C65" s="1">
-        <v>62300</v>
+        <v>4914</v>
       </c>
       <c r="D65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" t="s">
         <v>60</v>
-      </c>
-      <c r="E65" t="s">
-        <v>90</v>
-      </c>
-      <c r="F65" t="s">
-        <v>115</v>
       </c>
       <c r="G65" t="s">
         <v>117</v>
@@ -11333,10 +11333,10 @@
         <v>2731</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11409,13 +11409,13 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AK65" s="1">
         <v>0</v>
       </c>
       <c r="AL65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY65" s="1">
         <v>0</v>
@@ -11489,7 +11489,7 @@
         <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G66" t="s">
         <v>117</v>
@@ -11645,19 +11645,19 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C67" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" t="s">
         <v>60</v>
-      </c>
-      <c r="E67" t="s">
-        <v>90</v>
-      </c>
-      <c r="F67" t="s">
-        <v>115</v>
       </c>
       <c r="G67" t="s">
         <v>117</v>
@@ -11669,10 +11669,10 @@
         <v>2733</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -11685,10 +11685,10 @@
         <v>0</v>
       </c>
       <c r="P67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" s="1">
         <v>0</v>
@@ -11745,10 +11745,10 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="AK67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="1">
         <v>1</v>
@@ -11813,19 +11813,19 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C68" s="1">
-        <v>3345</v>
+        <v>68602</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E68" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G68" t="s">
         <v>117</v>
@@ -11837,10 +11837,10 @@
         <v>2733</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -11853,10 +11853,10 @@
         <v>0</v>
       </c>
       <c r="P68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="1">
         <v>0</v>
@@ -11913,13 +11913,13 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="AK68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68" s="1">
         <v>0</v>
@@ -11981,19 +11981,19 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C69" s="1">
-        <v>68602</v>
+        <v>5462328</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E69" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F69" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G69" t="s">
         <v>117</v>
@@ -12005,10 +12005,10 @@
         <v>2733</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -12081,13 +12081,13 @@
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="AK69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -12149,19 +12149,19 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C70" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D70" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E70" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G70" t="s">
         <v>117</v>
@@ -12173,10 +12173,10 @@
         <v>2733</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -12249,10 +12249,10 @@
         <v>0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
         <v>1</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="AY70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ70" s="1">
         <v>0</v>
@@ -12317,16 +12317,16 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C71" s="1">
-        <v>21812144</v>
+        <v>10836</v>
       </c>
       <c r="D71" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s">
         <v>115</v>
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="V71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W71" s="1">
         <v>0</v>
@@ -12417,13 +12417,13 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="AK71" s="1">
         <v>0</v>
       </c>
       <c r="AL71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71" s="1">
         <v>0</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="BB71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC71" s="1">
         <v>0</v>
@@ -12485,16 +12485,16 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C72" s="1">
-        <v>446220</v>
+        <v>62300</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E72" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F72" t="s">
         <v>115</v>
@@ -12549,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="1">
         <v>0</v>
@@ -12585,13 +12585,13 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="AK72" s="1">
         <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -12653,16 +12653,16 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C73" s="1">
-        <v>88890</v>
+        <v>33741</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E73" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F73" t="s">
         <v>115</v>
@@ -12732,7 +12732,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" s="1">
         <v>0</v>
@@ -12753,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="AJ73" s="1">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="AK73" s="1">
         <v>0</v>
@@ -12804,7 +12804,7 @@
         <v>0</v>
       </c>
       <c r="BA73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB73" s="1">
         <v>0</v>
@@ -12821,16 +12821,16 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" s="1">
-        <v>3676</v>
+        <v>21812144</v>
       </c>
       <c r="D74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F74" t="s">
         <v>115</v>
@@ -12921,13 +12921,13 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="1">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="AK74" s="1">
         <v>0</v>
       </c>
       <c r="AL74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM74" s="1">
         <v>0</v>
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="AX74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="1">
         <v>0</v>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="BB74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC74" s="1">
         <v>0</v>
@@ -12989,19 +12989,17 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" s="1">
-        <v>5707</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C75" s="1"/>
       <c r="D75" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E75" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G75" t="s">
         <v>117</v>
@@ -13013,10 +13011,10 @@
         <v>2733</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -13035,10 +13033,10 @@
         <v>0</v>
       </c>
       <c r="R75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75" s="1">
         <v>0</v>
@@ -13083,19 +13081,19 @@
         <v>0</v>
       </c>
       <c r="AH75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI75" s="1">
         <v>0</v>
       </c>
       <c r="AJ75" s="1">
-        <v>324</v>
+        <v>135</v>
       </c>
       <c r="AK75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -13157,16 +13155,16 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C76" s="1">
-        <v>5486550</v>
+        <v>446220</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F76" t="s">
         <v>115</v>
@@ -13221,7 +13219,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76" s="1">
         <v>0</v>
@@ -13257,13 +13255,13 @@
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="AK76" s="1">
         <v>0</v>
       </c>
       <c r="AL76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76" s="1">
         <v>0</v>
@@ -13302,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="AY76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ76" s="1">
         <v>0</v>
@@ -13325,19 +13323,19 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C77" s="1">
-        <v>33741</v>
+        <v>5707</v>
       </c>
       <c r="D77" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F77" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G77" t="s">
         <v>117</v>
@@ -13349,10 +13347,10 @@
         <v>2733</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -13371,10 +13369,10 @@
         <v>0</v>
       </c>
       <c r="R77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77" s="1">
         <v>0</v>
@@ -13404,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD77" s="1">
         <v>0</v>
@@ -13425,10 +13423,10 @@
         <v>0</v>
       </c>
       <c r="AJ77" s="1">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AK77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL77" s="1">
         <v>1</v>
@@ -13493,14 +13491,16 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C78" s="1">
+        <v>5462507</v>
+      </c>
       <c r="D78" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E78" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="F78" t="s">
         <v>115</v>
@@ -13585,14 +13585,12 @@
         <v>0</v>
       </c>
       <c r="AH78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI78" s="1">
         <v>0</v>
       </c>
-      <c r="AJ78" s="1">
-        <v>135</v>
-      </c>
+      <c r="AJ78" s="1"/>
       <c r="AK78" s="1">
         <v>0</v>
       </c>
@@ -13659,16 +13657,16 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C79" s="1">
         <v>1983</v>
       </c>
       <c r="D79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F79" t="s">
         <v>115</v>
@@ -13827,19 +13825,19 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C80" s="1">
-        <v>12562546</v>
+        <v>88890</v>
       </c>
       <c r="D80" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F80" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G80" t="s">
         <v>117</v>
@@ -13851,10 +13849,10 @@
         <v>2733</v>
       </c>
       <c r="J80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1">
@@ -13927,13 +13925,13 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="AK80" s="1">
         <v>0</v>
       </c>
       <c r="AL80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -13942,16 +13940,16 @@
         <v>0</v>
       </c>
       <c r="AO80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS80" s="1">
         <v>0</v>
@@ -13978,7 +13976,7 @@
         <v>0</v>
       </c>
       <c r="BA80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB80" s="1">
         <v>0</v>
@@ -13995,16 +13993,16 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C81" s="1">
-        <v>5462507</v>
+        <v>3676</v>
       </c>
       <c r="D81" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F81" t="s">
         <v>115</v>
@@ -14094,7 +14092,9 @@
       <c r="AI81" s="1">
         <v>0</v>
       </c>
-      <c r="AJ81" s="1"/>
+      <c r="AJ81" s="1">
+        <v>216</v>
+      </c>
       <c r="AK81" s="1">
         <v>0</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>0</v>
       </c>
       <c r="AX81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY81" s="1">
         <v>0</v>
@@ -14161,19 +14161,19 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C82" s="1">
-        <v>10836</v>
+        <v>12562546</v>
       </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E82" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F82" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G82" t="s">
         <v>117</v>
@@ -14185,10 +14185,10 @@
         <v>2733</v>
       </c>
       <c r="J82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
@@ -14219,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="V82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W82" s="1">
         <v>0</v>
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="AK82" s="1">
         <v>0</v>
@@ -14276,16 +14276,16 @@
         <v>0</v>
       </c>
       <c r="AO82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS82" s="1">
         <v>0</v>
@@ -14341,7 +14341,7 @@
         <v>86</v>
       </c>
       <c r="F83" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G83" t="s">
         <v>117</v>
@@ -14497,16 +14497,16 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C84" s="1">
-        <v>5707</v>
+        <v>1983</v>
       </c>
       <c r="D84" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E84" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F84" t="s">
         <v>115</v>
@@ -14546,10 +14546,10 @@
         <v>0</v>
       </c>
       <c r="S84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U84" s="1">
         <v>0</v>
@@ -14597,13 +14597,13 @@
         <v>0</v>
       </c>
       <c r="AJ84" s="1">
-        <v>324</v>
+        <v>114</v>
       </c>
       <c r="AK84" s="1">
         <v>0</v>
       </c>
       <c r="AL84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -14665,19 +14665,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C85" s="1">
-        <v>6213</v>
+        <v>3676</v>
       </c>
       <c r="D85" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E85" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F85" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G85" t="s">
         <v>117</v>
@@ -14764,7 +14764,9 @@
       <c r="AI85" s="1">
         <v>0</v>
       </c>
-      <c r="AJ85" s="1"/>
+      <c r="AJ85" s="1">
+        <v>216</v>
+      </c>
       <c r="AK85" s="1">
         <v>0</v>
       </c>
@@ -14805,7 +14807,7 @@
         <v>0</v>
       </c>
       <c r="AX85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY85" s="1">
         <v>0</v>
@@ -14831,19 +14833,19 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C86" s="1">
-        <v>1983</v>
+        <v>3345</v>
       </c>
       <c r="D86" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E86" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F86" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
         <v>117</v>
@@ -14855,10 +14857,10 @@
         <v>2735</v>
       </c>
       <c r="J86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
@@ -14871,10 +14873,10 @@
         <v>0</v>
       </c>
       <c r="P86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86" s="1">
         <v>0</v>
@@ -14931,13 +14933,13 @@
         <v>0</v>
       </c>
       <c r="AJ86" s="1">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="AK86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM86" s="1">
         <v>0</v>
@@ -14999,19 +15001,19 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C87" s="1">
-        <v>3676</v>
+        <v>6213</v>
       </c>
       <c r="D87" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E87" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F87" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
         <v>117</v>
@@ -15098,9 +15100,7 @@
       <c r="AI87" s="1">
         <v>0</v>
       </c>
-      <c r="AJ87" s="1">
-        <v>216</v>
-      </c>
+      <c r="AJ87" s="1"/>
       <c r="AK87" s="1">
         <v>0</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>0</v>
       </c>
       <c r="AX87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY87" s="1">
         <v>0</v>
@@ -15167,19 +15167,19 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C88" s="1">
-        <v>88890</v>
+        <v>68602</v>
       </c>
       <c r="D88" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E88" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F88" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G88" t="s">
         <v>117</v>
@@ -15267,13 +15267,13 @@
         <v>0</v>
       </c>
       <c r="AJ88" s="1">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AK88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88" s="1">
         <v>0</v>
@@ -15318,7 +15318,7 @@
         <v>0</v>
       </c>
       <c r="BA88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB88" s="1">
         <v>0</v>
@@ -15335,19 +15335,19 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C89" s="1">
-        <v>68602</v>
+        <v>88890</v>
       </c>
       <c r="D89" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E89" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G89" t="s">
         <v>117</v>
@@ -15435,13 +15435,13 @@
         <v>0</v>
       </c>
       <c r="AJ89" s="1">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="AK89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM89" s="1">
         <v>0</v>
@@ -15486,7 +15486,7 @@
         <v>0</v>
       </c>
       <c r="BA89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB89" s="1">
         <v>0</v>
@@ -15503,19 +15503,19 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C90" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E90" t="s">
         <v>91</v>
       </c>
       <c r="F90" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G90" t="s">
         <v>117</v>
@@ -15527,10 +15527,10 @@
         <v>2735</v>
       </c>
       <c r="J90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1">
@@ -15543,19 +15543,19 @@
         <v>0</v>
       </c>
       <c r="P90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R90" s="1">
         <v>0</v>
       </c>
       <c r="S90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U90" s="1">
         <v>0</v>
@@ -15603,10 +15603,10 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90" s="1">
         <v>1</v>
@@ -15671,17 +15671,17 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E91" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F91" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G91" t="s">
         <v>117</v>
@@ -16005,19 +16005,19 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C93" s="1">
-        <v>26879</v>
+        <v>88890</v>
       </c>
       <c r="D93" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E93" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F93" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G93" t="s">
         <v>117</v>
@@ -16029,10 +16029,10 @@
         <v>2737</v>
       </c>
       <c r="J93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -16078,7 +16078,7 @@
         <v>0</v>
       </c>
       <c r="AA93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB93" s="1">
         <v>0</v>
@@ -16105,13 +16105,13 @@
         <v>0</v>
       </c>
       <c r="AJ93" s="1">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="AK93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM93" s="1">
         <v>0</v>
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="AX93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY93" s="1">
         <v>0</v>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="BA93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB93" s="1">
         <v>0</v>
@@ -16173,19 +16173,19 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C94" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D94" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E94" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G94" t="s">
         <v>117</v>
@@ -16273,7 +16273,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="AK94" s="1">
         <v>1</v>
@@ -16324,7 +16324,7 @@
         <v>0</v>
       </c>
       <c r="BA94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB94" s="1">
         <v>0</v>
@@ -16341,19 +16341,19 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C95" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D95" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E95" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G95" t="s">
         <v>117</v>
@@ -16365,10 +16365,10 @@
         <v>2737</v>
       </c>
       <c r="J95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
@@ -16381,10 +16381,10 @@
         <v>0</v>
       </c>
       <c r="P95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R95" s="1">
         <v>0</v>
@@ -16440,12 +16440,14 @@
       <c r="AI95" s="1">
         <v>0</v>
       </c>
-      <c r="AJ95" s="1"/>
+      <c r="AJ95" s="1">
+        <v>191</v>
+      </c>
       <c r="AK95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM95" s="1">
         <v>0</v>
@@ -16675,16 +16677,16 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C97" s="1">
-        <v>5486550</v>
+        <v>5462507</v>
       </c>
       <c r="D97" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F97" t="s">
         <v>115</v>
@@ -16774,14 +16776,12 @@
       <c r="AI97" s="1">
         <v>0</v>
       </c>
-      <c r="AJ97" s="1">
-        <v>119</v>
-      </c>
+      <c r="AJ97" s="1"/>
       <c r="AK97" s="1">
         <v>0</v>
       </c>
       <c r="AL97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM97" s="1">
         <v>0</v>
@@ -16820,7 +16820,7 @@
         <v>0</v>
       </c>
       <c r="AY97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ97" s="1">
         <v>0</v>
@@ -16843,19 +16843,19 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C98" s="1">
-        <v>3345</v>
+        <v>5486550</v>
       </c>
       <c r="D98" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E98" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F98" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G98" t="s">
         <v>117</v>
@@ -16867,10 +16867,10 @@
         <v>2737</v>
       </c>
       <c r="J98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1">
@@ -16883,10 +16883,10 @@
         <v>0</v>
       </c>
       <c r="P98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98" s="1">
         <v>0</v>
@@ -16943,10 +16943,10 @@
         <v>0</v>
       </c>
       <c r="AJ98" s="1">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="AK98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL98" s="1">
         <v>1</v>
@@ -16988,7 +16988,7 @@
         <v>0</v>
       </c>
       <c r="AY98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ98" s="1">
         <v>0</v>
@@ -17011,19 +17011,19 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C99" s="1">
-        <v>5462328</v>
+        <v>26879</v>
       </c>
       <c r="D99" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E99" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F99" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G99" t="s">
         <v>117</v>
@@ -17035,10 +17035,10 @@
         <v>2737</v>
       </c>
       <c r="J99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1">
@@ -17084,7 +17084,7 @@
         <v>0</v>
       </c>
       <c r="AA99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB99" s="1">
         <v>0</v>
@@ -17111,13 +17111,13 @@
         <v>0</v>
       </c>
       <c r="AJ99" s="1">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="AK99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99" s="1">
         <v>0</v>
@@ -17153,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="AX99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY99" s="1">
         <v>0</v>
@@ -17179,19 +17179,19 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C100" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D100" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E100" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F100" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G100" t="s">
         <v>117</v>
@@ -17219,10 +17219,10 @@
         <v>0</v>
       </c>
       <c r="P100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" s="1">
         <v>0</v>
@@ -17279,7 +17279,7 @@
         <v>0</v>
       </c>
       <c r="AJ100" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK100" s="1">
         <v>1</v>
@@ -17330,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="BA100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB100" s="1">
         <v>0</v>
@@ -17347,19 +17347,19 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C101" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D101" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E101" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F101" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G101" t="s">
         <v>117</v>
@@ -17387,10 +17387,10 @@
         <v>0</v>
       </c>
       <c r="P101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R101" s="1">
         <v>0</v>
@@ -17447,7 +17447,7 @@
         <v>0</v>
       </c>
       <c r="AJ101" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK101" s="1">
         <v>1</v>
@@ -17498,7 +17498,7 @@
         <v>0</v>
       </c>
       <c r="BA101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB101" s="1">
         <v>0</v>
@@ -17515,19 +17515,19 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C102" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D102" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E102" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F102" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G102" t="s">
         <v>117</v>
@@ -17539,10 +17539,10 @@
         <v>2739</v>
       </c>
       <c r="J102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1">
@@ -17615,10 +17615,10 @@
         <v>0</v>
       </c>
       <c r="AJ102" s="1">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="AK102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL102" s="1">
         <v>1</v>
@@ -17660,7 +17660,7 @@
         <v>0</v>
       </c>
       <c r="AY102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ102" s="1">
         <v>0</v>
@@ -17683,19 +17683,19 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C103" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D103" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E103" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F103" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G103" t="s">
         <v>117</v>
@@ -17707,10 +17707,10 @@
         <v>2739</v>
       </c>
       <c r="J103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1">
@@ -17782,12 +17782,14 @@
       <c r="AI103" s="1">
         <v>0</v>
       </c>
-      <c r="AJ103" s="1"/>
+      <c r="AJ103" s="1">
+        <v>44</v>
+      </c>
       <c r="AK103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM103" s="1">
         <v>0</v>
@@ -17832,7 +17834,7 @@
         <v>0</v>
       </c>
       <c r="BA103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB103" s="1">
         <v>0</v>
@@ -17849,16 +17851,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C104" s="1">
-        <v>26879</v>
+        <v>5462507</v>
       </c>
       <c r="D104" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E104" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F104" t="s">
         <v>115</v>
@@ -17922,7 +17924,7 @@
         <v>0</v>
       </c>
       <c r="AA104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB104" s="1">
         <v>0</v>
@@ -17948,9 +17950,7 @@
       <c r="AI104" s="1">
         <v>0</v>
       </c>
-      <c r="AJ104" s="1">
-        <v>214</v>
-      </c>
+      <c r="AJ104" s="1"/>
       <c r="AK104" s="1">
         <v>0</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>0</v>
       </c>
       <c r="AX104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY104" s="1">
         <v>0</v>
@@ -18017,19 +18017,19 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C105" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D105" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E105" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F105" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G105" t="s">
         <v>117</v>
@@ -18041,10 +18041,10 @@
         <v>2739</v>
       </c>
       <c r="J105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1">
@@ -18117,10 +18117,10 @@
         <v>0</v>
       </c>
       <c r="AJ105" s="1">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="AK105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL105" s="1">
         <v>1</v>
@@ -18162,13 +18162,13 @@
         <v>0</v>
       </c>
       <c r="AY105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ105" s="1">
         <v>0</v>
       </c>
       <c r="BA105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB105" s="1">
         <v>0</v>
@@ -18185,19 +18185,19 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C106" s="1">
-        <v>5462328</v>
+        <v>26879</v>
       </c>
       <c r="D106" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E106" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F106" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G106" t="s">
         <v>117</v>
@@ -18209,10 +18209,10 @@
         <v>2739</v>
       </c>
       <c r="J106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1">
@@ -18258,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="AA106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB106" s="1">
         <v>0</v>
@@ -18285,13 +18285,13 @@
         <v>0</v>
       </c>
       <c r="AJ106" s="1">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="AK106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -18327,7 +18327,7 @@
         <v>0</v>
       </c>
       <c r="AX106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY106" s="1">
         <v>0</v>
@@ -18353,19 +18353,19 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C107" s="1">
         <v>3345</v>
       </c>
       <c r="D107" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E107" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F107" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G107" t="s">
         <v>117</v>
@@ -18533,7 +18533,7 @@
         <v>86</v>
       </c>
       <c r="F108" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G108" t="s">
         <v>117</v>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -87,40 +87,34 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>caffeine</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>quinine</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>quinine</t>
+    <t>heroin</t>
   </si>
   <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-hydroxypiperidine</t>
-  </si>
-  <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
   </si>
   <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
@@ -129,22 +123,28 @@
     <t>papaverine</t>
   </si>
   <si>
+    <t>1-phenethyl-4-hydroxypiperidine</t>
+  </si>
+  <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>acetyl fentanyl</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
     <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
     <t>bromazolam</t>
@@ -153,22 +153,22 @@
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
     <t>procaine</t>
   </si>
   <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
+    <t>medetomidine</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
+  </si>
+  <si>
     <t>tramadol</t>
   </si>
   <si>
     <t>acetaminophen</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
   </si>
   <si>
     <t>alprazolam</t>
@@ -186,37 +186,34 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>58-08-2</t>
   </si>
   <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>72402-53-0</t>
+    <t>561-27-3</t>
   </si>
   <si>
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
     <t>2784-73-8</t>
-  </si>
-  <si>
-    <t>6703-27-1</t>
   </si>
   <si>
     <t>1462260-87-2</t>
@@ -225,28 +222,28 @@
     <t>58-74-2</t>
   </si>
   <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
     <t>620-71-3</t>
   </si>
   <si>
     <t>3258-84-2</t>
   </si>
   <si>
+    <t>519-09-5</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>519-09-5</t>
+    <t>67-71-0</t>
   </si>
   <si>
     <t>105-70-4</t>
   </si>
   <si>
-    <t>67-71-0</t>
-  </si>
-  <si>
     <t>71368-80-4</t>
-  </si>
-  <si>
-    <t>86347-14-0</t>
   </si>
   <si>
     <t>59-46-1</t>
@@ -255,13 +252,16 @@
     <t>122861-41-0</t>
   </si>
   <si>
+    <t>86347-14-0</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
+  </si>
+  <si>
     <t>123154-38-1</t>
   </si>
   <si>
     <t>103-90-2</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
   </si>
   <si>
     <t>28981-97-7</t>
@@ -282,28 +282,25 @@
     <t>Q88EHD0U8G</t>
   </si>
   <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>A7V27PHC7A</t>
+    <t>70D95007SX</t>
   </si>
   <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
   </si>
   <si>
     <t>3D9E9KK5K5</t>
@@ -312,28 +309,28 @@
     <t>DAA13NKG2Q</t>
   </si>
   <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
     <t>6DZ28538KS</t>
   </si>
   <si>
+    <t>5353I8I6YS</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
+    <t>9H4PO4Z4FT</t>
   </si>
   <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
     <t>YMC9OT97Z1</t>
-  </si>
-  <si>
-    <t>MR15E85MQM</t>
   </si>
   <si>
     <t>4Z8Y51M438</t>
@@ -342,13 +339,16 @@
     <t>R8ZH1EQ95Y</t>
   </si>
   <si>
+    <t>MR15E85MQM</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
+  </si>
+  <si>
     <t>39J1LGJ30J</t>
   </si>
   <si>
     <t>362O9ITL9D</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -751,7 +751,7 @@
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>117</v>
@@ -910,13 +910,13 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>2519</v>
+        <v>165365057</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
         <v>115</v>
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>140</v>
+        <v>281</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -1078,16 +1078,16 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
@@ -1099,10 +1099,10 @@
         <v>1313</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="1">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1246,16 +1246,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
         <v>117</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1343,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="1">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>165365057</v>
+        <v>3034034</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
@@ -1435,10 +1435,10 @@
         <v>1313</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>3034034</v>
+        <v>62300</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -1591,7 +1591,7 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
         <v>117</v>
@@ -1603,10 +1603,10 @@
         <v>1313</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1679,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
@@ -1759,7 +1759,7 @@
         <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
         <v>117</v>
@@ -1771,10 +1771,10 @@
         <v>1313</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1787,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -1927,7 +1927,7 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
         <v>117</v>
@@ -1939,10 +1939,10 @@
         <v>1313</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -2015,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
       <c r="AL9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
@@ -2263,7 +2263,7 @@
         <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>117</v>
@@ -2275,10 +2275,10 @@
         <v>1313</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -2291,19 +2291,19 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
         <v>1</v>
@@ -2419,19 +2419,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
         <v>117</v>
@@ -2443,10 +2443,10 @@
         <v>1456</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2519,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>1</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="BA12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="1">
         <v>0</v>
@@ -2587,16 +2587,16 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
-        <v>2519</v>
+        <v>5462328</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
         <v>115</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="AK13" s="1">
         <v>0</v>
       </c>
       <c r="AL13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>0</v>
@@ -2755,19 +2755,19 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
         <v>117</v>
@@ -2779,10 +2779,10 @@
         <v>1456</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2923,19 +2923,19 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
-        <v>62300</v>
+        <v>3034034</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
         <v>117</v>
@@ -2947,10 +2947,10 @@
         <v>1456</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -3023,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="AK15" s="1">
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="1">
         <v>0</v>
@@ -3094,16 +3094,16 @@
         <v>25</v>
       </c>
       <c r="C16" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D16" t="s">
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
         <v>117</v>
@@ -3115,10 +3115,10 @@
         <v>1456</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3191,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="1">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="1">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
@@ -3271,7 +3271,7 @@
         <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
         <v>117</v>
@@ -3283,10 +3283,10 @@
         <v>1456</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3299,19 +3299,19 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>1</v>
@@ -3427,19 +3427,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
         <v>117</v>
@@ -3467,10 +3467,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="AK18" s="1">
         <v>1</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="1">
         <v>0</v>
@@ -3598,7 +3598,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="1">
-        <v>3034034</v>
+        <v>62300</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -3607,7 +3607,7 @@
         <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
         <v>117</v>
@@ -3619,10 +3619,10 @@
         <v>1456</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3695,13 +3695,13 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="AK19" s="1">
         <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19" s="1">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>0</v>
@@ -3763,19 +3763,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
         <v>117</v>
@@ -3787,10 +3787,10 @@
         <v>1471</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3863,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>1</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="1">
         <v>0</v>
@@ -3931,19 +3931,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>3034034</v>
+        <v>88890</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
         <v>117</v>
@@ -3955,10 +3955,10 @@
         <v>1471</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21" s="1">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="1">
         <v>0</v>
@@ -4099,19 +4099,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
         <v>117</v>
@@ -4139,10 +4139,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -4199,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="1">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
         <v>117</v>
@@ -4447,7 +4447,7 @@
         <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
         <v>117</v>
@@ -4603,19 +4603,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
-        <v>10836</v>
+        <v>5462507</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G25" t="s">
         <v>117</v>
@@ -4627,10 +4627,10 @@
         <v>2214</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1">
         <v>0</v>
@@ -4702,9 +4702,7 @@
       <c r="AI25" s="1">
         <v>0</v>
       </c>
-      <c r="AJ25" s="1">
-        <v>231</v>
-      </c>
+      <c r="AJ25" s="1"/>
       <c r="AK25" s="1">
         <v>0</v>
       </c>
@@ -4771,17 +4769,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <v>165365057</v>
+      </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -4793,10 +4793,10 @@
         <v>2214</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4869,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
         <v>1</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4940,16 +4940,16 @@
         <v>34</v>
       </c>
       <c r="C27" s="1">
-        <v>5462507</v>
+        <v>91725431</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G27" t="s">
         <v>117</v>
@@ -4961,10 +4961,10 @@
         <v>2214</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -5036,7 +5036,9 @@
       <c r="AI27" s="1">
         <v>0</v>
       </c>
-      <c r="AJ27" s="1"/>
+      <c r="AJ27" s="1">
+        <v>10</v>
+      </c>
       <c r="AK27" s="1">
         <v>0</v>
       </c>
@@ -5103,19 +5105,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
-        <v>88890</v>
+        <v>4680</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G28" t="s">
         <v>117</v>
@@ -5127,10 +5129,10 @@
         <v>2214</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -5203,10 +5205,10 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>1</v>
@@ -5248,13 +5250,13 @@
         <v>0</v>
       </c>
       <c r="AY28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ28" s="1">
         <v>0</v>
       </c>
       <c r="BA28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="1">
         <v>0</v>
@@ -5271,19 +5273,17 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5486550</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G29" t="s">
         <v>117</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="AK29" s="1">
         <v>1</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AY29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="1">
         <v>0</v>
@@ -5439,19 +5439,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
-        <v>165365057</v>
+        <v>5486550</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
         <v>117</v>
@@ -5463,10 +5463,10 @@
         <v>2214</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5539,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
         <v>1</v>
@@ -5584,13 +5584,13 @@
         <v>0</v>
       </c>
       <c r="AY30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ30" s="1">
         <v>0</v>
       </c>
       <c r="BA30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="1">
         <v>0</v>
@@ -5607,16 +5607,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1">
-        <v>91725431</v>
+        <v>10836</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
         <v>115</v>
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="1">
         <v>0</v>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="AK31" s="1">
         <v>0</v>
@@ -5775,19 +5775,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
         <v>117</v>
@@ -5815,10 +5815,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
         <v>0</v>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK32" s="1">
         <v>1</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5943,19 +5943,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1">
-        <v>5707</v>
+        <v>12107</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
         <v>117</v>
@@ -5967,10 +5967,10 @@
         <v>2214</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -5989,10 +5989,10 @@
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="1">
         <v>0</v>
@@ -6043,13 +6043,13 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>324</v>
+        <v>104</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB33" s="1">
         <v>0</v>
@@ -6111,19 +6111,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1">
-        <v>4680</v>
+        <v>3345</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
         <v>117</v>
@@ -6135,10 +6135,10 @@
         <v>2214</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -6151,10 +6151,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
         <v>1</v>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="AY34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="1">
         <v>0</v>
@@ -6279,19 +6279,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
-        <v>12107</v>
+        <v>5707</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
         <v>117</v>
@@ -6303,10 +6303,10 @@
         <v>2214</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6325,10 +6325,10 @@
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="1">
         <v>0</v>
@@ -6379,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="1">
         <v>0</v>
@@ -6447,16 +6447,16 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C36" s="1">
-        <v>527015</v>
+        <v>165365057</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F36" t="s">
         <v>115</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="AK36" s="1">
         <v>0</v>
@@ -6615,19 +6615,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
-        <v>88890</v>
+        <v>446220</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G37" t="s">
         <v>117</v>
@@ -6676,10 +6676,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -6715,13 +6715,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="BA37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="1">
         <v>0</v>
@@ -6783,19 +6783,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G38" t="s">
         <v>117</v>
@@ -6807,10 +6807,10 @@
         <v>2275</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6823,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="1">
         <v>0</v>
@@ -6883,13 +6883,13 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -6951,16 +6951,16 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
         <v>115</v>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" s="1">
         <v>0</v>
@@ -7051,13 +7051,13 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="AK39" s="1">
         <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="1">
         <v>0</v>
@@ -7119,19 +7119,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G40" t="s">
         <v>117</v>
@@ -7159,10 +7159,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK40" s="1">
         <v>1</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB40" s="1">
         <v>0</v>
@@ -7287,19 +7287,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
-        <v>446220</v>
+        <v>527015</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G41" t="s">
         <v>117</v>
@@ -7311,10 +7311,10 @@
         <v>2275</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -7348,10 +7348,10 @@
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>
@@ -7387,13 +7387,13 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="AK41" s="1">
         <v>0</v>
       </c>
       <c r="AL41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41" s="1">
         <v>0</v>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB41" s="1">
         <v>0</v>
@@ -7467,7 +7467,7 @@
         <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G42" t="s">
         <v>117</v>
@@ -7623,19 +7623,19 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1">
-        <v>446220</v>
+        <v>448223</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G43" t="s">
         <v>117</v>
@@ -7647,10 +7647,10 @@
         <v>2326</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7684,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -7722,9 +7722,7 @@
       <c r="AI43" s="1">
         <v>0</v>
       </c>
-      <c r="AJ43" s="1">
-        <v>150</v>
-      </c>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1">
         <v>0</v>
       </c>
@@ -7791,19 +7789,19 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C44" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F44" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G44" t="s">
         <v>117</v>
@@ -7815,10 +7813,10 @@
         <v>2326</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7852,10 +7850,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44" s="1">
         <v>0</v>
@@ -7890,7 +7888,9 @@
       <c r="AI44" s="1">
         <v>0</v>
       </c>
-      <c r="AJ44" s="1"/>
+      <c r="AJ44" s="1">
+        <v>150</v>
+      </c>
       <c r="AK44" s="1">
         <v>0</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="1">
-        <v>448223</v>
+        <v>119478</v>
       </c>
       <c r="D45" t="s">
         <v>73</v>
@@ -8123,19 +8123,19 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C46" s="1">
         <v>2519</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
         <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G46" t="s">
         <v>117</v>
@@ -8291,19 +8291,19 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G47" t="s">
         <v>117</v>
@@ -8337,10 +8337,10 @@
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="1">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AK47" s="1">
         <v>1</v>
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="BA47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="1">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G48" t="s">
         <v>117</v>
@@ -8499,10 +8499,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK48" s="1">
         <v>1</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB48" s="1">
         <v>0</v>
@@ -8630,7 +8630,7 @@
         <v>29</v>
       </c>
       <c r="C49" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D49" t="s">
         <v>62</v>
@@ -8639,7 +8639,7 @@
         <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G49" t="s">
         <v>117</v>
@@ -8667,16 +8667,16 @@
         <v>0</v>
       </c>
       <c r="P49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="AK49" s="1">
         <v>1</v>
@@ -8795,19 +8795,19 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C50" s="1">
-        <v>10836</v>
+        <v>6213</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G50" t="s">
         <v>117</v>
@@ -8819,10 +8819,10 @@
         <v>2730</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -8850,10 +8850,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -8894,9 +8894,7 @@
       <c r="AI50" s="1">
         <v>0</v>
       </c>
-      <c r="AJ50" s="1">
-        <v>231</v>
-      </c>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1">
         <v>0</v>
       </c>
@@ -8963,19 +8961,19 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C51" s="1">
-        <v>66924</v>
+        <v>10836</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G51" t="s">
         <v>117</v>
@@ -9018,10 +9016,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -9063,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="AK51" s="1">
         <v>0</v>
@@ -9134,7 +9132,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="1">
-        <v>6213</v>
+        <v>66924</v>
       </c>
       <c r="D52" t="s">
         <v>75</v>
@@ -9143,7 +9141,7 @@
         <v>104</v>
       </c>
       <c r="F52" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G52" t="s">
         <v>117</v>
@@ -9155,10 +9153,10 @@
         <v>2730</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -9230,7 +9228,9 @@
       <c r="AI52" s="1">
         <v>0</v>
       </c>
-      <c r="AJ52" s="1"/>
+      <c r="AJ52" s="1">
+        <v>2</v>
+      </c>
       <c r="AK52" s="1">
         <v>0</v>
       </c>
@@ -9469,10 +9469,10 @@
       </c>
       <c r="C54" s="1"/>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F54" t="s">
         <v>115</v>
@@ -9631,16 +9631,16 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C55" s="1">
-        <v>10836</v>
+        <v>4914</v>
       </c>
       <c r="D55" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
         <v>115</v>
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55" s="1">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -9773,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY55" s="1">
         <v>0</v>
@@ -9799,19 +9799,19 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C56" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G56" t="s">
         <v>117</v>
@@ -9823,10 +9823,10 @@
         <v>2731</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9839,10 +9839,10 @@
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56" s="1">
         <v>0</v>
@@ -9899,13 +9899,13 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="1">
         <v>0</v>
@@ -9967,19 +9967,19 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C57" s="1">
-        <v>68602</v>
+        <v>21812144</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G57" t="s">
         <v>117</v>
@@ -9991,10 +9991,10 @@
         <v>2731</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -10067,13 +10067,13 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="BB57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC57" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C58" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D58" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G58" t="s">
         <v>117</v>
@@ -10175,10 +10175,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -10235,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK58" s="1">
         <v>1</v>
@@ -10286,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="1">
         <v>0</v>
@@ -10303,19 +10303,19 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C59" s="1">
-        <v>4914</v>
+        <v>5462328</v>
       </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G59" t="s">
         <v>117</v>
@@ -10327,10 +10327,10 @@
         <v>2731</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -10403,13 +10403,13 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>287</v>
+        <v>201</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="AX59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY59" s="1">
         <v>0</v>
@@ -10471,19 +10471,19 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1">
-        <v>21812144</v>
+        <v>5707</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G60" t="s">
         <v>117</v>
@@ -10517,10 +10517,10 @@
         <v>0</v>
       </c>
       <c r="R60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>167</v>
+        <v>324</v>
       </c>
       <c r="AK60" s="1">
         <v>1</v>
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="BB60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC60" s="1">
         <v>0</v>
@@ -10639,19 +10639,19 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" s="1">
         <v>6213</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G61" t="s">
         <v>117</v>
@@ -10805,19 +10805,19 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C62" s="1">
-        <v>5707</v>
+        <v>4914</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E62" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G62" t="s">
         <v>117</v>
@@ -10851,10 +10851,10 @@
         <v>0</v>
       </c>
       <c r="R62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="AX62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY62" s="1">
         <v>0</v>
@@ -10973,16 +10973,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C63" s="1">
-        <v>62300</v>
+        <v>68602</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F63" t="s">
         <v>115</v>
@@ -11073,13 +11073,13 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="AK63" s="1">
         <v>0</v>
       </c>
       <c r="AL63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -11141,19 +11141,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C64" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G64" t="s">
         <v>117</v>
@@ -11165,10 +11165,10 @@
         <v>2731</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="AK64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="1">
         <v>1</v>
@@ -11309,19 +11309,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C65" s="1">
-        <v>4914</v>
+        <v>88890</v>
       </c>
       <c r="D65" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G65" t="s">
         <v>117</v>
@@ -11409,13 +11409,13 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="1">
         <v>0</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB65" s="1">
         <v>0</v>
@@ -11489,7 +11489,7 @@
         <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G66" t="s">
         <v>117</v>
@@ -11645,19 +11645,19 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C67" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D67" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E67" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G67" t="s">
         <v>117</v>
@@ -11669,10 +11669,10 @@
         <v>2733</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -11685,10 +11685,10 @@
         <v>0</v>
       </c>
       <c r="P67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="1">
         <v>0</v>
@@ -11745,13 +11745,13 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="AK67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="1">
         <v>0</v>
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="AX67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY67" s="1">
         <v>0</v>
@@ -11813,16 +11813,16 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C68" s="1">
-        <v>68602</v>
+        <v>88890</v>
       </c>
       <c r="D68" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F68" t="s">
         <v>115</v>
@@ -11913,13 +11913,13 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="AK68" s="1">
         <v>0</v>
       </c>
       <c r="AL68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM68" s="1">
         <v>0</v>
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB68" s="1">
         <v>0</v>
@@ -11981,19 +11981,19 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C69" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E69" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G69" t="s">
         <v>117</v>
@@ -12027,10 +12027,10 @@
         <v>0</v>
       </c>
       <c r="R69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" s="1">
         <v>0</v>
@@ -12081,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="AK69" s="1">
         <v>1</v>
@@ -12149,19 +12149,19 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C70" s="1">
-        <v>5486550</v>
+        <v>3345</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E70" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F70" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G70" t="s">
         <v>117</v>
@@ -12173,10 +12173,10 @@
         <v>2733</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -12189,10 +12189,10 @@
         <v>0</v>
       </c>
       <c r="P70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="1">
         <v>0</v>
@@ -12249,10 +12249,10 @@
         <v>0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70" s="1">
         <v>1</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="AY70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ70" s="1">
         <v>0</v>
@@ -12317,16 +12317,16 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C71" s="1">
-        <v>10836</v>
+        <v>33741</v>
       </c>
       <c r="D71" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E71" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F71" t="s">
         <v>115</v>
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="V71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W71" s="1">
         <v>0</v>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD71" s="1">
         <v>0</v>
@@ -12417,13 +12417,13 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="AK71" s="1">
         <v>0</v>
       </c>
       <c r="AL71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM71" s="1">
         <v>0</v>
@@ -12485,19 +12485,19 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C72" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F72" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G72" t="s">
         <v>117</v>
@@ -12509,10 +12509,10 @@
         <v>2733</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -12585,10 +12585,10 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
         <v>1</v>
@@ -12653,16 +12653,16 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C73" s="1">
-        <v>33741</v>
+        <v>68602</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F73" t="s">
         <v>115</v>
@@ -12732,7 +12732,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD73" s="1">
         <v>0</v>
@@ -12753,13 +12753,13 @@
         <v>0</v>
       </c>
       <c r="AJ73" s="1">
-        <v>313</v>
+        <v>224</v>
       </c>
       <c r="AK73" s="1">
         <v>0</v>
       </c>
       <c r="AL73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73" s="1">
         <v>0</v>
@@ -12821,16 +12821,16 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C74" s="1">
-        <v>21812144</v>
+        <v>5462507</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F74" t="s">
         <v>115</v>
@@ -12920,14 +12920,12 @@
       <c r="AI74" s="1">
         <v>0</v>
       </c>
-      <c r="AJ74" s="1">
-        <v>167</v>
-      </c>
+      <c r="AJ74" s="1"/>
       <c r="AK74" s="1">
         <v>0</v>
       </c>
       <c r="AL74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74" s="1">
         <v>0</v>
@@ -12975,7 +12973,7 @@
         <v>0</v>
       </c>
       <c r="BB74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC74" s="1">
         <v>0</v>
@@ -12989,14 +12987,16 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1983</v>
+      </c>
       <c r="D75" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E75" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="F75" t="s">
         <v>115</v>
@@ -13081,13 +13081,13 @@
         <v>0</v>
       </c>
       <c r="AH75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI75" s="1">
         <v>0</v>
       </c>
       <c r="AJ75" s="1">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="AK75" s="1">
         <v>0</v>
@@ -13155,16 +13155,14 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" s="1">
-        <v>446220</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C76" s="1"/>
       <c r="D76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E76" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F76" t="s">
         <v>115</v>
@@ -13219,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="1">
         <v>0</v>
@@ -13249,13 +13247,13 @@
         <v>0</v>
       </c>
       <c r="AH76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI76" s="1">
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="AK76" s="1">
         <v>0</v>
@@ -13323,19 +13321,19 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C77" s="1">
-        <v>5707</v>
+        <v>12562546</v>
       </c>
       <c r="D77" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F77" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G77" t="s">
         <v>117</v>
@@ -13369,10 +13367,10 @@
         <v>0</v>
       </c>
       <c r="R77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77" s="1">
         <v>0</v>
@@ -13423,13 +13421,13 @@
         <v>0</v>
       </c>
       <c r="AJ77" s="1">
-        <v>324</v>
+        <v>136</v>
       </c>
       <c r="AK77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -13438,16 +13436,16 @@
         <v>0</v>
       </c>
       <c r="AO77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS77" s="1">
         <v>0</v>
@@ -13491,16 +13489,16 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C78" s="1">
-        <v>5462507</v>
+        <v>10836</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E78" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F78" t="s">
         <v>115</v>
@@ -13549,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="V78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W78" s="1">
         <v>0</v>
@@ -13590,7 +13588,9 @@
       <c r="AI78" s="1">
         <v>0</v>
       </c>
-      <c r="AJ78" s="1"/>
+      <c r="AJ78" s="1">
+        <v>231</v>
+      </c>
       <c r="AK78" s="1">
         <v>0</v>
       </c>
@@ -13657,16 +13657,16 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C79" s="1">
-        <v>1983</v>
+        <v>21812144</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F79" t="s">
         <v>115</v>
@@ -13757,13 +13757,13 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="1">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="AK79" s="1">
         <v>0</v>
       </c>
       <c r="AL79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="BB79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC79" s="1">
         <v>0</v>
@@ -13825,16 +13825,16 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C80" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D80" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E80" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F80" t="s">
         <v>115</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="AK80" s="1">
         <v>0</v>
@@ -13976,7 +13976,7 @@
         <v>0</v>
       </c>
       <c r="BA80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB80" s="1">
         <v>0</v>
@@ -13993,16 +13993,16 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C81" s="1">
-        <v>3676</v>
+        <v>5486550</v>
       </c>
       <c r="D81" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E81" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F81" t="s">
         <v>115</v>
@@ -14093,13 +14093,13 @@
         <v>0</v>
       </c>
       <c r="AJ81" s="1">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="AK81" s="1">
         <v>0</v>
       </c>
       <c r="AL81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM81" s="1">
         <v>0</v>
@@ -14135,10 +14135,10 @@
         <v>0</v>
       </c>
       <c r="AX81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ81" s="1">
         <v>0</v>
@@ -14161,19 +14161,19 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C82" s="1">
-        <v>12562546</v>
+        <v>446220</v>
       </c>
       <c r="D82" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G82" t="s">
         <v>117</v>
@@ -14185,10 +14185,10 @@
         <v>2733</v>
       </c>
       <c r="J82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
@@ -14225,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y82" s="1">
         <v>0</v>
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="AK82" s="1">
         <v>0</v>
@@ -14276,16 +14276,16 @@
         <v>0</v>
       </c>
       <c r="AO82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS82" s="1">
         <v>0</v>
@@ -14341,7 +14341,7 @@
         <v>86</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G83" t="s">
         <v>117</v>
@@ -14497,16 +14497,16 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C84" s="1">
         <v>1983</v>
       </c>
       <c r="D84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F84" t="s">
         <v>115</v>
@@ -14665,19 +14665,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C85" s="1">
-        <v>3676</v>
+        <v>6213</v>
       </c>
       <c r="D85" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E85" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F85" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G85" t="s">
         <v>117</v>
@@ -14764,9 +14764,7 @@
       <c r="AI85" s="1">
         <v>0</v>
       </c>
-      <c r="AJ85" s="1">
-        <v>216</v>
-      </c>
+      <c r="AJ85" s="1"/>
       <c r="AK85" s="1">
         <v>0</v>
       </c>
@@ -14807,7 +14805,7 @@
         <v>0</v>
       </c>
       <c r="AX85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY85" s="1">
         <v>0</v>
@@ -14836,7 +14834,7 @@
         <v>32</v>
       </c>
       <c r="C86" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D86" t="s">
         <v>65</v>
@@ -14845,7 +14843,7 @@
         <v>94</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G86" t="s">
         <v>117</v>
@@ -14857,10 +14855,10 @@
         <v>2735</v>
       </c>
       <c r="J86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
@@ -14873,19 +14871,19 @@
         <v>0</v>
       </c>
       <c r="P86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86" s="1">
         <v>0</v>
       </c>
       <c r="S86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86" s="1">
         <v>0</v>
@@ -14933,10 +14931,10 @@
         <v>0</v>
       </c>
       <c r="AJ86" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL86" s="1">
         <v>1</v>
@@ -15001,19 +14999,19 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C87" s="1">
-        <v>6213</v>
+        <v>88890</v>
       </c>
       <c r="D87" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G87" t="s">
         <v>117</v>
@@ -15100,12 +15098,14 @@
       <c r="AI87" s="1">
         <v>0</v>
       </c>
-      <c r="AJ87" s="1"/>
+      <c r="AJ87" s="1">
+        <v>44</v>
+      </c>
       <c r="AK87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM87" s="1">
         <v>0</v>
@@ -15150,7 +15150,7 @@
         <v>0</v>
       </c>
       <c r="BA87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB87" s="1">
         <v>0</v>
@@ -15167,19 +15167,19 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C88" s="1">
-        <v>68602</v>
+        <v>3676</v>
       </c>
       <c r="D88" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E88" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F88" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G88" t="s">
         <v>117</v>
@@ -15267,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="AJ88" s="1">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AK88" s="1">
         <v>0</v>
@@ -15309,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="AX88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY88" s="1">
         <v>0</v>
@@ -15335,19 +15335,19 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C89" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D89" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E89" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G89" t="s">
         <v>117</v>
@@ -15375,10 +15375,10 @@
         <v>0</v>
       </c>
       <c r="P89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89" s="1">
         <v>0</v>
@@ -15435,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="AJ89" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK89" s="1">
         <v>1</v>
@@ -15486,7 +15486,7 @@
         <v>0</v>
       </c>
       <c r="BA89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB89" s="1">
         <v>0</v>
@@ -15503,19 +15503,19 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C90" s="1">
-        <v>5707</v>
+        <v>68602</v>
       </c>
       <c r="D90" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E90" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F90" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G90" t="s">
         <v>117</v>
@@ -15527,10 +15527,10 @@
         <v>2735</v>
       </c>
       <c r="J90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1">
@@ -15552,10 +15552,10 @@
         <v>0</v>
       </c>
       <c r="S90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U90" s="1">
         <v>0</v>
@@ -15603,13 +15603,13 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="1">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="AK90" s="1">
         <v>0</v>
       </c>
       <c r="AL90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -15675,13 +15675,13 @@
       </c>
       <c r="C91" s="1"/>
       <c r="D91" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E91" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F91" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G91" t="s">
         <v>117</v>
@@ -16005,19 +16005,19 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C93" s="1">
         <v>88890</v>
       </c>
       <c r="D93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E93" t="s">
         <v>88</v>
       </c>
       <c r="F93" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G93" t="s">
         <v>117</v>
@@ -16173,19 +16173,19 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C94" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F94" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G94" t="s">
         <v>117</v>
@@ -16213,10 +16213,10 @@
         <v>0</v>
       </c>
       <c r="P94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94" s="1">
         <v>0</v>
@@ -16273,7 +16273,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AK94" s="1">
         <v>1</v>
@@ -16341,19 +16341,19 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C95" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F95" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G95" t="s">
         <v>117</v>
@@ -16365,10 +16365,10 @@
         <v>2737</v>
       </c>
       <c r="J95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
@@ -16381,10 +16381,10 @@
         <v>0</v>
       </c>
       <c r="P95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95" s="1">
         <v>0</v>
@@ -16440,14 +16440,12 @@
       <c r="AI95" s="1">
         <v>0</v>
       </c>
-      <c r="AJ95" s="1">
-        <v>191</v>
-      </c>
+      <c r="AJ95" s="1"/>
       <c r="AK95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM95" s="1">
         <v>0</v>
@@ -16509,16 +16507,16 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C96" s="1">
-        <v>10836</v>
+        <v>26879</v>
       </c>
       <c r="D96" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E96" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F96" t="s">
         <v>115</v>
@@ -16567,7 +16565,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W96" s="1">
         <v>0</v>
@@ -16582,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="AA96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB96" s="1">
         <v>0</v>
@@ -16609,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="1">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="AK96" s="1">
         <v>0</v>
@@ -16651,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="AX96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY96" s="1">
         <v>0</v>
@@ -16677,16 +16675,16 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C97" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D97" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E97" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F97" t="s">
         <v>115</v>
@@ -16776,12 +16774,14 @@
       <c r="AI97" s="1">
         <v>0</v>
       </c>
-      <c r="AJ97" s="1"/>
+      <c r="AJ97" s="1">
+        <v>119</v>
+      </c>
       <c r="AK97" s="1">
         <v>0</v>
       </c>
       <c r="AL97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM97" s="1">
         <v>0</v>
@@ -16820,7 +16820,7 @@
         <v>0</v>
       </c>
       <c r="AY97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ97" s="1">
         <v>0</v>
@@ -16843,16 +16843,16 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C98" s="1">
-        <v>5486550</v>
+        <v>10836</v>
       </c>
       <c r="D98" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E98" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F98" t="s">
         <v>115</v>
@@ -16901,7 +16901,7 @@
         <v>0</v>
       </c>
       <c r="V98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W98" s="1">
         <v>0</v>
@@ -16943,13 +16943,13 @@
         <v>0</v>
       </c>
       <c r="AJ98" s="1">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="AK98" s="1">
         <v>0</v>
       </c>
       <c r="AL98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM98" s="1">
         <v>0</v>
@@ -16988,7 +16988,7 @@
         <v>0</v>
       </c>
       <c r="AY98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ98" s="1">
         <v>0</v>
@@ -17011,19 +17011,19 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C99" s="1">
-        <v>26879</v>
+        <v>5462328</v>
       </c>
       <c r="D99" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E99" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F99" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G99" t="s">
         <v>117</v>
@@ -17035,10 +17035,10 @@
         <v>2737</v>
       </c>
       <c r="J99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1">
@@ -17084,7 +17084,7 @@
         <v>0</v>
       </c>
       <c r="AA99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB99" s="1">
         <v>0</v>
@@ -17111,13 +17111,13 @@
         <v>0</v>
       </c>
       <c r="AJ99" s="1">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AK99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM99" s="1">
         <v>0</v>
@@ -17153,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="AX99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY99" s="1">
         <v>0</v>
@@ -17179,19 +17179,19 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C100" s="1">
         <v>3345</v>
       </c>
       <c r="D100" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E100" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F100" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G100" t="s">
         <v>117</v>
@@ -17347,19 +17347,19 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C101" s="1">
         <v>88890</v>
       </c>
       <c r="D101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E101" t="s">
         <v>88</v>
       </c>
       <c r="F101" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G101" t="s">
         <v>117</v>
@@ -17515,19 +17515,19 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C102" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D102" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E102" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F102" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G102" t="s">
         <v>117</v>
@@ -17615,7 +17615,7 @@
         <v>0</v>
       </c>
       <c r="AJ102" s="1">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AK102" s="1">
         <v>1</v>
@@ -17666,7 +17666,7 @@
         <v>0</v>
       </c>
       <c r="BA102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB102" s="1">
         <v>0</v>
@@ -17683,19 +17683,19 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C103" s="1">
-        <v>88890</v>
+        <v>26879</v>
       </c>
       <c r="D103" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E103" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="F103" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G103" t="s">
         <v>117</v>
@@ -17707,10 +17707,10 @@
         <v>2739</v>
       </c>
       <c r="J103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1">
@@ -17756,7 +17756,7 @@
         <v>0</v>
       </c>
       <c r="AA103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB103" s="1">
         <v>0</v>
@@ -17783,13 +17783,13 @@
         <v>0</v>
       </c>
       <c r="AJ103" s="1">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="AK103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM103" s="1">
         <v>0</v>
@@ -17825,7 +17825,7 @@
         <v>0</v>
       </c>
       <c r="AX103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY103" s="1">
         <v>0</v>
@@ -17834,7 +17834,7 @@
         <v>0</v>
       </c>
       <c r="BA103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB103" s="1">
         <v>0</v>
@@ -17851,19 +17851,19 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C104" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D104" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E104" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F104" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G104" t="s">
         <v>117</v>
@@ -17875,10 +17875,10 @@
         <v>2739</v>
       </c>
       <c r="J104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1">
@@ -17891,10 +17891,10 @@
         <v>0</v>
       </c>
       <c r="P104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R104" s="1">
         <v>0</v>
@@ -17950,12 +17950,14 @@
       <c r="AI104" s="1">
         <v>0</v>
       </c>
-      <c r="AJ104" s="1"/>
+      <c r="AJ104" s="1">
+        <v>191</v>
+      </c>
       <c r="AK104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -18017,19 +18019,19 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C105" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D105" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E105" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F105" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G105" t="s">
         <v>117</v>
@@ -18041,10 +18043,10 @@
         <v>2739</v>
       </c>
       <c r="J105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1">
@@ -18117,10 +18119,10 @@
         <v>0</v>
       </c>
       <c r="AJ105" s="1">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="AK105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL105" s="1">
         <v>1</v>
@@ -18162,7 +18164,7 @@
         <v>0</v>
       </c>
       <c r="AY105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ105" s="1">
         <v>0</v>
@@ -18185,16 +18187,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C106" s="1">
-        <v>26879</v>
+        <v>5486550</v>
       </c>
       <c r="D106" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E106" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F106" t="s">
         <v>115</v>
@@ -18258,7 +18260,7 @@
         <v>0</v>
       </c>
       <c r="AA106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB106" s="1">
         <v>0</v>
@@ -18285,13 +18287,13 @@
         <v>0</v>
       </c>
       <c r="AJ106" s="1">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="AK106" s="1">
         <v>0</v>
       </c>
       <c r="AL106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -18327,10 +18329,10 @@
         <v>0</v>
       </c>
       <c r="AX106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ106" s="1">
         <v>0</v>
@@ -18353,19 +18355,19 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C107" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D107" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E107" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F107" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G107" t="s">
         <v>117</v>
@@ -18377,10 +18379,10 @@
         <v>2739</v>
       </c>
       <c r="J107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
@@ -18393,10 +18395,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -18452,14 +18454,12 @@
       <c r="AI107" s="1">
         <v>0</v>
       </c>
-      <c r="AJ107" s="1">
-        <v>191</v>
-      </c>
+      <c r="AJ107" s="1"/>
       <c r="AK107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -18533,7 +18533,7 @@
         <v>86</v>
       </c>
       <c r="F108" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G108" t="s">
         <v>117</v>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -87,49 +87,49 @@
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>quinine</t>
   </si>
   <si>
     <t>caffeine</t>
   </si>
   <si>
-    <t>4-ANPP</t>
+    <t>xylazine</t>
   </si>
   <si>
-    <t>quinine</t>
+    <t>heroin</t>
   </si>
   <si>
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>cocaine</t>
+    <t>acetylcodeine</t>
   </si>
   <si>
-    <t>heroin</t>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
-    <t>xylazine</t>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
     <t>papaverine</t>
   </si>
   <si>
     <t>1-phenethyl-4-hydroxypiperidine</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>acetyl fentanyl</t>
@@ -141,13 +141,13 @@
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
+    <t>1,3-Diacetin</t>
+  </si>
+  <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
+    <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
@@ -156,19 +156,19 @@
     <t>procaine</t>
   </si>
   <si>
-    <t>despropionyl p-fluorofentanyl</t>
+    <t>bromazolam</t>
   </si>
   <si>
     <t>medetomidine</t>
   </si>
   <si>
-    <t>lidocaine</t>
+    <t>acetaminophen</t>
   </si>
   <si>
     <t>tramadol</t>
   </si>
   <si>
-    <t>acetaminophen</t>
+    <t>lidocaine</t>
   </si>
   <si>
     <t>alprazolam</t>
@@ -186,46 +186,46 @@
     <t>537-46-2</t>
   </si>
   <si>
-    <t/>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>72402-53-0</t>
   </si>
   <si>
     <t>58-08-2</t>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t>7361-61-7</t>
   </si>
   <si>
-    <t>72402-53-0</t>
+    <t>561-27-3</t>
   </si>
   <si>
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>437-38-7</t>
+    <t/>
   </si>
   <si>
-    <t>50-36-2</t>
+    <t>6703-27-1</t>
   </si>
   <si>
-    <t>561-27-3</t>
+    <t>1462260-87-2</t>
   </si>
   <si>
-    <t>7361-61-7</t>
+    <t>620-71-3</t>
   </si>
   <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>1462260-87-2</t>
-  </si>
-  <si>
     <t>58-74-2</t>
-  </si>
-  <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
   </si>
   <si>
     <t>3258-84-2</t>
@@ -237,31 +237,31 @@
     <t>43021-26-7</t>
   </si>
   <si>
+    <t>105-70-4</t>
+  </si>
+  <si>
     <t>67-71-0</t>
   </si>
   <si>
-    <t>105-70-4</t>
+    <t>122861-41-0</t>
+  </si>
+  <si>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>71368-80-4</t>
   </si>
   <si>
-    <t>59-46-1</t>
-  </si>
-  <si>
-    <t>122861-41-0</t>
-  </si>
-  <si>
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>137-58-6</t>
+    <t>103-90-2</t>
   </si>
   <si>
     <t>123154-38-1</t>
   </si>
   <si>
-    <t>103-90-2</t>
+    <t>137-58-6</t>
   </si>
   <si>
     <t>28981-97-7</t>
@@ -276,43 +276,43 @@
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>3G6A5W338E</t>
+    <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
   </si>
   <si>
     <t>A7V27PHC7A</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
+    <t>3G6A5W338E</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
+    <t>3D9E9KK5K5</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
   </si>
   <si>
     <t>M5E47P1ZCH</t>
   </si>
   <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
     <t>DAA13NKG2Q</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
   </si>
   <si>
     <t>6DZ28538KS</t>
@@ -324,31 +324,31 @@
     <t>58C337KP3E</t>
   </si>
   <si>
+    <t>G45CU3Z186</t>
+  </si>
+  <si>
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
+    <t>R8ZH1EQ95Y</t>
+  </si>
+  <si>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>YMC9OT97Z1</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
-  </si>
-  <si>
-    <t>R8ZH1EQ95Y</t>
-  </si>
-  <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
-    <t>98PI200987</t>
+    <t>362O9ITL9D</t>
   </si>
   <si>
     <t>39J1LGJ30J</t>
   </si>
   <si>
-    <t>362O9ITL9D</t>
+    <t>98PI200987</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -751,7 +751,7 @@
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>117</v>
@@ -910,16 +910,16 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
         <v>117</v>
@@ -931,10 +931,10 @@
         <v>1313</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -1007,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>1</v>
@@ -1078,16 +1078,16 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>2519</v>
+        <v>446220</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
@@ -1099,10 +1099,10 @@
         <v>1313</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>0</v>
@@ -1246,16 +1246,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>117</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK5" s="1">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="1">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
@@ -1582,13 +1582,13 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>62300</v>
+        <v>2519</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
         <v>115</v>
@@ -1679,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -1750,16 +1750,16 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
         <v>117</v>
@@ -1771,10 +1771,10 @@
         <v>1313</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1787,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>1</v>
@@ -1918,16 +1918,16 @@
         <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
         <v>117</v>
@@ -1939,10 +1939,10 @@
         <v>1313</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
@@ -2015,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
       <c r="AL9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
@@ -2086,13 +2086,13 @@
         <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
         <v>115</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
@@ -2254,13 +2254,13 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
         <v>115</v>
@@ -2300,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="AK11" s="1">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="1">
         <v>0</v>
@@ -2419,19 +2419,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1">
-        <v>165365057</v>
+        <v>3034034</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
         <v>117</v>
@@ -2519,13 +2519,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="1">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="AX12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="1">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="BA12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="1">
         <v>0</v>
@@ -2587,19 +2587,19 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
         <v>117</v>
@@ -2611,10 +2611,10 @@
         <v>1456</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>1</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2755,19 +2755,19 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
         <v>117</v>
@@ -2779,10 +2779,10 @@
         <v>1456</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2855,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="1">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2923,19 +2923,19 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
         <v>117</v>
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -3023,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>0</v>
@@ -3091,16 +3091,16 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>2519</v>
+        <v>62300</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -3191,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="AK16" s="1">
         <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>0</v>
@@ -3259,16 +3259,16 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
         <v>115</v>
@@ -3308,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="AK17" s="1">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
         <v>117</v>
@@ -3467,10 +3467,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK18" s="1">
         <v>1</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="1">
         <v>0</v>
@@ -3595,16 +3595,16 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="1">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="AK19" s="1">
         <v>0</v>
@@ -3763,19 +3763,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
         <v>117</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="1">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="AX20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="1">
         <v>0</v>
@@ -3934,16 +3934,16 @@
         <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
         <v>117</v>
@@ -3955,10 +3955,10 @@
         <v>1471</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3971,10 +3971,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
         <v>1</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="1">
         <v>0</v>
@@ -4099,19 +4099,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
-        <v>3034034</v>
+        <v>88890</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
         <v>117</v>
@@ -4123,10 +4123,10 @@
         <v>1471</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -4199,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="AK22" s="1">
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="1">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
         <v>117</v>
@@ -4435,19 +4435,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
         <v>117</v>
@@ -4456,7 +4456,7 @@
         <v>45526</v>
       </c>
       <c r="I24" s="1">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AK24" s="1">
         <v>1</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="1">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>33</v>
       </c>
       <c r="C25" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D25" t="s">
         <v>66</v>
@@ -4615,7 +4615,7 @@
         <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
         <v>117</v>
@@ -4624,7 +4624,7 @@
         <v>45526</v>
       </c>
       <c r="I25" s="1">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4702,12 +4702,14 @@
       <c r="AI25" s="1">
         <v>0</v>
       </c>
-      <c r="AJ25" s="1"/>
+      <c r="AJ25" s="1">
+        <v>119</v>
+      </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -4746,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="1">
         <v>0</v>
@@ -4769,16 +4771,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
-        <v>165365057</v>
+        <v>91725431</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -4790,7 +4792,7 @@
         <v>45526</v>
       </c>
       <c r="I26" s="1">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -4869,13 +4871,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>281</v>
+        <v>10</v>
       </c>
       <c r="AK26" s="1">
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4920,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4937,16 +4939,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1">
-        <v>91725431</v>
+        <v>12107</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
         <v>115</v>
@@ -4958,7 +4960,7 @@
         <v>45526</v>
       </c>
       <c r="I27" s="1">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -5037,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="AK27" s="1">
         <v>0</v>
@@ -5088,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="1">
         <v>0</v>
@@ -5105,16 +5107,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>4680</v>
+        <v>165365057</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
         <v>115</v>
@@ -5126,7 +5128,7 @@
         <v>45526</v>
       </c>
       <c r="I28" s="1">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -5205,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AK28" s="1">
         <v>0</v>
@@ -5250,13 +5252,13 @@
         <v>0</v>
       </c>
       <c r="AY28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ28" s="1">
         <v>0</v>
       </c>
       <c r="BA28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB28" s="1">
         <v>0</v>
@@ -5275,15 +5277,17 @@
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1">
+        <v>5462507</v>
+      </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G29" t="s">
         <v>117</v>
@@ -5292,7 +5296,7 @@
         <v>45526</v>
       </c>
       <c r="I29" s="1">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -5370,14 +5374,12 @@
       <c r="AI29" s="1">
         <v>0</v>
       </c>
-      <c r="AJ29" s="1">
-        <v>9</v>
-      </c>
+      <c r="AJ29" s="1"/>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5439,19 +5441,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>5486550</v>
+        <v>3345</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
         <v>117</v>
@@ -5460,7 +5462,7 @@
         <v>45526</v>
       </c>
       <c r="I30" s="1">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -5479,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -5539,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="AK30" s="1">
         <v>1</v>
@@ -5584,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="AY30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="1">
         <v>0</v>
@@ -5607,19 +5609,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
-        <v>10836</v>
+        <v>5707</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
         <v>117</v>
@@ -5628,13 +5630,13 @@
         <v>45526</v>
       </c>
       <c r="I31" s="1">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5653,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="1">
         <v>0</v>
@@ -5665,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="1">
         <v>0</v>
@@ -5707,13 +5709,13 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -5775,19 +5777,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
         <v>117</v>
@@ -5796,7 +5798,7 @@
         <v>45526</v>
       </c>
       <c r="I32" s="1">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -5875,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="AK32" s="1">
         <v>1</v>
@@ -5926,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5943,10 +5945,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1">
-        <v>12107</v>
+        <v>4680</v>
       </c>
       <c r="D33" t="s">
         <v>70</v>
@@ -5964,7 +5966,7 @@
         <v>45526</v>
       </c>
       <c r="I33" s="1">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -6043,13 +6045,13 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c r="AK33" s="1">
         <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -6088,13 +6090,13 @@
         <v>0</v>
       </c>
       <c r="AY33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ33" s="1">
         <v>0</v>
       </c>
       <c r="BA33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="1">
         <v>0</v>
@@ -6111,19 +6113,17 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3345</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
         <v>117</v>
@@ -6132,7 +6132,7 @@
         <v>45526</v>
       </c>
       <c r="I34" s="1">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -6151,10 +6151,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="AK34" s="1">
         <v>1</v>
@@ -6279,19 +6279,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1">
-        <v>5707</v>
+        <v>10836</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G35" t="s">
         <v>117</v>
@@ -6300,13 +6300,13 @@
         <v>45526</v>
       </c>
       <c r="I35" s="1">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6325,10 +6325,10 @@
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
         <v>0</v>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="1">
         <v>0</v>
@@ -6379,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>324</v>
+        <v>231</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -6450,16 +6450,16 @@
         <v>24</v>
       </c>
       <c r="C36" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D36" t="s">
         <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G36" t="s">
         <v>117</v>
@@ -6468,13 +6468,13 @@
         <v>45526</v>
       </c>
       <c r="I36" s="1">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6547,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
         <v>1</v>
@@ -6615,19 +6615,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1">
         <v>446220</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
         <v>117</v>
@@ -6636,7 +6636,7 @@
         <v>45526</v>
       </c>
       <c r="I37" s="1">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -6783,19 +6783,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1">
         <v>3345</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G38" t="s">
         <v>117</v>
@@ -6804,7 +6804,7 @@
         <v>45526</v>
       </c>
       <c r="I38" s="1">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -6951,16 +6951,16 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1">
-        <v>10836</v>
+        <v>527015</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F39" t="s">
         <v>115</v>
@@ -6972,7 +6972,7 @@
         <v>45526</v>
       </c>
       <c r="I39" s="1">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="1">
         <v>0</v>
@@ -7051,13 +7051,13 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="AK39" s="1">
         <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB39" s="1">
         <v>0</v>
@@ -7119,19 +7119,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G40" t="s">
         <v>117</v>
@@ -7140,13 +7140,13 @@
         <v>45526</v>
       </c>
       <c r="I40" s="1">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="1">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="AK40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="1">
         <v>0</v>
@@ -7287,16 +7287,16 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C41" s="1">
-        <v>527015</v>
+        <v>165365057</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F41" t="s">
         <v>115</v>
@@ -7308,7 +7308,7 @@
         <v>45526</v>
       </c>
       <c r="I41" s="1">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="AK41" s="1">
         <v>0</v>
@@ -7467,7 +7467,7 @@
         <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G42" t="s">
         <v>117</v>
@@ -7476,7 +7476,7 @@
         <v>45525</v>
       </c>
       <c r="I42" s="1">
-        <v>2285</v>
+        <v>2288</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -7644,7 +7644,7 @@
         <v>45525</v>
       </c>
       <c r="I43" s="1">
-        <v>2326</v>
+        <v>2330</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
@@ -7789,19 +7789,19 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1">
         <v>446220</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
         <v>117</v>
@@ -7810,7 +7810,7 @@
         <v>45525</v>
       </c>
       <c r="I44" s="1">
-        <v>2326</v>
+        <v>2330</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -7978,7 +7978,7 @@
         <v>45525</v>
       </c>
       <c r="I45" s="1">
-        <v>2326</v>
+        <v>2330</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
@@ -8123,19 +8123,19 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C46" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
         <v>117</v>
@@ -8144,7 +8144,7 @@
         <v>45446</v>
       </c>
       <c r="I46" s="1">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -8163,10 +8163,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="1">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="1">
         <v>0</v>
@@ -8223,13 +8223,13 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="AK46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="AX46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="1">
         <v>0</v>
@@ -8291,19 +8291,19 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" t="s">
         <v>65</v>
-      </c>
-      <c r="E47" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" t="s">
-        <v>57</v>
       </c>
       <c r="G47" t="s">
         <v>117</v>
@@ -8312,7 +8312,7 @@
         <v>45446</v>
       </c>
       <c r="I47" s="1">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -8337,10 +8337,10 @@
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="1">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AK47" s="1">
         <v>1</v>
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="BA47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB47" s="1">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C48" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G48" t="s">
         <v>117</v>
@@ -8480,7 +8480,7 @@
         <v>45446</v>
       </c>
       <c r="I48" s="1">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -8559,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="1">
         <v>0</v>
@@ -8601,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY48" s="1">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="1">
         <v>0</v>
@@ -8630,16 +8630,16 @@
         <v>29</v>
       </c>
       <c r="C49" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D49" t="s">
         <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G49" t="s">
         <v>117</v>
@@ -8648,7 +8648,7 @@
         <v>45446</v>
       </c>
       <c r="I49" s="1">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -8667,16 +8667,16 @@
         <v>0</v>
       </c>
       <c r="P49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK49" s="1">
         <v>1</v>
@@ -8798,7 +8798,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="1">
-        <v>6213</v>
+        <v>66924</v>
       </c>
       <c r="D50" t="s">
         <v>74</v>
@@ -8807,7 +8807,7 @@
         <v>103</v>
       </c>
       <c r="F50" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G50" t="s">
         <v>117</v>
@@ -8816,13 +8816,13 @@
         <v>45649</v>
       </c>
       <c r="I50" s="1">
-        <v>2730</v>
+        <v>2735</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -8894,7 +8894,9 @@
       <c r="AI50" s="1">
         <v>0</v>
       </c>
-      <c r="AJ50" s="1"/>
+      <c r="AJ50" s="1">
+        <v>2</v>
+      </c>
       <c r="AK50" s="1">
         <v>0</v>
       </c>
@@ -8973,7 +8975,7 @@
         <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G51" t="s">
         <v>117</v>
@@ -8982,7 +8984,7 @@
         <v>45649</v>
       </c>
       <c r="I51" s="1">
-        <v>2730</v>
+        <v>2735</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -9132,7 +9134,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="1">
-        <v>66924</v>
+        <v>6213</v>
       </c>
       <c r="D52" t="s">
         <v>75</v>
@@ -9141,7 +9143,7 @@
         <v>104</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G52" t="s">
         <v>117</v>
@@ -9150,13 +9152,13 @@
         <v>45649</v>
       </c>
       <c r="I52" s="1">
-        <v>2730</v>
+        <v>2735</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -9228,9 +9230,7 @@
       <c r="AI52" s="1">
         <v>0</v>
       </c>
-      <c r="AJ52" s="1">
-        <v>2</v>
-      </c>
+      <c r="AJ52" s="1"/>
       <c r="AK52" s="1">
         <v>0</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>44</v>
       </c>
       <c r="C53" s="1">
-        <v>12562546</v>
+        <v>21812144</v>
       </c>
       <c r="D53" t="s">
         <v>76</v>
@@ -9309,7 +9309,7 @@
         <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G53" t="s">
         <v>117</v>
@@ -9318,13 +9318,13 @@
         <v>45664</v>
       </c>
       <c r="I53" s="1">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -9397,13 +9397,13 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM53" s="1">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="AP53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="1">
         <v>0</v>
       </c>
       <c r="AR53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="1">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC53" s="1">
         <v>0</v>
@@ -9465,14 +9465,16 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C54" s="1">
+        <v>10836</v>
+      </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s">
         <v>115</v>
@@ -9484,7 +9486,7 @@
         <v>45664</v>
       </c>
       <c r="I54" s="1">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="J54" s="1">
         <v>0</v>
@@ -9521,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54" s="1">
         <v>0</v>
@@ -9557,13 +9559,13 @@
         <v>0</v>
       </c>
       <c r="AH54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="1">
         <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="AK54" s="1">
         <v>0</v>
@@ -9631,16 +9633,14 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="1">
-        <v>4914</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C55" s="1"/>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="F55" t="s">
         <v>115</v>
@@ -9652,7 +9652,7 @@
         <v>45664</v>
       </c>
       <c r="I55" s="1">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
@@ -9725,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="AH55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55" s="1">
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>287</v>
+        <v>135</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -9773,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="1">
         <v>0</v>
@@ -9799,19 +9799,19 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C56" s="1">
-        <v>10836</v>
+        <v>6213</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G56" t="s">
         <v>117</v>
@@ -9820,13 +9820,13 @@
         <v>45664</v>
       </c>
       <c r="I56" s="1">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56" s="1">
         <v>0</v>
@@ -9898,9 +9898,7 @@
       <c r="AI56" s="1">
         <v>0</v>
       </c>
-      <c r="AJ56" s="1">
-        <v>231</v>
-      </c>
+      <c r="AJ56" s="1"/>
       <c r="AK56" s="1">
         <v>0</v>
       </c>
@@ -9967,19 +9965,19 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C57" s="1">
-        <v>21812144</v>
+        <v>3345</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G57" t="s">
         <v>117</v>
@@ -9988,7 +9986,7 @@
         <v>45664</v>
       </c>
       <c r="I57" s="1">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -10007,10 +10005,10 @@
         <v>0</v>
       </c>
       <c r="P57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -10067,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK57" s="1">
         <v>1</v>
@@ -10121,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="BB57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC57" s="1">
         <v>0</v>
@@ -10135,19 +10133,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G58" t="s">
         <v>117</v>
@@ -10156,13 +10154,13 @@
         <v>45664</v>
       </c>
       <c r="I58" s="1">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -10175,10 +10173,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -10235,13 +10233,13 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="1">
         <v>0</v>
@@ -10277,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="AX58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY58" s="1">
         <v>0</v>
@@ -10306,16 +10304,16 @@
         <v>31</v>
       </c>
       <c r="C59" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D59" t="s">
         <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G59" t="s">
         <v>117</v>
@@ -10324,13 +10322,13 @@
         <v>45664</v>
       </c>
       <c r="I59" s="1">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -10403,10 +10401,10 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="AK59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="1">
         <v>1</v>
@@ -10471,19 +10469,19 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C60" s="1">
         <v>5707</v>
       </c>
       <c r="D60" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" t="s">
         <v>65</v>
-      </c>
-      <c r="E60" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" t="s">
-        <v>57</v>
       </c>
       <c r="G60" t="s">
         <v>117</v>
@@ -10492,7 +10490,7 @@
         <v>45664</v>
       </c>
       <c r="I60" s="1">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -10639,19 +10637,19 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C61" s="1">
-        <v>6213</v>
+        <v>4914</v>
       </c>
       <c r="D61" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G61" t="s">
         <v>117</v>
@@ -10660,7 +10658,7 @@
         <v>45664</v>
       </c>
       <c r="I61" s="1">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -10738,7 +10736,9 @@
       <c r="AI61" s="1">
         <v>0</v>
       </c>
-      <c r="AJ61" s="1"/>
+      <c r="AJ61" s="1">
+        <v>287</v>
+      </c>
       <c r="AK61" s="1">
         <v>0</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="AX61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY61" s="1">
         <v>0</v>
@@ -10805,19 +10805,19 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C62" s="1">
-        <v>4914</v>
+        <v>88890</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F62" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G62" t="s">
         <v>117</v>
@@ -10826,7 +10826,7 @@
         <v>45664</v>
       </c>
       <c r="I62" s="1">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -10905,13 +10905,13 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="AX62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="1">
         <v>0</v>
@@ -10956,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB62" s="1">
         <v>0</v>
@@ -10973,16 +10973,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="1">
-        <v>68602</v>
+        <v>12562546</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F63" t="s">
         <v>115</v>
@@ -10994,7 +10994,7 @@
         <v>45664</v>
       </c>
       <c r="I63" s="1">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="AK63" s="1">
         <v>0</v>
@@ -11091,13 +11091,13 @@
         <v>0</v>
       </c>
       <c r="AP63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ63" s="1">
         <v>0</v>
       </c>
       <c r="AR63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS63" s="1">
         <v>0</v>
@@ -11141,19 +11141,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C64" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F64" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G64" t="s">
         <v>117</v>
@@ -11162,13 +11162,13 @@
         <v>45664</v>
       </c>
       <c r="I64" s="1">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
         <v>1</v>
@@ -11309,19 +11309,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C65" s="1">
-        <v>88890</v>
+        <v>68602</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E65" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G65" t="s">
         <v>117</v>
@@ -11330,13 +11330,13 @@
         <v>45664</v>
       </c>
       <c r="I65" s="1">
-        <v>2731</v>
+        <v>2736</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11409,13 +11409,13 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="1">
         <v>0</v>
@@ -11489,7 +11489,7 @@
         <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G66" t="s">
         <v>117</v>
@@ -11498,7 +11498,7 @@
         <v>45664</v>
       </c>
       <c r="I66" s="1">
-        <v>2732</v>
+        <v>2737</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -11645,19 +11645,19 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C67" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F67" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G67" t="s">
         <v>117</v>
@@ -11666,13 +11666,13 @@
         <v>45665</v>
       </c>
       <c r="I67" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -11685,10 +11685,10 @@
         <v>0</v>
       </c>
       <c r="P67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" s="1">
         <v>0</v>
@@ -11745,13 +11745,13 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="AK67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM67" s="1">
         <v>0</v>
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="AX67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY67" s="1">
         <v>0</v>
@@ -11813,16 +11813,16 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C68" s="1">
-        <v>88890</v>
+        <v>68602</v>
       </c>
       <c r="D68" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E68" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F68" t="s">
         <v>115</v>
@@ -11834,7 +11834,7 @@
         <v>45665</v>
       </c>
       <c r="I68" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -11913,13 +11913,13 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AK68" s="1">
         <v>0</v>
       </c>
       <c r="AL68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68" s="1">
         <v>0</v>
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="1">
         <v>0</v>
@@ -11981,19 +11981,19 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D69" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E69" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G69" t="s">
         <v>117</v>
@@ -12002,13 +12002,13 @@
         <v>45665</v>
       </c>
       <c r="I69" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -12027,10 +12027,10 @@
         <v>0</v>
       </c>
       <c r="R69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T69" s="1">
         <v>0</v>
@@ -12045,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69" s="1">
         <v>0</v>
@@ -12081,13 +12081,13 @@
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="AK69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -12152,16 +12152,16 @@
         <v>29</v>
       </c>
       <c r="C70" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D70" t="s">
         <v>62</v>
       </c>
       <c r="E70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F70" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G70" t="s">
         <v>117</v>
@@ -12170,7 +12170,7 @@
         <v>45665</v>
       </c>
       <c r="I70" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J70" s="1">
         <v>1</v>
@@ -12189,16 +12189,16 @@
         <v>0</v>
       </c>
       <c r="P70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK70" s="1">
         <v>1</v>
@@ -12317,16 +12317,16 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" s="1">
-        <v>33741</v>
+        <v>1983</v>
       </c>
       <c r="D71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F71" t="s">
         <v>115</v>
@@ -12338,7 +12338,7 @@
         <v>45665</v>
       </c>
       <c r="I71" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD71" s="1">
         <v>0</v>
@@ -12417,13 +12417,13 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>313</v>
+        <v>114</v>
       </c>
       <c r="AK71" s="1">
         <v>0</v>
       </c>
       <c r="AL71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71" s="1">
         <v>0</v>
@@ -12485,19 +12485,19 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E72" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G72" t="s">
         <v>117</v>
@@ -12506,13 +12506,13 @@
         <v>45665</v>
       </c>
       <c r="I72" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -12585,10 +12585,10 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AK72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="1">
         <v>1</v>
@@ -12636,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="BA72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB72" s="1">
         <v>0</v>
@@ -12653,16 +12653,14 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" s="1">
-        <v>68602</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C73" s="1"/>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F73" t="s">
         <v>115</v>
@@ -12674,7 +12672,7 @@
         <v>45665</v>
       </c>
       <c r="I73" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -12747,13 +12745,13 @@
         <v>0</v>
       </c>
       <c r="AH73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI73" s="1">
         <v>0</v>
       </c>
       <c r="AJ73" s="1">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="AK73" s="1">
         <v>0</v>
@@ -12821,19 +12819,19 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C74" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E74" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F74" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G74" t="s">
         <v>117</v>
@@ -12842,13 +12840,13 @@
         <v>45665</v>
       </c>
       <c r="I74" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -12920,12 +12918,14 @@
       <c r="AI74" s="1">
         <v>0</v>
       </c>
-      <c r="AJ74" s="1"/>
+      <c r="AJ74" s="1">
+        <v>201</v>
+      </c>
       <c r="AK74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM74" s="1">
         <v>0</v>
@@ -12987,16 +12987,16 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C75" s="1">
-        <v>1983</v>
+        <v>33741</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F75" t="s">
         <v>115</v>
@@ -13008,7 +13008,7 @@
         <v>45665</v>
       </c>
       <c r="I75" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -13066,7 +13066,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD75" s="1">
         <v>0</v>
@@ -13087,13 +13087,13 @@
         <v>0</v>
       </c>
       <c r="AJ75" s="1">
-        <v>114</v>
+        <v>313</v>
       </c>
       <c r="AK75" s="1">
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -13155,14 +13155,16 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C76" s="1">
+        <v>62300</v>
+      </c>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="F76" t="s">
         <v>115</v>
@@ -13174,7 +13176,7 @@
         <v>45665</v>
       </c>
       <c r="I76" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
@@ -13247,19 +13249,19 @@
         <v>0</v>
       </c>
       <c r="AH76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI76" s="1">
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="AK76" s="1">
         <v>0</v>
       </c>
       <c r="AL76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM76" s="1">
         <v>0</v>
@@ -13321,19 +13323,19 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C77" s="1">
-        <v>12562546</v>
+        <v>5486550</v>
       </c>
       <c r="D77" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F77" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G77" t="s">
         <v>117</v>
@@ -13342,13 +13344,13 @@
         <v>45665</v>
       </c>
       <c r="I77" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -13421,13 +13423,13 @@
         <v>0</v>
       </c>
       <c r="AJ77" s="1">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="AK77" s="1">
         <v>0</v>
       </c>
       <c r="AL77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -13436,16 +13438,16 @@
         <v>0</v>
       </c>
       <c r="AO77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS77" s="1">
         <v>0</v>
@@ -13466,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="AY77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ77" s="1">
         <v>0</v>
@@ -13489,16 +13491,16 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C78" s="1">
-        <v>10836</v>
+        <v>3676</v>
       </c>
       <c r="D78" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F78" t="s">
         <v>115</v>
@@ -13510,7 +13512,7 @@
         <v>45665</v>
       </c>
       <c r="I78" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
@@ -13547,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="V78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W78" s="1">
         <v>0</v>
@@ -13589,7 +13591,7 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="1">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="AK78" s="1">
         <v>0</v>
@@ -13631,7 +13633,7 @@
         <v>0</v>
       </c>
       <c r="AX78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY78" s="1">
         <v>0</v>
@@ -13657,16 +13659,16 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C79" s="1">
         <v>21812144</v>
       </c>
       <c r="D79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F79" t="s">
         <v>115</v>
@@ -13678,7 +13680,7 @@
         <v>45665</v>
       </c>
       <c r="I79" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
@@ -13825,16 +13827,16 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C80" s="1">
-        <v>62300</v>
+        <v>5462507</v>
       </c>
       <c r="D80" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E80" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F80" t="s">
         <v>115</v>
@@ -13846,7 +13848,7 @@
         <v>45665</v>
       </c>
       <c r="I80" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -13924,14 +13926,12 @@
       <c r="AI80" s="1">
         <v>0</v>
       </c>
-      <c r="AJ80" s="1">
-        <v>275</v>
-      </c>
+      <c r="AJ80" s="1"/>
       <c r="AK80" s="1">
         <v>0</v>
       </c>
       <c r="AL80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -13993,19 +13993,19 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C81" s="1">
-        <v>5486550</v>
+        <v>12562546</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F81" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G81" t="s">
         <v>117</v>
@@ -14014,13 +14014,13 @@
         <v>45665</v>
       </c>
       <c r="I81" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
@@ -14093,13 +14093,13 @@
         <v>0</v>
       </c>
       <c r="AJ81" s="1">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="AK81" s="1">
         <v>0</v>
       </c>
       <c r="AL81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81" s="1">
         <v>0</v>
@@ -14108,16 +14108,16 @@
         <v>0</v>
       </c>
       <c r="AO81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS81" s="1">
         <v>0</v>
@@ -14138,7 +14138,7 @@
         <v>0</v>
       </c>
       <c r="AY81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ81" s="1">
         <v>0</v>
@@ -14161,16 +14161,16 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C82" s="1">
-        <v>446220</v>
+        <v>10836</v>
       </c>
       <c r="D82" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E82" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F82" t="s">
         <v>115</v>
@@ -14182,7 +14182,7 @@
         <v>45665</v>
       </c>
       <c r="I82" s="1">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="J82" s="1">
         <v>0</v>
@@ -14219,13 +14219,13 @@
         <v>0</v>
       </c>
       <c r="V82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W82" s="1">
         <v>0</v>
       </c>
       <c r="X82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y82" s="1">
         <v>0</v>
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="AK82" s="1">
         <v>0</v>
@@ -14341,7 +14341,7 @@
         <v>86</v>
       </c>
       <c r="F83" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G83" t="s">
         <v>117</v>
@@ -14350,7 +14350,7 @@
         <v>45649</v>
       </c>
       <c r="I83" s="1">
-        <v>2734</v>
+        <v>2739</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -14497,19 +14497,19 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C84" s="1">
-        <v>1983</v>
+        <v>68602</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E84" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F84" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G84" t="s">
         <v>117</v>
@@ -14518,13 +14518,13 @@
         <v>45602</v>
       </c>
       <c r="I84" s="1">
-        <v>2735</v>
+        <v>2740</v>
       </c>
       <c r="J84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
@@ -14597,7 +14597,7 @@
         <v>0</v>
       </c>
       <c r="AJ84" s="1">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="AK84" s="1">
         <v>0</v>
@@ -14665,19 +14665,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C85" s="1">
-        <v>6213</v>
+        <v>1983</v>
       </c>
       <c r="D85" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E85" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F85" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G85" t="s">
         <v>117</v>
@@ -14686,13 +14686,13 @@
         <v>45602</v>
       </c>
       <c r="I85" s="1">
-        <v>2735</v>
+        <v>2740</v>
       </c>
       <c r="J85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -14764,7 +14764,9 @@
       <c r="AI85" s="1">
         <v>0</v>
       </c>
-      <c r="AJ85" s="1"/>
+      <c r="AJ85" s="1">
+        <v>114</v>
+      </c>
       <c r="AK85" s="1">
         <v>0</v>
       </c>
@@ -14831,16 +14833,16 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C86" s="1">
         <v>5707</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E86" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F86" t="s">
         <v>115</v>
@@ -14852,7 +14854,7 @@
         <v>45602</v>
       </c>
       <c r="I86" s="1">
-        <v>2735</v>
+        <v>2740</v>
       </c>
       <c r="J86" s="1">
         <v>0</v>
@@ -14999,19 +15001,17 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" s="1">
-        <v>88890</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C87" s="1"/>
       <c r="D87" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E87" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="F87" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G87" t="s">
         <v>117</v>
@@ -15020,7 +15020,7 @@
         <v>45602</v>
       </c>
       <c r="I87" s="1">
-        <v>2735</v>
+        <v>2740</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -15093,19 +15093,19 @@
         <v>0</v>
       </c>
       <c r="AH87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ87" s="1">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AK87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87" s="1">
         <v>0</v>
@@ -15150,7 +15150,7 @@
         <v>0</v>
       </c>
       <c r="BA87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB87" s="1">
         <v>0</v>
@@ -15167,19 +15167,19 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C88" s="1">
-        <v>3676</v>
+        <v>88890</v>
       </c>
       <c r="D88" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G88" t="s">
         <v>117</v>
@@ -15188,7 +15188,7 @@
         <v>45602</v>
       </c>
       <c r="I88" s="1">
-        <v>2735</v>
+        <v>2740</v>
       </c>
       <c r="J88" s="1">
         <v>1</v>
@@ -15267,13 +15267,13 @@
         <v>0</v>
       </c>
       <c r="AJ88" s="1">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM88" s="1">
         <v>0</v>
@@ -15309,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="AX88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY88" s="1">
         <v>0</v>
@@ -15318,7 +15318,7 @@
         <v>0</v>
       </c>
       <c r="BA88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB88" s="1">
         <v>0</v>
@@ -15335,19 +15335,19 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C89" s="1">
         <v>3345</v>
       </c>
       <c r="D89" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E89" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F89" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G89" t="s">
         <v>117</v>
@@ -15356,7 +15356,7 @@
         <v>45602</v>
       </c>
       <c r="I89" s="1">
-        <v>2735</v>
+        <v>2740</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -15503,19 +15503,19 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C90" s="1">
-        <v>68602</v>
+        <v>6213</v>
       </c>
       <c r="D90" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E90" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F90" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G90" t="s">
         <v>117</v>
@@ -15524,7 +15524,7 @@
         <v>45602</v>
       </c>
       <c r="I90" s="1">
-        <v>2735</v>
+        <v>2740</v>
       </c>
       <c r="J90" s="1">
         <v>1</v>
@@ -15602,9 +15602,7 @@
       <c r="AI90" s="1">
         <v>0</v>
       </c>
-      <c r="AJ90" s="1">
-        <v>224</v>
-      </c>
+      <c r="AJ90" s="1"/>
       <c r="AK90" s="1">
         <v>0</v>
       </c>
@@ -15671,17 +15669,19 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3676</v>
+      </c>
       <c r="D91" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E91" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F91" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G91" t="s">
         <v>117</v>
@@ -15690,7 +15690,7 @@
         <v>45602</v>
       </c>
       <c r="I91" s="1">
-        <v>2735</v>
+        <v>2740</v>
       </c>
       <c r="J91" s="1">
         <v>1</v>
@@ -15763,13 +15763,13 @@
         <v>0</v>
       </c>
       <c r="AH91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ91" s="1">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="AK91" s="1">
         <v>0</v>
@@ -15811,7 +15811,7 @@
         <v>0</v>
       </c>
       <c r="AX91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY91" s="1">
         <v>0</v>
@@ -15858,7 +15858,7 @@
         <v>45611</v>
       </c>
       <c r="I92" s="1">
-        <v>2736</v>
+        <v>2741</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
@@ -16005,19 +16005,19 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C93" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D93" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E93" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F93" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G93" t="s">
         <v>117</v>
@@ -16026,13 +16026,13 @@
         <v>45666</v>
       </c>
       <c r="I93" s="1">
-        <v>2737</v>
+        <v>2742</v>
       </c>
       <c r="J93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -16105,10 +16105,10 @@
         <v>0</v>
       </c>
       <c r="AJ93" s="1">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="AK93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93" s="1">
         <v>1</v>
@@ -16150,13 +16150,13 @@
         <v>0</v>
       </c>
       <c r="AY93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ93" s="1">
         <v>0</v>
       </c>
       <c r="BA93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB93" s="1">
         <v>0</v>
@@ -16173,19 +16173,19 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C94" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E94" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G94" t="s">
         <v>117</v>
@@ -16194,7 +16194,7 @@
         <v>45666</v>
       </c>
       <c r="I94" s="1">
-        <v>2737</v>
+        <v>2742</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
@@ -16213,10 +16213,10 @@
         <v>0</v>
       </c>
       <c r="P94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94" s="1">
         <v>0</v>
@@ -16273,7 +16273,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AK94" s="1">
         <v>1</v>
@@ -16341,16 +16341,16 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C95" s="1">
         <v>5462507</v>
       </c>
       <c r="D95" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E95" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F95" t="s">
         <v>115</v>
@@ -16362,7 +16362,7 @@
         <v>45666</v>
       </c>
       <c r="I95" s="1">
-        <v>2737</v>
+        <v>2742</v>
       </c>
       <c r="J95" s="1">
         <v>0</v>
@@ -16507,19 +16507,19 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C96" s="1">
-        <v>26879</v>
+        <v>3345</v>
       </c>
       <c r="D96" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E96" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F96" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G96" t="s">
         <v>117</v>
@@ -16528,13 +16528,13 @@
         <v>45666</v>
       </c>
       <c r="I96" s="1">
-        <v>2737</v>
+        <v>2742</v>
       </c>
       <c r="J96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1">
@@ -16547,10 +16547,10 @@
         <v>0</v>
       </c>
       <c r="P96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96" s="1">
         <v>0</v>
@@ -16580,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="AA96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB96" s="1">
         <v>0</v>
@@ -16607,13 +16607,13 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="1">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="AK96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM96" s="1">
         <v>0</v>
@@ -16649,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="AX96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY96" s="1">
         <v>0</v>
@@ -16675,16 +16675,16 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C97" s="1">
-        <v>5486550</v>
+        <v>26879</v>
       </c>
       <c r="D97" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F97" t="s">
         <v>115</v>
@@ -16696,7 +16696,7 @@
         <v>45666</v>
       </c>
       <c r="I97" s="1">
-        <v>2737</v>
+        <v>2742</v>
       </c>
       <c r="J97" s="1">
         <v>0</v>
@@ -16748,7 +16748,7 @@
         <v>0</v>
       </c>
       <c r="AA97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB97" s="1">
         <v>0</v>
@@ -16775,13 +16775,13 @@
         <v>0</v>
       </c>
       <c r="AJ97" s="1">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="AK97" s="1">
         <v>0</v>
       </c>
       <c r="AL97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM97" s="1">
         <v>0</v>
@@ -16817,10 +16817,10 @@
         <v>0</v>
       </c>
       <c r="AX97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ97" s="1">
         <v>0</v>
@@ -16864,7 +16864,7 @@
         <v>45666</v>
       </c>
       <c r="I98" s="1">
-        <v>2737</v>
+        <v>2742</v>
       </c>
       <c r="J98" s="1">
         <v>0</v>
@@ -17011,19 +17011,19 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C99" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D99" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E99" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F99" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G99" t="s">
         <v>117</v>
@@ -17032,7 +17032,7 @@
         <v>45666</v>
       </c>
       <c r="I99" s="1">
-        <v>2737</v>
+        <v>2742</v>
       </c>
       <c r="J99" s="1">
         <v>1</v>
@@ -17111,7 +17111,7 @@
         <v>0</v>
       </c>
       <c r="AJ99" s="1">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AK99" s="1">
         <v>1</v>
@@ -17162,7 +17162,7 @@
         <v>0</v>
       </c>
       <c r="BA99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB99" s="1">
         <v>0</v>
@@ -17179,19 +17179,19 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C100" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D100" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E100" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F100" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G100" t="s">
         <v>117</v>
@@ -17200,7 +17200,7 @@
         <v>45666</v>
       </c>
       <c r="I100" s="1">
-        <v>2738</v>
+        <v>2743</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -17219,10 +17219,10 @@
         <v>0</v>
       </c>
       <c r="P100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100" s="1">
         <v>0</v>
@@ -17279,7 +17279,7 @@
         <v>0</v>
       </c>
       <c r="AJ100" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK100" s="1">
         <v>1</v>
@@ -17330,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="BA100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB100" s="1">
         <v>0</v>
@@ -17350,16 +17350,16 @@
         <v>26</v>
       </c>
       <c r="C101" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D101" t="s">
         <v>59</v>
       </c>
       <c r="E101" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F101" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G101" t="s">
         <v>117</v>
@@ -17368,7 +17368,7 @@
         <v>45666</v>
       </c>
       <c r="I101" s="1">
-        <v>2738</v>
+        <v>2743</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -17387,10 +17387,10 @@
         <v>0</v>
       </c>
       <c r="P101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101" s="1">
         <v>0</v>
@@ -17447,7 +17447,7 @@
         <v>0</v>
       </c>
       <c r="AJ101" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK101" s="1">
         <v>1</v>
@@ -17498,7 +17498,7 @@
         <v>0</v>
       </c>
       <c r="BA101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB101" s="1">
         <v>0</v>
@@ -17518,16 +17518,16 @@
         <v>26</v>
       </c>
       <c r="C102" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D102" t="s">
         <v>59</v>
       </c>
       <c r="E102" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F102" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G102" t="s">
         <v>117</v>
@@ -17536,7 +17536,7 @@
         <v>45666</v>
       </c>
       <c r="I102" s="1">
-        <v>2739</v>
+        <v>2744</v>
       </c>
       <c r="J102" s="1">
         <v>1</v>
@@ -17555,10 +17555,10 @@
         <v>0</v>
       </c>
       <c r="P102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R102" s="1">
         <v>0</v>
@@ -17615,7 +17615,7 @@
         <v>0</v>
       </c>
       <c r="AJ102" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK102" s="1">
         <v>1</v>
@@ -17666,7 +17666,7 @@
         <v>0</v>
       </c>
       <c r="BA102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB102" s="1">
         <v>0</v>
@@ -17683,19 +17683,19 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C103" s="1">
-        <v>26879</v>
+        <v>5462328</v>
       </c>
       <c r="D103" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E103" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F103" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G103" t="s">
         <v>117</v>
@@ -17704,13 +17704,13 @@
         <v>45666</v>
       </c>
       <c r="I103" s="1">
-        <v>2739</v>
+        <v>2744</v>
       </c>
       <c r="J103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1">
@@ -17756,7 +17756,7 @@
         <v>0</v>
       </c>
       <c r="AA103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB103" s="1">
         <v>0</v>
@@ -17783,13 +17783,13 @@
         <v>0</v>
       </c>
       <c r="AJ103" s="1">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AK103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM103" s="1">
         <v>0</v>
@@ -17825,7 +17825,7 @@
         <v>0</v>
       </c>
       <c r="AX103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY103" s="1">
         <v>0</v>
@@ -17851,19 +17851,19 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C104" s="1">
-        <v>3345</v>
+        <v>26879</v>
       </c>
       <c r="D104" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E104" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="F104" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G104" t="s">
         <v>117</v>
@@ -17872,13 +17872,13 @@
         <v>45666</v>
       </c>
       <c r="I104" s="1">
-        <v>2739</v>
+        <v>2744</v>
       </c>
       <c r="J104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1">
@@ -17891,10 +17891,10 @@
         <v>0</v>
       </c>
       <c r="P104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R104" s="1">
         <v>0</v>
@@ -17924,7 +17924,7 @@
         <v>0</v>
       </c>
       <c r="AA104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB104" s="1">
         <v>0</v>
@@ -17951,13 +17951,13 @@
         <v>0</v>
       </c>
       <c r="AJ104" s="1">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="AK104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -17993,7 +17993,7 @@
         <v>0</v>
       </c>
       <c r="AX104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY104" s="1">
         <v>0</v>
@@ -18019,19 +18019,19 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C105" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D105" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E105" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F105" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G105" t="s">
         <v>117</v>
@@ -18040,13 +18040,13 @@
         <v>45666</v>
       </c>
       <c r="I105" s="1">
-        <v>2739</v>
+        <v>2744</v>
       </c>
       <c r="J105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1">
@@ -18119,10 +18119,10 @@
         <v>0</v>
       </c>
       <c r="AJ105" s="1">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="AK105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL105" s="1">
         <v>1</v>
@@ -18164,7 +18164,7 @@
         <v>0</v>
       </c>
       <c r="AY105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ105" s="1">
         <v>0</v>
@@ -18187,10 +18187,10 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C106" s="1">
-        <v>5486550</v>
+        <v>5462507</v>
       </c>
       <c r="D106" t="s">
         <v>69</v>
@@ -18208,7 +18208,7 @@
         <v>45666</v>
       </c>
       <c r="I106" s="1">
-        <v>2739</v>
+        <v>2744</v>
       </c>
       <c r="J106" s="1">
         <v>0</v>
@@ -18286,14 +18286,12 @@
       <c r="AI106" s="1">
         <v>0</v>
       </c>
-      <c r="AJ106" s="1">
-        <v>119</v>
-      </c>
+      <c r="AJ106" s="1"/>
       <c r="AK106" s="1">
         <v>0</v>
       </c>
       <c r="AL106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -18332,7 +18330,7 @@
         <v>0</v>
       </c>
       <c r="AY106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ106" s="1">
         <v>0</v>
@@ -18355,19 +18353,19 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C107" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D107" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E107" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F107" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G107" t="s">
         <v>117</v>
@@ -18376,13 +18374,13 @@
         <v>45666</v>
       </c>
       <c r="I107" s="1">
-        <v>2739</v>
+        <v>2744</v>
       </c>
       <c r="J107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
@@ -18454,12 +18452,14 @@
       <c r="AI107" s="1">
         <v>0</v>
       </c>
-      <c r="AJ107" s="1"/>
+      <c r="AJ107" s="1">
+        <v>44</v>
+      </c>
       <c r="AK107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -18504,7 +18504,7 @@
         <v>0</v>
       </c>
       <c r="BA107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB107" s="1">
         <v>0</v>
@@ -18533,7 +18533,7 @@
         <v>86</v>
       </c>
       <c r="F108" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G108" t="s">
         <v>117</v>
@@ -18542,7 +18542,7 @@
         <v>45666</v>
       </c>
       <c r="I108" s="1">
-        <v>2781</v>
+        <v>2792</v>
       </c>
       <c r="J108" s="1">
         <v>1</v>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -87,58 +87,58 @@
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>4-ANPP</t>
+    <t>fentanyl</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
   </si>
   <si>
     <t>quinine</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
     <t>caffeine</t>
   </si>
   <si>
-    <t>xylazine</t>
+    <t>p-fluorofentanyl</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
+    <t>papaverine</t>
   </si>
   <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
+    <t>1-phenethyl-4-hydroxypiperidine</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
-    <t>papaverine</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-hydroxypiperidine</t>
+    <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
     <t>acetyl fentanyl</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
+    <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
     <t>1,3-Diacetin</t>
@@ -147,28 +147,28 @@
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>despropionyl p-fluorofentanyl</t>
+    <t>bromazolam</t>
+  </si>
+  <si>
+    <t>procaine</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
   </si>
   <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
-    <t>procaine</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
-  </si>
-  <si>
-    <t>medetomidine</t>
+    <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
     <t>acetaminophen</t>
   </si>
   <si>
-    <t>tramadol</t>
+    <t>lidocaine</t>
   </si>
   <si>
-    <t>lidocaine</t>
+    <t>tramadol</t>
   </si>
   <si>
     <t>alprazolam</t>
@@ -186,55 +186,55 @@
     <t>537-46-2</t>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t>437-38-7</t>
   </si>
   <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t>437-38-7</t>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
   </si>
   <si>
     <t>72402-53-0</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>58-08-2</t>
   </si>
   <si>
-    <t>7361-61-7</t>
+    <t>90736-23-5</t>
   </si>
   <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t/>
+    <t>58-74-2</t>
   </si>
   <si>
     <t>6703-27-1</t>
   </si>
   <si>
-    <t>1462260-87-2</t>
+    <t>620-71-3</t>
   </si>
   <si>
-    <t>620-71-3</t>
+    <t>1462260-87-2</t>
   </si>
   <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>58-74-2</t>
-  </si>
-  <si>
     <t>3258-84-2</t>
   </si>
   <si>
-    <t>519-09-5</t>
+    <t>43021-26-7</t>
   </si>
   <si>
-    <t>43021-26-7</t>
+    <t>519-09-5</t>
   </si>
   <si>
     <t>105-70-4</t>
@@ -243,25 +243,25 @@
     <t>67-71-0</t>
   </si>
   <si>
-    <t>122861-41-0</t>
+    <t>71368-80-4</t>
   </si>
   <si>
     <t>59-46-1</t>
   </si>
   <si>
-    <t>71368-80-4</t>
+    <t>86347-14-0</t>
   </si>
   <si>
-    <t>86347-14-0</t>
+    <t>122861-41-0</t>
   </si>
   <si>
     <t>103-90-2</t>
   </si>
   <si>
-    <t>123154-38-1</t>
+    <t>137-58-6</t>
   </si>
   <si>
-    <t>137-58-6</t>
+    <t>123154-38-1</t>
   </si>
   <si>
     <t>28981-97-7</t>
@@ -276,13 +276,16 @@
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>UF599785JZ</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>A7V27PHC7A</t>
@@ -291,37 +294,34 @@
     <t>3G6A5W338E</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
+    <t>I45R05QM0Z</t>
   </si>
   <si>
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
+    <t>DAA13NKG2Q</t>
   </si>
   <si>
     <t>U59401ETXH</t>
   </si>
   <si>
-    <t>3D9E9KK5K5</t>
+    <t>UYP5ZQI00T</t>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
+    <t>3D9E9KK5K5</t>
   </si>
   <si>
     <t>M5E47P1ZCH</t>
   </si>
   <si>
-    <t>DAA13NKG2Q</t>
-  </si>
-  <si>
     <t>6DZ28538KS</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
+    <t>58C337KP3E</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
+    <t>5353I8I6YS</t>
   </si>
   <si>
     <t>G45CU3Z186</t>
@@ -330,25 +330,25 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>R8ZH1EQ95Y</t>
+    <t>YMC9OT97Z1</t>
   </si>
   <si>
     <t>4Z8Y51M438</t>
   </si>
   <si>
-    <t>YMC9OT97Z1</t>
+    <t>MR15E85MQM</t>
   </si>
   <si>
-    <t>MR15E85MQM</t>
+    <t>R8ZH1EQ95Y</t>
   </si>
   <si>
     <t>362O9ITL9D</t>
   </si>
   <si>
-    <t>39J1LGJ30J</t>
+    <t>98PI200987</t>
   </si>
   <si>
-    <t>98PI200987</t>
+    <t>39J1LGJ30J</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -751,7 +751,7 @@
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>117</v>
@@ -910,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -919,7 +919,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
         <v>117</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK3" s="1">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
@@ -1246,7 +1246,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -1255,7 +1255,7 @@
         <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
         <v>117</v>
@@ -1267,10 +1267,10 @@
         <v>1313</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1283,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>3034034</v>
+        <v>88890</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -1423,7 +1423,7 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>2519</v>
+        <v>3034034</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -1591,7 +1591,7 @@
         <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
         <v>117</v>
@@ -1603,10 +1603,10 @@
         <v>1313</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>140</v>
+        <v>294</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
@@ -1750,13 +1750,13 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
         <v>115</v>
@@ -1796,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="1">
         <v>0</v>
@@ -1918,13 +1918,13 @@
         <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>5462328</v>
+        <v>2519</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -2015,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
       <c r="AL9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="1">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
         <v>115</v>
@@ -2254,13 +2254,13 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>165365057</v>
+        <v>5462328</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
         <v>115</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="AK11" s="1">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="1">
         <v>0</v>
@@ -2419,19 +2419,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>3034034</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
         <v>117</v>
@@ -2587,19 +2587,19 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
         <v>117</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="AK13" s="1">
         <v>1</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
         <v>0</v>
@@ -2755,19 +2755,19 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
         <v>117</v>
@@ -2779,10 +2779,10 @@
         <v>1456</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2855,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2923,19 +2923,19 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
         <v>117</v>
@@ -2947,10 +2947,10 @@
         <v>1456</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -3023,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -3091,13 +3091,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>94</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="AK16" s="1">
         <v>0</v>
@@ -3259,16 +3259,16 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
         <v>115</v>
@@ -3308,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="AK17" s="1">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
         <v>117</v>
@@ -3451,10 +3451,10 @@
         <v>1456</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3527,13 +3527,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="AX18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="1">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="1">
         <v>0</v>
@@ -3598,16 +3598,16 @@
         <v>29</v>
       </c>
       <c r="C19" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D19" t="s">
         <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
         <v>117</v>
@@ -3619,10 +3619,10 @@
         <v>1456</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>0</v>
@@ -3695,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="1">
         <v>0</v>
@@ -3763,19 +3763,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
         <v>3034034</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
         <v>117</v>
@@ -3931,19 +3931,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <v>3345</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
         <v>117</v>
@@ -4099,16 +4099,16 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
         <v>88890</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
         <v>115</v>
@@ -4279,7 +4279,7 @@
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
         <v>117</v>
@@ -4435,19 +4435,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
         <v>117</v>
@@ -4456,7 +4456,7 @@
         <v>45526</v>
       </c>
       <c r="I24" s="1">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4481,10 +4481,10 @@
         <v>0</v>
       </c>
       <c r="R24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="1">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AK24" s="1">
         <v>1</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="1">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>33</v>
       </c>
       <c r="C25" s="1">
-        <v>5486550</v>
+        <v>4680</v>
       </c>
       <c r="D25" t="s">
         <v>66</v>
@@ -4615,7 +4615,7 @@
         <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G25" t="s">
         <v>117</v>
@@ -4624,13 +4624,13 @@
         <v>45526</v>
       </c>
       <c r="I25" s="1">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4703,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>1</v>
@@ -4774,7 +4774,7 @@
         <v>34</v>
       </c>
       <c r="C26" s="1">
-        <v>91725431</v>
+        <v>5486550</v>
       </c>
       <c r="D26" t="s">
         <v>67</v>
@@ -4783,7 +4783,7 @@
         <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -4792,13 +4792,13 @@
         <v>45526</v>
       </c>
       <c r="I26" s="1">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4871,13 +4871,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="1">
         <v>0</v>
@@ -4941,17 +4941,15 @@
       <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="1">
-        <v>12107</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G27" t="s">
         <v>117</v>
@@ -4960,13 +4958,13 @@
         <v>45526</v>
       </c>
       <c r="I27" s="1">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -5039,13 +5037,13 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27" s="1">
         <v>0</v>
@@ -5090,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="1">
         <v>0</v>
@@ -5107,16 +5105,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1">
-        <v>165365057</v>
+        <v>12107</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
         <v>115</v>
@@ -5128,7 +5126,7 @@
         <v>45526</v>
       </c>
       <c r="I28" s="1">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -5207,13 +5205,13 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="AK28" s="1">
         <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -5275,10 +5273,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1">
-        <v>5462507</v>
+        <v>91725431</v>
       </c>
       <c r="D29" t="s">
         <v>69</v>
@@ -5287,7 +5285,7 @@
         <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
         <v>117</v>
@@ -5296,13 +5294,13 @@
         <v>45526</v>
       </c>
       <c r="I29" s="1">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5374,7 +5372,9 @@
       <c r="AI29" s="1">
         <v>0</v>
       </c>
-      <c r="AJ29" s="1"/>
+      <c r="AJ29" s="1">
+        <v>10</v>
+      </c>
       <c r="AK29" s="1">
         <v>0</v>
       </c>
@@ -5441,19 +5441,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
         <v>117</v>
@@ -5462,13 +5462,13 @@
         <v>45526</v>
       </c>
       <c r="I30" s="1">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5481,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -5541,10 +5541,10 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
         <v>1</v>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="BA30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB30" s="1">
         <v>0</v>
@@ -5609,19 +5609,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
         <v>62</v>
-      </c>
-      <c r="E31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" t="s">
-        <v>65</v>
       </c>
       <c r="G31" t="s">
         <v>117</v>
@@ -5630,7 +5630,7 @@
         <v>45526</v>
       </c>
       <c r="I31" s="1">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -5655,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
         <v>0</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AK31" s="1">
         <v>1</v>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5777,19 +5777,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
         <v>117</v>
@@ -5798,7 +5798,7 @@
         <v>45526</v>
       </c>
       <c r="I32" s="1">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -5876,14 +5876,12 @@
       <c r="AI32" s="1">
         <v>0</v>
       </c>
-      <c r="AJ32" s="1">
-        <v>201</v>
-      </c>
+      <c r="AJ32" s="1"/>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -5945,16 +5943,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1">
-        <v>4680</v>
+        <v>10836</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
         <v>115</v>
@@ -5966,7 +5964,7 @@
         <v>45526</v>
       </c>
       <c r="I33" s="1">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -6003,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="1">
         <v>0</v>
@@ -6045,13 +6043,13 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="AK33" s="1">
         <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -6090,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="AY33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="1">
         <v>0</v>
@@ -6113,17 +6111,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3345</v>
+      </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G34" t="s">
         <v>117</v>
@@ -6132,7 +6132,7 @@
         <v>45526</v>
       </c>
       <c r="I34" s="1">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -6151,10 +6151,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="AK34" s="1">
         <v>1</v>
@@ -6279,19 +6279,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
-        <v>10836</v>
+        <v>5462328</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
         <v>117</v>
@@ -6300,13 +6300,13 @@
         <v>45526</v>
       </c>
       <c r="I35" s="1">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="1">
         <v>0</v>
@@ -6379,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -6450,7 +6450,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D36" t="s">
         <v>57</v>
@@ -6459,7 +6459,7 @@
         <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
         <v>117</v>
@@ -6468,7 +6468,7 @@
         <v>45526</v>
       </c>
       <c r="I36" s="1">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6487,10 +6487,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK36" s="1">
         <v>1</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="1">
         <v>0</v>
@@ -6615,19 +6615,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
         <v>117</v>
@@ -6636,7 +6636,7 @@
         <v>45526</v>
       </c>
       <c r="I37" s="1">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -6676,10 +6676,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -6715,13 +6715,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="BA37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB37" s="1">
         <v>0</v>
@@ -6783,19 +6783,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
         <v>117</v>
@@ -6804,13 +6804,13 @@
         <v>45526</v>
       </c>
       <c r="I38" s="1">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6823,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -6883,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>1</v>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB38" s="1">
         <v>0</v>
@@ -6951,19 +6951,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1">
-        <v>527015</v>
+        <v>446220</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G39" t="s">
         <v>117</v>
@@ -6972,13 +6972,13 @@
         <v>45526</v>
       </c>
       <c r="I39" s="1">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -7012,10 +7012,10 @@
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -7051,13 +7051,13 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="AK39" s="1">
         <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="1">
         <v>0</v>
@@ -7119,16 +7119,16 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1">
-        <v>10836</v>
+        <v>527015</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
         <v>115</v>
@@ -7140,7 +7140,7 @@
         <v>45526</v>
       </c>
       <c r="I40" s="1">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="1">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="AK40" s="1">
         <v>0</v>
       </c>
       <c r="AL40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB40" s="1">
         <v>0</v>
@@ -7287,16 +7287,16 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s">
         <v>115</v>
@@ -7308,7 +7308,7 @@
         <v>45526</v>
       </c>
       <c r="I41" s="1">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="1">
         <v>0</v>
@@ -7387,13 +7387,13 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="AK41" s="1">
         <v>0</v>
       </c>
       <c r="AL41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="1">
         <v>0</v>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="1">
         <v>0</v>
@@ -7467,7 +7467,7 @@
         <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G42" t="s">
         <v>117</v>
@@ -7476,7 +7476,7 @@
         <v>45525</v>
       </c>
       <c r="I42" s="1">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -7626,7 +7626,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="1">
-        <v>448223</v>
+        <v>119478</v>
       </c>
       <c r="D43" t="s">
         <v>72</v>
@@ -7644,7 +7644,7 @@
         <v>45525</v>
       </c>
       <c r="I43" s="1">
-        <v>2330</v>
+        <v>2333</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
@@ -7801,7 +7801,7 @@
         <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G44" t="s">
         <v>117</v>
@@ -7810,7 +7810,7 @@
         <v>45525</v>
       </c>
       <c r="I44" s="1">
-        <v>2330</v>
+        <v>2333</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -7960,7 +7960,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="1">
-        <v>119478</v>
+        <v>448223</v>
       </c>
       <c r="D45" t="s">
         <v>73</v>
@@ -7978,7 +7978,7 @@
         <v>45525</v>
       </c>
       <c r="I45" s="1">
-        <v>2330</v>
+        <v>2333</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
@@ -8123,19 +8123,19 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C46" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
         <v>117</v>
@@ -8144,7 +8144,7 @@
         <v>45446</v>
       </c>
       <c r="I46" s="1">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -8163,10 +8163,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="1">
         <v>0</v>
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK46" s="1">
         <v>1</v>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB46" s="1">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D47" t="s">
         <v>57</v>
@@ -8303,7 +8303,7 @@
         <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G47" t="s">
         <v>117</v>
@@ -8312,7 +8312,7 @@
         <v>45446</v>
       </c>
       <c r="I47" s="1">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -8331,10 +8331,10 @@
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="1">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK47" s="1">
         <v>1</v>
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="BA47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="1">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C48" s="1">
         <v>2519</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G48" t="s">
         <v>117</v>
@@ -8480,7 +8480,7 @@
         <v>45446</v>
       </c>
       <c r="I48" s="1">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8627,19 +8627,19 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C49" s="1">
         <v>5707</v>
       </c>
       <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" t="s">
         <v>62</v>
-      </c>
-      <c r="E49" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" t="s">
-        <v>65</v>
       </c>
       <c r="G49" t="s">
         <v>117</v>
@@ -8648,7 +8648,7 @@
         <v>45446</v>
       </c>
       <c r="I49" s="1">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -8795,19 +8795,19 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C50" s="1">
-        <v>66924</v>
+        <v>10836</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G50" t="s">
         <v>117</v>
@@ -8816,7 +8816,7 @@
         <v>45649</v>
       </c>
       <c r="I50" s="1">
-        <v>2735</v>
+        <v>2748</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8850,10 +8850,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="AK50" s="1">
         <v>0</v>
@@ -8963,19 +8963,19 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C51" s="1">
-        <v>10836</v>
+        <v>66924</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G51" t="s">
         <v>117</v>
@@ -8984,7 +8984,7 @@
         <v>45649</v>
       </c>
       <c r="I51" s="1">
-        <v>2735</v>
+        <v>2748</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -9063,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="AK51" s="1">
         <v>0</v>
@@ -9152,7 +9152,7 @@
         <v>45649</v>
       </c>
       <c r="I52" s="1">
-        <v>2735</v>
+        <v>2748</v>
       </c>
       <c r="J52" s="1">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>44</v>
       </c>
       <c r="C53" s="1">
-        <v>21812144</v>
+        <v>12562546</v>
       </c>
       <c r="D53" t="s">
         <v>76</v>
@@ -9309,7 +9309,7 @@
         <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G53" t="s">
         <v>117</v>
@@ -9318,13 +9318,13 @@
         <v>45664</v>
       </c>
       <c r="I53" s="1">
-        <v>2736</v>
+        <v>2749</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -9397,13 +9397,13 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="1">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="AP53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ53" s="1">
         <v>0</v>
       </c>
       <c r="AR53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS53" s="1">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="1">
         <v>0</v>
@@ -9465,19 +9465,19 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C54" s="1">
-        <v>10836</v>
+        <v>5462328</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G54" t="s">
         <v>117</v>
@@ -9486,13 +9486,13 @@
         <v>45664</v>
       </c>
       <c r="I54" s="1">
-        <v>2736</v>
+        <v>2749</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -9523,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" s="1">
         <v>0</v>
@@ -9565,13 +9565,13 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="AK54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM54" s="1">
         <v>0</v>
@@ -9635,12 +9635,14 @@
       <c r="B55" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1">
+        <v>4914</v>
+      </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
         <v>115</v>
@@ -9652,7 +9654,7 @@
         <v>45664</v>
       </c>
       <c r="I55" s="1">
-        <v>2736</v>
+        <v>2749</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
@@ -9725,13 +9727,13 @@
         <v>0</v>
       </c>
       <c r="AH55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="1">
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -9773,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY55" s="1">
         <v>0</v>
@@ -9799,19 +9801,19 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C56" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D56" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G56" t="s">
         <v>117</v>
@@ -9820,13 +9822,13 @@
         <v>45664</v>
       </c>
       <c r="I56" s="1">
-        <v>2736</v>
+        <v>2749</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9857,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56" s="1">
         <v>0</v>
@@ -9898,7 +9900,9 @@
       <c r="AI56" s="1">
         <v>0</v>
       </c>
-      <c r="AJ56" s="1"/>
+      <c r="AJ56" s="1">
+        <v>231</v>
+      </c>
       <c r="AK56" s="1">
         <v>0</v>
       </c>
@@ -9965,19 +9969,19 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C57" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G57" t="s">
         <v>117</v>
@@ -9986,13 +9990,13 @@
         <v>45664</v>
       </c>
       <c r="I57" s="1">
-        <v>2736</v>
+        <v>2749</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -10005,10 +10009,10 @@
         <v>0</v>
       </c>
       <c r="P57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
@@ -10065,10 +10069,10 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
         <v>1</v>
@@ -10133,19 +10137,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C58" s="1">
-        <v>4914</v>
+        <v>3345</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G58" t="s">
         <v>117</v>
@@ -10154,13 +10158,13 @@
         <v>45664</v>
       </c>
       <c r="I58" s="1">
-        <v>2736</v>
+        <v>2749</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -10173,10 +10177,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -10233,13 +10237,13 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM58" s="1">
         <v>0</v>
@@ -10275,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="AX58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="1">
         <v>0</v>
@@ -10301,16 +10305,16 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C59" s="1">
-        <v>62300</v>
+        <v>68602</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F59" t="s">
         <v>115</v>
@@ -10322,7 +10326,7 @@
         <v>45664</v>
       </c>
       <c r="I59" s="1">
-        <v>2736</v>
+        <v>2749</v>
       </c>
       <c r="J59" s="1">
         <v>0</v>
@@ -10401,13 +10405,13 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="AK59" s="1">
         <v>0</v>
       </c>
       <c r="AL59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -10469,19 +10473,17 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="1">
-        <v>5707</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C60" s="1"/>
       <c r="D60" t="s">
         <v>62</v>
       </c>
       <c r="E60" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G60" t="s">
         <v>117</v>
@@ -10490,13 +10492,13 @@
         <v>45664</v>
       </c>
       <c r="I60" s="1">
-        <v>2736</v>
+        <v>2749</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -10515,10 +10517,10 @@
         <v>0</v>
       </c>
       <c r="R60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
@@ -10563,19 +10565,19 @@
         <v>0</v>
       </c>
       <c r="AH60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="1">
         <v>0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>324</v>
+        <v>135</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -10637,19 +10639,19 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C61" s="1">
-        <v>4914</v>
+        <v>21812144</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G61" t="s">
         <v>117</v>
@@ -10658,7 +10660,7 @@
         <v>45664</v>
       </c>
       <c r="I61" s="1">
-        <v>2736</v>
+        <v>2749</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -10737,13 +10739,13 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -10779,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY61" s="1">
         <v>0</v>
@@ -10791,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC61" s="1">
         <v>0</v>
@@ -10805,19 +10807,19 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C62" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E62" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G62" t="s">
         <v>117</v>
@@ -10826,7 +10828,7 @@
         <v>45664</v>
       </c>
       <c r="I62" s="1">
-        <v>2736</v>
+        <v>2749</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -10905,13 +10907,13 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10947,7 +10949,7 @@
         <v>0</v>
       </c>
       <c r="AX62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY62" s="1">
         <v>0</v>
@@ -10956,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="1">
         <v>0</v>
@@ -10973,19 +10975,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C63" s="1">
-        <v>12562546</v>
+        <v>88890</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F63" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G63" t="s">
         <v>117</v>
@@ -10994,13 +10996,13 @@
         <v>45664</v>
       </c>
       <c r="I63" s="1">
-        <v>2736</v>
+        <v>2749</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -11073,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -11091,13 +11093,13 @@
         <v>0</v>
       </c>
       <c r="AP63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63" s="1">
         <v>0</v>
       </c>
       <c r="AR63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS63" s="1">
         <v>0</v>
@@ -11124,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB63" s="1">
         <v>0</v>
@@ -11141,19 +11143,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C64" s="1">
-        <v>5462328</v>
+        <v>6213</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G64" t="s">
         <v>117</v>
@@ -11162,7 +11164,7 @@
         <v>45664</v>
       </c>
       <c r="I64" s="1">
-        <v>2736</v>
+        <v>2749</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -11240,14 +11242,12 @@
       <c r="AI64" s="1">
         <v>0</v>
       </c>
-      <c r="AJ64" s="1">
-        <v>201</v>
-      </c>
+      <c r="AJ64" s="1"/>
       <c r="AK64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11309,19 +11309,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C65" s="1">
-        <v>68602</v>
+        <v>5707</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F65" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G65" t="s">
         <v>117</v>
@@ -11330,13 +11330,13 @@
         <v>45664</v>
       </c>
       <c r="I65" s="1">
-        <v>2736</v>
+        <v>2749</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11355,10 +11355,10 @@
         <v>0</v>
       </c>
       <c r="R65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
@@ -11409,13 +11409,13 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -11489,7 +11489,7 @@
         <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G66" t="s">
         <v>117</v>
@@ -11498,7 +11498,7 @@
         <v>45664</v>
       </c>
       <c r="I66" s="1">
-        <v>2737</v>
+        <v>2750</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -11645,19 +11645,19 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C67" s="1">
-        <v>3345</v>
+        <v>1983</v>
       </c>
       <c r="D67" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G67" t="s">
         <v>117</v>
@@ -11666,13 +11666,13 @@
         <v>45665</v>
       </c>
       <c r="I67" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
@@ -11685,10 +11685,10 @@
         <v>0</v>
       </c>
       <c r="P67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="1">
         <v>0</v>
@@ -11745,13 +11745,13 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="AK67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="1">
         <v>0</v>
@@ -11813,16 +11813,14 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="1">
-        <v>68602</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E68" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
         <v>115</v>
@@ -11834,7 +11832,7 @@
         <v>45665</v>
       </c>
       <c r="I68" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -11907,13 +11905,13 @@
         <v>0</v>
       </c>
       <c r="AH68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI68" s="1">
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="AK68" s="1">
         <v>0</v>
@@ -12002,7 +12000,7 @@
         <v>45665</v>
       </c>
       <c r="I69" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
@@ -12149,19 +12147,19 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C70" s="1">
-        <v>5707</v>
+        <v>5462507</v>
       </c>
       <c r="D70" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E70" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G70" t="s">
         <v>117</v>
@@ -12170,13 +12168,13 @@
         <v>45665</v>
       </c>
       <c r="I70" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -12195,10 +12193,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -12248,14 +12246,12 @@
       <c r="AI70" s="1">
         <v>0</v>
       </c>
-      <c r="AJ70" s="1">
-        <v>324</v>
-      </c>
+      <c r="AJ70" s="1"/>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70" s="1">
         <v>0</v>
@@ -12317,16 +12313,16 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C71" s="1">
-        <v>1983</v>
+        <v>62300</v>
       </c>
       <c r="D71" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F71" t="s">
         <v>115</v>
@@ -12338,7 +12334,7 @@
         <v>45665</v>
       </c>
       <c r="I71" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -12417,13 +12413,13 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c r="AK71" s="1">
         <v>0</v>
       </c>
       <c r="AL71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM71" s="1">
         <v>0</v>
@@ -12485,16 +12481,16 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C72" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E72" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="F72" t="s">
         <v>115</v>
@@ -12506,7 +12502,7 @@
         <v>45665</v>
       </c>
       <c r="I72" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -12585,13 +12581,13 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="AK72" s="1">
         <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -12627,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="AX72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY72" s="1">
         <v>0</v>
@@ -12636,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="BA72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB72" s="1">
         <v>0</v>
@@ -12653,17 +12649,19 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3345</v>
+      </c>
       <c r="D73" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F73" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G73" t="s">
         <v>117</v>
@@ -12672,13 +12670,13 @@
         <v>45665</v>
       </c>
       <c r="I73" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -12691,10 +12689,10 @@
         <v>0</v>
       </c>
       <c r="P73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="1">
         <v>0</v>
@@ -12745,19 +12743,19 @@
         <v>0</v>
       </c>
       <c r="AH73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI73" s="1">
         <v>0</v>
       </c>
       <c r="AJ73" s="1">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM73" s="1">
         <v>0</v>
@@ -12819,19 +12817,19 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C74" s="1">
-        <v>5462328</v>
+        <v>12562546</v>
       </c>
       <c r="D74" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E74" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G74" t="s">
         <v>117</v>
@@ -12840,7 +12838,7 @@
         <v>45665</v>
       </c>
       <c r="I74" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -12919,13 +12917,13 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="1">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="AK74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74" s="1">
         <v>0</v>
@@ -12934,16 +12932,16 @@
         <v>0</v>
       </c>
       <c r="AO74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS74" s="1">
         <v>0</v>
@@ -12987,16 +12985,16 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C75" s="1">
-        <v>33741</v>
+        <v>21812144</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F75" t="s">
         <v>115</v>
@@ -13008,7 +13006,7 @@
         <v>45665</v>
       </c>
       <c r="I75" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -13066,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD75" s="1">
         <v>0</v>
@@ -13087,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="AJ75" s="1">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="AK75" s="1">
         <v>0</v>
@@ -13141,7 +13139,7 @@
         <v>0</v>
       </c>
       <c r="BB75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC75" s="1">
         <v>0</v>
@@ -13155,16 +13153,16 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C76" s="1">
-        <v>62300</v>
+        <v>10836</v>
       </c>
       <c r="D76" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E76" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F76" t="s">
         <v>115</v>
@@ -13176,7 +13174,7 @@
         <v>45665</v>
       </c>
       <c r="I76" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
@@ -13213,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="V76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W76" s="1">
         <v>0</v>
@@ -13255,13 +13253,13 @@
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="AK76" s="1">
         <v>0</v>
       </c>
       <c r="AL76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76" s="1">
         <v>0</v>
@@ -13323,16 +13321,16 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C77" s="1">
-        <v>5486550</v>
+        <v>68602</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F77" t="s">
         <v>115</v>
@@ -13344,7 +13342,7 @@
         <v>45665</v>
       </c>
       <c r="I77" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -13423,13 +13421,13 @@
         <v>0</v>
       </c>
       <c r="AJ77" s="1">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="AK77" s="1">
         <v>0</v>
       </c>
       <c r="AL77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -13468,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="AY77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ77" s="1">
         <v>0</v>
@@ -13491,19 +13489,19 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C78" s="1">
-        <v>3676</v>
+        <v>5462328</v>
       </c>
       <c r="D78" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E78" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F78" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G78" t="s">
         <v>117</v>
@@ -13512,13 +13510,13 @@
         <v>45665</v>
       </c>
       <c r="I78" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -13591,13 +13589,13 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="1">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="AK78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -13633,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="AX78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY78" s="1">
         <v>0</v>
@@ -13659,19 +13657,19 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1">
-        <v>21812144</v>
+        <v>5707</v>
       </c>
       <c r="D79" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E79" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F79" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G79" t="s">
         <v>117</v>
@@ -13680,13 +13678,13 @@
         <v>45665</v>
       </c>
       <c r="I79" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1">
@@ -13705,10 +13703,10 @@
         <v>0</v>
       </c>
       <c r="R79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" s="1">
         <v>0</v>
@@ -13759,10 +13757,10 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="1">
-        <v>167</v>
+        <v>324</v>
       </c>
       <c r="AK79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL79" s="1">
         <v>1</v>
@@ -13813,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="BB79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC79" s="1">
         <v>0</v>
@@ -13827,16 +13825,16 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C80" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F80" t="s">
         <v>115</v>
@@ -13848,7 +13846,7 @@
         <v>45665</v>
       </c>
       <c r="I80" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -13926,12 +13924,14 @@
       <c r="AI80" s="1">
         <v>0</v>
       </c>
-      <c r="AJ80" s="1"/>
+      <c r="AJ80" s="1">
+        <v>119</v>
+      </c>
       <c r="AK80" s="1">
         <v>0</v>
       </c>
       <c r="AL80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="AY80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ80" s="1">
         <v>0</v>
@@ -13993,19 +13993,19 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C81" s="1">
-        <v>12562546</v>
+        <v>33741</v>
       </c>
       <c r="D81" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F81" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G81" t="s">
         <v>117</v>
@@ -14014,13 +14014,13 @@
         <v>45665</v>
       </c>
       <c r="I81" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
@@ -14072,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="AC81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD81" s="1">
         <v>0</v>
@@ -14093,13 +14093,13 @@
         <v>0</v>
       </c>
       <c r="AJ81" s="1">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="AK81" s="1">
         <v>0</v>
       </c>
       <c r="AL81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM81" s="1">
         <v>0</v>
@@ -14108,16 +14108,16 @@
         <v>0</v>
       </c>
       <c r="AO81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS81" s="1">
         <v>0</v>
@@ -14161,16 +14161,16 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C82" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E82" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F82" t="s">
         <v>115</v>
@@ -14182,7 +14182,7 @@
         <v>45665</v>
       </c>
       <c r="I82" s="1">
-        <v>2738</v>
+        <v>2751</v>
       </c>
       <c r="J82" s="1">
         <v>0</v>
@@ -14219,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="V82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W82" s="1">
         <v>0</v>
@@ -14261,13 +14261,13 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="AK82" s="1">
         <v>0</v>
       </c>
       <c r="AL82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM82" s="1">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="BA82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB82" s="1">
         <v>0</v>
@@ -14341,7 +14341,7 @@
         <v>86</v>
       </c>
       <c r="F83" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G83" t="s">
         <v>117</v>
@@ -14350,7 +14350,7 @@
         <v>45649</v>
       </c>
       <c r="I83" s="1">
-        <v>2739</v>
+        <v>2752</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -14497,19 +14497,19 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C84" s="1">
-        <v>68602</v>
+        <v>88890</v>
       </c>
       <c r="D84" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E84" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F84" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G84" t="s">
         <v>117</v>
@@ -14518,7 +14518,7 @@
         <v>45602</v>
       </c>
       <c r="I84" s="1">
-        <v>2740</v>
+        <v>2753</v>
       </c>
       <c r="J84" s="1">
         <v>1</v>
@@ -14597,13 +14597,13 @@
         <v>0</v>
       </c>
       <c r="AJ84" s="1">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="AK84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -14648,7 +14648,7 @@
         <v>0</v>
       </c>
       <c r="BA84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB84" s="1">
         <v>0</v>
@@ -14665,19 +14665,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C85" s="1">
-        <v>1983</v>
+        <v>68602</v>
       </c>
       <c r="D85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F85" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G85" t="s">
         <v>117</v>
@@ -14686,13 +14686,13 @@
         <v>45602</v>
       </c>
       <c r="I85" s="1">
-        <v>2740</v>
+        <v>2753</v>
       </c>
       <c r="J85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -14765,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="AJ85" s="1">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="AK85" s="1">
         <v>0</v>
@@ -14833,19 +14833,19 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C86" s="1">
-        <v>5707</v>
+        <v>6213</v>
       </c>
       <c r="D86" t="s">
+        <v>75</v>
+      </c>
+      <c r="E86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F86" t="s">
         <v>62</v>
-      </c>
-      <c r="E86" t="s">
-        <v>92</v>
-      </c>
-      <c r="F86" t="s">
-        <v>115</v>
       </c>
       <c r="G86" t="s">
         <v>117</v>
@@ -14854,13 +14854,13 @@
         <v>45602</v>
       </c>
       <c r="I86" s="1">
-        <v>2740</v>
+        <v>2753</v>
       </c>
       <c r="J86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
@@ -14882,10 +14882,10 @@
         <v>0</v>
       </c>
       <c r="S86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U86" s="1">
         <v>0</v>
@@ -14932,14 +14932,12 @@
       <c r="AI86" s="1">
         <v>0</v>
       </c>
-      <c r="AJ86" s="1">
-        <v>324</v>
-      </c>
+      <c r="AJ86" s="1"/>
       <c r="AK86" s="1">
         <v>0</v>
       </c>
       <c r="AL86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86" s="1">
         <v>0</v>
@@ -15001,17 +14999,19 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3676</v>
+      </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E87" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="F87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G87" t="s">
         <v>117</v>
@@ -15020,7 +15020,7 @@
         <v>45602</v>
       </c>
       <c r="I87" s="1">
-        <v>2740</v>
+        <v>2753</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -15093,13 +15093,13 @@
         <v>0</v>
       </c>
       <c r="AH87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ87" s="1">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="AK87" s="1">
         <v>0</v>
@@ -15141,7 +15141,7 @@
         <v>0</v>
       </c>
       <c r="AX87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY87" s="1">
         <v>0</v>
@@ -15167,19 +15167,19 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C88" s="1">
-        <v>88890</v>
+        <v>1983</v>
       </c>
       <c r="D88" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E88" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F88" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G88" t="s">
         <v>117</v>
@@ -15188,13 +15188,13 @@
         <v>45602</v>
       </c>
       <c r="I88" s="1">
-        <v>2740</v>
+        <v>2753</v>
       </c>
       <c r="J88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1">
@@ -15267,13 +15267,13 @@
         <v>0</v>
       </c>
       <c r="AJ88" s="1">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="AK88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88" s="1">
         <v>0</v>
@@ -15318,7 +15318,7 @@
         <v>0</v>
       </c>
       <c r="BA88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB88" s="1">
         <v>0</v>
@@ -15338,7 +15338,7 @@
         <v>26</v>
       </c>
       <c r="C89" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D89" t="s">
         <v>59</v>
@@ -15347,7 +15347,7 @@
         <v>89</v>
       </c>
       <c r="F89" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G89" t="s">
         <v>117</v>
@@ -15356,13 +15356,13 @@
         <v>45602</v>
       </c>
       <c r="I89" s="1">
-        <v>2740</v>
+        <v>2753</v>
       </c>
       <c r="J89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1">
@@ -15375,19 +15375,19 @@
         <v>0</v>
       </c>
       <c r="P89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" s="1">
         <v>0</v>
       </c>
       <c r="S89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89" s="1">
         <v>0</v>
@@ -15435,10 +15435,10 @@
         <v>0</v>
       </c>
       <c r="AJ89" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL89" s="1">
         <v>1</v>
@@ -15503,19 +15503,19 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C90" s="1">
-        <v>6213</v>
+        <v>3345</v>
       </c>
       <c r="D90" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E90" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F90" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G90" t="s">
         <v>117</v>
@@ -15524,7 +15524,7 @@
         <v>45602</v>
       </c>
       <c r="I90" s="1">
-        <v>2740</v>
+        <v>2753</v>
       </c>
       <c r="J90" s="1">
         <v>1</v>
@@ -15543,10 +15543,10 @@
         <v>0</v>
       </c>
       <c r="P90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90" s="1">
         <v>0</v>
@@ -15602,12 +15602,14 @@
       <c r="AI90" s="1">
         <v>0</v>
       </c>
-      <c r="AJ90" s="1"/>
+      <c r="AJ90" s="1">
+        <v>191</v>
+      </c>
       <c r="AK90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -15669,19 +15671,17 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C91" s="1">
-        <v>3676</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C91" s="1"/>
       <c r="D91" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E91" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="F91" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G91" t="s">
         <v>117</v>
@@ -15690,7 +15690,7 @@
         <v>45602</v>
       </c>
       <c r="I91" s="1">
-        <v>2740</v>
+        <v>2753</v>
       </c>
       <c r="J91" s="1">
         <v>1</v>
@@ -15763,13 +15763,13 @@
         <v>0</v>
       </c>
       <c r="AH91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ91" s="1">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="AK91" s="1">
         <v>0</v>
@@ -15811,7 +15811,7 @@
         <v>0</v>
       </c>
       <c r="AX91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY91" s="1">
         <v>0</v>
@@ -15858,7 +15858,7 @@
         <v>45611</v>
       </c>
       <c r="I92" s="1">
-        <v>2741</v>
+        <v>2754</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
@@ -16005,19 +16005,19 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C93" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F93" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G93" t="s">
         <v>117</v>
@@ -16026,13 +16026,13 @@
         <v>45666</v>
       </c>
       <c r="I93" s="1">
-        <v>2742</v>
+        <v>2755</v>
       </c>
       <c r="J93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -16105,10 +16105,10 @@
         <v>0</v>
       </c>
       <c r="AJ93" s="1">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="AK93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL93" s="1">
         <v>1</v>
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="AY93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ93" s="1">
         <v>0</v>
@@ -16173,19 +16173,19 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C94" s="1">
-        <v>5462328</v>
+        <v>10836</v>
       </c>
       <c r="D94" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E94" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F94" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G94" t="s">
         <v>117</v>
@@ -16194,13 +16194,13 @@
         <v>45666</v>
       </c>
       <c r="I94" s="1">
-        <v>2742</v>
+        <v>2755</v>
       </c>
       <c r="J94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
@@ -16231,7 +16231,7 @@
         <v>0</v>
       </c>
       <c r="V94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W94" s="1">
         <v>0</v>
@@ -16273,13 +16273,13 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="AK94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM94" s="1">
         <v>0</v>
@@ -16341,16 +16341,16 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C95" s="1">
-        <v>5462507</v>
+        <v>26879</v>
       </c>
       <c r="D95" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E95" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F95" t="s">
         <v>115</v>
@@ -16362,7 +16362,7 @@
         <v>45666</v>
       </c>
       <c r="I95" s="1">
-        <v>2742</v>
+        <v>2755</v>
       </c>
       <c r="J95" s="1">
         <v>0</v>
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="AA95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB95" s="1">
         <v>0</v>
@@ -16440,7 +16440,9 @@
       <c r="AI95" s="1">
         <v>0</v>
       </c>
-      <c r="AJ95" s="1"/>
+      <c r="AJ95" s="1">
+        <v>214</v>
+      </c>
       <c r="AK95" s="1">
         <v>0</v>
       </c>
@@ -16481,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="AX95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY95" s="1">
         <v>0</v>
@@ -16507,19 +16509,19 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C96" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E96" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F96" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G96" t="s">
         <v>117</v>
@@ -16528,7 +16530,7 @@
         <v>45666</v>
       </c>
       <c r="I96" s="1">
-        <v>2742</v>
+        <v>2755</v>
       </c>
       <c r="J96" s="1">
         <v>1</v>
@@ -16547,10 +16549,10 @@
         <v>0</v>
       </c>
       <c r="P96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96" s="1">
         <v>0</v>
@@ -16607,7 +16609,7 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK96" s="1">
         <v>1</v>
@@ -16658,7 +16660,7 @@
         <v>0</v>
       </c>
       <c r="BA96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB96" s="1">
         <v>0</v>
@@ -16675,16 +16677,16 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C97" s="1">
-        <v>26879</v>
+        <v>5486550</v>
       </c>
       <c r="D97" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E97" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F97" t="s">
         <v>115</v>
@@ -16696,7 +16698,7 @@
         <v>45666</v>
       </c>
       <c r="I97" s="1">
-        <v>2742</v>
+        <v>2755</v>
       </c>
       <c r="J97" s="1">
         <v>0</v>
@@ -16748,7 +16750,7 @@
         <v>0</v>
       </c>
       <c r="AA97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB97" s="1">
         <v>0</v>
@@ -16775,13 +16777,13 @@
         <v>0</v>
       </c>
       <c r="AJ97" s="1">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="AK97" s="1">
         <v>0</v>
       </c>
       <c r="AL97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM97" s="1">
         <v>0</v>
@@ -16817,10 +16819,10 @@
         <v>0</v>
       </c>
       <c r="AX97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ97" s="1">
         <v>0</v>
@@ -16843,16 +16845,16 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C98" s="1">
-        <v>10836</v>
+        <v>5462507</v>
       </c>
       <c r="D98" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E98" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F98" t="s">
         <v>115</v>
@@ -16864,7 +16866,7 @@
         <v>45666</v>
       </c>
       <c r="I98" s="1">
-        <v>2742</v>
+        <v>2755</v>
       </c>
       <c r="J98" s="1">
         <v>0</v>
@@ -16901,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="V98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W98" s="1">
         <v>0</v>
@@ -16942,9 +16944,7 @@
       <c r="AI98" s="1">
         <v>0</v>
       </c>
-      <c r="AJ98" s="1">
-        <v>231</v>
-      </c>
+      <c r="AJ98" s="1"/>
       <c r="AK98" s="1">
         <v>0</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>24</v>
       </c>
       <c r="C99" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D99" t="s">
         <v>57</v>
@@ -17023,7 +17023,7 @@
         <v>87</v>
       </c>
       <c r="F99" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G99" t="s">
         <v>117</v>
@@ -17032,7 +17032,7 @@
         <v>45666</v>
       </c>
       <c r="I99" s="1">
-        <v>2742</v>
+        <v>2755</v>
       </c>
       <c r="J99" s="1">
         <v>1</v>
@@ -17051,10 +17051,10 @@
         <v>0</v>
       </c>
       <c r="P99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99" s="1">
         <v>0</v>
@@ -17111,7 +17111,7 @@
         <v>0</v>
       </c>
       <c r="AJ99" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK99" s="1">
         <v>1</v>
@@ -17162,7 +17162,7 @@
         <v>0</v>
       </c>
       <c r="BA99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB99" s="1">
         <v>0</v>
@@ -17179,19 +17179,19 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C100" s="1">
         <v>88890</v>
       </c>
       <c r="D100" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E100" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F100" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G100" t="s">
         <v>117</v>
@@ -17200,7 +17200,7 @@
         <v>45666</v>
       </c>
       <c r="I100" s="1">
-        <v>2743</v>
+        <v>2756</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -17347,19 +17347,19 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C101" s="1">
         <v>3345</v>
       </c>
       <c r="D101" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E101" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F101" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G101" t="s">
         <v>117</v>
@@ -17368,7 +17368,7 @@
         <v>45666</v>
       </c>
       <c r="I101" s="1">
-        <v>2743</v>
+        <v>2756</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -17515,19 +17515,19 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C102" s="1">
-        <v>3345</v>
+        <v>26879</v>
       </c>
       <c r="D102" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E102" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F102" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G102" t="s">
         <v>117</v>
@@ -17536,13 +17536,13 @@
         <v>45666</v>
       </c>
       <c r="I102" s="1">
-        <v>2744</v>
+        <v>2757</v>
       </c>
       <c r="J102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1">
@@ -17555,10 +17555,10 @@
         <v>0</v>
       </c>
       <c r="P102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R102" s="1">
         <v>0</v>
@@ -17588,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="AA102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB102" s="1">
         <v>0</v>
@@ -17615,13 +17615,13 @@
         <v>0</v>
       </c>
       <c r="AJ102" s="1">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="AK102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM102" s="1">
         <v>0</v>
@@ -17657,7 +17657,7 @@
         <v>0</v>
       </c>
       <c r="AX102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY102" s="1">
         <v>0</v>
@@ -17683,19 +17683,19 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C103" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D103" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E103" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F103" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G103" t="s">
         <v>117</v>
@@ -17704,7 +17704,7 @@
         <v>45666</v>
       </c>
       <c r="I103" s="1">
-        <v>2744</v>
+        <v>2757</v>
       </c>
       <c r="J103" s="1">
         <v>1</v>
@@ -17783,7 +17783,7 @@
         <v>0</v>
       </c>
       <c r="AJ103" s="1">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AK103" s="1">
         <v>1</v>
@@ -17834,7 +17834,7 @@
         <v>0</v>
       </c>
       <c r="BA103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB103" s="1">
         <v>0</v>
@@ -17851,16 +17851,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C104" s="1">
-        <v>26879</v>
+        <v>5462507</v>
       </c>
       <c r="D104" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E104" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F104" t="s">
         <v>115</v>
@@ -17872,7 +17872,7 @@
         <v>45666</v>
       </c>
       <c r="I104" s="1">
-        <v>2744</v>
+        <v>2757</v>
       </c>
       <c r="J104" s="1">
         <v>0</v>
@@ -17924,7 +17924,7 @@
         <v>0</v>
       </c>
       <c r="AA104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB104" s="1">
         <v>0</v>
@@ -17950,9 +17950,7 @@
       <c r="AI104" s="1">
         <v>0</v>
       </c>
-      <c r="AJ104" s="1">
-        <v>214</v>
-      </c>
+      <c r="AJ104" s="1"/>
       <c r="AK104" s="1">
         <v>0</v>
       </c>
@@ -17993,7 +17991,7 @@
         <v>0</v>
       </c>
       <c r="AX104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY104" s="1">
         <v>0</v>
@@ -18019,19 +18017,19 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C105" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F105" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G105" t="s">
         <v>117</v>
@@ -18040,13 +18038,13 @@
         <v>45666</v>
       </c>
       <c r="I105" s="1">
-        <v>2744</v>
+        <v>2757</v>
       </c>
       <c r="J105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1">
@@ -18119,10 +18117,10 @@
         <v>0</v>
       </c>
       <c r="AJ105" s="1">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="AK105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL105" s="1">
         <v>1</v>
@@ -18164,7 +18162,7 @@
         <v>0</v>
       </c>
       <c r="AY105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ105" s="1">
         <v>0</v>
@@ -18187,16 +18185,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C106" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D106" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E106" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F106" t="s">
         <v>115</v>
@@ -18208,7 +18206,7 @@
         <v>45666</v>
       </c>
       <c r="I106" s="1">
-        <v>2744</v>
+        <v>2757</v>
       </c>
       <c r="J106" s="1">
         <v>0</v>
@@ -18286,12 +18284,14 @@
       <c r="AI106" s="1">
         <v>0</v>
       </c>
-      <c r="AJ106" s="1"/>
+      <c r="AJ106" s="1">
+        <v>119</v>
+      </c>
       <c r="AK106" s="1">
         <v>0</v>
       </c>
       <c r="AL106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -18330,7 +18330,7 @@
         <v>0</v>
       </c>
       <c r="AY106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ106" s="1">
         <v>0</v>
@@ -18356,7 +18356,7 @@
         <v>24</v>
       </c>
       <c r="C107" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D107" t="s">
         <v>57</v>
@@ -18365,7 +18365,7 @@
         <v>87</v>
       </c>
       <c r="F107" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G107" t="s">
         <v>117</v>
@@ -18374,7 +18374,7 @@
         <v>45666</v>
       </c>
       <c r="I107" s="1">
-        <v>2744</v>
+        <v>2757</v>
       </c>
       <c r="J107" s="1">
         <v>1</v>
@@ -18393,10 +18393,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -18453,7 +18453,7 @@
         <v>0</v>
       </c>
       <c r="AJ107" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK107" s="1">
         <v>1</v>
@@ -18504,7 +18504,7 @@
         <v>0</v>
       </c>
       <c r="BA107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB107" s="1">
         <v>0</v>
@@ -18533,7 +18533,7 @@
         <v>86</v>
       </c>
       <c r="F108" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G108" t="s">
         <v>117</v>
@@ -18542,7 +18542,7 @@
         <v>45666</v>
       </c>
       <c r="I108" s="1">
-        <v>2792</v>
+        <v>2809</v>
       </c>
       <c r="J108" s="1">
         <v>1</v>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -87,58 +87,58 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
+  </si>
+  <si>
+    <t>quinine</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>xylazine</t>
+    <t>heroin</t>
   </si>
   <si>
-    <t>4-ANPP</t>
+    <t>acetylcodeine</t>
   </si>
   <si>
-    <t>quinine</t>
+    <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>heroin</t>
+    <t>1-phenethyl-4-hydroxypiperidine</t>
   </si>
   <si>
     <t>papaverine</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-hydroxypiperidine</t>
-  </si>
-  <si>
     <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
     <t>acetyl fentanyl</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
+    <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>1,3-Diacetin</t>
@@ -147,19 +147,19 @@
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>bromazolam</t>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
-    <t>procaine</t>
+    <t>bromazolam</t>
   </si>
   <si>
     <t>medetomidine</t>
   </si>
   <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+    <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
-    <t>despropionyl p-fluorofentanyl</t>
+    <t>procaine</t>
   </si>
   <si>
     <t>acetaminophen</t>
@@ -186,55 +186,55 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
     <t>437-38-7</t>
+  </si>
+  <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>21409-26-7</t>
   </si>
   <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t>7361-61-7</t>
+    <t>561-27-3</t>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t>6703-27-1</t>
   </si>
   <si>
-    <t>72402-53-0</t>
+    <t>2784-73-8</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
+    <t>1462260-87-2</t>
   </si>
   <si>
     <t>58-74-2</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
     <t>620-71-3</t>
-  </si>
-  <si>
-    <t>1462260-87-2</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
   </si>
   <si>
     <t>3258-84-2</t>
   </si>
   <si>
-    <t>43021-26-7</t>
+    <t>519-09-5</t>
   </si>
   <si>
-    <t>519-09-5</t>
+    <t>43021-26-7</t>
   </si>
   <si>
     <t>105-70-4</t>
@@ -246,13 +246,13 @@
     <t>71368-80-4</t>
   </si>
   <si>
-    <t>59-46-1</t>
-  </si>
-  <si>
     <t>86347-14-0</t>
   </si>
   <si>
     <t>122861-41-0</t>
+  </si>
+  <si>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>103-90-2</t>
@@ -276,52 +276,52 @@
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
     <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
+    <t>70D95007SX</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>U59401ETXH</t>
   </si>
   <si>
-    <t>A7V27PHC7A</t>
+    <t>M5E47P1ZCH</t>
   </si>
   <si>
-    <t>3G6A5W338E</t>
-  </si>
-  <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
+    <t>3D9E9KK5K5</t>
   </si>
   <si>
     <t>DAA13NKG2Q</t>
   </si>
   <si>
-    <t>U59401ETXH</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>6DZ28538KS</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
+    <t>5353I8I6YS</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
+    <t>58C337KP3E</t>
   </si>
   <si>
     <t>G45CU3Z186</t>
@@ -333,13 +333,13 @@
     <t>YMC9OT97Z1</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
-  </si>
-  <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
+  </si>
+  <si>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>362O9ITL9D</t>
@@ -910,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -919,7 +919,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
         <v>117</v>
@@ -931,10 +931,10 @@
         <v>1313</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="1">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
@@ -1087,7 +1087,7 @@
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
@@ -1099,10 +1099,10 @@
         <v>1313</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1124,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -1255,7 +1255,7 @@
         <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
         <v>117</v>
@@ -1267,10 +1267,10 @@
         <v>1313</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1283,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>3034034</v>
+        <v>62300</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -1591,7 +1591,7 @@
         <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
         <v>117</v>
@@ -1603,10 +1603,10 @@
         <v>1313</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1679,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -1927,7 +1927,7 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
         <v>117</v>
@@ -1939,10 +1939,10 @@
         <v>1313</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -2015,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AK9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
@@ -2095,7 +2095,7 @@
         <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
         <v>117</v>
@@ -2107,10 +2107,10 @@
         <v>1313</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="1">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>3034034</v>
+        <v>62300</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -2431,7 +2431,7 @@
         <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
         <v>117</v>
@@ -2443,10 +2443,10 @@
         <v>1456</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2519,13 +2519,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="AK12" s="1">
         <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" s="1">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="AX12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
@@ -2599,7 +2599,7 @@
         <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
         <v>117</v>
@@ -2611,10 +2611,10 @@
         <v>1456</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="1">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D14" t="s">
         <v>60</v>
@@ -2855,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="1">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2923,19 +2923,19 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
         <v>117</v>
@@ -2947,10 +2947,10 @@
         <v>1456</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -3023,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -3091,19 +3091,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
         <v>117</v>
@@ -3115,10 +3115,10 @@
         <v>1456</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3131,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>1</v>
@@ -3259,16 +3259,16 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>5707</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
         <v>115</v>
@@ -3427,19 +3427,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
-        <v>2519</v>
+        <v>165365057</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
         <v>117</v>
@@ -3451,10 +3451,10 @@
         <v>1456</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3527,13 +3527,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>140</v>
+        <v>281</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="AX18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="1">
         <v>0</v>
@@ -3595,19 +3595,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>165365057</v>
+        <v>5462328</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
         <v>117</v>
@@ -3619,10 +3619,10 @@
         <v>1456</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3695,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="1">
         <v>0</v>
@@ -3763,19 +3763,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
-        <v>3034034</v>
+        <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G20" t="s">
         <v>117</v>
@@ -3787,10 +3787,10 @@
         <v>1471</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="AK20" s="1">
         <v>0</v>
       </c>
       <c r="AL20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20" s="1">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="AX20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="1">
         <v>0</v>
@@ -3931,16 +3931,16 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>3345</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
         <v>62</v>
@@ -4102,7 +4102,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D22" t="s">
         <v>60</v>
@@ -4111,7 +4111,7 @@
         <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
         <v>117</v>
@@ -4123,10 +4123,10 @@
         <v>1471</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
@@ -4199,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK22" s="1">
         <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="1">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="1">
         <v>0</v>
@@ -4435,16 +4435,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
         <v>62</v>
@@ -4481,10 +4481,10 @@
         <v>0</v>
       </c>
       <c r="R24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="1">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AK24" s="1">
         <v>1</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="1">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>33</v>
       </c>
       <c r="C25" s="1">
-        <v>4680</v>
+        <v>5486550</v>
       </c>
       <c r="D25" t="s">
         <v>66</v>
@@ -4615,7 +4615,7 @@
         <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
         <v>117</v>
@@ -4627,10 +4627,10 @@
         <v>2217</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4703,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>1</v>
@@ -4774,7 +4774,7 @@
         <v>34</v>
       </c>
       <c r="C26" s="1">
-        <v>5486550</v>
+        <v>5462507</v>
       </c>
       <c r="D26" t="s">
         <v>67</v>
@@ -4870,14 +4870,12 @@
       <c r="AI26" s="1">
         <v>0</v>
       </c>
-      <c r="AJ26" s="1">
-        <v>119</v>
-      </c>
+      <c r="AJ26" s="1"/>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4916,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="1">
         <v>0</v>
@@ -4941,15 +4939,17 @@
       <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <v>91725431</v>
+      </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G27" t="s">
         <v>117</v>
@@ -4961,10 +4961,10 @@
         <v>2217</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -5037,13 +5037,13 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="1">
         <v>0</v>
@@ -5105,19 +5105,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
-        <v>12107</v>
+        <v>5707</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G28" t="s">
         <v>117</v>
@@ -5129,10 +5129,10 @@
         <v>2217</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -5151,10 +5151,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
@@ -5205,13 +5205,13 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="1">
         <v>0</v>
@@ -5273,16 +5273,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1">
-        <v>91725431</v>
+        <v>10836</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
         <v>115</v>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="1">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="AK29" s="1">
         <v>0</v>
@@ -5441,19 +5441,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" t="s">
         <v>62</v>
-      </c>
-      <c r="E30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" t="s">
-        <v>115</v>
       </c>
       <c r="G30" t="s">
         <v>117</v>
@@ -5465,10 +5465,10 @@
         <v>2217</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5481,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -5541,10 +5541,10 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
         <v>1</v>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="BA30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="1">
         <v>0</v>
@@ -5609,16 +5609,14 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1">
-        <v>88890</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
         <v>62</v>
@@ -5709,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="AK31" s="1">
         <v>1</v>
@@ -5760,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5777,19 +5775,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1">
-        <v>5462507</v>
+        <v>4680</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G32" t="s">
         <v>117</v>
@@ -5801,10 +5799,10 @@
         <v>2217</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5876,12 +5874,14 @@
       <c r="AI32" s="1">
         <v>0</v>
       </c>
-      <c r="AJ32" s="1"/>
+      <c r="AJ32" s="1">
+        <v>276</v>
+      </c>
       <c r="AK32" s="1">
         <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="AY32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ32" s="1">
         <v>0</v>
@@ -5943,16 +5943,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1">
-        <v>10836</v>
+        <v>165365057</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
         <v>115</v>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="1">
         <v>0</v>
@@ -6043,13 +6043,13 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="AK33" s="1">
         <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB33" s="1">
         <v>0</v>
@@ -6111,16 +6111,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
         <v>62</v>
@@ -6151,10 +6151,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AK34" s="1">
         <v>1</v>
@@ -6279,19 +6279,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
-        <v>5462328</v>
+        <v>12107</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G35" t="s">
         <v>117</v>
@@ -6303,10 +6303,10 @@
         <v>2217</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6379,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB35" s="1">
         <v>0</v>
@@ -6447,19 +6447,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
         <v>117</v>
@@ -6471,10 +6471,10 @@
         <v>2280</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6487,10 +6487,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -6547,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="AK36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1">
         <v>1</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB36" s="1">
         <v>0</v>
@@ -6615,19 +6615,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1">
-        <v>88890</v>
+        <v>527015</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G37" t="s">
         <v>117</v>
@@ -6639,10 +6639,10 @@
         <v>2280</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6715,10 +6715,10 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>1</v>
@@ -6783,16 +6783,16 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s">
         <v>115</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="1">
         <v>0</v>
@@ -6883,13 +6883,13 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="AK38" s="1">
         <v>0</v>
       </c>
       <c r="AL38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="1">
         <v>0</v>
@@ -6951,16 +6951,16 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" t="s">
         <v>62</v>
@@ -6991,10 +6991,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -7012,10 +7012,10 @@
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -7051,13 +7051,13 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -7119,19 +7119,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1">
-        <v>527015</v>
+        <v>446220</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G40" t="s">
         <v>117</v>
@@ -7143,10 +7143,10 @@
         <v>2280</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
@@ -7180,10 +7180,10 @@
         <v>0</v>
       </c>
       <c r="W40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" s="1">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="AK40" s="1">
         <v>0</v>
       </c>
       <c r="AL40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="1">
         <v>0</v>
@@ -7287,19 +7287,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
         <v>117</v>
@@ -7311,10 +7311,10 @@
         <v>2280</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="1">
         <v>0</v>
@@ -7387,13 +7387,13 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="AK41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41" s="1">
         <v>0</v>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB41" s="1">
         <v>0</v>
@@ -7626,7 +7626,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="1">
-        <v>119478</v>
+        <v>448223</v>
       </c>
       <c r="D43" t="s">
         <v>72</v>
@@ -7789,19 +7789,19 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G44" t="s">
         <v>117</v>
@@ -7813,10 +7813,10 @@
         <v>2333</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7850,10 +7850,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="1">
         <v>0</v>
@@ -7888,9 +7888,7 @@
       <c r="AI44" s="1">
         <v>0</v>
       </c>
-      <c r="AJ44" s="1">
-        <v>150</v>
-      </c>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1">
         <v>0</v>
       </c>
@@ -7957,19 +7955,19 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C45" s="1">
-        <v>448223</v>
+        <v>446220</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G45" t="s">
         <v>117</v>
@@ -7981,10 +7979,10 @@
         <v>2333</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -8018,10 +8016,10 @@
         <v>0</v>
       </c>
       <c r="W45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45" s="1">
         <v>0</v>
@@ -8056,7 +8054,9 @@
       <c r="AI45" s="1">
         <v>0</v>
       </c>
-      <c r="AJ45" s="1"/>
+      <c r="AJ45" s="1">
+        <v>150</v>
+      </c>
       <c r="AK45" s="1">
         <v>0</v>
       </c>
@@ -8123,16 +8123,16 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C46" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
         <v>62</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46" s="1">
         <v>0</v>
@@ -8223,13 +8223,13 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="AX46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY46" s="1">
         <v>0</v>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB46" s="1">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C47" s="1">
         <v>3345</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
         <v>62</v>
@@ -8462,7 +8462,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D48" t="s">
         <v>63</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -8559,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AK48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM48" s="1">
         <v>0</v>
@@ -8601,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="1">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB48" s="1">
         <v>0</v>
@@ -8627,16 +8627,16 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C49" s="1">
         <v>5707</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
         <v>62</v>
@@ -8795,16 +8795,16 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C50" s="1">
-        <v>10836</v>
+        <v>66924</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F50" t="s">
         <v>62</v>
@@ -8816,7 +8816,7 @@
         <v>45649</v>
       </c>
       <c r="I50" s="1">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8850,10 +8850,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="AK50" s="1">
         <v>0</v>
@@ -8963,16 +8963,16 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C51" s="1">
-        <v>66924</v>
+        <v>10836</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s">
         <v>62</v>
@@ -8984,7 +8984,7 @@
         <v>45649</v>
       </c>
       <c r="I51" s="1">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -9063,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="AK51" s="1">
         <v>0</v>
@@ -9152,7 +9152,7 @@
         <v>45649</v>
       </c>
       <c r="I52" s="1">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="J52" s="1">
         <v>0</v>
@@ -9299,14 +9299,12 @@
       <c r="B53" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="1">
-        <v>12562546</v>
-      </c>
+      <c r="C53" s="1"/>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
         <v>115</v>
@@ -9318,7 +9316,7 @@
         <v>45664</v>
       </c>
       <c r="I53" s="1">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
@@ -9391,13 +9389,13 @@
         <v>0</v>
       </c>
       <c r="AH53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI53" s="1">
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK53" s="1">
         <v>0</v>
@@ -9415,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="AP53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="1">
         <v>0</v>
       </c>
       <c r="AR53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="1">
         <v>0</v>
@@ -9465,19 +9463,19 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C54" s="1">
-        <v>5462328</v>
+        <v>10836</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G54" t="s">
         <v>117</v>
@@ -9486,13 +9484,13 @@
         <v>45664</v>
       </c>
       <c r="I54" s="1">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -9523,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54" s="1">
         <v>0</v>
@@ -9565,13 +9563,13 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="AK54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="1">
         <v>0</v>
@@ -9636,13 +9634,13 @@
         <v>45</v>
       </c>
       <c r="C55" s="1">
-        <v>4914</v>
+        <v>12562546</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
         <v>115</v>
@@ -9654,7 +9652,7 @@
         <v>45664</v>
       </c>
       <c r="I55" s="1">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
@@ -9733,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -9751,13 +9749,13 @@
         <v>0</v>
       </c>
       <c r="AP55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ55" s="1">
         <v>0</v>
       </c>
       <c r="AR55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS55" s="1">
         <v>0</v>
@@ -9775,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="1">
         <v>0</v>
@@ -9801,19 +9799,19 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C56" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G56" t="s">
         <v>117</v>
@@ -9822,13 +9820,13 @@
         <v>45664</v>
       </c>
       <c r="I56" s="1">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9859,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56" s="1">
         <v>0</v>
@@ -9901,13 +9899,13 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="AK56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM56" s="1">
         <v>0</v>
@@ -9952,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="BA56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB56" s="1">
         <v>0</v>
@@ -9969,16 +9967,16 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C57" s="1">
-        <v>62300</v>
+        <v>68602</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
         <v>115</v>
@@ -9990,7 +9988,7 @@
         <v>45664</v>
       </c>
       <c r="I57" s="1">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="J57" s="1">
         <v>0</v>
@@ -10069,13 +10067,13 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="AK57" s="1">
         <v>0</v>
       </c>
       <c r="AL57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -10137,16 +10135,16 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C58" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F58" t="s">
         <v>62</v>
@@ -10158,7 +10156,7 @@
         <v>45664</v>
       </c>
       <c r="I58" s="1">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -10177,10 +10175,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
         <v>0</v>
@@ -10237,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AK58" s="1">
         <v>1</v>
@@ -10305,10 +10303,10 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1">
-        <v>68602</v>
+        <v>21812144</v>
       </c>
       <c r="D59" t="s">
         <v>78</v>
@@ -10317,7 +10315,7 @@
         <v>107</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G59" t="s">
         <v>117</v>
@@ -10326,13 +10324,13 @@
         <v>45664</v>
       </c>
       <c r="I59" s="1">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
@@ -10405,13 +10403,13 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -10459,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="BB59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC59" s="1">
         <v>0</v>
@@ -10473,17 +10471,19 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4914</v>
+      </c>
       <c r="D60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" t="s">
         <v>62</v>
-      </c>
-      <c r="E60" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" t="s">
-        <v>115</v>
       </c>
       <c r="G60" t="s">
         <v>117</v>
@@ -10492,13 +10492,13 @@
         <v>45664</v>
       </c>
       <c r="I60" s="1">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -10565,13 +10565,13 @@
         <v>0</v>
       </c>
       <c r="AH60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="1">
         <v>0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="AK60" s="1">
         <v>0</v>
@@ -10613,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="AX60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY60" s="1">
         <v>0</v>
@@ -10639,16 +10639,16 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C61" s="1">
-        <v>21812144</v>
+        <v>6213</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F61" t="s">
         <v>62</v>
@@ -10660,7 +10660,7 @@
         <v>45664</v>
       </c>
       <c r="I61" s="1">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -10738,14 +10738,12 @@
       <c r="AI61" s="1">
         <v>0</v>
       </c>
-      <c r="AJ61" s="1">
-        <v>167</v>
-      </c>
+      <c r="AJ61" s="1"/>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -10793,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="BB61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC61" s="1">
         <v>0</v>
@@ -10807,16 +10805,16 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1">
-        <v>4914</v>
+        <v>5707</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F62" t="s">
         <v>62</v>
@@ -10828,7 +10826,7 @@
         <v>45664</v>
       </c>
       <c r="I62" s="1">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -10853,10 +10851,10 @@
         <v>0</v>
       </c>
       <c r="R62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
@@ -10907,13 +10905,13 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10949,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="AX62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="1">
         <v>0</v>
@@ -10975,19 +10973,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C63" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E63" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G63" t="s">
         <v>117</v>
@@ -10996,13 +10994,13 @@
         <v>45664</v>
       </c>
       <c r="I63" s="1">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -11075,13 +11073,13 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="AK63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -11117,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="AX63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY63" s="1">
         <v>0</v>
@@ -11126,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB63" s="1">
         <v>0</v>
@@ -11143,16 +11141,16 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C64" s="1">
-        <v>6213</v>
+        <v>3345</v>
       </c>
       <c r="D64" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E64" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F64" t="s">
         <v>62</v>
@@ -11164,7 +11162,7 @@
         <v>45664</v>
       </c>
       <c r="I64" s="1">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -11183,10 +11181,10 @@
         <v>0</v>
       </c>
       <c r="P64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="1">
         <v>0</v>
@@ -11242,12 +11240,14 @@
       <c r="AI64" s="1">
         <v>0</v>
       </c>
-      <c r="AJ64" s="1"/>
+      <c r="AJ64" s="1">
+        <v>191</v>
+      </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11309,19 +11309,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G65" t="s">
         <v>117</v>
@@ -11330,13 +11330,13 @@
         <v>45664</v>
       </c>
       <c r="I65" s="1">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11355,10 +11355,10 @@
         <v>0</v>
       </c>
       <c r="R65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
@@ -11409,10 +11409,10 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>1</v>
@@ -11498,7 +11498,7 @@
         <v>45664</v>
       </c>
       <c r="I66" s="1">
-        <v>2750</v>
+        <v>2752</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -11645,16 +11645,16 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C67" s="1">
-        <v>1983</v>
+        <v>446220</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
@@ -11666,7 +11666,7 @@
         <v>45665</v>
       </c>
       <c r="I67" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y67" s="1">
         <v>0</v>
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="AK67" s="1">
         <v>0</v>
@@ -11813,7 +11813,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" t="s">
@@ -11832,7 +11832,7 @@
         <v>45665</v>
       </c>
       <c r="I68" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -11979,19 +11979,19 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C69" s="1">
-        <v>446220</v>
+        <v>12562546</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E69" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F69" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G69" t="s">
         <v>117</v>
@@ -12000,13 +12000,13 @@
         <v>45665</v>
       </c>
       <c r="I69" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -12043,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="1">
         <v>0</v>
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AK69" s="1">
         <v>0</v>
@@ -12094,16 +12094,16 @@
         <v>0</v>
       </c>
       <c r="AO69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS69" s="1">
         <v>0</v>
@@ -12147,16 +12147,16 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C70" s="1">
-        <v>5462507</v>
+        <v>21812144</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F70" t="s">
         <v>115</v>
@@ -12168,7 +12168,7 @@
         <v>45665</v>
       </c>
       <c r="I70" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -12246,12 +12246,14 @@
       <c r="AI70" s="1">
         <v>0</v>
       </c>
-      <c r="AJ70" s="1"/>
+      <c r="AJ70" s="1">
+        <v>167</v>
+      </c>
       <c r="AK70" s="1">
         <v>0</v>
       </c>
       <c r="AL70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM70" s="1">
         <v>0</v>
@@ -12299,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="BB70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC70" s="1">
         <v>0</v>
@@ -12313,16 +12315,16 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C71" s="1">
-        <v>62300</v>
+        <v>1983</v>
       </c>
       <c r="D71" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F71" t="s">
         <v>115</v>
@@ -12334,7 +12336,7 @@
         <v>45665</v>
       </c>
       <c r="I71" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -12413,13 +12415,13 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="AK71" s="1">
         <v>0</v>
       </c>
       <c r="AL71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71" s="1">
         <v>0</v>
@@ -12481,16 +12483,16 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C72" s="1">
-        <v>3676</v>
+        <v>62300</v>
       </c>
       <c r="D72" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E72" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F72" t="s">
         <v>115</v>
@@ -12502,7 +12504,7 @@
         <v>45665</v>
       </c>
       <c r="I72" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -12581,13 +12583,13 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="AK72" s="1">
         <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -12623,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="AX72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY72" s="1">
         <v>0</v>
@@ -12649,19 +12651,19 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C73" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E73" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G73" t="s">
         <v>117</v>
@@ -12670,13 +12672,13 @@
         <v>45665</v>
       </c>
       <c r="I73" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -12689,10 +12691,10 @@
         <v>0</v>
       </c>
       <c r="P73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" s="1">
         <v>0</v>
@@ -12748,14 +12750,12 @@
       <c r="AI73" s="1">
         <v>0</v>
       </c>
-      <c r="AJ73" s="1">
-        <v>191</v>
-      </c>
+      <c r="AJ73" s="1"/>
       <c r="AK73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73" s="1">
         <v>0</v>
@@ -12817,19 +12817,19 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C74" s="1">
-        <v>12562546</v>
+        <v>3676</v>
       </c>
       <c r="D74" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G74" t="s">
         <v>117</v>
@@ -12838,13 +12838,13 @@
         <v>45665</v>
       </c>
       <c r="I74" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="1">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="AK74" s="1">
         <v>0</v>
@@ -12932,16 +12932,16 @@
         <v>0</v>
       </c>
       <c r="AO74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS74" s="1">
         <v>0</v>
@@ -12959,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="AX74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY74" s="1">
         <v>0</v>
@@ -12985,16 +12985,16 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
-        <v>21812144</v>
+        <v>10836</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E75" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F75" t="s">
         <v>115</v>
@@ -13006,7 +13006,7 @@
         <v>45665</v>
       </c>
       <c r="I75" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -13043,7 +13043,7 @@
         <v>0</v>
       </c>
       <c r="V75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W75" s="1">
         <v>0</v>
@@ -13085,13 +13085,13 @@
         <v>0</v>
       </c>
       <c r="AJ75" s="1">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="AK75" s="1">
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -13139,7 +13139,7 @@
         <v>0</v>
       </c>
       <c r="BB75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC75" s="1">
         <v>0</v>
@@ -13153,16 +13153,16 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C76" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D76" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E76" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F76" t="s">
         <v>115</v>
@@ -13174,7 +13174,7 @@
         <v>45665</v>
       </c>
       <c r="I76" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="V76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W76" s="1">
         <v>0</v>
@@ -13253,13 +13253,13 @@
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="AK76" s="1">
         <v>0</v>
       </c>
       <c r="AL76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM76" s="1">
         <v>0</v>
@@ -13304,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="BA76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB76" s="1">
         <v>0</v>
@@ -13327,10 +13327,10 @@
         <v>68602</v>
       </c>
       <c r="D77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F77" t="s">
         <v>115</v>
@@ -13342,7 +13342,7 @@
         <v>45665</v>
       </c>
       <c r="I77" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -13489,16 +13489,16 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C78" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D78" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E78" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F78" t="s">
         <v>62</v>
@@ -13510,7 +13510,7 @@
         <v>45665</v>
       </c>
       <c r="I78" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -13535,10 +13535,10 @@
         <v>0</v>
       </c>
       <c r="R78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -13589,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="1">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="AK78" s="1">
         <v>1</v>
@@ -13657,19 +13657,19 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C79" s="1">
-        <v>5707</v>
+        <v>5486550</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E79" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G79" t="s">
         <v>117</v>
@@ -13678,13 +13678,13 @@
         <v>45665</v>
       </c>
       <c r="I79" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1">
@@ -13703,10 +13703,10 @@
         <v>0</v>
       </c>
       <c r="R79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79" s="1">
         <v>0</v>
@@ -13757,10 +13757,10 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="1">
-        <v>324</v>
+        <v>119</v>
       </c>
       <c r="AK79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79" s="1">
         <v>1</v>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="AY79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ79" s="1">
         <v>0</v>
@@ -13825,19 +13825,19 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C80" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F80" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G80" t="s">
         <v>117</v>
@@ -13846,13 +13846,13 @@
         <v>45665</v>
       </c>
       <c r="I80" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1">
@@ -13925,10 +13925,10 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="AK80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL80" s="1">
         <v>1</v>
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="AY80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ80" s="1">
         <v>0</v>
@@ -14014,7 +14014,7 @@
         <v>45665</v>
       </c>
       <c r="I81" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J81" s="1">
         <v>0</v>
@@ -14161,19 +14161,19 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F82" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G82" t="s">
         <v>117</v>
@@ -14182,13 +14182,13 @@
         <v>45665</v>
       </c>
       <c r="I82" s="1">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="J82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
@@ -14201,10 +14201,10 @@
         <v>0</v>
       </c>
       <c r="P82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" s="1">
         <v>0</v>
@@ -14261,10 +14261,10 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL82" s="1">
         <v>1</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="BA82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB82" s="1">
         <v>0</v>
@@ -14350,7 +14350,7 @@
         <v>45649</v>
       </c>
       <c r="I83" s="1">
-        <v>2752</v>
+        <v>2754</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -14497,16 +14497,14 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C84" s="1">
-        <v>88890</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C84" s="1"/>
       <c r="D84" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E84" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F84" t="s">
         <v>62</v>
@@ -14518,7 +14516,7 @@
         <v>45602</v>
       </c>
       <c r="I84" s="1">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="J84" s="1">
         <v>1</v>
@@ -14591,19 +14589,19 @@
         <v>0</v>
       </c>
       <c r="AH84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ84" s="1">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AK84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -14648,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="BA84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB84" s="1">
         <v>0</v>
@@ -14665,16 +14663,16 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C85" s="1">
-        <v>68602</v>
+        <v>6213</v>
       </c>
       <c r="D85" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F85" t="s">
         <v>62</v>
@@ -14686,7 +14684,7 @@
         <v>45602</v>
       </c>
       <c r="I85" s="1">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -14764,9 +14762,7 @@
       <c r="AI85" s="1">
         <v>0</v>
       </c>
-      <c r="AJ85" s="1">
-        <v>224</v>
-      </c>
+      <c r="AJ85" s="1"/>
       <c r="AK85" s="1">
         <v>0</v>
       </c>
@@ -14833,16 +14829,16 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C86" s="1">
-        <v>6213</v>
+        <v>3676</v>
       </c>
       <c r="D86" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E86" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F86" t="s">
         <v>62</v>
@@ -14854,7 +14850,7 @@
         <v>45602</v>
       </c>
       <c r="I86" s="1">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="J86" s="1">
         <v>1</v>
@@ -14932,7 +14928,9 @@
       <c r="AI86" s="1">
         <v>0</v>
       </c>
-      <c r="AJ86" s="1"/>
+      <c r="AJ86" s="1">
+        <v>216</v>
+      </c>
       <c r="AK86" s="1">
         <v>0</v>
       </c>
@@ -14973,7 +14971,7 @@
         <v>0</v>
       </c>
       <c r="AX86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY86" s="1">
         <v>0</v>
@@ -14999,19 +14997,19 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C87" s="1">
-        <v>3676</v>
+        <v>5707</v>
       </c>
       <c r="D87" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E87" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G87" t="s">
         <v>117</v>
@@ -15020,13 +15018,13 @@
         <v>45602</v>
       </c>
       <c r="I87" s="1">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="J87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1">
@@ -15048,10 +15046,10 @@
         <v>0</v>
       </c>
       <c r="S87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87" s="1">
         <v>0</v>
@@ -15099,13 +15097,13 @@
         <v>0</v>
       </c>
       <c r="AJ87" s="1">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="AK87" s="1">
         <v>0</v>
       </c>
       <c r="AL87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM87" s="1">
         <v>0</v>
@@ -15141,7 +15139,7 @@
         <v>0</v>
       </c>
       <c r="AX87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY87" s="1">
         <v>0</v>
@@ -15188,7 +15186,7 @@
         <v>45602</v>
       </c>
       <c r="I88" s="1">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="J88" s="1">
         <v>0</v>
@@ -15335,19 +15333,19 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C89" s="1">
-        <v>5707</v>
+        <v>68602</v>
       </c>
       <c r="D89" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E89" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F89" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G89" t="s">
         <v>117</v>
@@ -15356,13 +15354,13 @@
         <v>45602</v>
       </c>
       <c r="I89" s="1">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="J89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1">
@@ -15384,10 +15382,10 @@
         <v>0</v>
       </c>
       <c r="S89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U89" s="1">
         <v>0</v>
@@ -15435,13 +15433,13 @@
         <v>0</v>
       </c>
       <c r="AJ89" s="1">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="AK89" s="1">
         <v>0</v>
       </c>
       <c r="AL89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89" s="1">
         <v>0</v>
@@ -15503,16 +15501,16 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C90" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D90" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E90" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F90" t="s">
         <v>62</v>
@@ -15524,7 +15522,7 @@
         <v>45602</v>
       </c>
       <c r="I90" s="1">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="J90" s="1">
         <v>1</v>
@@ -15543,10 +15541,10 @@
         <v>0</v>
       </c>
       <c r="P90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R90" s="1">
         <v>0</v>
@@ -15603,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK90" s="1">
         <v>1</v>
@@ -15654,7 +15652,7 @@
         <v>0</v>
       </c>
       <c r="BA90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB90" s="1">
         <v>0</v>
@@ -15671,14 +15669,16 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3345</v>
+      </c>
       <c r="D91" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E91" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="F91" t="s">
         <v>62</v>
@@ -15690,7 +15690,7 @@
         <v>45602</v>
       </c>
       <c r="I91" s="1">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="J91" s="1">
         <v>1</v>
@@ -15709,10 +15709,10 @@
         <v>0</v>
       </c>
       <c r="P91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91" s="1">
         <v>0</v>
@@ -15763,19 +15763,19 @@
         <v>0</v>
       </c>
       <c r="AH91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ91" s="1">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="AK91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM91" s="1">
         <v>0</v>
@@ -15858,7 +15858,7 @@
         <v>45611</v>
       </c>
       <c r="I92" s="1">
-        <v>2754</v>
+        <v>2756</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
@@ -16026,7 +16026,7 @@
         <v>45666</v>
       </c>
       <c r="I93" s="1">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="J93" s="1">
         <v>1</v>
@@ -16173,16 +16173,16 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C94" s="1">
-        <v>10836</v>
+        <v>26879</v>
       </c>
       <c r="D94" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E94" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F94" t="s">
         <v>115</v>
@@ -16194,7 +16194,7 @@
         <v>45666</v>
       </c>
       <c r="I94" s="1">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="J94" s="1">
         <v>0</v>
@@ -16231,7 +16231,7 @@
         <v>0</v>
       </c>
       <c r="V94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W94" s="1">
         <v>0</v>
@@ -16246,7 +16246,7 @@
         <v>0</v>
       </c>
       <c r="AA94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB94" s="1">
         <v>0</v>
@@ -16273,7 +16273,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="AK94" s="1">
         <v>0</v>
@@ -16315,7 +16315,7 @@
         <v>0</v>
       </c>
       <c r="AX94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY94" s="1">
         <v>0</v>
@@ -16341,16 +16341,16 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C95" s="1">
-        <v>26879</v>
+        <v>10836</v>
       </c>
       <c r="D95" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E95" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F95" t="s">
         <v>115</v>
@@ -16362,7 +16362,7 @@
         <v>45666</v>
       </c>
       <c r="I95" s="1">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="J95" s="1">
         <v>0</v>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="V95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W95" s="1">
         <v>0</v>
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="AA95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB95" s="1">
         <v>0</v>
@@ -16441,7 +16441,7 @@
         <v>0</v>
       </c>
       <c r="AJ95" s="1">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="AK95" s="1">
         <v>0</v>
@@ -16483,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="AX95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY95" s="1">
         <v>0</v>
@@ -16509,19 +16509,19 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C96" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D96" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E96" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F96" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G96" t="s">
         <v>117</v>
@@ -16530,13 +16530,13 @@
         <v>45666</v>
       </c>
       <c r="I96" s="1">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="J96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1">
@@ -16608,14 +16608,12 @@
       <c r="AI96" s="1">
         <v>0</v>
       </c>
-      <c r="AJ96" s="1">
-        <v>44</v>
-      </c>
+      <c r="AJ96" s="1"/>
       <c r="AK96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM96" s="1">
         <v>0</v>
@@ -16660,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="BA96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB96" s="1">
         <v>0</v>
@@ -16677,19 +16675,19 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C97" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D97" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E97" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F97" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G97" t="s">
         <v>117</v>
@@ -16698,13 +16696,13 @@
         <v>45666</v>
       </c>
       <c r="I97" s="1">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="J97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1">
@@ -16777,10 +16775,10 @@
         <v>0</v>
       </c>
       <c r="AJ97" s="1">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="AK97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL97" s="1">
         <v>1</v>
@@ -16822,13 +16820,13 @@
         <v>0</v>
       </c>
       <c r="AY97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ97" s="1">
         <v>0</v>
       </c>
       <c r="BA97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB97" s="1">
         <v>0</v>
@@ -16845,19 +16843,19 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C98" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D98" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E98" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F98" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G98" t="s">
         <v>117</v>
@@ -16866,13 +16864,13 @@
         <v>45666</v>
       </c>
       <c r="I98" s="1">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="J98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1">
@@ -16885,10 +16883,10 @@
         <v>0</v>
       </c>
       <c r="P98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98" s="1">
         <v>0</v>
@@ -16944,12 +16942,14 @@
       <c r="AI98" s="1">
         <v>0</v>
       </c>
-      <c r="AJ98" s="1"/>
+      <c r="AJ98" s="1">
+        <v>191</v>
+      </c>
       <c r="AK98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM98" s="1">
         <v>0</v>
@@ -17011,19 +17011,19 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C99" s="1">
-        <v>3345</v>
+        <v>5486550</v>
       </c>
       <c r="D99" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E99" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F99" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G99" t="s">
         <v>117</v>
@@ -17032,13 +17032,13 @@
         <v>45666</v>
       </c>
       <c r="I99" s="1">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="J99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1">
@@ -17051,10 +17051,10 @@
         <v>0</v>
       </c>
       <c r="P99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R99" s="1">
         <v>0</v>
@@ -17111,10 +17111,10 @@
         <v>0</v>
       </c>
       <c r="AJ99" s="1">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="AK99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL99" s="1">
         <v>1</v>
@@ -17156,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="AY99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ99" s="1">
         <v>0</v>
@@ -17179,16 +17179,16 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C100" s="1">
         <v>88890</v>
       </c>
       <c r="D100" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E100" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F100" t="s">
         <v>62</v>
@@ -17200,7 +17200,7 @@
         <v>45666</v>
       </c>
       <c r="I100" s="1">
-        <v>2756</v>
+        <v>2758</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -17347,16 +17347,16 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C101" s="1">
         <v>3345</v>
       </c>
       <c r="D101" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E101" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F101" t="s">
         <v>62</v>
@@ -17368,7 +17368,7 @@
         <v>45666</v>
       </c>
       <c r="I101" s="1">
-        <v>2756</v>
+        <v>2758</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -17515,16 +17515,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C102" s="1">
-        <v>26879</v>
+        <v>5486550</v>
       </c>
       <c r="D102" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E102" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F102" t="s">
         <v>115</v>
@@ -17536,7 +17536,7 @@
         <v>45666</v>
       </c>
       <c r="I102" s="1">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="J102" s="1">
         <v>0</v>
@@ -17588,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="AA102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="1">
         <v>0</v>
@@ -17615,13 +17615,13 @@
         <v>0</v>
       </c>
       <c r="AJ102" s="1">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="AK102" s="1">
         <v>0</v>
       </c>
       <c r="AL102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM102" s="1">
         <v>0</v>
@@ -17657,10 +17657,10 @@
         <v>0</v>
       </c>
       <c r="AX102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ102" s="1">
         <v>0</v>
@@ -17683,16 +17683,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C103" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F103" t="s">
         <v>62</v>
@@ -17704,7 +17704,7 @@
         <v>45666</v>
       </c>
       <c r="I103" s="1">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="J103" s="1">
         <v>1</v>
@@ -17723,10 +17723,10 @@
         <v>0</v>
       </c>
       <c r="P103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R103" s="1">
         <v>0</v>
@@ -17783,7 +17783,7 @@
         <v>0</v>
       </c>
       <c r="AJ103" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK103" s="1">
         <v>1</v>
@@ -17834,7 +17834,7 @@
         <v>0</v>
       </c>
       <c r="BA103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB103" s="1">
         <v>0</v>
@@ -17851,19 +17851,19 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C104" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D104" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E104" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F104" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G104" t="s">
         <v>117</v>
@@ -17872,13 +17872,13 @@
         <v>45666</v>
       </c>
       <c r="I104" s="1">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="J104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1">
@@ -17950,12 +17950,14 @@
       <c r="AI104" s="1">
         <v>0</v>
       </c>
-      <c r="AJ104" s="1"/>
+      <c r="AJ104" s="1">
+        <v>44</v>
+      </c>
       <c r="AK104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -18000,7 +18002,7 @@
         <v>0</v>
       </c>
       <c r="BA104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB104" s="1">
         <v>0</v>
@@ -18017,19 +18019,19 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C105" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D105" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E105" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F105" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G105" t="s">
         <v>117</v>
@@ -18038,13 +18040,13 @@
         <v>45666</v>
       </c>
       <c r="I105" s="1">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="J105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1">
@@ -18116,14 +18118,12 @@
       <c r="AI105" s="1">
         <v>0</v>
       </c>
-      <c r="AJ105" s="1">
-        <v>201</v>
-      </c>
+      <c r="AJ105" s="1"/>
       <c r="AK105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM105" s="1">
         <v>0</v>
@@ -18185,16 +18185,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C106" s="1">
-        <v>5486550</v>
+        <v>26879</v>
       </c>
       <c r="D106" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E106" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F106" t="s">
         <v>115</v>
@@ -18206,7 +18206,7 @@
         <v>45666</v>
       </c>
       <c r="I106" s="1">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="J106" s="1">
         <v>0</v>
@@ -18258,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="AA106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB106" s="1">
         <v>0</v>
@@ -18285,13 +18285,13 @@
         <v>0</v>
       </c>
       <c r="AJ106" s="1">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="AK106" s="1">
         <v>0</v>
       </c>
       <c r="AL106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -18327,10 +18327,10 @@
         <v>0</v>
       </c>
       <c r="AX106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ106" s="1">
         <v>0</v>
@@ -18353,16 +18353,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C107" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D107" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E107" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F107" t="s">
         <v>62</v>
@@ -18374,7 +18374,7 @@
         <v>45666</v>
       </c>
       <c r="I107" s="1">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="J107" s="1">
         <v>1</v>
@@ -18393,10 +18393,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -18453,7 +18453,7 @@
         <v>0</v>
       </c>
       <c r="AJ107" s="1">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AK107" s="1">
         <v>1</v>
@@ -18542,7 +18542,7 @@
         <v>45666</v>
       </c>
       <c r="I108" s="1">
-        <v>2809</v>
+        <v>2813</v>
       </c>
       <c r="J108" s="1">
         <v>1</v>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -87,13 +87,10 @@
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>caffeine</t>
+    <t>cocaine</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>4-ANPP</t>
   </si>
   <si>
     <t>quinine</t>
@@ -105,16 +102,16 @@
     <t>phenethyl 4-ANPP</t>
   </si>
   <si>
-    <t>4-ANPP</t>
+    <t>fentanyl</t>
   </si>
   <si>
-    <t>cocaine</t>
+    <t>xylazine</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
+    <t>caffeine</t>
   </si>
   <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
@@ -123,34 +120,31 @@
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
-    <t>1-phenethyl-4-hydroxypiperidine</t>
+    <t>papaverine</t>
   </si>
   <si>
-    <t>papaverine</t>
+    <t>acetylcodeine</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
   </si>
   <si>
+    <t>1-phenethyl-4-hydroxypiperidine</t>
+  </si>
+  <si>
     <t>acetyl fentanyl</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
+    <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
-  </si>
-  <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
   </si>
   <si>
     <t>medetomidine</t>
@@ -162,13 +156,19 @@
     <t>procaine</t>
   </si>
   <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
+  </si>
+  <si>
+    <t>tramadol</t>
+  </si>
+  <si>
     <t>acetaminophen</t>
   </si>
   <si>
     <t>lidocaine</t>
-  </si>
-  <si>
-    <t>tramadol</t>
   </si>
   <si>
     <t>alprazolam</t>
@@ -186,13 +186,10 @@
     <t>537-46-2</t>
   </si>
   <si>
-    <t>58-08-2</t>
+    <t>50-36-2</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
+    <t>21409-26-7</t>
   </si>
   <si>
     <t>72402-53-0</t>
@@ -204,16 +201,16 @@
     <t/>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t>437-38-7</t>
   </si>
   <si>
-    <t>50-36-2</t>
+    <t>7361-61-7</t>
   </si>
   <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>6703-27-1</t>
+    <t>58-08-2</t>
   </si>
   <si>
     <t>2784-73-8</t>
@@ -225,25 +222,25 @@
     <t>58-74-2</t>
   </si>
   <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
     <t>620-71-3</t>
   </si>
   <si>
     <t>3258-84-2</t>
   </si>
   <si>
-    <t>519-09-5</t>
+    <t>43021-26-7</t>
   </si>
   <si>
-    <t>43021-26-7</t>
+    <t>519-09-5</t>
   </si>
   <si>
     <t>105-70-4</t>
   </si>
   <si>
     <t>67-71-0</t>
-  </si>
-  <si>
-    <t>71368-80-4</t>
   </si>
   <si>
     <t>86347-14-0</t>
@@ -255,13 +252,16 @@
     <t>59-46-1</t>
   </si>
   <si>
+    <t>71368-80-4</t>
+  </si>
+  <si>
+    <t>123154-38-1</t>
+  </si>
+  <si>
     <t>103-90-2</t>
   </si>
   <si>
     <t>137-58-6</t>
-  </si>
-  <si>
-    <t>123154-38-1</t>
   </si>
   <si>
     <t>28981-97-7</t>
@@ -276,13 +276,10 @@
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>3G6A5W338E</t>
+    <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
+    <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>A7V27PHC7A</t>
@@ -291,16 +288,16 @@
     <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>UF599785JZ</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>U59401ETXH</t>
+    <t>3G6A5W338E</t>
   </si>
   <si>
     <t>M5E47P1ZCH</t>
@@ -312,25 +309,25 @@
     <t>DAA13NKG2Q</t>
   </si>
   <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
     <t>UYP5ZQI00T</t>
   </si>
   <si>
     <t>6DZ28538KS</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
+    <t>58C337KP3E</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
+    <t>5353I8I6YS</t>
   </si>
   <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
     <t>9H4PO4Z4FT</t>
-  </si>
-  <si>
-    <t>YMC9OT97Z1</t>
   </si>
   <si>
     <t>MR15E85MQM</t>
@@ -342,13 +339,16 @@
     <t>4Z8Y51M438</t>
   </si>
   <si>
+    <t>YMC9OT97Z1</t>
+  </si>
+  <si>
+    <t>39J1LGJ30J</t>
+  </si>
+  <si>
     <t>362O9ITL9D</t>
   </si>
   <si>
     <t>98PI200987</t>
-  </si>
-  <si>
-    <t>39J1LGJ30J</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -751,7 +751,7 @@
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>117</v>
@@ -910,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>2519</v>
+        <v>446220</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -919,7 +919,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
         <v>117</v>
@@ -931,10 +931,10 @@
         <v>1313</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
@@ -1087,7 +1087,7 @@
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
@@ -1099,10 +1099,10 @@
         <v>1313</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1124,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -1255,7 +1255,7 @@
         <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
         <v>117</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1343,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>3034034</v>
+        <v>62300</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -1423,7 +1423,7 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
@@ -1435,10 +1435,10 @@
         <v>1313</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
         <v>115</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="1">
         <v>0</v>
@@ -1750,16 +1750,16 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
         <v>117</v>
@@ -1771,10 +1771,10 @@
         <v>1313</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1787,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>1</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="1">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -1927,7 +1927,7 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
         <v>117</v>
@@ -1939,10 +1939,10 @@
         <v>1313</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1964,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -2015,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AK9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="1">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
@@ -2095,7 +2095,7 @@
         <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>117</v>
@@ -2107,10 +2107,10 @@
         <v>1313</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" s="1">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>5462328</v>
+        <v>2519</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
@@ -2351,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="AK11" s="1">
         <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="1">
         <v>0</v>
@@ -2419,19 +2419,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
         <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
         <v>117</v>
@@ -2443,10 +2443,10 @@
         <v>1456</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2519,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>1</v>
@@ -2587,16 +2587,16 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
         <v>2519</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
         <v>115</v>
@@ -2755,19 +2755,19 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
-        <v>3034034</v>
+        <v>165365057</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
         <v>117</v>
@@ -2855,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D15" t="s">
         <v>63</v>
@@ -2935,7 +2935,7 @@
         <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
         <v>117</v>
@@ -2947,10 +2947,10 @@
         <v>1456</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2972,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -3023,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -3091,19 +3091,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
         <v>117</v>
@@ -3131,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK16" s="1">
         <v>1</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="1">
         <v>0</v>
@@ -3259,19 +3259,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
-        <v>5707</v>
+        <v>3034034</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
         <v>117</v>
@@ -3283,10 +3283,10 @@
         <v>1456</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3308,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="1">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="AX17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="1">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
         <v>117</v>
@@ -3451,10 +3451,10 @@
         <v>1456</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3527,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
         <v>1</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="1">
         <v>0</v>
@@ -3595,16 +3595,16 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
         <v>5462328</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -3763,16 +3763,16 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
         <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
         <v>115</v>
@@ -3934,7 +3934,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -3943,7 +3943,7 @@
         <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
         <v>117</v>
@@ -3971,10 +3971,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="1">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="1">
         <v>0</v>
@@ -4099,19 +4099,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
         <v>117</v>
@@ -4139,10 +4139,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -4199,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
         <v>117</v>
@@ -4435,19 +4435,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
         <v>117</v>
@@ -4534,14 +4534,12 @@
       <c r="AI24" s="1">
         <v>0</v>
       </c>
-      <c r="AJ24" s="1">
-        <v>44</v>
-      </c>
+      <c r="AJ24" s="1"/>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4586,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="1">
         <v>0</v>
@@ -4603,19 +4601,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
-        <v>5486550</v>
+        <v>91725431</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G25" t="s">
         <v>117</v>
@@ -4627,10 +4625,10 @@
         <v>2217</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4703,13 +4701,13 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -4748,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="1">
         <v>0</v>
@@ -4771,19 +4769,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1">
-        <v>5462507</v>
+        <v>4680</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -4795,10 +4793,10 @@
         <v>2217</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4870,12 +4868,14 @@
       <c r="AI26" s="1">
         <v>0</v>
       </c>
-      <c r="AJ26" s="1"/>
+      <c r="AJ26" s="1">
+        <v>276</v>
+      </c>
       <c r="AK26" s="1">
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="1">
         <v>0</v>
@@ -4937,16 +4937,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
-        <v>91725431</v>
+        <v>165365057</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
         <v>115</v>
@@ -5037,13 +5037,13 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="AK27" s="1">
         <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27" s="1">
         <v>0</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="1">
         <v>0</v>
@@ -5105,19 +5105,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
         <v>5707</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
         <v>117</v>
@@ -5273,19 +5273,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
         <v>117</v>
@@ -5297,10 +5297,10 @@
         <v>2217</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1">
         <v>0</v>
@@ -5373,13 +5373,13 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="BA29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB29" s="1">
         <v>0</v>
@@ -5441,19 +5441,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
         <v>117</v>
@@ -5465,10 +5465,10 @@
         <v>2217</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5481,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="1">
         <v>0</v>
@@ -5541,13 +5541,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -5611,15 +5611,17 @@
       <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <v>5486550</v>
+      </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
         <v>117</v>
@@ -5707,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="AK31" s="1">
         <v>1</v>
@@ -5752,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="AY31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ31" s="1">
         <v>0</v>
@@ -5778,13 +5780,13 @@
         <v>37</v>
       </c>
       <c r="C32" s="1">
-        <v>4680</v>
+        <v>12107</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
         <v>115</v>
@@ -5875,13 +5877,13 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>276</v>
+        <v>104</v>
       </c>
       <c r="AK32" s="1">
         <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -5920,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="AY32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ32" s="1">
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5943,19 +5945,17 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="1">
-        <v>165365057</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
         <v>117</v>
@@ -5967,10 +5967,10 @@
         <v>2217</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -6043,10 +6043,10 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>281</v>
+        <v>9</v>
       </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
         <v>1</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="1">
         <v>0</v>
@@ -6111,19 +6111,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>5462328</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
         <v>117</v>
@@ -6279,19 +6279,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F35" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
         <v>117</v>
@@ -6303,10 +6303,10 @@
         <v>2217</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6319,10 +6319,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -6379,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="1">
         <v>0</v>
@@ -6447,19 +6447,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
         <v>117</v>
@@ -6471,10 +6471,10 @@
         <v>2280</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6547,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
         <v>1</v>
@@ -6783,19 +6783,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s">
         <v>117</v>
@@ -6807,10 +6807,10 @@
         <v>2280</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6823,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="1">
         <v>0</v>
@@ -6883,13 +6883,13 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -6951,19 +6951,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G39" t="s">
         <v>117</v>
@@ -6975,10 +6975,10 @@
         <v>2280</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6991,10 +6991,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" s="1">
         <v>0</v>
@@ -7051,13 +7051,13 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -7119,19 +7119,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C40" s="1">
         <v>446220</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
         <v>117</v>
@@ -7287,19 +7287,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C41" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G41" t="s">
         <v>117</v>
@@ -7311,10 +7311,10 @@
         <v>2280</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -7387,10 +7387,10 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="AK41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="1">
         <v>1</v>
@@ -7467,7 +7467,7 @@
         <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
         <v>117</v>
@@ -7626,7 +7626,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="1">
-        <v>448223</v>
+        <v>119478</v>
       </c>
       <c r="D43" t="s">
         <v>72</v>
@@ -7792,7 +7792,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="1">
-        <v>119478</v>
+        <v>448223</v>
       </c>
       <c r="D44" t="s">
         <v>73</v>
@@ -7955,19 +7955,19 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C45" s="1">
         <v>446220</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
         <v>117</v>
@@ -8123,19 +8123,19 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
         <v>117</v>
@@ -8169,10 +8169,10 @@
         <v>0</v>
       </c>
       <c r="R46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="1">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="1">
         <v>0</v>
@@ -8223,13 +8223,13 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="AK46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="AX46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="1">
         <v>0</v>
@@ -8291,19 +8291,19 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G47" t="s">
         <v>117</v>
@@ -8331,10 +8331,10 @@
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="1">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z47" s="1">
         <v>0</v>
@@ -8391,13 +8391,13 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="AK47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="AX47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY47" s="1">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G48" t="s">
         <v>117</v>
@@ -8499,10 +8499,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK48" s="1">
         <v>1</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="1">
         <v>0</v>
@@ -8630,7 +8630,7 @@
         <v>25</v>
       </c>
       <c r="C49" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D49" t="s">
         <v>58</v>
@@ -8639,7 +8639,7 @@
         <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G49" t="s">
         <v>117</v>
@@ -8673,10 +8673,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AK49" s="1">
         <v>1</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="BA49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB49" s="1">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>103</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G50" t="s">
         <v>117</v>
@@ -8963,19 +8963,19 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C51" s="1">
-        <v>10836</v>
+        <v>6213</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G51" t="s">
         <v>117</v>
@@ -8987,10 +8987,10 @@
         <v>2750</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -9062,9 +9062,7 @@
       <c r="AI51" s="1">
         <v>0</v>
       </c>
-      <c r="AJ51" s="1">
-        <v>231</v>
-      </c>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1">
         <v>0</v>
       </c>
@@ -9131,19 +9129,19 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C52" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D52" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
         <v>117</v>
@@ -9155,10 +9153,10 @@
         <v>2750</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -9186,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -9230,7 +9228,9 @@
       <c r="AI52" s="1">
         <v>0</v>
       </c>
-      <c r="AJ52" s="1"/>
+      <c r="AJ52" s="1">
+        <v>231</v>
+      </c>
       <c r="AK52" s="1">
         <v>0</v>
       </c>
@@ -9299,12 +9299,14 @@
       <c r="B53" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1">
+        <v>68602</v>
+      </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F53" t="s">
         <v>115</v>
@@ -9389,13 +9391,13 @@
         <v>0</v>
       </c>
       <c r="AH53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="1">
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c r="AK53" s="1">
         <v>0</v>
@@ -9463,19 +9465,19 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C54" s="1">
-        <v>10836</v>
+        <v>21812144</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
         <v>117</v>
@@ -9487,10 +9489,10 @@
         <v>2751</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -9521,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" s="1">
         <v>0</v>
@@ -9563,13 +9565,13 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="AK54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM54" s="1">
         <v>0</v>
@@ -9617,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="BB54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC54" s="1">
         <v>0</v>
@@ -9631,19 +9633,19 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C55" s="1">
-        <v>12562546</v>
+        <v>4914</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
         <v>117</v>
@@ -9655,10 +9657,10 @@
         <v>2751</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -9731,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -9749,13 +9751,13 @@
         <v>0</v>
       </c>
       <c r="AP55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="1">
         <v>0</v>
       </c>
       <c r="AR55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="1">
         <v>0</v>
@@ -9773,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY55" s="1">
         <v>0</v>
@@ -9799,19 +9801,17 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="1">
-        <v>88890</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C56" s="1"/>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G56" t="s">
         <v>117</v>
@@ -9823,10 +9823,10 @@
         <v>2751</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9893,19 +9893,19 @@
         <v>0</v>
       </c>
       <c r="AH56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI56" s="1">
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AK56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="1">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="BA56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="1">
         <v>0</v>
@@ -9970,13 +9970,13 @@
         <v>46</v>
       </c>
       <c r="C57" s="1">
-        <v>68602</v>
+        <v>4914</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
         <v>115</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="AK57" s="1">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="AX57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY57" s="1">
         <v>0</v>
@@ -10135,19 +10135,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C58" s="1">
-        <v>5462328</v>
+        <v>6213</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G58" t="s">
         <v>117</v>
@@ -10234,14 +10234,12 @@
       <c r="AI58" s="1">
         <v>0</v>
       </c>
-      <c r="AJ58" s="1">
-        <v>201</v>
-      </c>
+      <c r="AJ58" s="1"/>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="1">
         <v>0</v>
@@ -10303,19 +10301,19 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C59" s="1">
-        <v>21812144</v>
+        <v>88890</v>
       </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G59" t="s">
         <v>117</v>
@@ -10403,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="AK59" s="1">
         <v>1</v>
@@ -10454,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="BA59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC59" s="1">
         <v>0</v>
@@ -10471,19 +10469,19 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C60" s="1">
-        <v>4914</v>
+        <v>62300</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G60" t="s">
         <v>117</v>
@@ -10495,10 +10493,10 @@
         <v>2751</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -10571,13 +10569,13 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AK60" s="1">
         <v>0</v>
       </c>
       <c r="AL60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -10613,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="AX60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="1">
         <v>0</v>
@@ -10639,19 +10637,19 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C61" s="1">
-        <v>6213</v>
+        <v>5462328</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G61" t="s">
         <v>117</v>
@@ -10738,12 +10736,14 @@
       <c r="AI61" s="1">
         <v>0</v>
       </c>
-      <c r="AJ61" s="1"/>
+      <c r="AJ61" s="1">
+        <v>201</v>
+      </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -10805,19 +10805,19 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C62" s="1">
-        <v>5707</v>
+        <v>12562546</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E62" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G62" t="s">
         <v>117</v>
@@ -10829,10 +10829,10 @@
         <v>2751</v>
       </c>
       <c r="J62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -10851,10 +10851,10 @@
         <v>0</v>
       </c>
       <c r="R62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>324</v>
+        <v>136</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10923,13 +10923,13 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
       </c>
       <c r="AR62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS62" s="1">
         <v>0</v>
@@ -10973,19 +10973,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C63" s="1">
-        <v>4914</v>
+        <v>3345</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F63" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G63" t="s">
         <v>117</v>
@@ -10997,10 +10997,10 @@
         <v>2751</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -11013,10 +11013,10 @@
         <v>0</v>
       </c>
       <c r="P63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
@@ -11073,13 +11073,13 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="AX63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY63" s="1">
         <v>0</v>
@@ -11141,19 +11141,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C64" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G64" t="s">
         <v>117</v>
@@ -11165,10 +11165,10 @@
         <v>2751</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -11181,10 +11181,10 @@
         <v>0</v>
       </c>
       <c r="P64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" s="1">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64" s="1">
         <v>0</v>
@@ -11241,13 +11241,13 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11309,19 +11309,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C65" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" t="s">
         <v>61</v>
-      </c>
-      <c r="E65" t="s">
-        <v>91</v>
-      </c>
-      <c r="F65" t="s">
-        <v>115</v>
       </c>
       <c r="G65" t="s">
         <v>117</v>
@@ -11333,10 +11333,10 @@
         <v>2751</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11355,10 +11355,10 @@
         <v>0</v>
       </c>
       <c r="R65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
@@ -11409,10 +11409,10 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>1</v>
@@ -11489,7 +11489,7 @@
         <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G66" t="s">
         <v>117</v>
@@ -11645,16 +11645,16 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C67" s="1">
-        <v>446220</v>
+        <v>21812144</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E67" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="1">
         <v>0</v>
@@ -11745,13 +11745,13 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AK67" s="1">
         <v>0</v>
       </c>
       <c r="AL67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM67" s="1">
         <v>0</v>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="BB67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC67" s="1">
         <v>0</v>
@@ -11813,14 +11813,16 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5486550</v>
+      </c>
       <c r="D68" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F68" t="s">
         <v>115</v>
@@ -11905,19 +11907,19 @@
         <v>0</v>
       </c>
       <c r="AH68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI68" s="1">
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="AK68" s="1">
         <v>0</v>
       </c>
       <c r="AL68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM68" s="1">
         <v>0</v>
@@ -11956,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ68" s="1">
         <v>0</v>
@@ -11979,19 +11981,19 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C69" s="1">
-        <v>12562546</v>
+        <v>5707</v>
       </c>
       <c r="D69" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G69" t="s">
         <v>117</v>
@@ -12025,10 +12027,10 @@
         <v>0</v>
       </c>
       <c r="R69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" s="1">
         <v>0</v>
@@ -12079,13 +12081,13 @@
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="AK69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -12094,16 +12096,16 @@
         <v>0</v>
       </c>
       <c r="AO69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS69" s="1">
         <v>0</v>
@@ -12147,16 +12149,16 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C70" s="1">
-        <v>21812144</v>
+        <v>88890</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E70" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F70" t="s">
         <v>115</v>
@@ -12247,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="AK70" s="1">
         <v>0</v>
@@ -12298,10 +12300,10 @@
         <v>0</v>
       </c>
       <c r="BA70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC70" s="1">
         <v>0</v>
@@ -12315,16 +12317,14 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1983</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C71" s="1"/>
       <c r="D71" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F71" t="s">
         <v>115</v>
@@ -12409,13 +12409,13 @@
         <v>0</v>
       </c>
       <c r="AH71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI71" s="1">
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="AK71" s="1">
         <v>0</v>
@@ -12483,19 +12483,19 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C72" s="1">
-        <v>62300</v>
+        <v>12562546</v>
       </c>
       <c r="D72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" t="s">
         <v>61</v>
-      </c>
-      <c r="E72" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" t="s">
-        <v>115</v>
       </c>
       <c r="G72" t="s">
         <v>117</v>
@@ -12507,10 +12507,10 @@
         <v>2753</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -12583,13 +12583,13 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="AK72" s="1">
         <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -12598,16 +12598,16 @@
         <v>0</v>
       </c>
       <c r="AO72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS72" s="1">
         <v>0</v>
@@ -12651,16 +12651,16 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C73" s="1">
         <v>5462507</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F73" t="s">
         <v>115</v>
@@ -12817,16 +12817,16 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C74" s="1">
-        <v>3676</v>
+        <v>62300</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F74" t="s">
         <v>115</v>
@@ -12917,13 +12917,13 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="1">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="AK74" s="1">
         <v>0</v>
       </c>
       <c r="AL74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM74" s="1">
         <v>0</v>
@@ -12959,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="AX74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="1">
         <v>0</v>
@@ -12985,16 +12985,16 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C75" s="1">
-        <v>10836</v>
+        <v>446220</v>
       </c>
       <c r="D75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s">
         <v>115</v>
@@ -13043,13 +13043,13 @@
         <v>0</v>
       </c>
       <c r="V75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75" s="1">
         <v>0</v>
       </c>
       <c r="X75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75" s="1">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="AJ75" s="1">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AK75" s="1">
         <v>0</v>
@@ -13153,19 +13153,19 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C76" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F76" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G76" t="s">
         <v>117</v>
@@ -13177,10 +13177,10 @@
         <v>2753</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -13253,10 +13253,10 @@
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="AK76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL76" s="1">
         <v>1</v>
@@ -13304,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="BA76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB76" s="1">
         <v>0</v>
@@ -13321,16 +13321,16 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C77" s="1">
-        <v>68602</v>
+        <v>33741</v>
       </c>
       <c r="D77" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F77" t="s">
         <v>115</v>
@@ -13400,7 +13400,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD77" s="1">
         <v>0</v>
@@ -13421,13 +13421,13 @@
         <v>0</v>
       </c>
       <c r="AJ77" s="1">
-        <v>224</v>
+        <v>313</v>
       </c>
       <c r="AK77" s="1">
         <v>0</v>
       </c>
       <c r="AL77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -13489,19 +13489,19 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C78" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D78" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E78" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G78" t="s">
         <v>117</v>
@@ -13529,16 +13529,16 @@
         <v>0</v>
       </c>
       <c r="P78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -13589,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="1">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="AK78" s="1">
         <v>1</v>
@@ -13657,16 +13657,16 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C79" s="1">
-        <v>5486550</v>
+        <v>1983</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E79" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F79" t="s">
         <v>115</v>
@@ -13757,13 +13757,13 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="1">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AK79" s="1">
         <v>0</v>
       </c>
       <c r="AL79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="AY79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ79" s="1">
         <v>0</v>
@@ -13825,19 +13825,19 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C80" s="1">
-        <v>5462328</v>
+        <v>68602</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E80" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G80" t="s">
         <v>117</v>
@@ -13849,10 +13849,10 @@
         <v>2753</v>
       </c>
       <c r="J80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1">
@@ -13925,13 +13925,13 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="AK80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>51</v>
       </c>
       <c r="C81" s="1">
-        <v>33741</v>
+        <v>3676</v>
       </c>
       <c r="D81" t="s">
         <v>82</v>
@@ -14072,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="AC81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD81" s="1">
         <v>0</v>
@@ -14093,13 +14093,13 @@
         <v>0</v>
       </c>
       <c r="AJ81" s="1">
-        <v>313</v>
+        <v>216</v>
       </c>
       <c r="AK81" s="1">
         <v>0</v>
       </c>
       <c r="AL81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81" s="1">
         <v>0</v>
@@ -14135,7 +14135,7 @@
         <v>0</v>
       </c>
       <c r="AX81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY81" s="1">
         <v>0</v>
@@ -14161,19 +14161,19 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C82" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D82" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E82" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G82" t="s">
         <v>117</v>
@@ -14185,10 +14185,10 @@
         <v>2753</v>
       </c>
       <c r="J82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
@@ -14201,10 +14201,10 @@
         <v>0</v>
       </c>
       <c r="P82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82" s="1">
         <v>0</v>
@@ -14219,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="V82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W82" s="1">
         <v>0</v>
@@ -14261,13 +14261,13 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82" s="1">
         <v>0</v>
@@ -14341,7 +14341,7 @@
         <v>86</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G83" t="s">
         <v>117</v>
@@ -14497,17 +14497,19 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3676</v>
+      </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G84" t="s">
         <v>117</v>
@@ -14589,13 +14591,13 @@
         <v>0</v>
       </c>
       <c r="AH84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ84" s="1">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="AK84" s="1">
         <v>0</v>
@@ -14637,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="AX84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY84" s="1">
         <v>0</v>
@@ -14663,19 +14665,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C85" s="1">
-        <v>6213</v>
+        <v>5707</v>
       </c>
       <c r="D85" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E85" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F85" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G85" t="s">
         <v>117</v>
@@ -14687,10 +14689,10 @@
         <v>2755</v>
       </c>
       <c r="J85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -14712,10 +14714,10 @@
         <v>0</v>
       </c>
       <c r="S85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U85" s="1">
         <v>0</v>
@@ -14762,12 +14764,14 @@
       <c r="AI85" s="1">
         <v>0</v>
       </c>
-      <c r="AJ85" s="1"/>
+      <c r="AJ85" s="1">
+        <v>324</v>
+      </c>
       <c r="AK85" s="1">
         <v>0</v>
       </c>
       <c r="AL85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -14829,19 +14833,17 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="1">
-        <v>3676</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C86" s="1"/>
       <c r="D86" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E86" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G86" t="s">
         <v>117</v>
@@ -14923,13 +14925,13 @@
         <v>0</v>
       </c>
       <c r="AH86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ86" s="1">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="AK86" s="1">
         <v>0</v>
@@ -14971,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="AX86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY86" s="1">
         <v>0</v>
@@ -14997,19 +14999,19 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C87" s="1">
-        <v>5707</v>
+        <v>68602</v>
       </c>
       <c r="D87" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E87" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F87" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G87" t="s">
         <v>117</v>
@@ -15021,10 +15023,10 @@
         <v>2755</v>
       </c>
       <c r="J87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1">
@@ -15046,10 +15048,10 @@
         <v>0</v>
       </c>
       <c r="S87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U87" s="1">
         <v>0</v>
@@ -15097,13 +15099,13 @@
         <v>0</v>
       </c>
       <c r="AJ87" s="1">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="AK87" s="1">
         <v>0</v>
       </c>
       <c r="AL87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87" s="1">
         <v>0</v>
@@ -15165,19 +15167,19 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C88" s="1">
-        <v>1983</v>
+        <v>6213</v>
       </c>
       <c r="D88" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F88" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G88" t="s">
         <v>117</v>
@@ -15189,10 +15191,10 @@
         <v>2755</v>
       </c>
       <c r="J88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1">
@@ -15264,9 +15266,7 @@
       <c r="AI88" s="1">
         <v>0</v>
       </c>
-      <c r="AJ88" s="1">
-        <v>114</v>
-      </c>
+      <c r="AJ88" s="1"/>
       <c r="AK88" s="1">
         <v>0</v>
       </c>
@@ -15333,19 +15333,19 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C89" s="1">
-        <v>68602</v>
+        <v>1983</v>
       </c>
       <c r="D89" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E89" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G89" t="s">
         <v>117</v>
@@ -15357,10 +15357,10 @@
         <v>2755</v>
       </c>
       <c r="J89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="AJ89" s="1">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="AK89" s="1">
         <v>0</v>
@@ -15501,19 +15501,19 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C90" s="1">
         <v>88890</v>
       </c>
       <c r="D90" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E90" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G90" t="s">
         <v>117</v>
@@ -15669,19 +15669,19 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C91" s="1">
         <v>3345</v>
       </c>
       <c r="D91" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G91" t="s">
         <v>117</v>
@@ -16005,19 +16005,19 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C93" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D93" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E93" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F93" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G93" t="s">
         <v>117</v>
@@ -16029,10 +16029,10 @@
         <v>2757</v>
       </c>
       <c r="J93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -16105,10 +16105,10 @@
         <v>0</v>
       </c>
       <c r="AJ93" s="1">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="AK93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93" s="1">
         <v>1</v>
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="AY93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ93" s="1">
         <v>0</v>
@@ -16173,19 +16173,19 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C94" s="1">
-        <v>26879</v>
+        <v>3345</v>
       </c>
       <c r="D94" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E94" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F94" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G94" t="s">
         <v>117</v>
@@ -16197,10 +16197,10 @@
         <v>2757</v>
       </c>
       <c r="J94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
@@ -16213,10 +16213,10 @@
         <v>0</v>
       </c>
       <c r="P94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94" s="1">
         <v>0</v>
@@ -16246,7 +16246,7 @@
         <v>0</v>
       </c>
       <c r="AA94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB94" s="1">
         <v>0</v>
@@ -16273,13 +16273,13 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="AK94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM94" s="1">
         <v>0</v>
@@ -16315,7 +16315,7 @@
         <v>0</v>
       </c>
       <c r="AX94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY94" s="1">
         <v>0</v>
@@ -16341,19 +16341,19 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C95" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E95" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F95" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G95" t="s">
         <v>117</v>
@@ -16365,10 +16365,10 @@
         <v>2757</v>
       </c>
       <c r="J95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="V95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W95" s="1">
         <v>0</v>
@@ -16441,13 +16441,13 @@
         <v>0</v>
       </c>
       <c r="AJ95" s="1">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="AK95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM95" s="1">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>0</v>
       </c>
       <c r="BA95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB95" s="1">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C96" s="1">
         <v>5462507</v>
       </c>
       <c r="D96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F96" t="s">
         <v>115</v>
@@ -16675,19 +16675,19 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C97" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D97" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E97" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F97" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G97" t="s">
         <v>117</v>
@@ -16699,10 +16699,10 @@
         <v>2757</v>
       </c>
       <c r="J97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1">
@@ -16733,7 +16733,7 @@
         <v>0</v>
       </c>
       <c r="V97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W97" s="1">
         <v>0</v>
@@ -16775,13 +16775,13 @@
         <v>0</v>
       </c>
       <c r="AJ97" s="1">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="AK97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM97" s="1">
         <v>0</v>
@@ -16826,7 +16826,7 @@
         <v>0</v>
       </c>
       <c r="BA97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB97" s="1">
         <v>0</v>
@@ -16843,19 +16843,19 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C98" s="1">
-        <v>3345</v>
+        <v>26879</v>
       </c>
       <c r="D98" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E98" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F98" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G98" t="s">
         <v>117</v>
@@ -16867,10 +16867,10 @@
         <v>2757</v>
       </c>
       <c r="J98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1">
@@ -16883,10 +16883,10 @@
         <v>0</v>
       </c>
       <c r="P98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98" s="1">
         <v>0</v>
@@ -16916,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="AA98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB98" s="1">
         <v>0</v>
@@ -16943,13 +16943,13 @@
         <v>0</v>
       </c>
       <c r="AJ98" s="1">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="AK98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM98" s="1">
         <v>0</v>
@@ -16985,7 +16985,7 @@
         <v>0</v>
       </c>
       <c r="AX98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY98" s="1">
         <v>0</v>
@@ -17011,19 +17011,19 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C99" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D99" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E99" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F99" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G99" t="s">
         <v>117</v>
@@ -17035,10 +17035,10 @@
         <v>2757</v>
       </c>
       <c r="J99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1">
@@ -17111,10 +17111,10 @@
         <v>0</v>
       </c>
       <c r="AJ99" s="1">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="AK99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL99" s="1">
         <v>1</v>
@@ -17156,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="AY99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ99" s="1">
         <v>0</v>
@@ -17179,19 +17179,19 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C100" s="1">
         <v>88890</v>
       </c>
       <c r="D100" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E100" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G100" t="s">
         <v>117</v>
@@ -17347,19 +17347,19 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C101" s="1">
         <v>3345</v>
       </c>
       <c r="D101" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E101" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G101" t="s">
         <v>117</v>
@@ -17515,19 +17515,19 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C102" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D102" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F102" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G102" t="s">
         <v>117</v>
@@ -17539,10 +17539,10 @@
         <v>2759</v>
       </c>
       <c r="J102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1">
@@ -17615,10 +17615,10 @@
         <v>0</v>
       </c>
       <c r="AJ102" s="1">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="AK102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL102" s="1">
         <v>1</v>
@@ -17660,7 +17660,7 @@
         <v>0</v>
       </c>
       <c r="AY102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ102" s="1">
         <v>0</v>
@@ -17683,19 +17683,19 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C103" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E103" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G103" t="s">
         <v>117</v>
@@ -17723,10 +17723,10 @@
         <v>0</v>
       </c>
       <c r="P103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R103" s="1">
         <v>0</v>
@@ -17783,7 +17783,7 @@
         <v>0</v>
       </c>
       <c r="AJ103" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK103" s="1">
         <v>1</v>
@@ -17834,7 +17834,7 @@
         <v>0</v>
       </c>
       <c r="BA103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB103" s="1">
         <v>0</v>
@@ -17851,19 +17851,19 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C104" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D104" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E104" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G104" t="s">
         <v>117</v>
@@ -17891,10 +17891,10 @@
         <v>0</v>
       </c>
       <c r="P104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R104" s="1">
         <v>0</v>
@@ -17951,7 +17951,7 @@
         <v>0</v>
       </c>
       <c r="AJ104" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK104" s="1">
         <v>1</v>
@@ -18002,7 +18002,7 @@
         <v>0</v>
       </c>
       <c r="BA104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB104" s="1">
         <v>0</v>
@@ -18019,16 +18019,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C105" s="1">
-        <v>5462507</v>
+        <v>26879</v>
       </c>
       <c r="D105" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E105" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F105" t="s">
         <v>115</v>
@@ -18092,7 +18092,7 @@
         <v>0</v>
       </c>
       <c r="AA105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB105" s="1">
         <v>0</v>
@@ -18118,7 +18118,9 @@
       <c r="AI105" s="1">
         <v>0</v>
       </c>
-      <c r="AJ105" s="1"/>
+      <c r="AJ105" s="1">
+        <v>214</v>
+      </c>
       <c r="AK105" s="1">
         <v>0</v>
       </c>
@@ -18159,7 +18161,7 @@
         <v>0</v>
       </c>
       <c r="AX105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY105" s="1">
         <v>0</v>
@@ -18185,16 +18187,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C106" s="1">
-        <v>26879</v>
+        <v>5486550</v>
       </c>
       <c r="D106" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E106" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F106" t="s">
         <v>115</v>
@@ -18258,7 +18260,7 @@
         <v>0</v>
       </c>
       <c r="AA106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB106" s="1">
         <v>0</v>
@@ -18285,13 +18287,13 @@
         <v>0</v>
       </c>
       <c r="AJ106" s="1">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="AK106" s="1">
         <v>0</v>
       </c>
       <c r="AL106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -18327,10 +18329,10 @@
         <v>0</v>
       </c>
       <c r="AX106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ106" s="1">
         <v>0</v>
@@ -18353,19 +18355,19 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C107" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D107" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E107" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F107" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="G107" t="s">
         <v>117</v>
@@ -18377,10 +18379,10 @@
         <v>2759</v>
       </c>
       <c r="J107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
@@ -18452,14 +18454,12 @@
       <c r="AI107" s="1">
         <v>0</v>
       </c>
-      <c r="AJ107" s="1">
-        <v>201</v>
-      </c>
+      <c r="AJ107" s="1"/>
       <c r="AK107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -18533,7 +18533,7 @@
         <v>86</v>
       </c>
       <c r="F108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G108" t="s">
         <v>117</v>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -87,16 +87,7 @@
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>quinine</t>
-  </si>
-  <si>
-    <t>p-fluorofentanyl</t>
   </si>
   <si>
     <t>phenethyl 4-ANPP</t>
@@ -105,46 +96,58 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>xylazine</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
+    <t>quinine</t>
+  </si>
+  <si>
     <t>caffeine</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-hydroxypiperidine</t>
+  </si>
+  <si>
+    <t>acetylcodeine</t>
   </si>
   <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>papaverine</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-hydroxypiperidine</t>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
     <t>acetyl fentanyl</t>
   </si>
   <si>
+    <t>benzoylecgonine (BZ)</t>
+  </si>
+  <si>
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
     <t>1,3-Diacetin</t>
   </si>
   <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+    <t>procaine</t>
   </si>
   <si>
     <t>medetomidine</t>
@@ -153,22 +156,19 @@
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
-    <t>procaine</t>
-  </si>
-  <si>
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
     <t>bromazolam</t>
   </si>
   <si>
-    <t>tramadol</t>
-  </si>
-  <si>
     <t>acetaminophen</t>
   </si>
   <si>
     <t>lidocaine</t>
+  </si>
+  <si>
+    <t>tramadol</t>
   </si>
   <si>
     <t>alprazolam</t>
@@ -186,16 +186,7 @@
     <t>537-46-2</t>
   </si>
   <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
     <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>72402-53-0</t>
-  </si>
-  <si>
-    <t>90736-23-5</t>
   </si>
   <si>
     <t/>
@@ -204,43 +195,55 @@
     <t>437-38-7</t>
   </si>
   <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
     <t>7361-61-7</t>
   </si>
   <si>
     <t>561-27-3</t>
   </si>
   <si>
+    <t>72402-53-0</t>
+  </si>
+  <si>
     <t>58-08-2</t>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>6703-27-1</t>
   </si>
   <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>1462260-87-2</t>
+    <t>620-71-3</t>
   </si>
   <si>
     <t>58-74-2</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
+    <t>1462260-87-2</t>
   </si>
   <si>
     <t>3258-84-2</t>
   </si>
   <si>
+    <t>519-09-5</t>
+  </si>
+  <si>
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>519-09-5</t>
+    <t>67-71-0</t>
   </si>
   <si>
     <t>105-70-4</t>
   </si>
   <si>
-    <t>67-71-0</t>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>86347-14-0</t>
@@ -249,19 +252,16 @@
     <t>122861-41-0</t>
   </si>
   <si>
-    <t>59-46-1</t>
-  </si>
-  <si>
     <t>71368-80-4</t>
-  </si>
-  <si>
-    <t>123154-38-1</t>
   </si>
   <si>
     <t>103-90-2</t>
   </si>
   <si>
     <t>137-58-6</t>
+  </si>
+  <si>
+    <t>123154-38-1</t>
   </si>
   <si>
     <t>28981-97-7</t>
@@ -276,19 +276,13 @@
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>A7V27PHC7A</t>
+    <t>UF599785JZ</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
+    <t>I5Y540LHVR</t>
   </si>
   <si>
     <t>2KFG9TP5V8</t>
@@ -297,37 +291,46 @@
     <t>70D95007SX</t>
   </si>
   <si>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
     <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>U59401ETXH</t>
   </si>
   <si>
     <t>M5E47P1ZCH</t>
   </si>
   <si>
-    <t>3D9E9KK5K5</t>
+    <t>UYP5ZQI00T</t>
   </si>
   <si>
     <t>DAA13NKG2Q</t>
   </si>
   <si>
-    <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
+    <t>3D9E9KK5K5</t>
   </si>
   <si>
     <t>6DZ28538KS</t>
   </si>
   <si>
+    <t>5353I8I6YS</t>
+  </si>
+  <si>
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
+    <t>9H4PO4Z4FT</t>
   </si>
   <si>
     <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>9H4PO4Z4FT</t>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>MR15E85MQM</t>
@@ -336,19 +339,16 @@
     <t>R8ZH1EQ95Y</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
-  </si>
-  <si>
     <t>YMC9OT97Z1</t>
-  </si>
-  <si>
-    <t>39J1LGJ30J</t>
   </si>
   <si>
     <t>362O9ITL9D</t>
   </si>
   <si>
     <t>98PI200987</t>
+  </si>
+  <si>
+    <t>39J1LGJ30J</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -751,7 +751,7 @@
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>117</v>
@@ -910,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -919,7 +919,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
         <v>117</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -1078,16 +1078,16 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
@@ -1099,10 +1099,10 @@
         <v>1313</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
         <v>1</v>
@@ -1246,16 +1246,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
         <v>117</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1343,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
@@ -1435,10 +1435,10 @@
         <v>1313</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
         <v>115</v>
@@ -1628,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="1">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
@@ -1759,7 +1759,7 @@
         <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
         <v>117</v>
@@ -1771,10 +1771,10 @@
         <v>1313</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1787,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>5707</v>
+        <v>3034034</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -1927,7 +1927,7 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
         <v>117</v>
@@ -1939,10 +1939,10 @@
         <v>1313</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1964,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -2015,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
       <c r="AL9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="1">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>5462328</v>
+        <v>2519</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
@@ -2183,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="1">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="AX10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="1">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>2519</v>
+        <v>62300</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
@@ -2351,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="AK11" s="1">
         <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>0</v>
@@ -2419,19 +2419,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
         <v>117</v>
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK12" s="1">
         <v>1</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="BA12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="1">
         <v>0</v>
@@ -2587,19 +2587,19 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
         <v>117</v>
@@ -2611,10 +2611,10 @@
         <v>1456</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>0</v>
@@ -2755,19 +2755,19 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>165365057</v>
+        <v>3034034</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
         <v>117</v>
@@ -2855,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="1">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2923,19 +2923,19 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
         <v>117</v>
@@ -2947,10 +2947,10 @@
         <v>1456</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -2972,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -3023,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -3091,19 +3091,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
         <v>117</v>
@@ -3115,10 +3115,10 @@
         <v>1456</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3140,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>1</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="1">
         <v>0</v>
@@ -3259,19 +3259,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
-        <v>3034034</v>
+        <v>5462328</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
         <v>117</v>
@@ -3283,10 +3283,10 @@
         <v>1456</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>294</v>
+        <v>201</v>
       </c>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17" s="1">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="AX17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>0</v>
@@ -3427,16 +3427,16 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1">
         <v>62300</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -3598,7 +3598,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="1">
-        <v>5462328</v>
+        <v>2519</v>
       </c>
       <c r="D19" t="s">
         <v>64</v>
@@ -3695,13 +3695,13 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="AK19" s="1">
         <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="1">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="1">
         <v>0</v>
@@ -3763,16 +3763,16 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
         <v>115</v>
@@ -3931,19 +3931,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <v>3034034</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
         <v>117</v>
@@ -4099,19 +4099,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
         <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
         <v>117</v>
@@ -4279,7 +4279,7 @@
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
         <v>117</v>
@@ -4437,17 +4437,15 @@
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="1">
-        <v>5462507</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
         <v>117</v>
@@ -4534,12 +4532,14 @@
       <c r="AI24" s="1">
         <v>0</v>
       </c>
-      <c r="AJ24" s="1"/>
+      <c r="AJ24" s="1">
+        <v>9</v>
+      </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4601,19 +4601,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
-        <v>91725431</v>
+        <v>5462328</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
         <v>117</v>
@@ -4625,10 +4625,10 @@
         <v>2217</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4701,13 +4701,13 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="1">
         <v>0</v>
@@ -4769,19 +4769,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
-        <v>4680</v>
+        <v>5486550</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -4793,10 +4793,10 @@
         <v>2217</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4869,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
         <v>1</v>
@@ -4937,19 +4937,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1">
-        <v>165365057</v>
+        <v>5462507</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
         <v>117</v>
@@ -4961,10 +4961,10 @@
         <v>2217</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -5036,14 +5036,12 @@
       <c r="AI27" s="1">
         <v>0</v>
       </c>
-      <c r="AJ27" s="1">
-        <v>281</v>
-      </c>
+      <c r="AJ27" s="1"/>
       <c r="AK27" s="1">
         <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="1">
         <v>0</v>
@@ -5088,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="1">
         <v>0</v>
@@ -5105,19 +5103,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <v>5707</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
         <v>117</v>
@@ -5273,19 +5271,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
         <v>117</v>
@@ -5297,10 +5295,10 @@
         <v>2217</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5373,13 +5371,13 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5441,19 +5439,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G30" t="s">
         <v>117</v>
@@ -5465,10 +5463,10 @@
         <v>2217</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5481,10 +5479,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -5499,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1">
         <v>0</v>
@@ -5541,13 +5539,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -5609,19 +5607,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1">
-        <v>5486550</v>
+        <v>165365057</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G31" t="s">
         <v>117</v>
@@ -5633,10 +5631,10 @@
         <v>2217</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5709,10 +5707,10 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
         <v>1</v>
@@ -5754,13 +5752,13 @@
         <v>0</v>
       </c>
       <c r="AY31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="1">
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5780,13 +5778,13 @@
         <v>37</v>
       </c>
       <c r="C32" s="1">
-        <v>12107</v>
+        <v>4680</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
         <v>115</v>
@@ -5877,13 +5875,13 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c r="AK32" s="1">
         <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -5922,13 +5920,13 @@
         <v>0</v>
       </c>
       <c r="AY32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ32" s="1">
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5945,17 +5943,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C33" s="1">
+        <v>88890</v>
+      </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
         <v>117</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="AK33" s="1">
         <v>1</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB33" s="1">
         <v>0</v>
@@ -6111,19 +6111,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1">
-        <v>5462328</v>
+        <v>91725431</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G34" t="s">
         <v>117</v>
@@ -6135,10 +6135,10 @@
         <v>2217</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -6211,13 +6211,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="1">
         <v>0</v>
@@ -6279,19 +6279,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G35" t="s">
         <v>117</v>
@@ -6303,10 +6303,10 @@
         <v>2217</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6319,10 +6319,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="1">
         <v>0</v>
@@ -6379,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -6447,19 +6447,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
         <v>117</v>
@@ -6471,10 +6471,10 @@
         <v>2280</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="1">
         <v>0</v>
@@ -6547,13 +6547,13 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="AK36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="1">
         <v>0</v>
@@ -6615,19 +6615,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1">
-        <v>527015</v>
+        <v>446220</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
         <v>117</v>
@@ -6639,10 +6639,10 @@
         <v>2280</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6676,10 +6676,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -6715,13 +6715,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="AK37" s="1">
         <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="BA37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="1">
         <v>0</v>
@@ -6783,19 +6783,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
-        <v>3345</v>
+        <v>527015</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
         <v>117</v>
@@ -6807,10 +6807,10 @@
         <v>2280</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6823,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -6883,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>1</v>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB38" s="1">
         <v>0</v>
@@ -6951,16 +6951,16 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1">
-        <v>10836</v>
+        <v>165365057</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
         <v>115</v>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="1">
         <v>0</v>
@@ -7051,13 +7051,13 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="AK39" s="1">
         <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB39" s="1">
         <v>0</v>
@@ -7119,19 +7119,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G40" t="s">
         <v>117</v>
@@ -7159,10 +7159,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -7180,10 +7180,10 @@
         <v>0</v>
       </c>
       <c r="W40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="1">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AK40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -7287,19 +7287,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
         <v>117</v>
@@ -7311,10 +7311,10 @@
         <v>2280</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -7387,10 +7387,10 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="AK41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="1">
         <v>1</v>
@@ -7467,7 +7467,7 @@
         <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G42" t="s">
         <v>117</v>
@@ -7623,19 +7623,19 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C43" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F43" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G43" t="s">
         <v>117</v>
@@ -7647,10 +7647,10 @@
         <v>2333</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7684,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -7722,7 +7722,9 @@
       <c r="AI43" s="1">
         <v>0</v>
       </c>
-      <c r="AJ43" s="1"/>
+      <c r="AJ43" s="1">
+        <v>150</v>
+      </c>
       <c r="AK43" s="1">
         <v>0</v>
       </c>
@@ -7789,16 +7791,16 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1">
         <v>448223</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
         <v>115</v>
@@ -7955,19 +7957,19 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G45" t="s">
         <v>117</v>
@@ -7979,10 +7981,10 @@
         <v>2333</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -8016,10 +8018,10 @@
         <v>0</v>
       </c>
       <c r="W45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="1">
         <v>0</v>
@@ -8054,9 +8056,7 @@
       <c r="AI45" s="1">
         <v>0</v>
       </c>
-      <c r="AJ45" s="1">
-        <v>150</v>
-      </c>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1">
         <v>0</v>
       </c>
@@ -8123,19 +8123,19 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" s="1">
-        <v>5707</v>
+        <v>2519</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G46" t="s">
         <v>117</v>
@@ -8169,10 +8169,10 @@
         <v>0</v>
       </c>
       <c r="R46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="1">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46" s="1">
         <v>0</v>
@@ -8223,13 +8223,13 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>324</v>
+        <v>140</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="AX46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY46" s="1">
         <v>0</v>
@@ -8291,19 +8291,19 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G47" t="s">
         <v>117</v>
@@ -8337,10 +8337,10 @@
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="1">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1">
         <v>0</v>
@@ -8391,13 +8391,13 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="AK47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="AX47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY47" s="1">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1">
         <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G48" t="s">
         <v>117</v>
@@ -8627,19 +8627,19 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" s="1">
         <v>88890</v>
       </c>
       <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" t="s">
         <v>58</v>
-      </c>
-      <c r="E49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" t="s">
-        <v>61</v>
       </c>
       <c r="G49" t="s">
         <v>117</v>
@@ -8798,7 +8798,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="1">
-        <v>66924</v>
+        <v>6213</v>
       </c>
       <c r="D50" t="s">
         <v>74</v>
@@ -8807,7 +8807,7 @@
         <v>103</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G50" t="s">
         <v>117</v>
@@ -8819,10 +8819,10 @@
         <v>2750</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -8894,9 +8894,7 @@
       <c r="AI50" s="1">
         <v>0</v>
       </c>
-      <c r="AJ50" s="1">
-        <v>2</v>
-      </c>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1">
         <v>0</v>
       </c>
@@ -8966,7 +8964,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="1">
-        <v>6213</v>
+        <v>66924</v>
       </c>
       <c r="D51" t="s">
         <v>75</v>
@@ -8975,7 +8973,7 @@
         <v>104</v>
       </c>
       <c r="F51" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G51" t="s">
         <v>117</v>
@@ -8987,10 +8985,10 @@
         <v>2750</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -9062,7 +9060,9 @@
       <c r="AI51" s="1">
         <v>0</v>
       </c>
-      <c r="AJ51" s="1"/>
+      <c r="AJ51" s="1">
+        <v>2</v>
+      </c>
       <c r="AK51" s="1">
         <v>0</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>86</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G52" t="s">
         <v>117</v>
@@ -9297,19 +9297,19 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1">
-        <v>68602</v>
+        <v>3345</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G53" t="s">
         <v>117</v>
@@ -9321,10 +9321,10 @@
         <v>2751</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -9337,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="P53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="1">
         <v>0</v>
@@ -9397,13 +9397,13 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM53" s="1">
         <v>0</v>
@@ -9465,19 +9465,19 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C54" s="1">
-        <v>21812144</v>
+        <v>5707</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G54" t="s">
         <v>117</v>
@@ -9511,10 +9511,10 @@
         <v>0</v>
       </c>
       <c r="R54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="1">
         <v>0</v>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>167</v>
+        <v>324</v>
       </c>
       <c r="AK54" s="1">
         <v>1</v>
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="BB54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC54" s="1">
         <v>0</v>
@@ -9633,19 +9633,19 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C55" s="1">
-        <v>4914</v>
+        <v>88890</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G55" t="s">
         <v>117</v>
@@ -9733,13 +9733,13 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="AK55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM55" s="1">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="1">
         <v>0</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB55" s="1">
         <v>0</v>
@@ -9801,14 +9801,16 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4914</v>
+      </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
         <v>115</v>
@@ -9893,13 +9895,13 @@
         <v>0</v>
       </c>
       <c r="AH56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI56" s="1">
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="AK56" s="1">
         <v>0</v>
@@ -9941,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="AX56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY56" s="1">
         <v>0</v>
@@ -9967,16 +9969,16 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1">
-        <v>4914</v>
+        <v>68602</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
         <v>115</v>
@@ -10067,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="AK57" s="1">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="AX57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY57" s="1">
         <v>0</v>
@@ -10135,19 +10137,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C58" s="1">
-        <v>6213</v>
+        <v>5462328</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G58" t="s">
         <v>117</v>
@@ -10234,12 +10236,14 @@
       <c r="AI58" s="1">
         <v>0</v>
       </c>
-      <c r="AJ58" s="1"/>
+      <c r="AJ58" s="1">
+        <v>201</v>
+      </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM58" s="1">
         <v>0</v>
@@ -10301,19 +10305,19 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C59" s="1">
-        <v>88890</v>
+        <v>21812144</v>
       </c>
       <c r="D59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" t="s">
         <v>58</v>
-      </c>
-      <c r="E59" t="s">
-        <v>88</v>
-      </c>
-      <c r="F59" t="s">
-        <v>61</v>
       </c>
       <c r="G59" t="s">
         <v>117</v>
@@ -10401,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="AK59" s="1">
         <v>1</v>
@@ -10452,10 +10456,10 @@
         <v>0</v>
       </c>
       <c r="BA59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC59" s="1">
         <v>0</v>
@@ -10469,16 +10473,16 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1">
         <v>62300</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F60" t="s">
         <v>115</v>
@@ -10637,19 +10641,17 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="1">
-        <v>5462328</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C61" s="1"/>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G61" t="s">
         <v>117</v>
@@ -10661,10 +10663,10 @@
         <v>2751</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -10731,19 +10733,19 @@
         <v>0</v>
       </c>
       <c r="AH61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI61" s="1">
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -10805,19 +10807,19 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C62" s="1">
-        <v>12562546</v>
+        <v>4914</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F62" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G62" t="s">
         <v>117</v>
@@ -10829,10 +10831,10 @@
         <v>2751</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -10905,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="AK62" s="1">
         <v>0</v>
@@ -10923,13 +10925,13 @@
         <v>0</v>
       </c>
       <c r="AP62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="1">
         <v>0</v>
       </c>
       <c r="AR62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS62" s="1">
         <v>0</v>
@@ -10947,7 +10949,7 @@
         <v>0</v>
       </c>
       <c r="AX62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY62" s="1">
         <v>0</v>
@@ -10973,19 +10975,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C63" s="1">
-        <v>3345</v>
+        <v>12562546</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G63" t="s">
         <v>117</v>
@@ -10997,10 +10999,10 @@
         <v>2751</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -11013,10 +11015,10 @@
         <v>0</v>
       </c>
       <c r="P63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
@@ -11073,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="AK63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -11091,13 +11093,13 @@
         <v>0</v>
       </c>
       <c r="AP63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ63" s="1">
         <v>0</v>
       </c>
       <c r="AR63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS63" s="1">
         <v>0</v>
@@ -11309,19 +11311,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C65" s="1">
-        <v>5707</v>
+        <v>6213</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G65" t="s">
         <v>117</v>
@@ -11355,10 +11357,10 @@
         <v>0</v>
       </c>
       <c r="R65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
@@ -11408,14 +11410,12 @@
       <c r="AI65" s="1">
         <v>0</v>
       </c>
-      <c r="AJ65" s="1">
-        <v>324</v>
-      </c>
+      <c r="AJ65" s="1"/>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -11489,7 +11489,7 @@
         <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G66" t="s">
         <v>117</v>
@@ -11645,16 +11645,16 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C67" s="1">
-        <v>21812144</v>
+        <v>1983</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
@@ -11745,13 +11745,13 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="AK67" s="1">
         <v>0</v>
       </c>
       <c r="AL67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="1">
         <v>0</v>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="BB67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC67" s="1">
         <v>0</v>
@@ -11813,16 +11813,14 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" s="1">
-        <v>5486550</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="F68" t="s">
         <v>115</v>
@@ -11907,19 +11905,19 @@
         <v>0</v>
       </c>
       <c r="AH68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI68" s="1">
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="AK68" s="1">
         <v>0</v>
       </c>
       <c r="AL68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68" s="1">
         <v>0</v>
@@ -11958,7 +11956,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ68" s="1">
         <v>0</v>
@@ -11981,19 +11979,19 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C69" s="1">
-        <v>5707</v>
+        <v>5486550</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G69" t="s">
         <v>117</v>
@@ -12005,10 +12003,10 @@
         <v>2753</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
@@ -12027,10 +12025,10 @@
         <v>0</v>
       </c>
       <c r="R69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T69" s="1">
         <v>0</v>
@@ -12081,10 +12079,10 @@
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>324</v>
+        <v>119</v>
       </c>
       <c r="AK69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="1">
         <v>1</v>
@@ -12126,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="AY69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ69" s="1">
         <v>0</v>
@@ -12149,16 +12147,16 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C70" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D70" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E70" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F70" t="s">
         <v>115</v>
@@ -12249,13 +12247,13 @@
         <v>0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="AK70" s="1">
         <v>0</v>
       </c>
       <c r="AL70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70" s="1">
         <v>0</v>
@@ -12291,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="AX70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY70" s="1">
         <v>0</v>
@@ -12300,7 +12298,7 @@
         <v>0</v>
       </c>
       <c r="BA70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB70" s="1">
         <v>0</v>
@@ -12317,17 +12315,19 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5462328</v>
+      </c>
       <c r="D71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E71" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="F71" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G71" t="s">
         <v>117</v>
@@ -12339,10 +12339,10 @@
         <v>2753</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -12409,19 +12409,19 @@
         <v>0</v>
       </c>
       <c r="AH71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI71" s="1">
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="AK71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM71" s="1">
         <v>0</v>
@@ -12483,19 +12483,19 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C72" s="1">
-        <v>12562546</v>
+        <v>33741</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G72" t="s">
         <v>117</v>
@@ -12507,10 +12507,10 @@
         <v>2753</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -12562,7 +12562,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD72" s="1">
         <v>0</v>
@@ -12583,13 +12583,13 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="AK72" s="1">
         <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -12598,16 +12598,16 @@
         <v>0</v>
       </c>
       <c r="AO72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS72" s="1">
         <v>0</v>
@@ -12651,16 +12651,16 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C73" s="1">
-        <v>5462507</v>
+        <v>68602</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F73" t="s">
         <v>115</v>
@@ -12750,7 +12750,9 @@
       <c r="AI73" s="1">
         <v>0</v>
       </c>
-      <c r="AJ73" s="1"/>
+      <c r="AJ73" s="1">
+        <v>224</v>
+      </c>
       <c r="AK73" s="1">
         <v>0</v>
       </c>
@@ -12817,16 +12819,16 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C74" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D74" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E74" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s">
         <v>115</v>
@@ -12917,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="1">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="AK74" s="1">
         <v>0</v>
@@ -12968,7 +12970,7 @@
         <v>0</v>
       </c>
       <c r="BA74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB74" s="1">
         <v>0</v>
@@ -12985,16 +12987,16 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C75" s="1">
-        <v>446220</v>
+        <v>5462507</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F75" t="s">
         <v>115</v>
@@ -13049,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y75" s="1">
         <v>0</v>
@@ -13084,9 +13086,7 @@
       <c r="AI75" s="1">
         <v>0</v>
       </c>
-      <c r="AJ75" s="1">
-        <v>150</v>
-      </c>
+      <c r="AJ75" s="1"/>
       <c r="AK75" s="1">
         <v>0</v>
       </c>
@@ -13153,19 +13153,19 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C76" s="1">
-        <v>5462328</v>
+        <v>12562546</v>
       </c>
       <c r="D76" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G76" t="s">
         <v>117</v>
@@ -13253,13 +13253,13 @@
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="AK76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76" s="1">
         <v>0</v>
@@ -13268,16 +13268,16 @@
         <v>0</v>
       </c>
       <c r="AO76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS76" s="1">
         <v>0</v>
@@ -13321,19 +13321,19 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C77" s="1">
-        <v>33741</v>
+        <v>5707</v>
       </c>
       <c r="D77" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E77" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F77" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G77" t="s">
         <v>117</v>
@@ -13345,10 +13345,10 @@
         <v>2753</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -13367,10 +13367,10 @@
         <v>0</v>
       </c>
       <c r="R77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77" s="1">
         <v>0</v>
@@ -13400,7 +13400,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD77" s="1">
         <v>0</v>
@@ -13421,10 +13421,10 @@
         <v>0</v>
       </c>
       <c r="AJ77" s="1">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AK77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL77" s="1">
         <v>1</v>
@@ -13489,19 +13489,19 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C78" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D78" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E78" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G78" t="s">
         <v>117</v>
@@ -13513,10 +13513,10 @@
         <v>2753</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -13529,10 +13529,10 @@
         <v>0</v>
       </c>
       <c r="P78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" s="1">
         <v>0</v>
@@ -13547,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="V78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W78" s="1">
         <v>0</v>
@@ -13589,13 +13589,13 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -13657,16 +13657,16 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C79" s="1">
-        <v>1983</v>
+        <v>62300</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E79" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F79" t="s">
         <v>115</v>
@@ -13757,13 +13757,13 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="1">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c r="AK79" s="1">
         <v>0</v>
       </c>
       <c r="AL79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -13825,16 +13825,16 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C80" s="1">
-        <v>68602</v>
+        <v>21812144</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E80" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F80" t="s">
         <v>115</v>
@@ -13925,13 +13925,13 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="AK80" s="1">
         <v>0</v>
       </c>
       <c r="AL80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -13979,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="BB80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC80" s="1">
         <v>0</v>
@@ -13993,16 +13993,16 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C81" s="1">
-        <v>3676</v>
+        <v>446220</v>
       </c>
       <c r="D81" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F81" t="s">
         <v>115</v>
@@ -14057,7 +14057,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y81" s="1">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="AJ81" s="1">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="AK81" s="1">
         <v>0</v>
@@ -14135,7 +14135,7 @@
         <v>0</v>
       </c>
       <c r="AX81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY81" s="1">
         <v>0</v>
@@ -14161,19 +14161,19 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C82" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E82" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F82" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G82" t="s">
         <v>117</v>
@@ -14185,10 +14185,10 @@
         <v>2753</v>
       </c>
       <c r="J82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
@@ -14201,10 +14201,10 @@
         <v>0</v>
       </c>
       <c r="P82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" s="1">
         <v>0</v>
@@ -14219,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="V82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W82" s="1">
         <v>0</v>
@@ -14261,13 +14261,13 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="AK82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM82" s="1">
         <v>0</v>
@@ -14341,7 +14341,7 @@
         <v>86</v>
       </c>
       <c r="F83" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G83" t="s">
         <v>117</v>
@@ -14497,19 +14497,19 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C84" s="1">
         <v>3676</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F84" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G84" t="s">
         <v>117</v>
@@ -14665,16 +14665,16 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C85" s="1">
-        <v>5707</v>
+        <v>1983</v>
       </c>
       <c r="D85" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E85" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F85" t="s">
         <v>115</v>
@@ -14714,10 +14714,10 @@
         <v>0</v>
       </c>
       <c r="S85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85" s="1">
         <v>0</v>
@@ -14765,13 +14765,13 @@
         <v>0</v>
       </c>
       <c r="AJ85" s="1">
-        <v>324</v>
+        <v>114</v>
       </c>
       <c r="AK85" s="1">
         <v>0</v>
       </c>
       <c r="AL85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -14833,17 +14833,19 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3345</v>
+      </c>
       <c r="D86" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E86" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F86" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G86" t="s">
         <v>117</v>
@@ -14871,10 +14873,10 @@
         <v>0</v>
       </c>
       <c r="P86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86" s="1">
         <v>0</v>
@@ -14925,19 +14927,19 @@
         <v>0</v>
       </c>
       <c r="AH86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ86" s="1">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="AK86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM86" s="1">
         <v>0</v>
@@ -14999,19 +15001,19 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C87" s="1">
-        <v>68602</v>
+        <v>6213</v>
       </c>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E87" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F87" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G87" t="s">
         <v>117</v>
@@ -15098,9 +15100,7 @@
       <c r="AI87" s="1">
         <v>0</v>
       </c>
-      <c r="AJ87" s="1">
-        <v>224</v>
-      </c>
+      <c r="AJ87" s="1"/>
       <c r="AK87" s="1">
         <v>0</v>
       </c>
@@ -15167,19 +15167,19 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C88" s="1">
-        <v>6213</v>
+        <v>5707</v>
       </c>
       <c r="D88" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E88" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F88" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G88" t="s">
         <v>117</v>
@@ -15191,10 +15191,10 @@
         <v>2755</v>
       </c>
       <c r="J88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1">
@@ -15216,10 +15216,10 @@
         <v>0</v>
       </c>
       <c r="S88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U88" s="1">
         <v>0</v>
@@ -15266,12 +15266,14 @@
       <c r="AI88" s="1">
         <v>0</v>
       </c>
-      <c r="AJ88" s="1"/>
+      <c r="AJ88" s="1">
+        <v>324</v>
+      </c>
       <c r="AK88" s="1">
         <v>0</v>
       </c>
       <c r="AL88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM88" s="1">
         <v>0</v>
@@ -15333,19 +15335,17 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1983</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C89" s="1"/>
       <c r="D89" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E89" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="F89" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G89" t="s">
         <v>117</v>
@@ -15357,10 +15357,10 @@
         <v>2755</v>
       </c>
       <c r="J89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1">
@@ -15427,13 +15427,13 @@
         <v>0</v>
       </c>
       <c r="AH89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ89" s="1">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="AK89" s="1">
         <v>0</v>
@@ -15501,19 +15501,19 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C90" s="1">
-        <v>88890</v>
+        <v>68602</v>
       </c>
       <c r="D90" t="s">
+        <v>77</v>
+      </c>
+      <c r="E90" t="s">
+        <v>106</v>
+      </c>
+      <c r="F90" t="s">
         <v>58</v>
-      </c>
-      <c r="E90" t="s">
-        <v>88</v>
-      </c>
-      <c r="F90" t="s">
-        <v>61</v>
       </c>
       <c r="G90" t="s">
         <v>117</v>
@@ -15601,13 +15601,13 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="1">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AK90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
       <c r="BA90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB90" s="1">
         <v>0</v>
@@ -15669,19 +15669,19 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C91" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D91" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E91" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F91" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G91" t="s">
         <v>117</v>
@@ -15709,10 +15709,10 @@
         <v>0</v>
       </c>
       <c r="P91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91" s="1">
         <v>0</v>
@@ -15769,7 +15769,7 @@
         <v>0</v>
       </c>
       <c r="AJ91" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK91" s="1">
         <v>1</v>
@@ -15820,7 +15820,7 @@
         <v>0</v>
       </c>
       <c r="BA91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB91" s="1">
         <v>0</v>
@@ -16005,19 +16005,19 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C93" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E93" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F93" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G93" t="s">
         <v>117</v>
@@ -16029,10 +16029,10 @@
         <v>2757</v>
       </c>
       <c r="J93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -16105,10 +16105,10 @@
         <v>0</v>
       </c>
       <c r="AJ93" s="1">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="AK93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL93" s="1">
         <v>1</v>
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="AY93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ93" s="1">
         <v>0</v>
@@ -16173,19 +16173,19 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C94" s="1">
-        <v>3345</v>
+        <v>5486550</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E94" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F94" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G94" t="s">
         <v>117</v>
@@ -16197,10 +16197,10 @@
         <v>2757</v>
       </c>
       <c r="J94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
@@ -16213,10 +16213,10 @@
         <v>0</v>
       </c>
       <c r="P94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94" s="1">
         <v>0</v>
@@ -16273,10 +16273,10 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="AK94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94" s="1">
         <v>1</v>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="AY94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ94" s="1">
         <v>0</v>
@@ -16341,19 +16341,19 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C95" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E95" t="s">
         <v>88</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G95" t="s">
         <v>117</v>
@@ -16381,10 +16381,10 @@
         <v>0</v>
       </c>
       <c r="P95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R95" s="1">
         <v>0</v>
@@ -16441,7 +16441,7 @@
         <v>0</v>
       </c>
       <c r="AJ95" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK95" s="1">
         <v>1</v>
@@ -16492,7 +16492,7 @@
         <v>0</v>
       </c>
       <c r="BA95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB95" s="1">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C96" s="1">
-        <v>5462507</v>
+        <v>10836</v>
       </c>
       <c r="D96" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E96" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F96" t="s">
         <v>115</v>
@@ -16567,7 +16567,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W96" s="1">
         <v>0</v>
@@ -16608,7 +16608,9 @@
       <c r="AI96" s="1">
         <v>0</v>
       </c>
-      <c r="AJ96" s="1"/>
+      <c r="AJ96" s="1">
+        <v>231</v>
+      </c>
       <c r="AK96" s="1">
         <v>0</v>
       </c>
@@ -16675,16 +16677,16 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C97" s="1">
-        <v>10836</v>
+        <v>26879</v>
       </c>
       <c r="D97" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E97" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F97" t="s">
         <v>115</v>
@@ -16733,7 +16735,7 @@
         <v>0</v>
       </c>
       <c r="V97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W97" s="1">
         <v>0</v>
@@ -16748,7 +16750,7 @@
         <v>0</v>
       </c>
       <c r="AA97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB97" s="1">
         <v>0</v>
@@ -16775,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="AJ97" s="1">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="AK97" s="1">
         <v>0</v>
@@ -16817,7 +16819,7 @@
         <v>0</v>
       </c>
       <c r="AX97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY97" s="1">
         <v>0</v>
@@ -16843,19 +16845,19 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C98" s="1">
-        <v>26879</v>
+        <v>88890</v>
       </c>
       <c r="D98" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E98" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F98" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G98" t="s">
         <v>117</v>
@@ -16867,10 +16869,10 @@
         <v>2757</v>
       </c>
       <c r="J98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1">
@@ -16916,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="AA98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB98" s="1">
         <v>0</v>
@@ -16943,13 +16945,13 @@
         <v>0</v>
       </c>
       <c r="AJ98" s="1">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="AK98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM98" s="1">
         <v>0</v>
@@ -16985,7 +16987,7 @@
         <v>0</v>
       </c>
       <c r="AX98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY98" s="1">
         <v>0</v>
@@ -16994,7 +16996,7 @@
         <v>0</v>
       </c>
       <c r="BA98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB98" s="1">
         <v>0</v>
@@ -17011,19 +17013,19 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C99" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D99" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E99" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F99" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G99" t="s">
         <v>117</v>
@@ -17035,10 +17037,10 @@
         <v>2757</v>
       </c>
       <c r="J99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1">
@@ -17110,14 +17112,12 @@
       <c r="AI99" s="1">
         <v>0</v>
       </c>
-      <c r="AJ99" s="1">
-        <v>201</v>
-      </c>
+      <c r="AJ99" s="1"/>
       <c r="AK99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99" s="1">
         <v>0</v>
@@ -17179,19 +17179,19 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C100" s="1">
         <v>88890</v>
       </c>
       <c r="D100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E100" t="s">
+        <v>87</v>
+      </c>
+      <c r="F100" t="s">
         <v>58</v>
-      </c>
-      <c r="E100" t="s">
-        <v>88</v>
-      </c>
-      <c r="F100" t="s">
-        <v>61</v>
       </c>
       <c r="G100" t="s">
         <v>117</v>
@@ -17347,19 +17347,19 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C101" s="1">
         <v>3345</v>
       </c>
       <c r="D101" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E101" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F101" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G101" t="s">
         <v>117</v>
@@ -17515,19 +17515,19 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C102" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D102" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E102" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F102" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G102" t="s">
         <v>117</v>
@@ -17539,10 +17539,10 @@
         <v>2759</v>
       </c>
       <c r="J102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1">
@@ -17614,14 +17614,12 @@
       <c r="AI102" s="1">
         <v>0</v>
       </c>
-      <c r="AJ102" s="1">
-        <v>201</v>
-      </c>
+      <c r="AJ102" s="1"/>
       <c r="AK102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM102" s="1">
         <v>0</v>
@@ -17683,19 +17681,19 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C103" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D103" t="s">
+        <v>62</v>
+      </c>
+      <c r="E103" t="s">
+        <v>91</v>
+      </c>
+      <c r="F103" t="s">
         <v>58</v>
-      </c>
-      <c r="E103" t="s">
-        <v>88</v>
-      </c>
-      <c r="F103" t="s">
-        <v>61</v>
       </c>
       <c r="G103" t="s">
         <v>117</v>
@@ -17783,7 +17781,7 @@
         <v>0</v>
       </c>
       <c r="AJ103" s="1">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="AK103" s="1">
         <v>1</v>
@@ -17834,7 +17832,7 @@
         <v>0</v>
       </c>
       <c r="BA103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB103" s="1">
         <v>0</v>
@@ -17851,19 +17849,19 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C104" s="1">
-        <v>3345</v>
+        <v>26879</v>
       </c>
       <c r="D104" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E104" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="F104" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G104" t="s">
         <v>117</v>
@@ -17875,10 +17873,10 @@
         <v>2759</v>
       </c>
       <c r="J104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1">
@@ -17891,10 +17889,10 @@
         <v>0</v>
       </c>
       <c r="P104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R104" s="1">
         <v>0</v>
@@ -17924,7 +17922,7 @@
         <v>0</v>
       </c>
       <c r="AA104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB104" s="1">
         <v>0</v>
@@ -17951,13 +17949,13 @@
         <v>0</v>
       </c>
       <c r="AJ104" s="1">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="AK104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -17993,7 +17991,7 @@
         <v>0</v>
       </c>
       <c r="AX104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY104" s="1">
         <v>0</v>
@@ -18019,19 +18017,19 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C105" s="1">
-        <v>26879</v>
+        <v>88890</v>
       </c>
       <c r="D105" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E105" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F105" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G105" t="s">
         <v>117</v>
@@ -18043,10 +18041,10 @@
         <v>2759</v>
       </c>
       <c r="J105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1">
@@ -18092,7 +18090,7 @@
         <v>0</v>
       </c>
       <c r="AA105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB105" s="1">
         <v>0</v>
@@ -18119,13 +18117,13 @@
         <v>0</v>
       </c>
       <c r="AJ105" s="1">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="AK105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM105" s="1">
         <v>0</v>
@@ -18161,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="AX105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY105" s="1">
         <v>0</v>
@@ -18170,7 +18168,7 @@
         <v>0</v>
       </c>
       <c r="BA105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB105" s="1">
         <v>0</v>
@@ -18187,16 +18185,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C106" s="1">
         <v>5486550</v>
       </c>
       <c r="D106" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E106" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F106" t="s">
         <v>115</v>
@@ -18355,19 +18353,19 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C107" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D107" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E107" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F107" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G107" t="s">
         <v>117</v>
@@ -18379,10 +18377,10 @@
         <v>2759</v>
       </c>
       <c r="J107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
@@ -18395,10 +18393,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -18454,12 +18452,14 @@
       <c r="AI107" s="1">
         <v>0</v>
       </c>
-      <c r="AJ107" s="1"/>
+      <c r="AJ107" s="1">
+        <v>191</v>
+      </c>
       <c r="AK107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -18533,7 +18533,7 @@
         <v>86</v>
       </c>
       <c r="F108" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G108" t="s">
         <v>117</v>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -87,24 +87,6 @@
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
     <t>quinine</t>
   </si>
   <si>
@@ -114,7 +96,31 @@
     <t>p-fluorofentanyl</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
     <t>1-phenethyl-4-hydroxypiperidine</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>acetylcodeine</t>
@@ -123,13 +129,7 @@
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
     <t>papaverine</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
     <t>acetyl fentanyl</t>
@@ -141,10 +141,10 @@
     <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+    <t>1,3-Diacetin</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
     <t>procaine</t>
@@ -162,13 +162,13 @@
     <t>bromazolam</t>
   </si>
   <si>
+    <t>tramadol</t>
+  </si>
+  <si>
     <t>acetaminophen</t>
   </si>
   <si>
     <t>lidocaine</t>
-  </si>
-  <si>
-    <t>tramadol</t>
   </si>
   <si>
     <t>alprazolam</t>
@@ -186,24 +186,6 @@
     <t>537-46-2</t>
   </si>
   <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
     <t>72402-53-0</t>
   </si>
   <si>
@@ -213,19 +195,37 @@
     <t>90736-23-5</t>
   </si>
   <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>1462260-87-2</t>
+  </si>
+  <si>
+    <t>620-71-3</t>
+  </si>
+  <si>
     <t>6703-27-1</t>
   </si>
   <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
     <t>58-74-2</t>
-  </si>
-  <si>
-    <t>1462260-87-2</t>
   </si>
   <si>
     <t>3258-84-2</t>
@@ -237,10 +237,10 @@
     <t>43021-26-7</t>
   </si>
   <si>
-    <t>67-71-0</t>
+    <t>105-70-4</t>
   </si>
   <si>
-    <t>105-70-4</t>
+    <t>67-71-0</t>
   </si>
   <si>
     <t>59-46-1</t>
@@ -255,13 +255,13 @@
     <t>71368-80-4</t>
   </si>
   <si>
+    <t>123154-38-1</t>
+  </si>
+  <si>
     <t>103-90-2</t>
   </si>
   <si>
     <t>137-58-6</t>
-  </si>
-  <si>
-    <t>123154-38-1</t>
   </si>
   <si>
     <t>28981-97-7</t>
@@ -276,21 +276,6 @@
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
-    <t>I5Y540LHVR</t>
-  </si>
-  <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>70D95007SX</t>
-  </si>
-  <si>
     <t>A7V27PHC7A</t>
   </si>
   <si>
@@ -300,19 +285,34 @@
     <t>I45R05QM0Z</t>
   </si>
   <si>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>I5Y540LHVR</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
+  </si>
+  <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>3D9E9KK5K5</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
+  </si>
+  <si>
     <t>U59401ETXH</t>
   </si>
   <si>
     <t>M5E47P1ZCH</t>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
     <t>DAA13NKG2Q</t>
-  </si>
-  <si>
-    <t>3D9E9KK5K5</t>
   </si>
   <si>
     <t>6DZ28538KS</t>
@@ -324,10 +324,10 @@
     <t>58C337KP3E</t>
   </si>
   <si>
-    <t>9H4PO4Z4FT</t>
+    <t>G45CU3Z186</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
+    <t>9H4PO4Z4FT</t>
   </si>
   <si>
     <t>4Z8Y51M438</t>
@@ -342,13 +342,13 @@
     <t>YMC9OT97Z1</t>
   </si>
   <si>
+    <t>39J1LGJ30J</t>
+  </si>
+  <si>
     <t>362O9ITL9D</t>
   </si>
   <si>
     <t>98PI200987</t>
-  </si>
-  <si>
-    <t>39J1LGJ30J</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -751,7 +751,7 @@
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>117</v>
@@ -910,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -919,7 +919,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
         <v>117</v>
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="1">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -1078,13 +1078,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>165365057</v>
+        <v>2519</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>115</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="1">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1246,16 +1246,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
         <v>117</v>
@@ -1267,10 +1267,10 @@
         <v>1313</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>1</v>
@@ -1414,16 +1414,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
         <v>117</v>
@@ -1603,10 +1603,10 @@
         <v>1313</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1628,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1679,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>115</v>
@@ -1918,16 +1918,16 @@
         <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>3034034</v>
+        <v>165365057</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
         <v>117</v>
@@ -1939,10 +1939,10 @@
         <v>1313</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -2015,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
       <c r="AL9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="1">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" s="1">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="AX10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
@@ -2263,7 +2263,7 @@
         <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
         <v>117</v>
@@ -2275,10 +2275,10 @@
         <v>1313</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
         <v>1</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="1">
         <v>0</v>
@@ -2419,19 +2419,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
         <v>117</v>
@@ -2443,10 +2443,10 @@
         <v>1456</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="1">
         <v>0</v>
@@ -2519,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>1</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="BA12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="1">
         <v>0</v>
@@ -2587,19 +2587,19 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
         <v>117</v>
@@ -2611,10 +2611,10 @@
         <v>1456</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="1">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="1">
         <v>0</v>
@@ -2755,19 +2755,19 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>3034034</v>
       </c>
       <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
         <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
       </c>
       <c r="G14" t="s">
         <v>117</v>
@@ -2923,19 +2923,19 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
         <v>117</v>
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="AK15" s="1">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -3091,19 +3091,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
         <v>117</v>
@@ -3115,10 +3115,10 @@
         <v>1456</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3140,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>1</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="1">
         <v>0</v>
@@ -3259,19 +3259,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
         <v>117</v>
@@ -3283,10 +3283,10 @@
         <v>1456</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3359,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
         <v>1</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="1">
         <v>0</v>
@@ -3427,16 +3427,16 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="AK18" s="1">
         <v>0</v>
@@ -3595,16 +3595,16 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
-        <v>2519</v>
+        <v>62300</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -3695,13 +3695,13 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="AK19" s="1">
         <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19" s="1">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>0</v>
@@ -3763,19 +3763,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
         <v>117</v>
@@ -3787,10 +3787,10 @@
         <v>1471</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3863,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>1</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="1">
         <v>0</v>
@@ -3931,19 +3931,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
-        <v>3034034</v>
+        <v>88890</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
         <v>117</v>
@@ -3955,10 +3955,10 @@
         <v>1471</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21" s="1">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="1">
         <v>0</v>
@@ -4099,19 +4099,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
-        <v>3345</v>
+        <v>3034034</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
         <v>117</v>
@@ -4139,10 +4139,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -4199,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="1">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>117</v>
@@ -4437,15 +4437,17 @@
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>91725431</v>
+      </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s">
         <v>117</v>
@@ -4457,10 +4459,10 @@
         <v>2217</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -4533,13 +4535,13 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4601,19 +4603,17 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5462328</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
         <v>117</v>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>201</v>
+        <v>9</v>
       </c>
       <c r="AK25" s="1">
         <v>1</v>
@@ -4769,19 +4769,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1">
-        <v>5486550</v>
+        <v>12107</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -4793,10 +4793,10 @@
         <v>2217</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4869,13 +4869,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4914,13 +4914,13 @@
         <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="1">
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4937,19 +4937,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
         <v>117</v>
@@ -4977,10 +4977,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -5036,12 +5036,14 @@
       <c r="AI27" s="1">
         <v>0</v>
       </c>
-      <c r="AJ27" s="1"/>
+      <c r="AJ27" s="1">
+        <v>191</v>
+      </c>
       <c r="AK27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27" s="1">
         <v>0</v>
@@ -5103,19 +5105,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
         <v>5707</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
         <v>117</v>
@@ -5274,7 +5276,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="1">
-        <v>12107</v>
+        <v>5486550</v>
       </c>
       <c r="D29" t="s">
         <v>68</v>
@@ -5283,7 +5285,7 @@
         <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
         <v>117</v>
@@ -5295,10 +5297,10 @@
         <v>2217</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5371,13 +5373,13 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5416,13 +5418,13 @@
         <v>0</v>
       </c>
       <c r="AY29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ29" s="1">
         <v>0</v>
       </c>
       <c r="BA29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="1">
         <v>0</v>
@@ -5439,19 +5441,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
         <v>117</v>
@@ -5463,10 +5465,10 @@
         <v>2217</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5479,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -5497,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="1">
         <v>0</v>
@@ -5539,13 +5541,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -5607,19 +5609,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
         <v>117</v>
@@ -5631,10 +5633,10 @@
         <v>2217</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5707,10 +5709,10 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="AK31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="1">
         <v>1</v>
@@ -5778,7 +5780,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="1">
-        <v>4680</v>
+        <v>5462507</v>
       </c>
       <c r="D32" t="s">
         <v>69</v>
@@ -5787,7 +5789,7 @@
         <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
         <v>117</v>
@@ -5799,10 +5801,10 @@
         <v>2217</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5874,14 +5876,12 @@
       <c r="AI32" s="1">
         <v>0</v>
       </c>
-      <c r="AJ32" s="1">
-        <v>276</v>
-      </c>
+      <c r="AJ32" s="1"/>
       <c r="AK32" s="1">
         <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="AY32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ32" s="1">
         <v>0</v>
@@ -5943,19 +5943,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1">
-        <v>88890</v>
+        <v>4680</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
         <v>117</v>
@@ -5967,10 +5967,10 @@
         <v>2217</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -6043,10 +6043,10 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
         <v>1</v>
@@ -6088,13 +6088,13 @@
         <v>0</v>
       </c>
       <c r="AY33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ33" s="1">
         <v>0</v>
       </c>
       <c r="BA33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="1">
         <v>0</v>
@@ -6111,16 +6111,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1">
-        <v>91725431</v>
+        <v>165365057</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
         <v>115</v>
@@ -6211,13 +6211,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="AK34" s="1">
         <v>0</v>
       </c>
       <c r="AL34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34" s="1">
         <v>0</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="BA34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB34" s="1">
         <v>0</v>
@@ -6279,19 +6279,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1">
-        <v>10836</v>
+        <v>5462328</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
         <v>117</v>
@@ -6303,10 +6303,10 @@
         <v>2217</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="1">
         <v>0</v>
@@ -6379,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -6447,19 +6447,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
         <v>117</v>
@@ -6471,10 +6471,10 @@
         <v>2280</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6487,10 +6487,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="1">
         <v>0</v>
@@ -6547,13 +6547,13 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -6615,19 +6615,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G37" t="s">
         <v>117</v>
@@ -6639,10 +6639,10 @@
         <v>2280</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6676,10 +6676,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -6715,13 +6715,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="AK37" s="1">
         <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="BA37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB37" s="1">
         <v>0</v>
@@ -6783,16 +6783,16 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1">
-        <v>527015</v>
+        <v>10836</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s">
         <v>115</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="1">
         <v>0</v>
@@ -6883,13 +6883,13 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="AK38" s="1">
         <v>0</v>
       </c>
       <c r="AL38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="1">
         <v>0</v>
@@ -6951,16 +6951,16 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1">
-        <v>165365057</v>
+        <v>527015</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="F39" t="s">
         <v>115</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>281</v>
+        <v>118</v>
       </c>
       <c r="AK39" s="1">
         <v>0</v>
@@ -7119,19 +7119,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
         <v>117</v>
@@ -7159,10 +7159,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -7180,10 +7180,10 @@
         <v>0</v>
       </c>
       <c r="W40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" s="1">
         <v>0</v>
@@ -7219,13 +7219,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AK40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -7287,19 +7287,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C41" s="1">
         <v>88890</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
         <v>117</v>
@@ -7467,7 +7467,7 @@
         <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
         <v>117</v>
@@ -7623,19 +7623,19 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1">
-        <v>446220</v>
+        <v>448223</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G43" t="s">
         <v>117</v>
@@ -7647,10 +7647,10 @@
         <v>2333</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7684,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -7722,9 +7722,7 @@
       <c r="AI43" s="1">
         <v>0</v>
       </c>
-      <c r="AJ43" s="1">
-        <v>150</v>
-      </c>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1">
         <v>0</v>
       </c>
@@ -7791,16 +7789,16 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1">
-        <v>448223</v>
+        <v>119478</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
         <v>115</v>
@@ -7957,19 +7955,19 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F45" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G45" t="s">
         <v>117</v>
@@ -7981,10 +7979,10 @@
         <v>2333</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -8018,10 +8016,10 @@
         <v>0</v>
       </c>
       <c r="W45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45" s="1">
         <v>0</v>
@@ -8056,7 +8054,9 @@
       <c r="AI45" s="1">
         <v>0</v>
       </c>
-      <c r="AJ45" s="1"/>
+      <c r="AJ45" s="1">
+        <v>150</v>
+      </c>
       <c r="AK45" s="1">
         <v>0</v>
       </c>
@@ -8123,19 +8123,19 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C46" s="1">
         <v>2519</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
         <v>117</v>
@@ -8291,19 +8291,19 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
         <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
         <v>117</v>
@@ -8331,16 +8331,16 @@
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="1">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="AK47" s="1">
         <v>1</v>
@@ -8459,19 +8459,19 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G48" t="s">
         <v>117</v>
@@ -8499,10 +8499,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK48" s="1">
         <v>1</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB48" s="1">
         <v>0</v>
@@ -8627,19 +8627,19 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C49" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
         <v>117</v>
@@ -8673,10 +8673,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AK49" s="1">
         <v>1</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="BA49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="1">
         <v>0</v>
@@ -8795,19 +8795,19 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C50" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G50" t="s">
         <v>117</v>
@@ -8816,13 +8816,13 @@
         <v>45649</v>
       </c>
       <c r="I50" s="1">
-        <v>2750</v>
+        <v>2754</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
@@ -8850,10 +8850,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -8894,7 +8894,9 @@
       <c r="AI50" s="1">
         <v>0</v>
       </c>
-      <c r="AJ50" s="1"/>
+      <c r="AJ50" s="1">
+        <v>231</v>
+      </c>
       <c r="AK50" s="1">
         <v>0</v>
       </c>
@@ -8961,19 +8963,19 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="1">
         <v>66924</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G51" t="s">
         <v>117</v>
@@ -8982,7 +8984,7 @@
         <v>45649</v>
       </c>
       <c r="I51" s="1">
-        <v>2750</v>
+        <v>2754</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -9129,19 +9131,19 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C52" s="1">
-        <v>10836</v>
+        <v>6213</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G52" t="s">
         <v>117</v>
@@ -9150,13 +9152,13 @@
         <v>45649</v>
       </c>
       <c r="I52" s="1">
-        <v>2750</v>
+        <v>2754</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -9184,10 +9186,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -9228,9 +9230,7 @@
       <c r="AI52" s="1">
         <v>0</v>
       </c>
-      <c r="AJ52" s="1">
-        <v>231</v>
-      </c>
+      <c r="AJ52" s="1"/>
       <c r="AK52" s="1">
         <v>0</v>
       </c>
@@ -9297,19 +9297,19 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G53" t="s">
         <v>117</v>
@@ -9318,13 +9318,13 @@
         <v>45664</v>
       </c>
       <c r="I53" s="1">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -9337,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="P53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" s="1">
         <v>0</v>
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W53" s="1">
         <v>0</v>
@@ -9397,13 +9397,13 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="1">
         <v>0</v>
@@ -9465,19 +9465,19 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
         <v>90</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
         <v>117</v>
@@ -9486,7 +9486,7 @@
         <v>45664</v>
       </c>
       <c r="I54" s="1">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -9505,16 +9505,16 @@
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" s="1">
         <v>0</v>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="AK54" s="1">
         <v>1</v>
@@ -9633,19 +9633,19 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C55" s="1">
-        <v>88890</v>
+        <v>4914</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E55" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G55" t="s">
         <v>117</v>
@@ -9654,13 +9654,13 @@
         <v>45664</v>
       </c>
       <c r="I55" s="1">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
@@ -9733,13 +9733,13 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="AK55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="1">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY55" s="1">
         <v>0</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="1">
         <v>0</v>
@@ -9801,16 +9801,16 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C56" s="1">
-        <v>4914</v>
+        <v>62300</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F56" t="s">
         <v>115</v>
@@ -9822,7 +9822,7 @@
         <v>45664</v>
       </c>
       <c r="I56" s="1">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
@@ -9901,13 +9901,13 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AK56" s="1">
         <v>0</v>
       </c>
       <c r="AL56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM56" s="1">
         <v>0</v>
@@ -9943,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="AX56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY56" s="1">
         <v>0</v>
@@ -9990,7 +9990,7 @@
         <v>45664</v>
       </c>
       <c r="I57" s="1">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="J57" s="1">
         <v>0</v>
@@ -10137,19 +10137,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C58" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G58" t="s">
         <v>117</v>
@@ -10158,7 +10158,7 @@
         <v>45664</v>
       </c>
       <c r="I58" s="1">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AK58" s="1">
         <v>1</v>
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB58" s="1">
         <v>0</v>
@@ -10317,7 +10317,7 @@
         <v>107</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G59" t="s">
         <v>117</v>
@@ -10326,7 +10326,7 @@
         <v>45664</v>
       </c>
       <c r="I59" s="1">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -10473,16 +10473,14 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="1">
-        <v>62300</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C60" s="1"/>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="F60" t="s">
         <v>115</v>
@@ -10494,7 +10492,7 @@
         <v>45664</v>
       </c>
       <c r="I60" s="1">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="J60" s="1">
         <v>0</v>
@@ -10567,19 +10565,19 @@
         <v>0</v>
       </c>
       <c r="AH60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="1">
         <v>0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>275</v>
+        <v>135</v>
       </c>
       <c r="AK60" s="1">
         <v>0</v>
       </c>
       <c r="AL60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -10641,14 +10639,16 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C61" s="1">
+        <v>12562546</v>
+      </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="F61" t="s">
         <v>115</v>
@@ -10660,7 +10660,7 @@
         <v>45664</v>
       </c>
       <c r="I61" s="1">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
@@ -10733,13 +10733,13 @@
         <v>0</v>
       </c>
       <c r="AH61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="1">
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK61" s="1">
         <v>0</v>
@@ -10757,13 +10757,13 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
       </c>
       <c r="AR61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS61" s="1">
         <v>0</v>
@@ -10807,19 +10807,19 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C62" s="1">
-        <v>4914</v>
+        <v>5707</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G62" t="s">
         <v>117</v>
@@ -10828,7 +10828,7 @@
         <v>45664</v>
       </c>
       <c r="I62" s="1">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -10853,10 +10853,10 @@
         <v>0</v>
       </c>
       <c r="R62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
@@ -10907,13 +10907,13 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10949,7 +10949,7 @@
         <v>0</v>
       </c>
       <c r="AX62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="1">
         <v>0</v>
@@ -10975,19 +10975,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C63" s="1">
-        <v>12562546</v>
+        <v>6213</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F63" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G63" t="s">
         <v>117</v>
@@ -10996,13 +10996,13 @@
         <v>45664</v>
       </c>
       <c r="I63" s="1">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
@@ -11074,9 +11074,7 @@
       <c r="AI63" s="1">
         <v>0</v>
       </c>
-      <c r="AJ63" s="1">
-        <v>136</v>
-      </c>
+      <c r="AJ63" s="1"/>
       <c r="AK63" s="1">
         <v>0</v>
       </c>
@@ -11093,13 +11091,13 @@
         <v>0</v>
       </c>
       <c r="AP63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63" s="1">
         <v>0</v>
       </c>
       <c r="AR63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS63" s="1">
         <v>0</v>
@@ -11143,19 +11141,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C64" s="1">
-        <v>10836</v>
+        <v>5462328</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F64" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G64" t="s">
         <v>117</v>
@@ -11164,13 +11162,13 @@
         <v>45664</v>
       </c>
       <c r="I64" s="1">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -11201,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64" s="1">
         <v>0</v>
@@ -11243,13 +11241,13 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11311,19 +11309,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C65" s="1">
-        <v>6213</v>
+        <v>4914</v>
       </c>
       <c r="D65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E65" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G65" t="s">
         <v>117</v>
@@ -11332,7 +11330,7 @@
         <v>45664</v>
       </c>
       <c r="I65" s="1">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="J65" s="1">
         <v>1</v>
@@ -11410,7 +11408,9 @@
       <c r="AI65" s="1">
         <v>0</v>
       </c>
-      <c r="AJ65" s="1"/>
+      <c r="AJ65" s="1">
+        <v>287</v>
+      </c>
       <c r="AK65" s="1">
         <v>0</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY65" s="1">
         <v>0</v>
@@ -11489,7 +11489,7 @@
         <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G66" t="s">
         <v>117</v>
@@ -11498,7 +11498,7 @@
         <v>45664</v>
       </c>
       <c r="I66" s="1">
-        <v>2752</v>
+        <v>2756</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -11645,16 +11645,16 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C67" s="1">
-        <v>1983</v>
+        <v>21812144</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
@@ -11666,7 +11666,7 @@
         <v>45665</v>
       </c>
       <c r="I67" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -11745,13 +11745,13 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="AK67" s="1">
         <v>0</v>
       </c>
       <c r="AL67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM67" s="1">
         <v>0</v>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="BB67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC67" s="1">
         <v>0</v>
@@ -11813,14 +11813,16 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C68" s="1">
+        <v>88890</v>
+      </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F68" t="s">
         <v>115</v>
@@ -11832,7 +11834,7 @@
         <v>45665</v>
       </c>
       <c r="I68" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -11905,19 +11907,19 @@
         <v>0</v>
       </c>
       <c r="AH68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI68" s="1">
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AK68" s="1">
         <v>0</v>
       </c>
       <c r="AL68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM68" s="1">
         <v>0</v>
@@ -11962,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB68" s="1">
         <v>0</v>
@@ -11979,16 +11981,14 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="1">
-        <v>5486550</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C69" s="1"/>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E69" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="F69" t="s">
         <v>115</v>
@@ -12000,7 +12000,7 @@
         <v>45665</v>
       </c>
       <c r="I69" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
@@ -12073,19 +12073,19 @@
         <v>0</v>
       </c>
       <c r="AH69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI69" s="1">
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="AK69" s="1">
         <v>0</v>
       </c>
       <c r="AL69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="AY69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ69" s="1">
         <v>0</v>
@@ -12147,16 +12147,16 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C70" s="1">
-        <v>3676</v>
+        <v>5462507</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F70" t="s">
         <v>115</v>
@@ -12168,7 +12168,7 @@
         <v>45665</v>
       </c>
       <c r="I70" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -12246,9 +12246,7 @@
       <c r="AI70" s="1">
         <v>0</v>
       </c>
-      <c r="AJ70" s="1">
-        <v>216</v>
-      </c>
+      <c r="AJ70" s="1"/>
       <c r="AK70" s="1">
         <v>0</v>
       </c>
@@ -12289,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="AX70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY70" s="1">
         <v>0</v>
@@ -12315,19 +12313,19 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C71" s="1">
-        <v>5462328</v>
+        <v>33741</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G71" t="s">
         <v>117</v>
@@ -12336,13 +12334,13 @@
         <v>45665</v>
       </c>
       <c r="I71" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -12394,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD71" s="1">
         <v>0</v>
@@ -12415,10 +12413,10 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="AK71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="1">
         <v>1</v>
@@ -12483,16 +12481,16 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C72" s="1">
-        <v>33741</v>
+        <v>446220</v>
       </c>
       <c r="D72" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F72" t="s">
         <v>115</v>
@@ -12504,7 +12502,7 @@
         <v>45665</v>
       </c>
       <c r="I72" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -12547,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72" s="1">
         <v>0</v>
@@ -12562,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD72" s="1">
         <v>0</v>
@@ -12583,13 +12581,13 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <v>313</v>
+        <v>150</v>
       </c>
       <c r="AK72" s="1">
         <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -12651,19 +12649,19 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C73" s="1">
-        <v>68602</v>
+        <v>12562546</v>
       </c>
       <c r="D73" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E73" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F73" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G73" t="s">
         <v>117</v>
@@ -12672,13 +12670,13 @@
         <v>45665</v>
       </c>
       <c r="I73" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -12751,7 +12749,7 @@
         <v>0</v>
       </c>
       <c r="AJ73" s="1">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="AK73" s="1">
         <v>0</v>
@@ -12766,16 +12764,16 @@
         <v>0</v>
       </c>
       <c r="AO73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS73" s="1">
         <v>0</v>
@@ -12819,16 +12817,16 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C74" s="1">
-        <v>88890</v>
+        <v>1983</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E74" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="F74" t="s">
         <v>115</v>
@@ -12840,7 +12838,7 @@
         <v>45665</v>
       </c>
       <c r="I74" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -12919,13 +12917,13 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="1">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="AK74" s="1">
         <v>0</v>
       </c>
       <c r="AL74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74" s="1">
         <v>0</v>
@@ -12970,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="BA74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB74" s="1">
         <v>0</v>
@@ -12987,16 +12985,16 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C75" s="1">
-        <v>5462507</v>
+        <v>3676</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E75" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F75" t="s">
         <v>115</v>
@@ -13008,7 +13006,7 @@
         <v>45665</v>
       </c>
       <c r="I75" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -13086,7 +13084,9 @@
       <c r="AI75" s="1">
         <v>0</v>
       </c>
-      <c r="AJ75" s="1"/>
+      <c r="AJ75" s="1">
+        <v>216</v>
+      </c>
       <c r="AK75" s="1">
         <v>0</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="AX75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY75" s="1">
         <v>0</v>
@@ -13153,19 +13153,19 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C76" s="1">
-        <v>12562546</v>
+        <v>68602</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F76" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G76" t="s">
         <v>117</v>
@@ -13174,13 +13174,13 @@
         <v>45665</v>
       </c>
       <c r="I76" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -13253,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="AK76" s="1">
         <v>0</v>
@@ -13268,16 +13268,16 @@
         <v>0</v>
       </c>
       <c r="AO76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS76" s="1">
         <v>0</v>
@@ -13321,19 +13321,19 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C77" s="1">
-        <v>5707</v>
+        <v>5486550</v>
       </c>
       <c r="D77" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E77" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F77" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G77" t="s">
         <v>117</v>
@@ -13342,13 +13342,13 @@
         <v>45665</v>
       </c>
       <c r="I77" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
@@ -13367,10 +13367,10 @@
         <v>0</v>
       </c>
       <c r="R77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77" s="1">
         <v>0</v>
@@ -13421,10 +13421,10 @@
         <v>0</v>
       </c>
       <c r="AJ77" s="1">
-        <v>324</v>
+        <v>119</v>
       </c>
       <c r="AK77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77" s="1">
         <v>1</v>
@@ -13466,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="AY77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ77" s="1">
         <v>0</v>
@@ -13489,16 +13489,16 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C78" s="1">
-        <v>10836</v>
+        <v>62300</v>
       </c>
       <c r="D78" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E78" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F78" t="s">
         <v>115</v>
@@ -13510,7 +13510,7 @@
         <v>45665</v>
       </c>
       <c r="I78" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
@@ -13547,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="V78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W78" s="1">
         <v>0</v>
@@ -13589,13 +13589,13 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="1">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="AK78" s="1">
         <v>0</v>
       </c>
       <c r="AL78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -13657,16 +13657,16 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C79" s="1">
-        <v>62300</v>
+        <v>10836</v>
       </c>
       <c r="D79" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E79" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F79" t="s">
         <v>115</v>
@@ -13678,7 +13678,7 @@
         <v>45665</v>
       </c>
       <c r="I79" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
@@ -13715,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="V79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W79" s="1">
         <v>0</v>
@@ -13757,13 +13757,13 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="1">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="AK79" s="1">
         <v>0</v>
       </c>
       <c r="AL79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -13825,19 +13825,19 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C80" s="1">
-        <v>21812144</v>
+        <v>3345</v>
       </c>
       <c r="D80" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E80" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F80" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G80" t="s">
         <v>117</v>
@@ -13846,13 +13846,13 @@
         <v>45665</v>
       </c>
       <c r="I80" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1">
@@ -13865,10 +13865,10 @@
         <v>0</v>
       </c>
       <c r="P80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" s="1">
         <v>0</v>
@@ -13925,10 +13925,10 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL80" s="1">
         <v>1</v>
@@ -13979,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="BB80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC80" s="1">
         <v>0</v>
@@ -13993,19 +13993,19 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C81" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D81" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E81" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F81" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G81" t="s">
         <v>117</v>
@@ -14014,13 +14014,13 @@
         <v>45665</v>
       </c>
       <c r="I81" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
@@ -14039,10 +14039,10 @@
         <v>0</v>
       </c>
       <c r="R81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81" s="1">
         <v>0</v>
@@ -14057,7 +14057,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="1">
         <v>0</v>
@@ -14093,13 +14093,13 @@
         <v>0</v>
       </c>
       <c r="AJ81" s="1">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="AK81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM81" s="1">
         <v>0</v>
@@ -14161,19 +14161,19 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C82" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D82" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E82" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F82" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G82" t="s">
         <v>117</v>
@@ -14182,7 +14182,7 @@
         <v>45665</v>
       </c>
       <c r="I82" s="1">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="J82" s="1">
         <v>1</v>
@@ -14201,10 +14201,10 @@
         <v>0</v>
       </c>
       <c r="P82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82" s="1">
         <v>0</v>
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AK82" s="1">
         <v>1</v>
@@ -14341,7 +14341,7 @@
         <v>86</v>
       </c>
       <c r="F83" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G83" t="s">
         <v>117</v>
@@ -14350,7 +14350,7 @@
         <v>45649</v>
       </c>
       <c r="I83" s="1">
-        <v>2754</v>
+        <v>2758</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -14497,19 +14497,19 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C84" s="1">
         <v>3676</v>
       </c>
       <c r="D84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F84" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G84" t="s">
         <v>117</v>
@@ -14518,7 +14518,7 @@
         <v>45602</v>
       </c>
       <c r="I84" s="1">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="J84" s="1">
         <v>1</v>
@@ -14665,19 +14665,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C85" s="1">
-        <v>1983</v>
+        <v>3345</v>
       </c>
       <c r="D85" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E85" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F85" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G85" t="s">
         <v>117</v>
@@ -14686,13 +14686,13 @@
         <v>45602</v>
       </c>
       <c r="I85" s="1">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="J85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -14705,10 +14705,10 @@
         <v>0</v>
       </c>
       <c r="P85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" s="1">
         <v>0</v>
@@ -14765,13 +14765,13 @@
         <v>0</v>
       </c>
       <c r="AJ85" s="1">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="AK85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -14833,19 +14833,17 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
-      </c>
-      <c r="C86" s="1">
-        <v>3345</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C86" s="1"/>
       <c r="D86" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E86" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F86" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G86" t="s">
         <v>117</v>
@@ -14854,7 +14852,7 @@
         <v>45602</v>
       </c>
       <c r="I86" s="1">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="J86" s="1">
         <v>1</v>
@@ -14873,10 +14871,10 @@
         <v>0</v>
       </c>
       <c r="P86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86" s="1">
         <v>0</v>
@@ -14927,19 +14925,19 @@
         <v>0</v>
       </c>
       <c r="AH86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ86" s="1">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="AK86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86" s="1">
         <v>0</v>
@@ -15001,19 +14999,19 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C87" s="1">
-        <v>6213</v>
+        <v>68602</v>
       </c>
       <c r="D87" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E87" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F87" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G87" t="s">
         <v>117</v>
@@ -15022,7 +15020,7 @@
         <v>45602</v>
       </c>
       <c r="I87" s="1">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -15100,7 +15098,9 @@
       <c r="AI87" s="1">
         <v>0</v>
       </c>
-      <c r="AJ87" s="1"/>
+      <c r="AJ87" s="1">
+        <v>224</v>
+      </c>
       <c r="AK87" s="1">
         <v>0</v>
       </c>
@@ -15167,16 +15167,16 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C88" s="1">
-        <v>5707</v>
+        <v>1983</v>
       </c>
       <c r="D88" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E88" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F88" t="s">
         <v>115</v>
@@ -15188,7 +15188,7 @@
         <v>45602</v>
       </c>
       <c r="I88" s="1">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="J88" s="1">
         <v>0</v>
@@ -15216,10 +15216,10 @@
         <v>0</v>
       </c>
       <c r="S88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U88" s="1">
         <v>0</v>
@@ -15267,13 +15267,13 @@
         <v>0</v>
       </c>
       <c r="AJ88" s="1">
-        <v>324</v>
+        <v>114</v>
       </c>
       <c r="AK88" s="1">
         <v>0</v>
       </c>
       <c r="AL88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88" s="1">
         <v>0</v>
@@ -15335,17 +15335,19 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
-      </c>
-      <c r="C89" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C89" s="1">
+        <v>6213</v>
+      </c>
       <c r="D89" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="F89" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G89" t="s">
         <v>117</v>
@@ -15354,7 +15356,7 @@
         <v>45602</v>
       </c>
       <c r="I89" s="1">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -15427,14 +15429,12 @@
         <v>0</v>
       </c>
       <c r="AH89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI89" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ89" s="1">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="1"/>
       <c r="AK89" s="1">
         <v>0</v>
       </c>
@@ -15501,19 +15501,19 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C90" s="1">
-        <v>68602</v>
+        <v>5707</v>
       </c>
       <c r="D90" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G90" t="s">
         <v>117</v>
@@ -15522,13 +15522,13 @@
         <v>45602</v>
       </c>
       <c r="I90" s="1">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="J90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1">
@@ -15550,10 +15550,10 @@
         <v>0</v>
       </c>
       <c r="S90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U90" s="1">
         <v>0</v>
@@ -15601,13 +15601,13 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="1">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="AK90" s="1">
         <v>0</v>
       </c>
       <c r="AL90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -15669,19 +15669,19 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C91" s="1">
         <v>88890</v>
       </c>
       <c r="D91" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E91" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F91" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G91" t="s">
         <v>117</v>
@@ -15690,7 +15690,7 @@
         <v>45602</v>
       </c>
       <c r="I91" s="1">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="J91" s="1">
         <v>1</v>
@@ -15858,7 +15858,7 @@
         <v>45611</v>
       </c>
       <c r="I92" s="1">
-        <v>2756</v>
+        <v>2760</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
@@ -16005,19 +16005,19 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C93" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D93" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E93" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F93" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G93" t="s">
         <v>117</v>
@@ -16026,13 +16026,13 @@
         <v>45666</v>
       </c>
       <c r="I93" s="1">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="J93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -16105,10 +16105,10 @@
         <v>0</v>
       </c>
       <c r="AJ93" s="1">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="AK93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93" s="1">
         <v>1</v>
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="AY93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ93" s="1">
         <v>0</v>
@@ -16173,19 +16173,19 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C94" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F94" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G94" t="s">
         <v>117</v>
@@ -16194,13 +16194,13 @@
         <v>45666</v>
       </c>
       <c r="I94" s="1">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="J94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
@@ -16273,10 +16273,10 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="AK94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL94" s="1">
         <v>1</v>
@@ -16318,13 +16318,13 @@
         <v>0</v>
       </c>
       <c r="AY94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ94" s="1">
         <v>0</v>
       </c>
       <c r="BA94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB94" s="1">
         <v>0</v>
@@ -16341,19 +16341,19 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C95" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D95" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E95" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F95" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G95" t="s">
         <v>117</v>
@@ -16362,13 +16362,13 @@
         <v>45666</v>
       </c>
       <c r="I95" s="1">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="J95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
@@ -16381,10 +16381,10 @@
         <v>0</v>
       </c>
       <c r="P95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95" s="1">
         <v>0</v>
@@ -16440,14 +16440,12 @@
       <c r="AI95" s="1">
         <v>0</v>
       </c>
-      <c r="AJ95" s="1">
-        <v>191</v>
-      </c>
+      <c r="AJ95" s="1"/>
       <c r="AK95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM95" s="1">
         <v>0</v>
@@ -16509,19 +16507,19 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C96" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D96" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E96" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F96" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G96" t="s">
         <v>117</v>
@@ -16530,13 +16528,13 @@
         <v>45666</v>
       </c>
       <c r="I96" s="1">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="J96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1">
@@ -16549,10 +16547,10 @@
         <v>0</v>
       </c>
       <c r="P96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96" s="1">
         <v>0</v>
@@ -16567,7 +16565,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W96" s="1">
         <v>0</v>
@@ -16609,13 +16607,13 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="1">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="AK96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM96" s="1">
         <v>0</v>
@@ -16677,16 +16675,16 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C97" s="1">
-        <v>26879</v>
+        <v>10836</v>
       </c>
       <c r="D97" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E97" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F97" t="s">
         <v>115</v>
@@ -16698,7 +16696,7 @@
         <v>45666</v>
       </c>
       <c r="I97" s="1">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="J97" s="1">
         <v>0</v>
@@ -16735,7 +16733,7 @@
         <v>0</v>
       </c>
       <c r="V97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W97" s="1">
         <v>0</v>
@@ -16750,7 +16748,7 @@
         <v>0</v>
       </c>
       <c r="AA97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB97" s="1">
         <v>0</v>
@@ -16777,7 +16775,7 @@
         <v>0</v>
       </c>
       <c r="AJ97" s="1">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="AK97" s="1">
         <v>0</v>
@@ -16819,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="AX97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY97" s="1">
         <v>0</v>
@@ -16845,19 +16843,19 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C98" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D98" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E98" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F98" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G98" t="s">
         <v>117</v>
@@ -16866,7 +16864,7 @@
         <v>45666</v>
       </c>
       <c r="I98" s="1">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="J98" s="1">
         <v>1</v>
@@ -16945,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="AJ98" s="1">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="AK98" s="1">
         <v>1</v>
@@ -16996,7 +16994,7 @@
         <v>0</v>
       </c>
       <c r="BA98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB98" s="1">
         <v>0</v>
@@ -17013,16 +17011,16 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C99" s="1">
-        <v>5462507</v>
+        <v>26879</v>
       </c>
       <c r="D99" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E99" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F99" t="s">
         <v>115</v>
@@ -17034,7 +17032,7 @@
         <v>45666</v>
       </c>
       <c r="I99" s="1">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="J99" s="1">
         <v>0</v>
@@ -17086,7 +17084,7 @@
         <v>0</v>
       </c>
       <c r="AA99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB99" s="1">
         <v>0</v>
@@ -17112,7 +17110,9 @@
       <c r="AI99" s="1">
         <v>0</v>
       </c>
-      <c r="AJ99" s="1"/>
+      <c r="AJ99" s="1">
+        <v>214</v>
+      </c>
       <c r="AK99" s="1">
         <v>0</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="AX99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY99" s="1">
         <v>0</v>
@@ -17179,19 +17179,19 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C100" s="1">
         <v>88890</v>
       </c>
       <c r="D100" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E100" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F100" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G100" t="s">
         <v>117</v>
@@ -17200,7 +17200,7 @@
         <v>45666</v>
       </c>
       <c r="I100" s="1">
-        <v>2758</v>
+        <v>2762</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -17347,19 +17347,19 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C101" s="1">
         <v>3345</v>
       </c>
       <c r="D101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E101" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F101" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G101" t="s">
         <v>117</v>
@@ -17368,7 +17368,7 @@
         <v>45666</v>
       </c>
       <c r="I101" s="1">
-        <v>2758</v>
+        <v>2762</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -17515,16 +17515,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C102" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D102" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E102" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F102" t="s">
         <v>115</v>
@@ -17536,7 +17536,7 @@
         <v>45666</v>
       </c>
       <c r="I102" s="1">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="J102" s="1">
         <v>0</v>
@@ -17614,12 +17614,14 @@
       <c r="AI102" s="1">
         <v>0</v>
       </c>
-      <c r="AJ102" s="1"/>
+      <c r="AJ102" s="1">
+        <v>119</v>
+      </c>
       <c r="AK102" s="1">
         <v>0</v>
       </c>
       <c r="AL102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM102" s="1">
         <v>0</v>
@@ -17658,7 +17660,7 @@
         <v>0</v>
       </c>
       <c r="AY102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ102" s="1">
         <v>0</v>
@@ -17681,19 +17683,19 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C103" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D103" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F103" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G103" t="s">
         <v>117</v>
@@ -17702,7 +17704,7 @@
         <v>45666</v>
       </c>
       <c r="I103" s="1">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="J103" s="1">
         <v>1</v>
@@ -17721,10 +17723,10 @@
         <v>0</v>
       </c>
       <c r="P103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R103" s="1">
         <v>0</v>
@@ -17781,7 +17783,7 @@
         <v>0</v>
       </c>
       <c r="AJ103" s="1">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AK103" s="1">
         <v>1</v>
@@ -17849,19 +17851,19 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C104" s="1">
-        <v>26879</v>
+        <v>5462328</v>
       </c>
       <c r="D104" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E104" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F104" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G104" t="s">
         <v>117</v>
@@ -17870,13 +17872,13 @@
         <v>45666</v>
       </c>
       <c r="I104" s="1">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="J104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1">
@@ -17922,7 +17924,7 @@
         <v>0</v>
       </c>
       <c r="AA104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB104" s="1">
         <v>0</v>
@@ -17949,13 +17951,13 @@
         <v>0</v>
       </c>
       <c r="AJ104" s="1">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AK104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -17991,7 +17993,7 @@
         <v>0</v>
       </c>
       <c r="AX104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY104" s="1">
         <v>0</v>
@@ -18017,19 +18019,19 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C105" s="1">
         <v>88890</v>
       </c>
       <c r="D105" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E105" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F105" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G105" t="s">
         <v>117</v>
@@ -18038,7 +18040,7 @@
         <v>45666</v>
       </c>
       <c r="I105" s="1">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="J105" s="1">
         <v>1</v>
@@ -18185,16 +18187,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C106" s="1">
-        <v>5486550</v>
+        <v>26879</v>
       </c>
       <c r="D106" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E106" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F106" t="s">
         <v>115</v>
@@ -18206,7 +18208,7 @@
         <v>45666</v>
       </c>
       <c r="I106" s="1">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="J106" s="1">
         <v>0</v>
@@ -18258,7 +18260,7 @@
         <v>0</v>
       </c>
       <c r="AA106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB106" s="1">
         <v>0</v>
@@ -18285,13 +18287,13 @@
         <v>0</v>
       </c>
       <c r="AJ106" s="1">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="AK106" s="1">
         <v>0</v>
       </c>
       <c r="AL106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -18327,10 +18329,10 @@
         <v>0</v>
       </c>
       <c r="AX106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ106" s="1">
         <v>0</v>
@@ -18353,19 +18355,19 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C107" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D107" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E107" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F107" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="G107" t="s">
         <v>117</v>
@@ -18374,13 +18376,13 @@
         <v>45666</v>
       </c>
       <c r="I107" s="1">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="J107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
@@ -18393,10 +18395,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -18452,14 +18454,12 @@
       <c r="AI107" s="1">
         <v>0</v>
       </c>
-      <c r="AJ107" s="1">
-        <v>191</v>
-      </c>
+      <c r="AJ107" s="1"/>
       <c r="AK107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -18533,7 +18533,7 @@
         <v>86</v>
       </c>
       <c r="F108" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G108" t="s">
         <v>117</v>
@@ -18542,7 +18542,7 @@
         <v>45666</v>
       </c>
       <c r="I108" s="1">
-        <v>2813</v>
+        <v>2820</v>
       </c>
       <c r="J108" s="1">
         <v>1</v>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="698" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="722" uniqueCount="170">
   <si>
     <t>sampleid</t>
   </si>
@@ -78,7 +78,19 @@
     <t>602529</t>
   </si>
   <si>
+    <t>602671</t>
+  </si>
+  <si>
+    <t>602675</t>
+  </si>
+  <si>
     <t>602676</t>
+  </si>
+  <si>
+    <t>602677</t>
+  </si>
+  <si>
+    <t>602679</t>
   </si>
   <si>
     <t>substance</t>
@@ -93,25 +105,28 @@
     <t>caffeine</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
+    <t>4-ANPP</t>
   </si>
   <si>
     <t>xylazine</t>
   </si>
   <si>
-    <t>4-ANPP</t>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>acetylcodeine</t>
   </si>
   <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
@@ -120,13 +135,10 @@
     <t>1-phenethyl-4-hydroxypiperidine</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
+    <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>papaverine</t>
@@ -147,7 +159,13 @@
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
     <t>procaine</t>
+  </si>
+  <si>
+    <t>bromazolam</t>
   </si>
   <si>
     <t>medetomidine</t>
@@ -156,16 +174,10 @@
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
-  </si>
-  <si>
-    <t>bromazolam</t>
+    <t>acetaminophen</t>
   </si>
   <si>
     <t>tramadol</t>
-  </si>
-  <si>
-    <t>acetaminophen</t>
   </si>
   <si>
     <t>lidocaine</t>
@@ -192,37 +204,37 @@
     <t>58-08-2</t>
   </si>
   <si>
-    <t>90736-23-5</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
-  </si>
-  <si>
     <t>50-36-2</t>
   </si>
   <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t/>
+    <t>21409-26-7</t>
   </si>
   <si>
     <t>7361-61-7</t>
   </si>
   <si>
-    <t>21409-26-7</t>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>6703-27-1</t>
   </si>
   <si>
     <t>1462260-87-2</t>
   </si>
   <si>
-    <t>620-71-3</t>
+    <t>2784-73-8</t>
   </si>
   <si>
-    <t>6703-27-1</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
+    <t>620-71-3</t>
   </si>
   <si>
     <t>58-74-2</t>
@@ -246,19 +258,19 @@
     <t>59-46-1</t>
   </si>
   <si>
+    <t>71368-80-4</t>
+  </si>
+  <si>
     <t>86347-14-0</t>
   </si>
   <si>
     <t>122861-41-0</t>
   </si>
   <si>
-    <t>71368-80-4</t>
+    <t>103-90-2</t>
   </si>
   <si>
     <t>123154-38-1</t>
-  </si>
-  <si>
-    <t>103-90-2</t>
   </si>
   <si>
     <t>137-58-6</t>
@@ -282,34 +294,34 @@
     <t>3G6A5W338E</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
-  </si>
-  <si>
-    <t>UF599785JZ</t>
-  </si>
-  <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
     <t>70D95007SX</t>
   </si>
   <si>
+    <t>Q88EHD0U8G</t>
+  </si>
+  <si>
     <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>Q88EHD0U8G</t>
+    <t>UF599785JZ</t>
+  </si>
+  <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>U59401ETXH</t>
   </si>
   <si>
     <t>3D9E9KK5K5</t>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
+    <t>M5E47P1ZCH</t>
   </si>
   <si>
-    <t>U59401ETXH</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
+    <t>UYP5ZQI00T</t>
   </si>
   <si>
     <t>DAA13NKG2Q</t>
@@ -333,19 +345,19 @@
     <t>4Z8Y51M438</t>
   </si>
   <si>
+    <t>YMC9OT97Z1</t>
+  </si>
+  <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
     <t>R8ZH1EQ95Y</t>
   </si>
   <si>
-    <t>YMC9OT97Z1</t>
+    <t>362O9ITL9D</t>
   </si>
   <si>
     <t>39J1LGJ30J</t>
-  </si>
-  <si>
-    <t>362O9ITL9D</t>
   </si>
   <si>
     <t>98PI200987</t>
@@ -558,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD108"/>
+  <dimension ref="A1:BD112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -569,169 +581,169 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" t="s">
         <v>119</v>
       </c>
-      <c r="J1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" t="s">
-        <v>115</v>
-      </c>
       <c r="L1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="R1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="S1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="T1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="U1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="V1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="X1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Y1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Z1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AA1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AB1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AC1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AD1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AE1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AF1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AG1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AH1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AI1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AJ1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AK1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AL1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AM1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AN1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AO1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AP1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AQ1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AR1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AS1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AT1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AU1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AV1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AW1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AX1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AY1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AZ1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="BA1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="BB1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="BC1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="BD1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -739,22 +751,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
         <v>10836</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H2" s="2">
         <v>45107</v>
@@ -907,22 +919,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>3034034</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H3" s="2">
         <v>45107</v>
@@ -1075,22 +1087,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>2519</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H4" s="2">
         <v>45107</v>
@@ -1243,22 +1255,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>62300</v>
+        <v>446220</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H5" s="2">
         <v>45107</v>
@@ -1267,10 +1279,10 @@
         <v>1313</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1304,10 +1316,10 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1343,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1411,22 +1423,22 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H6" s="2">
         <v>45107</v>
@@ -1435,10 +1447,10 @@
         <v>1313</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1451,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1511,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>1</v>
@@ -1579,22 +1591,22 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H7" s="2">
         <v>45107</v>
@@ -1640,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -1679,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1730,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="1">
         <v>0</v>
@@ -1747,22 +1759,22 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H8" s="2">
         <v>45107</v>
@@ -1796,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -1847,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
@@ -1915,22 +1927,22 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H9" s="2">
         <v>45107</v>
@@ -1939,10 +1951,10 @@
         <v>1313</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -1955,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -2015,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="AK9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="1">
         <v>1</v>
@@ -2066,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
@@ -2083,22 +2095,22 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1">
-        <v>5707</v>
+        <v>165365057</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H10" s="2">
         <v>45107</v>
@@ -2132,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>0</v>
@@ -2183,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
@@ -2234,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="1">
         <v>0</v>
@@ -2251,22 +2263,22 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H11" s="2">
         <v>45107</v>
@@ -2275,10 +2287,10 @@
         <v>1313</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -2351,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
         <v>1</v>
@@ -2402,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="1">
         <v>0</v>
@@ -2419,22 +2431,22 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H12" s="2">
         <v>45107</v>
@@ -2468,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>0</v>
@@ -2519,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="AK12" s="1">
         <v>0</v>
@@ -2587,22 +2599,22 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
         <v>2519</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H13" s="2">
         <v>45107</v>
@@ -2755,22 +2767,22 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
-        <v>3034034</v>
+        <v>165365057</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H14" s="2">
         <v>45107</v>
@@ -2855,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="1">
         <v>0</v>
@@ -2897,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>0</v>
@@ -2906,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2923,22 +2935,22 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H15" s="2">
         <v>45107</v>
@@ -2963,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -3023,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK15" s="1">
         <v>1</v>
@@ -3074,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -3091,22 +3103,22 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H16" s="2">
         <v>45107</v>
@@ -3115,10 +3127,10 @@
         <v>1456</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3140,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>
@@ -3191,10 +3203,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="AK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>1</v>
@@ -3242,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="1">
         <v>0</v>
@@ -3259,22 +3271,22 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H17" s="2">
         <v>45107</v>
@@ -3299,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -3359,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK17" s="1">
         <v>1</v>
@@ -3410,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="1">
         <v>0</v>
@@ -3427,22 +3439,22 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
-        <v>5462328</v>
+        <v>3034034</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H18" s="2">
         <v>45107</v>
@@ -3451,10 +3463,10 @@
         <v>1456</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3527,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="AK18" s="1">
         <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -3569,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="AX18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="1">
         <v>0</v>
@@ -3595,22 +3607,22 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H19" s="2">
         <v>45107</v>
@@ -3695,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="AK19" s="1">
         <v>0</v>
@@ -3763,22 +3775,22 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H20" s="2">
         <v>45107</v>
@@ -3787,10 +3799,10 @@
         <v>1471</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3803,10 +3815,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -3863,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>1</v>
@@ -3914,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="1">
         <v>0</v>
@@ -3931,22 +3943,22 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H21" s="2">
         <v>45107</v>
@@ -3955,10 +3967,10 @@
         <v>1471</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -4031,13 +4043,13 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="1">
         <v>0</v>
@@ -4073,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="1">
         <v>0</v>
@@ -4082,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="1">
         <v>0</v>
@@ -4099,22 +4111,22 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H22" s="2">
         <v>45107</v>
@@ -4139,10 +4151,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -4199,13 +4211,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4241,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>0</v>
@@ -4267,22 +4279,22 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <v>10836</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H23" s="2">
         <v>45100</v>
@@ -4435,22 +4447,22 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
-        <v>91725431</v>
+        <v>88890</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
         <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H24" s="2">
         <v>45526</v>
@@ -4459,10 +4471,10 @@
         <v>2217</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -4535,13 +4547,13 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4586,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="1">
         <v>0</v>
@@ -4603,20 +4615,22 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C25" s="1">
+        <v>165365057</v>
+      </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H25" s="2">
         <v>45526</v>
@@ -4625,10 +4639,10 @@
         <v>2217</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4701,10 +4715,10 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>1</v>
@@ -4752,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="1">
         <v>0</v>
@@ -4769,22 +4783,22 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1">
-        <v>12107</v>
+        <v>5707</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
         <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H26" s="2">
         <v>45526</v>
@@ -4793,10 +4807,10 @@
         <v>2217</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4815,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -4869,13 +4883,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="AK26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4920,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -4937,22 +4951,22 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
-        <v>3345</v>
+        <v>5486550</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H27" s="2">
         <v>45526</v>
@@ -4977,10 +4991,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -5037,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="AK27" s="1">
         <v>1</v>
@@ -5082,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="AY27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27" s="1">
         <v>0</v>
@@ -5105,22 +5119,22 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1">
-        <v>5707</v>
+        <v>91725431</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H28" s="2">
         <v>45526</v>
@@ -5129,10 +5143,10 @@
         <v>2217</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -5151,10 +5165,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
@@ -5205,13 +5219,13 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>324</v>
+        <v>10</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -5273,22 +5287,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5486550</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" t="s">
         <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H29" s="2">
         <v>45526</v>
@@ -5373,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="AK29" s="1">
         <v>1</v>
@@ -5418,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="AY29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="1">
         <v>0</v>
@@ -5441,22 +5453,22 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
-        <v>10836</v>
+        <v>5462328</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H30" s="2">
         <v>45526</v>
@@ -5465,10 +5477,10 @@
         <v>2217</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5499,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1">
         <v>0</v>
@@ -5541,13 +5553,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="AK30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -5609,22 +5621,22 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H31" s="2">
         <v>45526</v>
@@ -5708,14 +5720,12 @@
       <c r="AI31" s="1">
         <v>0</v>
       </c>
-      <c r="AJ31" s="1">
-        <v>44</v>
-      </c>
+      <c r="AJ31" s="1"/>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -5760,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5777,22 +5787,22 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1">
-        <v>5462507</v>
+        <v>12107</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H32" s="2">
         <v>45526</v>
@@ -5801,10 +5811,10 @@
         <v>2217</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5876,7 +5886,9 @@
       <c r="AI32" s="1">
         <v>0</v>
       </c>
-      <c r="AJ32" s="1"/>
+      <c r="AJ32" s="1">
+        <v>104</v>
+      </c>
       <c r="AK32" s="1">
         <v>0</v>
       </c>
@@ -5926,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5943,22 +5955,22 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1">
         <v>4680</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H33" s="2">
         <v>45526</v>
@@ -6111,22 +6123,22 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H34" s="2">
         <v>45526</v>
@@ -6169,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="1">
         <v>0</v>
@@ -6211,13 +6223,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="AK34" s="1">
         <v>0</v>
       </c>
       <c r="AL34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="1">
         <v>0</v>
@@ -6262,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="BA34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="1">
         <v>0</v>
@@ -6279,22 +6291,22 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H35" s="2">
         <v>45526</v>
@@ -6319,10 +6331,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -6379,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AK35" s="1">
         <v>1</v>
@@ -6447,22 +6459,22 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H36" s="2">
         <v>45526</v>
@@ -6487,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -6508,10 +6520,10 @@
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -6547,13 +6559,13 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AK36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -6615,22 +6627,22 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G37" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H37" s="2">
         <v>45526</v>
@@ -6673,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="1">
         <v>0</v>
@@ -6715,13 +6727,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="AK37" s="1">
         <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -6766,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="BA37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="1">
         <v>0</v>
@@ -6783,22 +6795,22 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1">
-        <v>10836</v>
+        <v>527015</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G38" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H38" s="2">
         <v>45526</v>
@@ -6841,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="1">
         <v>0</v>
@@ -6883,13 +6895,13 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="AK38" s="1">
         <v>0</v>
       </c>
       <c r="AL38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
@@ -6934,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB38" s="1">
         <v>0</v>
@@ -6951,22 +6963,22 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1">
-        <v>527015</v>
+        <v>88890</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H39" s="2">
         <v>45526</v>
@@ -6975,10 +6987,10 @@
         <v>2280</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -7051,10 +7063,10 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AK39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
         <v>1</v>
@@ -7119,22 +7131,22 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1">
-        <v>446220</v>
+        <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H40" s="2">
         <v>45526</v>
@@ -7159,10 +7171,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -7180,10 +7192,10 @@
         <v>0</v>
       </c>
       <c r="W40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="1">
         <v>0</v>
@@ -7219,13 +7231,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AK40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -7287,22 +7299,22 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G41" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H41" s="2">
         <v>45526</v>
@@ -7311,10 +7323,10 @@
         <v>2280</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
@@ -7387,10 +7399,10 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="AK41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="1">
         <v>1</v>
@@ -7455,22 +7467,22 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C42" s="1">
         <v>10836</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H42" s="2">
         <v>45525</v>
@@ -7623,22 +7635,22 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1">
         <v>448223</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G43" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H43" s="2">
         <v>45525</v>
@@ -7789,22 +7801,22 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C44" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G44" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H44" s="2">
         <v>45525</v>
@@ -7813,10 +7825,10 @@
         <v>2333</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7850,10 +7862,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44" s="1">
         <v>0</v>
@@ -7888,7 +7900,9 @@
       <c r="AI44" s="1">
         <v>0</v>
       </c>
-      <c r="AJ44" s="1"/>
+      <c r="AJ44" s="1">
+        <v>150</v>
+      </c>
       <c r="AK44" s="1">
         <v>0</v>
       </c>
@@ -7955,22 +7969,22 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G45" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H45" s="2">
         <v>45525</v>
@@ -7979,10 +7993,10 @@
         <v>2333</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -8016,10 +8030,10 @@
         <v>0</v>
       </c>
       <c r="W45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="1">
         <v>0</v>
@@ -8054,9 +8068,7 @@
       <c r="AI45" s="1">
         <v>0</v>
       </c>
-      <c r="AJ45" s="1">
-        <v>150</v>
-      </c>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1">
         <v>0</v>
       </c>
@@ -8123,22 +8135,22 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C46" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H46" s="2">
         <v>45446</v>
@@ -8163,10 +8175,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="1">
         <v>0</v>
@@ -8190,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="1">
         <v>0</v>
@@ -8223,13 +8235,13 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="AK46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM46" s="1">
         <v>0</v>
@@ -8265,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="AX46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="1">
         <v>0</v>
@@ -8291,22 +8303,22 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H47" s="2">
         <v>45446</v>
@@ -8331,10 +8343,10 @@
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="1">
         <v>0</v>
@@ -8391,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK47" s="1">
         <v>1</v>
@@ -8442,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="BA47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB47" s="1">
         <v>0</v>
@@ -8459,22 +8471,22 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C48" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H48" s="2">
         <v>45446</v>
@@ -8505,10 +8517,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="1">
         <v>0</v>
@@ -8559,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AK48" s="1">
         <v>1</v>
@@ -8610,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="1">
         <v>0</v>
@@ -8627,22 +8639,22 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C49" s="1">
-        <v>5707</v>
+        <v>2519</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H49" s="2">
         <v>45446</v>
@@ -8673,10 +8685,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -8694,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -8727,13 +8739,13 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>324</v>
+        <v>140</v>
       </c>
       <c r="AK49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="1">
         <v>0</v>
@@ -8769,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY49" s="1">
         <v>0</v>
@@ -8795,22 +8807,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1">
-        <v>10836</v>
+        <v>66924</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E50" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H50" s="2">
         <v>45649</v>
@@ -8850,10 +8862,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -8895,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="AK50" s="1">
         <v>0</v>
@@ -8963,22 +8975,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C51" s="1">
-        <v>66924</v>
+        <v>10836</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H51" s="2">
         <v>45649</v>
@@ -9018,10 +9030,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -9063,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="AK51" s="1">
         <v>0</v>
@@ -9131,22 +9143,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C52" s="1">
         <v>6213</v>
       </c>
       <c r="D52" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F52" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G52" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H52" s="2">
         <v>45649</v>
@@ -9297,22 +9309,22 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1">
-        <v>10836</v>
+        <v>62300</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G53" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H53" s="2">
         <v>45664</v>
@@ -9355,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53" s="1">
         <v>0</v>
@@ -9397,13 +9409,13 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="AK53" s="1">
         <v>0</v>
       </c>
       <c r="AL53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM53" s="1">
         <v>0</v>
@@ -9465,22 +9477,20 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="1">
-        <v>3345</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C54" s="1"/>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G54" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H54" s="2">
         <v>45664</v>
@@ -9489,10 +9499,10 @@
         <v>2755</v>
       </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -9505,10 +9515,10 @@
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" s="1">
         <v>0</v>
@@ -9559,19 +9569,19 @@
         <v>0</v>
       </c>
       <c r="AH54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54" s="1">
         <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="AK54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="1">
         <v>0</v>
@@ -9633,22 +9643,22 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C55" s="1">
-        <v>4914</v>
+        <v>10836</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F55" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G55" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H55" s="2">
         <v>45664</v>
@@ -9691,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W55" s="1">
         <v>0</v>
@@ -9733,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -9775,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="1">
         <v>0</v>
@@ -9801,22 +9811,22 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C56" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H56" s="2">
         <v>45664</v>
@@ -9825,10 +9835,10 @@
         <v>2755</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9847,10 +9857,10 @@
         <v>0</v>
       </c>
       <c r="R56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="1">
         <v>0</v>
@@ -9901,10 +9911,10 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="AK56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="1">
         <v>1</v>
@@ -9969,22 +9979,22 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C57" s="1">
-        <v>68602</v>
+        <v>4914</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G57" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H57" s="2">
         <v>45664</v>
@@ -10069,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="AK57" s="1">
         <v>0</v>
@@ -10111,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AX57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY57" s="1">
         <v>0</v>
@@ -10137,22 +10147,22 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C58" s="1">
-        <v>88890</v>
+        <v>12562546</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G58" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H58" s="2">
         <v>45664</v>
@@ -10161,10 +10171,10 @@
         <v>2755</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -10237,13 +10247,13 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="1">
         <v>0</v>
@@ -10255,13 +10265,13 @@
         <v>0</v>
       </c>
       <c r="AP58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ58" s="1">
         <v>0</v>
       </c>
       <c r="AR58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS58" s="1">
         <v>0</v>
@@ -10288,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="1">
         <v>0</v>
@@ -10305,22 +10315,22 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1">
-        <v>21812144</v>
+        <v>6213</v>
       </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G59" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H59" s="2">
         <v>45664</v>
@@ -10404,14 +10414,12 @@
       <c r="AI59" s="1">
         <v>0</v>
       </c>
-      <c r="AJ59" s="1">
-        <v>167</v>
-      </c>
+      <c r="AJ59" s="1"/>
       <c r="AK59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -10459,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="BB59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC59" s="1">
         <v>0</v>
@@ -10473,20 +10481,22 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C60" s="1">
+        <v>88890</v>
+      </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H60" s="2">
         <v>45664</v>
@@ -10495,10 +10505,10 @@
         <v>2755</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -10565,19 +10575,19 @@
         <v>0</v>
       </c>
       <c r="AH60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="1">
         <v>0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AK60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -10622,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="BA60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB60" s="1">
         <v>0</v>
@@ -10639,22 +10649,22 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C61" s="1">
-        <v>12562546</v>
+        <v>3345</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F61" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G61" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H61" s="2">
         <v>45664</v>
@@ -10663,10 +10673,10 @@
         <v>2755</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -10679,10 +10689,10 @@
         <v>0</v>
       </c>
       <c r="P61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -10739,13 +10749,13 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="AK61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -10757,13 +10767,13 @@
         <v>0</v>
       </c>
       <c r="AP61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="1">
         <v>0</v>
       </c>
       <c r="AR61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS61" s="1">
         <v>0</v>
@@ -10807,22 +10817,22 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C62" s="1">
-        <v>5707</v>
+        <v>68602</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G62" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H62" s="2">
         <v>45664</v>
@@ -10831,10 +10841,10 @@
         <v>2755</v>
       </c>
       <c r="J62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -10853,10 +10863,10 @@
         <v>0</v>
       </c>
       <c r="R62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
@@ -10907,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="AK62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10975,22 +10985,22 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C63" s="1">
-        <v>6213</v>
+        <v>21812144</v>
       </c>
       <c r="D63" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E63" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G63" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H63" s="2">
         <v>45664</v>
@@ -11074,12 +11084,14 @@
       <c r="AI63" s="1">
         <v>0</v>
       </c>
-      <c r="AJ63" s="1"/>
+      <c r="AJ63" s="1">
+        <v>167</v>
+      </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -11127,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="BB63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC63" s="1">
         <v>0</v>
@@ -11141,22 +11153,22 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C64" s="1">
-        <v>5462328</v>
+        <v>4914</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G64" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H64" s="2">
         <v>45664</v>
@@ -11241,13 +11253,13 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="AK64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11283,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="AX64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY64" s="1">
         <v>0</v>
@@ -11309,22 +11321,22 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C65" s="1">
-        <v>4914</v>
+        <v>5462328</v>
       </c>
       <c r="D65" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G65" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H65" s="2">
         <v>45664</v>
@@ -11409,13 +11421,13 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>287</v>
+        <v>201</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM65" s="1">
         <v>0</v>
@@ -11451,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="1">
         <v>0</v>
@@ -11477,22 +11489,22 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C66" s="1">
         <v>10836</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E66" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G66" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H66" s="2">
         <v>45664</v>
@@ -11645,22 +11657,22 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C67" s="1">
-        <v>21812144</v>
+        <v>1983</v>
       </c>
       <c r="D67" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E67" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F67" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G67" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H67" s="2">
         <v>45665</v>
@@ -11745,13 +11757,13 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="AK67" s="1">
         <v>0</v>
       </c>
       <c r="AL67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="1">
         <v>0</v>
@@ -11799,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="BB67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC67" s="1">
         <v>0</v>
@@ -11813,22 +11825,20 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="1">
-        <v>88890</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F68" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G68" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H68" s="2">
         <v>45665</v>
@@ -11907,19 +11917,19 @@
         <v>0</v>
       </c>
       <c r="AH68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI68" s="1">
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AK68" s="1">
         <v>0</v>
       </c>
       <c r="AL68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68" s="1">
         <v>0</v>
@@ -11964,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="1">
         <v>0</v>
@@ -11981,20 +11991,22 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C69" s="1">
+        <v>88890</v>
+      </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E69" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="F69" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G69" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H69" s="2">
         <v>45665</v>
@@ -12073,19 +12085,19 @@
         <v>0</v>
       </c>
       <c r="AH69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI69" s="1">
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AK69" s="1">
         <v>0</v>
       </c>
       <c r="AL69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -12130,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="BA69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB69" s="1">
         <v>0</v>
@@ -12147,22 +12159,22 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C70" s="1">
-        <v>5462507</v>
+        <v>5707</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F70" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G70" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H70" s="2">
         <v>45665</v>
@@ -12171,10 +12183,10 @@
         <v>2757</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -12193,10 +12205,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -12246,12 +12258,14 @@
       <c r="AI70" s="1">
         <v>0</v>
       </c>
-      <c r="AJ70" s="1"/>
+      <c r="AJ70" s="1">
+        <v>324</v>
+      </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM70" s="1">
         <v>0</v>
@@ -12313,22 +12327,22 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C71" s="1">
         <v>33741</v>
       </c>
       <c r="D71" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F71" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G71" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H71" s="2">
         <v>45665</v>
@@ -12481,22 +12495,22 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C72" s="1">
-        <v>446220</v>
+        <v>5486550</v>
       </c>
       <c r="D72" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F72" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G72" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H72" s="2">
         <v>45665</v>
@@ -12545,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="1">
         <v>0</v>
@@ -12581,13 +12595,13 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="AK72" s="1">
         <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -12626,7 +12640,7 @@
         <v>0</v>
       </c>
       <c r="AY72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ72" s="1">
         <v>0</v>
@@ -12649,22 +12663,22 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C73" s="1">
-        <v>12562546</v>
+        <v>21812144</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G73" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H73" s="2">
         <v>45665</v>
@@ -12673,10 +12687,10 @@
         <v>2757</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -12749,13 +12763,13 @@
         <v>0</v>
       </c>
       <c r="AJ73" s="1">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="AK73" s="1">
         <v>0</v>
       </c>
       <c r="AL73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM73" s="1">
         <v>0</v>
@@ -12764,16 +12778,16 @@
         <v>0</v>
       </c>
       <c r="AO73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS73" s="1">
         <v>0</v>
@@ -12803,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="BB73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC73" s="1">
         <v>0</v>
@@ -12817,22 +12831,22 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C74" s="1">
-        <v>1983</v>
+        <v>3345</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F74" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G74" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H74" s="2">
         <v>45665</v>
@@ -12841,10 +12855,10 @@
         <v>2757</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -12857,10 +12871,10 @@
         <v>0</v>
       </c>
       <c r="P74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -12917,13 +12931,13 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="1">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="AK74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM74" s="1">
         <v>0</v>
@@ -12988,7 +13002,7 @@
         <v>51</v>
       </c>
       <c r="C75" s="1">
-        <v>3676</v>
+        <v>68602</v>
       </c>
       <c r="D75" t="s">
         <v>82</v>
@@ -12997,10 +13011,10 @@
         <v>111</v>
       </c>
       <c r="F75" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G75" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H75" s="2">
         <v>45665</v>
@@ -13085,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="AJ75" s="1">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AK75" s="1">
         <v>0</v>
@@ -13127,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="AX75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY75" s="1">
         <v>0</v>
@@ -13153,22 +13167,22 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C76" s="1">
-        <v>68602</v>
+        <v>12562546</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E76" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F76" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G76" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H76" s="2">
         <v>45665</v>
@@ -13177,10 +13191,10 @@
         <v>2757</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -13253,7 +13267,7 @@
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="AK76" s="1">
         <v>0</v>
@@ -13268,16 +13282,16 @@
         <v>0</v>
       </c>
       <c r="AO76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS76" s="1">
         <v>0</v>
@@ -13321,22 +13335,22 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C77" s="1">
-        <v>5486550</v>
+        <v>10836</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F77" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G77" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H77" s="2">
         <v>45665</v>
@@ -13379,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="V77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W77" s="1">
         <v>0</v>
@@ -13421,13 +13435,13 @@
         <v>0</v>
       </c>
       <c r="AJ77" s="1">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="AK77" s="1">
         <v>0</v>
       </c>
       <c r="AL77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77" s="1">
         <v>0</v>
@@ -13466,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="AY77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ77" s="1">
         <v>0</v>
@@ -13489,22 +13503,22 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C78" s="1">
         <v>62300</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E78" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F78" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G78" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H78" s="2">
         <v>45665</v>
@@ -13657,22 +13671,22 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C79" s="1">
-        <v>10836</v>
+        <v>5462328</v>
       </c>
       <c r="D79" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E79" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F79" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G79" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H79" s="2">
         <v>45665</v>
@@ -13681,10 +13695,10 @@
         <v>2757</v>
       </c>
       <c r="J79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1">
@@ -13715,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="V79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W79" s="1">
         <v>0</v>
@@ -13757,13 +13771,13 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="1">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="AK79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -13825,22 +13839,22 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C80" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D80" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E80" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G80" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H80" s="2">
         <v>45665</v>
@@ -13849,10 +13863,10 @@
         <v>2757</v>
       </c>
       <c r="J80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1">
@@ -13865,10 +13879,10 @@
         <v>0</v>
       </c>
       <c r="P80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80" s="1">
         <v>0</v>
@@ -13889,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y80" s="1">
         <v>0</v>
@@ -13925,13 +13939,13 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AK80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -13993,22 +14007,22 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C81" s="1">
-        <v>5707</v>
+        <v>5462507</v>
       </c>
       <c r="D81" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E81" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F81" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G81" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H81" s="2">
         <v>45665</v>
@@ -14017,10 +14031,10 @@
         <v>2757</v>
       </c>
       <c r="J81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
@@ -14039,10 +14053,10 @@
         <v>0</v>
       </c>
       <c r="R81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T81" s="1">
         <v>0</v>
@@ -14092,14 +14106,12 @@
       <c r="AI81" s="1">
         <v>0</v>
       </c>
-      <c r="AJ81" s="1">
-        <v>324</v>
-      </c>
+      <c r="AJ81" s="1"/>
       <c r="AK81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81" s="1">
         <v>0</v>
@@ -14161,22 +14173,22 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C82" s="1">
-        <v>5462328</v>
+        <v>3676</v>
       </c>
       <c r="D82" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F82" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G82" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H82" s="2">
         <v>45665</v>
@@ -14185,10 +14197,10 @@
         <v>2757</v>
       </c>
       <c r="J82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
@@ -14261,13 +14273,13 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="AK82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82" s="1">
         <v>0</v>
@@ -14303,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="AX82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY82" s="1">
         <v>0</v>
@@ -14329,22 +14341,22 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C83" s="1">
         <v>10836</v>
       </c>
       <c r="D83" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E83" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G83" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H83" s="2">
         <v>45649</v>
@@ -14497,22 +14509,22 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C84" s="1">
-        <v>3676</v>
+        <v>1983</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E84" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F84" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G84" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H84" s="2">
         <v>45602</v>
@@ -14521,10 +14533,10 @@
         <v>2759</v>
       </c>
       <c r="J84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
@@ -14597,7 +14609,7 @@
         <v>0</v>
       </c>
       <c r="AJ84" s="1">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="AK84" s="1">
         <v>0</v>
@@ -14639,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="AX84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY84" s="1">
         <v>0</v>
@@ -14665,22 +14677,22 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C85" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D85" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E85" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F85" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G85" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H85" s="2">
         <v>45602</v>
@@ -14689,10 +14701,10 @@
         <v>2759</v>
       </c>
       <c r="J85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -14705,19 +14717,19 @@
         <v>0</v>
       </c>
       <c r="P85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85" s="1">
         <v>0</v>
       </c>
       <c r="S85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U85" s="1">
         <v>0</v>
@@ -14765,10 +14777,10 @@
         <v>0</v>
       </c>
       <c r="AJ85" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL85" s="1">
         <v>1</v>
@@ -14833,20 +14845,22 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3676</v>
+      </c>
       <c r="D86" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="E86" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="F86" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G86" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H86" s="2">
         <v>45602</v>
@@ -14925,13 +14939,13 @@
         <v>0</v>
       </c>
       <c r="AH86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ86" s="1">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="AK86" s="1">
         <v>0</v>
@@ -14973,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="AX86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY86" s="1">
         <v>0</v>
@@ -14999,22 +15013,22 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C87" s="1">
-        <v>68602</v>
+        <v>88890</v>
       </c>
       <c r="D87" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F87" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G87" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H87" s="2">
         <v>45602</v>
@@ -15099,13 +15113,13 @@
         <v>0</v>
       </c>
       <c r="AJ87" s="1">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="AK87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM87" s="1">
         <v>0</v>
@@ -15150,7 +15164,7 @@
         <v>0</v>
       </c>
       <c r="BA87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB87" s="1">
         <v>0</v>
@@ -15167,22 +15181,22 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C88" s="1">
-        <v>1983</v>
+        <v>68602</v>
       </c>
       <c r="D88" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F88" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G88" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H88" s="2">
         <v>45602</v>
@@ -15191,10 +15205,10 @@
         <v>2759</v>
       </c>
       <c r="J88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1">
@@ -15267,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="AJ88" s="1">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="AK88" s="1">
         <v>0</v>
@@ -15335,22 +15349,20 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
-      </c>
-      <c r="C89" s="1">
-        <v>6213</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C89" s="1"/>
       <c r="D89" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E89" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G89" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H89" s="2">
         <v>45602</v>
@@ -15429,12 +15441,14 @@
         <v>0</v>
       </c>
       <c r="AH89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="AJ89" s="1">
+        <v>135</v>
+      </c>
       <c r="AK89" s="1">
         <v>0</v>
       </c>
@@ -15501,22 +15515,22 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C90" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D90" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E90" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F90" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G90" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H90" s="2">
         <v>45602</v>
@@ -15525,10 +15539,10 @@
         <v>2759</v>
       </c>
       <c r="J90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1">
@@ -15541,19 +15555,19 @@
         <v>0</v>
       </c>
       <c r="P90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90" s="1">
         <v>0</v>
       </c>
       <c r="S90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U90" s="1">
         <v>0</v>
@@ -15601,10 +15615,10 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="1">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="AK90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL90" s="1">
         <v>1</v>
@@ -15669,22 +15683,22 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C91" s="1">
-        <v>88890</v>
+        <v>6213</v>
       </c>
       <c r="D91" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E91" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F91" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G91" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H91" s="2">
         <v>45602</v>
@@ -15768,14 +15782,12 @@
       <c r="AI91" s="1">
         <v>0</v>
       </c>
-      <c r="AJ91" s="1">
-        <v>44</v>
-      </c>
+      <c r="AJ91" s="1"/>
       <c r="AK91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91" s="1">
         <v>0</v>
@@ -15820,7 +15832,7 @@
         <v>0</v>
       </c>
       <c r="BA91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB91" s="1">
         <v>0</v>
@@ -15837,22 +15849,22 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C92" s="1">
         <v>2118</v>
       </c>
       <c r="D92" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E92" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F92" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G92" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H92" s="2">
         <v>45611</v>
@@ -16005,22 +16017,22 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C93" s="1">
-        <v>5486550</v>
+        <v>88890</v>
       </c>
       <c r="D93" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" t="s">
+        <v>95</v>
+      </c>
+      <c r="F93" t="s">
         <v>68</v>
       </c>
-      <c r="E93" t="s">
-        <v>97</v>
-      </c>
-      <c r="F93" t="s">
-        <v>115</v>
-      </c>
       <c r="G93" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H93" s="2">
         <v>45666</v>
@@ -16029,10 +16041,10 @@
         <v>2761</v>
       </c>
       <c r="J93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -16105,10 +16117,10 @@
         <v>0</v>
       </c>
       <c r="AJ93" s="1">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="AK93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL93" s="1">
         <v>1</v>
@@ -16150,13 +16162,13 @@
         <v>0</v>
       </c>
       <c r="AY93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ93" s="1">
         <v>0</v>
       </c>
       <c r="BA93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB93" s="1">
         <v>0</v>
@@ -16173,22 +16185,22 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C94" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E94" t="s">
         <v>94</v>
       </c>
       <c r="F94" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G94" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H94" s="2">
         <v>45666</v>
@@ -16273,7 +16285,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="AK94" s="1">
         <v>1</v>
@@ -16324,7 +16336,7 @@
         <v>0</v>
       </c>
       <c r="BA94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB94" s="1">
         <v>0</v>
@@ -16341,22 +16353,22 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C95" s="1">
-        <v>5462507</v>
+        <v>26879</v>
       </c>
       <c r="D95" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E95" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F95" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G95" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H95" s="2">
         <v>45666</v>
@@ -16414,7 +16426,7 @@
         <v>0</v>
       </c>
       <c r="AA95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB95" s="1">
         <v>0</v>
@@ -16440,7 +16452,9 @@
       <c r="AI95" s="1">
         <v>0</v>
       </c>
-      <c r="AJ95" s="1"/>
+      <c r="AJ95" s="1">
+        <v>214</v>
+      </c>
       <c r="AK95" s="1">
         <v>0</v>
       </c>
@@ -16481,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="AX95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY95" s="1">
         <v>0</v>
@@ -16510,7 +16524,7 @@
         <v>27</v>
       </c>
       <c r="C96" s="1">
-        <v>3345</v>
+        <v>10836</v>
       </c>
       <c r="D96" t="s">
         <v>60</v>
@@ -16519,10 +16533,10 @@
         <v>90</v>
       </c>
       <c r="F96" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G96" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H96" s="2">
         <v>45666</v>
@@ -16531,10 +16545,10 @@
         <v>2761</v>
       </c>
       <c r="J96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1">
@@ -16547,10 +16561,10 @@
         <v>0</v>
       </c>
       <c r="P96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96" s="1">
         <v>0</v>
@@ -16565,7 +16579,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W96" s="1">
         <v>0</v>
@@ -16607,13 +16621,13 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="1">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AK96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM96" s="1">
         <v>0</v>
@@ -16675,22 +16689,22 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C97" s="1">
-        <v>10836</v>
+        <v>5486550</v>
       </c>
       <c r="D97" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E97" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F97" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G97" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H97" s="2">
         <v>45666</v>
@@ -16733,7 +16747,7 @@
         <v>0</v>
       </c>
       <c r="V97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W97" s="1">
         <v>0</v>
@@ -16775,13 +16789,13 @@
         <v>0</v>
       </c>
       <c r="AJ97" s="1">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="AK97" s="1">
         <v>0</v>
       </c>
       <c r="AL97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM97" s="1">
         <v>0</v>
@@ -16820,7 +16834,7 @@
         <v>0</v>
       </c>
       <c r="AY97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ97" s="1">
         <v>0</v>
@@ -16843,22 +16857,22 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C98" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D98" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E98" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G98" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H98" s="2">
         <v>45666</v>
@@ -16883,10 +16897,10 @@
         <v>0</v>
       </c>
       <c r="P98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98" s="1">
         <v>0</v>
@@ -16943,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="AJ98" s="1">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AK98" s="1">
         <v>1</v>
@@ -17011,22 +17025,22 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C99" s="1">
-        <v>26879</v>
+        <v>5462507</v>
       </c>
       <c r="D99" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E99" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F99" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G99" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H99" s="2">
         <v>45666</v>
@@ -17084,7 +17098,7 @@
         <v>0</v>
       </c>
       <c r="AA99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB99" s="1">
         <v>0</v>
@@ -17110,9 +17124,7 @@
       <c r="AI99" s="1">
         <v>0</v>
       </c>
-      <c r="AJ99" s="1">
-        <v>214</v>
-      </c>
+      <c r="AJ99" s="1"/>
       <c r="AK99" s="1">
         <v>0</v>
       </c>
@@ -17153,7 +17165,7 @@
         <v>0</v>
       </c>
       <c r="AX99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY99" s="1">
         <v>0</v>
@@ -17188,13 +17200,13 @@
         <v>65</v>
       </c>
       <c r="E100" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F100" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G100" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H100" s="2">
         <v>45666</v>
@@ -17347,22 +17359,22 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C101" s="1">
         <v>3345</v>
       </c>
       <c r="D101" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E101" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F101" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G101" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H101" s="2">
         <v>45666</v>
@@ -17515,22 +17527,22 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C102" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" t="s">
         <v>68</v>
       </c>
-      <c r="E102" t="s">
-        <v>97</v>
-      </c>
-      <c r="F102" t="s">
-        <v>115</v>
-      </c>
       <c r="G102" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H102" s="2">
         <v>45666</v>
@@ -17539,10 +17551,10 @@
         <v>2763</v>
       </c>
       <c r="J102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1">
@@ -17615,10 +17627,10 @@
         <v>0</v>
       </c>
       <c r="AJ102" s="1">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="AK102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL102" s="1">
         <v>1</v>
@@ -17660,7 +17672,7 @@
         <v>0</v>
       </c>
       <c r="AY102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ102" s="1">
         <v>0</v>
@@ -17683,22 +17695,22 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C103" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D103" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E103" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F103" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G103" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H103" s="2">
         <v>45666</v>
@@ -17723,10 +17735,10 @@
         <v>0</v>
       </c>
       <c r="P103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R103" s="1">
         <v>0</v>
@@ -17783,7 +17795,7 @@
         <v>0</v>
       </c>
       <c r="AJ103" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK103" s="1">
         <v>1</v>
@@ -17834,7 +17846,7 @@
         <v>0</v>
       </c>
       <c r="BA103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB103" s="1">
         <v>0</v>
@@ -17851,22 +17863,22 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C104" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D104" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E104" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F104" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G104" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H104" s="2">
         <v>45666</v>
@@ -17875,10 +17887,10 @@
         <v>2763</v>
       </c>
       <c r="J104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1">
@@ -17950,14 +17962,12 @@
       <c r="AI104" s="1">
         <v>0</v>
       </c>
-      <c r="AJ104" s="1">
-        <v>201</v>
-      </c>
+      <c r="AJ104" s="1"/>
       <c r="AK104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -18019,22 +18029,22 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C105" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D105" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E105" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F105" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G105" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H105" s="2">
         <v>45666</v>
@@ -18059,10 +18069,10 @@
         <v>0</v>
       </c>
       <c r="P105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R105" s="1">
         <v>0</v>
@@ -18119,7 +18129,7 @@
         <v>0</v>
       </c>
       <c r="AJ105" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK105" s="1">
         <v>1</v>
@@ -18170,7 +18180,7 @@
         <v>0</v>
       </c>
       <c r="BA105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB105" s="1">
         <v>0</v>
@@ -18187,22 +18197,22 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C106" s="1">
         <v>26879</v>
       </c>
       <c r="D106" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E106" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F106" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G106" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H106" s="2">
         <v>45666</v>
@@ -18358,19 +18368,19 @@
         <v>37</v>
       </c>
       <c r="C107" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D107" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E107" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F107" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G107" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H107" s="2">
         <v>45666</v>
@@ -18454,12 +18464,14 @@
       <c r="AI107" s="1">
         <v>0</v>
       </c>
-      <c r="AJ107" s="1"/>
+      <c r="AJ107" s="1">
+        <v>119</v>
+      </c>
       <c r="AK107" s="1">
         <v>0</v>
       </c>
       <c r="AL107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -18498,7 +18510,7 @@
         <v>0</v>
       </c>
       <c r="AY107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ107" s="1">
         <v>0</v>
@@ -18521,25 +18533,25 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C108" s="1">
         <v>10836</v>
       </c>
       <c r="D108" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E108" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F108" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G108" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H108" s="2">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="I108" s="1">
         <v>2820</v>
@@ -18681,6 +18693,678 @@
         <v>0</v>
       </c>
       <c r="BD108" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="1">
+        <v>10836</v>
+      </c>
+      <c r="D109" t="s">
+        <v>60</v>
+      </c>
+      <c r="E109" t="s">
+        <v>90</v>
+      </c>
+      <c r="F109" t="s">
+        <v>68</v>
+      </c>
+      <c r="G109" t="s">
+        <v>121</v>
+      </c>
+      <c r="H109" s="2">
+        <v>45687</v>
+      </c>
+      <c r="I109" s="1">
+        <v>2821</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0</v>
+      </c>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1">
+        <v>1</v>
+      </c>
+      <c r="N109" s="1">
+        <v>1</v>
+      </c>
+      <c r="O109" s="1">
+        <v>0</v>
+      </c>
+      <c r="P109" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>0</v>
+      </c>
+      <c r="R109" s="1">
+        <v>0</v>
+      </c>
+      <c r="S109" s="1">
+        <v>0</v>
+      </c>
+      <c r="T109" s="1">
+        <v>0</v>
+      </c>
+      <c r="U109" s="1">
+        <v>1</v>
+      </c>
+      <c r="V109" s="1">
+        <v>1</v>
+      </c>
+      <c r="W109" s="1">
+        <v>0</v>
+      </c>
+      <c r="X109" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ109" s="1">
+        <v>231</v>
+      </c>
+      <c r="AK109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD109" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="1">
+        <v>10836</v>
+      </c>
+      <c r="D110" t="s">
+        <v>60</v>
+      </c>
+      <c r="E110" t="s">
+        <v>90</v>
+      </c>
+      <c r="F110" t="s">
+        <v>68</v>
+      </c>
+      <c r="G110" t="s">
+        <v>121</v>
+      </c>
+      <c r="H110" s="2">
+        <v>45666</v>
+      </c>
+      <c r="I110" s="1">
+        <v>2822</v>
+      </c>
+      <c r="J110" s="1">
+        <v>1</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1">
+        <v>1</v>
+      </c>
+      <c r="N110" s="1">
+        <v>1</v>
+      </c>
+      <c r="O110" s="1">
+        <v>0</v>
+      </c>
+      <c r="P110" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>0</v>
+      </c>
+      <c r="R110" s="1">
+        <v>0</v>
+      </c>
+      <c r="S110" s="1">
+        <v>0</v>
+      </c>
+      <c r="T110" s="1">
+        <v>0</v>
+      </c>
+      <c r="U110" s="1">
+        <v>1</v>
+      </c>
+      <c r="V110" s="1">
+        <v>1</v>
+      </c>
+      <c r="W110" s="1">
+        <v>0</v>
+      </c>
+      <c r="X110" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ110" s="1">
+        <v>231</v>
+      </c>
+      <c r="AK110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD110" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="1">
+        <v>10836</v>
+      </c>
+      <c r="D111" t="s">
+        <v>60</v>
+      </c>
+      <c r="E111" t="s">
+        <v>90</v>
+      </c>
+      <c r="F111" t="s">
+        <v>68</v>
+      </c>
+      <c r="G111" t="s">
+        <v>121</v>
+      </c>
+      <c r="H111" s="2">
+        <v>45687</v>
+      </c>
+      <c r="I111" s="1">
+        <v>2823</v>
+      </c>
+      <c r="J111" s="1">
+        <v>1</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0</v>
+      </c>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1">
+        <v>1</v>
+      </c>
+      <c r="N111" s="1">
+        <v>1</v>
+      </c>
+      <c r="O111" s="1">
+        <v>0</v>
+      </c>
+      <c r="P111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>0</v>
+      </c>
+      <c r="R111" s="1">
+        <v>0</v>
+      </c>
+      <c r="S111" s="1">
+        <v>0</v>
+      </c>
+      <c r="T111" s="1">
+        <v>0</v>
+      </c>
+      <c r="U111" s="1">
+        <v>1</v>
+      </c>
+      <c r="V111" s="1">
+        <v>1</v>
+      </c>
+      <c r="W111" s="1">
+        <v>0</v>
+      </c>
+      <c r="X111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ111" s="1">
+        <v>231</v>
+      </c>
+      <c r="AK111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD111" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" s="1">
+        <v>10836</v>
+      </c>
+      <c r="D112" t="s">
+        <v>60</v>
+      </c>
+      <c r="E112" t="s">
+        <v>90</v>
+      </c>
+      <c r="F112" t="s">
+        <v>68</v>
+      </c>
+      <c r="G112" t="s">
+        <v>121</v>
+      </c>
+      <c r="H112" s="2">
+        <v>45687</v>
+      </c>
+      <c r="I112" s="1">
+        <v>2824</v>
+      </c>
+      <c r="J112" s="1">
+        <v>1</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1">
+        <v>1</v>
+      </c>
+      <c r="N112" s="1">
+        <v>1</v>
+      </c>
+      <c r="O112" s="1">
+        <v>0</v>
+      </c>
+      <c r="P112" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>0</v>
+      </c>
+      <c r="R112" s="1">
+        <v>0</v>
+      </c>
+      <c r="S112" s="1">
+        <v>0</v>
+      </c>
+      <c r="T112" s="1">
+        <v>0</v>
+      </c>
+      <c r="U112" s="1">
+        <v>1</v>
+      </c>
+      <c r="V112" s="1">
+        <v>1</v>
+      </c>
+      <c r="W112" s="1">
+        <v>0</v>
+      </c>
+      <c r="X112" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="1">
+        <v>231</v>
+      </c>
+      <c r="AK112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD112" s="1">
         <v>3</v>
       </c>
     </row>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="722" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="728" uniqueCount="172">
   <si>
     <t>sampleid</t>
   </si>
@@ -90,6 +90,9 @@
     <t>602677</t>
   </si>
   <si>
+    <t>602678</t>
+  </si>
+  <si>
     <t>602679</t>
   </si>
   <si>
@@ -99,25 +102,10 @@
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>quinine</t>
+    <t>heroin</t>
   </si>
   <si>
     <t>caffeine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
-  </si>
-  <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
   </si>
   <si>
     <t>phenethyl 4-ANPP</t>
@@ -126,22 +114,37 @@
     <t>p-fluorofentanyl</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
+    <t>quinine</t>
+  </si>
+  <si>
+    <t>xylazine</t>
+  </si>
+  <si>
+    <t>4-ANPP</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>6-monoacetylmorphine (6-MAM)</t>
+  </si>
+  <si>
+    <t>papaverine</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-hydroxypiperidine</t>
   </si>
   <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
-    <t>1-phenethyl-4-hydroxypiperidine</t>
-  </si>
-  <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
+    <t>acetylcodeine</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>papaverine</t>
   </si>
   <si>
     <t>acetyl fentanyl</t>
@@ -162,10 +165,10 @@
     <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
-    <t>procaine</t>
+    <t>bromazolam</t>
   </si>
   <si>
-    <t>bromazolam</t>
+    <t>procaine</t>
   </si>
   <si>
     <t>medetomidine</t>
@@ -174,19 +177,22 @@
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
-    <t>acetaminophen</t>
+    <t>lidocaine</t>
   </si>
   <si>
     <t>tramadol</t>
   </si>
   <si>
-    <t>lidocaine</t>
+    <t>acetaminophen</t>
   </si>
   <si>
     <t>alprazolam</t>
   </si>
   <si>
     <t>levamisole</t>
+  </si>
+  <si>
+    <t>no compounds of interest detected</t>
   </si>
   <si>
     <t>pubchemcid</t>
@@ -198,25 +204,10 @@
     <t>537-46-2</t>
   </si>
   <si>
-    <t>72402-53-0</t>
+    <t>561-27-3</t>
   </si>
   <si>
     <t>58-08-2</t>
-  </si>
-  <si>
-    <t>50-36-2</t>
-  </si>
-  <si>
-    <t>561-27-3</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
-  </si>
-  <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>437-38-7</t>
   </si>
   <si>
     <t/>
@@ -225,19 +216,34 @@
     <t>90736-23-5</t>
   </si>
   <si>
-    <t>6703-27-1</t>
+    <t>72402-53-0</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
+  </si>
+  <si>
+    <t>21409-26-7</t>
+  </si>
+  <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
+    <t>437-38-7</t>
+  </si>
+  <si>
+    <t>2784-73-8</t>
+  </si>
+  <si>
+    <t>58-74-2</t>
   </si>
   <si>
     <t>1462260-87-2</t>
   </si>
   <si>
-    <t>2784-73-8</t>
+    <t>6703-27-1</t>
   </si>
   <si>
     <t>620-71-3</t>
-  </si>
-  <si>
-    <t>58-74-2</t>
   </si>
   <si>
     <t>3258-84-2</t>
@@ -255,10 +261,10 @@
     <t>67-71-0</t>
   </si>
   <si>
-    <t>59-46-1</t>
+    <t>71368-80-4</t>
   </si>
   <si>
-    <t>71368-80-4</t>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>86347-14-0</t>
@@ -267,13 +273,13 @@
     <t>122861-41-0</t>
   </si>
   <si>
-    <t>103-90-2</t>
+    <t>137-58-6</t>
   </si>
   <si>
     <t>123154-38-1</t>
   </si>
   <si>
-    <t>137-58-6</t>
+    <t>103-90-2</t>
   </si>
   <si>
     <t>28981-97-7</t>
@@ -288,43 +294,43 @@
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>A7V27PHC7A</t>
+    <t>70D95007SX</t>
   </si>
   <si>
     <t>3G6A5W338E</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
+    <t>I45R05QM0Z</t>
   </si>
   <si>
-    <t>70D95007SX</t>
+    <t>A7V27PHC7A</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
+    <t>I5Y540LHVR</t>
   </si>
   <si>
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
+    <t>M5E47P1ZCH</t>
+  </si>
+  <si>
+    <t>DAA13NKG2Q</t>
+  </si>
+  <si>
+    <t>3D9E9KK5K5</t>
   </si>
   <si>
     <t>U59401ETXH</t>
   </si>
   <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
-  </si>
-  <si>
     <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>DAA13NKG2Q</t>
   </si>
   <si>
     <t>6DZ28538KS</t>
@@ -342,10 +348,10 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
+    <t>YMC9OT97Z1</t>
   </si>
   <si>
-    <t>YMC9OT97Z1</t>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>MR15E85MQM</t>
@@ -354,13 +360,13 @@
     <t>R8ZH1EQ95Y</t>
   </si>
   <si>
-    <t>362O9ITL9D</t>
+    <t>98PI200987</t>
   </si>
   <si>
     <t>39J1LGJ30J</t>
   </si>
   <si>
-    <t>98PI200987</t>
+    <t>362O9ITL9D</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -570,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD112"/>
+  <dimension ref="A1:BD113"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -581,169 +587,169 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="R1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="U1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="X1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Y1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Z1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AA1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AB1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AC1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AD1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AE1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AF1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AG1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AH1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AI1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AJ1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AK1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AL1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AN1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AO1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AP1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AQ1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AR1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AS1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AT1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AU1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AV1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AW1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AX1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AY1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AZ1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BA1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BB1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BC1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BD1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
@@ -751,28 +757,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>10836</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H2" s="2">
         <v>45107</v>
       </c>
       <c r="I2" s="1">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -919,34 +925,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
-        <v>3034034</v>
+        <v>5462328</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H3" s="2">
         <v>45107</v>
       </c>
       <c r="I3" s="1">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -1019,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>294</v>
+        <v>201</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>0</v>
@@ -1087,28 +1093,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>2519</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H4" s="2">
         <v>45107</v>
       </c>
       <c r="I4" s="1">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1255,34 +1261,34 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H5" s="2">
         <v>45107</v>
       </c>
       <c r="I5" s="1">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1316,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1355,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1406,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="1">
         <v>0</v>
@@ -1423,28 +1429,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H6" s="2">
         <v>45107</v>
       </c>
       <c r="I6" s="1">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1523,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
@@ -1591,28 +1597,28 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H7" s="2">
         <v>45107</v>
       </c>
       <c r="I7" s="1">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1691,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1733,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -1742,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="1">
         <v>0</v>
@@ -1759,28 +1765,28 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>5707</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H8" s="2">
         <v>45107</v>
       </c>
       <c r="I8" s="1">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1927,28 +1933,28 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2">
         <v>45107</v>
       </c>
       <c r="I9" s="1">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1967,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -2027,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK9" s="1">
         <v>1</v>
@@ -2078,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
@@ -2095,34 +2101,34 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
-        <v>165365057</v>
+        <v>446220</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H10" s="2">
         <v>45107</v>
       </c>
       <c r="I10" s="1">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -2156,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -2195,13 +2201,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>281</v>
+        <v>150</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="1">
         <v>0</v>
@@ -2246,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="1">
         <v>0</v>
@@ -2263,34 +2269,34 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H11" s="2">
         <v>45107</v>
       </c>
       <c r="I11" s="1">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -2303,10 +2309,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -2363,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
         <v>1</v>
@@ -2431,34 +2437,34 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
-        <v>62300</v>
+        <v>165365057</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H12" s="2">
         <v>45107</v>
       </c>
       <c r="I12" s="1">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2531,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
         <v>1</v>
@@ -2582,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="BA12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="1">
         <v>0</v>
@@ -2599,28 +2605,28 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>2519</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H13" s="2">
         <v>45107</v>
       </c>
       <c r="I13" s="1">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -2767,28 +2773,28 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H14" s="2">
         <v>45107</v>
       </c>
       <c r="I14" s="1">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -2807,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2867,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="AK14" s="1">
         <v>1</v>
@@ -2918,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2935,28 +2941,28 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
-        <v>88890</v>
+        <v>3034034</v>
       </c>
       <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H15" s="2">
         <v>45107</v>
       </c>
       <c r="I15" s="1">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -3035,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -3077,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="1">
         <v>0</v>
@@ -3086,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -3103,28 +3109,28 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
-        <v>5707</v>
+        <v>5462328</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H16" s="2">
         <v>45107</v>
       </c>
       <c r="I16" s="1">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -3152,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>
@@ -3203,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="AK16" s="1">
         <v>0</v>
@@ -3274,31 +3280,31 @@
         <v>34</v>
       </c>
       <c r="C17" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
         <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H17" s="2">
         <v>45107</v>
       </c>
       <c r="I17" s="1">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3311,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -3371,10 +3377,10 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="AK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>1</v>
@@ -3439,34 +3445,34 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1">
-        <v>3034034</v>
+        <v>62300</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H18" s="2">
         <v>45107</v>
       </c>
       <c r="I18" s="1">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3539,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="AK18" s="1">
         <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -3581,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="AX18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>0</v>
@@ -3607,34 +3613,34 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H19" s="2">
         <v>45107</v>
       </c>
       <c r="I19" s="1">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3707,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>1</v>
@@ -3758,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="1">
         <v>0</v>
@@ -3775,28 +3781,28 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1">
         <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H20" s="2">
         <v>45107</v>
       </c>
       <c r="I20" s="1">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3943,28 +3949,28 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
         <v>3034034</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H21" s="2">
         <v>45107</v>
       </c>
       <c r="I21" s="1">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -4111,28 +4117,28 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1">
         <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H22" s="2">
         <v>45107</v>
       </c>
       <c r="I22" s="1">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -4279,28 +4285,28 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
         <v>10836</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H23" s="2">
         <v>45100</v>
       </c>
       <c r="I23" s="1">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -4447,28 +4453,28 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" t="s">
         <v>65</v>
       </c>
-      <c r="E24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
-      </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="2">
         <v>45526</v>
       </c>
       <c r="I24" s="1">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4546,14 +4552,12 @@
       <c r="AI24" s="1">
         <v>0</v>
       </c>
-      <c r="AJ24" s="1">
-        <v>44</v>
-      </c>
+      <c r="AJ24" s="1"/>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4598,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="1">
         <v>0</v>
@@ -4615,34 +4619,34 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H25" s="2">
         <v>45526</v>
       </c>
       <c r="I25" s="1">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1">
@@ -4655,10 +4659,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -4715,10 +4719,10 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>1</v>
@@ -4766,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="1">
         <v>0</v>
@@ -4783,28 +4787,28 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
         <v>5707</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H26" s="2">
         <v>45526</v>
       </c>
       <c r="I26" s="1">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
@@ -4951,34 +4955,34 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1">
-        <v>5486550</v>
+        <v>4680</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H27" s="2">
         <v>45526</v>
       </c>
       <c r="I27" s="1">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -5051,10 +5055,10 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>1</v>
@@ -5119,34 +5123,32 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="1">
-        <v>91725431</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H28" s="2">
         <v>45526</v>
       </c>
       <c r="I28" s="1">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -5219,13 +5221,13 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -5287,32 +5289,34 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C29" s="1">
+        <v>91725431</v>
+      </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H29" s="2">
         <v>45526</v>
       </c>
       <c r="I29" s="1">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5385,13 +5389,13 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5453,28 +5457,28 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H30" s="2">
         <v>45526</v>
       </c>
       <c r="I30" s="1">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -5553,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="AK30" s="1">
         <v>1</v>
@@ -5598,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="AY30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ30" s="1">
         <v>0</v>
@@ -5621,34 +5625,34 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1">
-        <v>5462507</v>
+        <v>12107</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H31" s="2">
         <v>45526</v>
       </c>
       <c r="I31" s="1">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1">
@@ -5720,7 +5724,9 @@
       <c r="AI31" s="1">
         <v>0</v>
       </c>
-      <c r="AJ31" s="1"/>
+      <c r="AJ31" s="1">
+        <v>104</v>
+      </c>
       <c r="AK31" s="1">
         <v>0</v>
       </c>
@@ -5770,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5787,34 +5793,34 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H32" s="2">
         <v>45526</v>
       </c>
       <c r="I32" s="1">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5887,13 +5893,13 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="AK32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -5955,28 +5961,28 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1">
-        <v>4680</v>
+        <v>10836</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H33" s="2">
         <v>45526</v>
       </c>
       <c r="I33" s="1">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -6013,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="1">
         <v>0</v>
@@ -6055,13 +6061,13 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="AK33" s="1">
         <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -6100,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="AY33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="1">
         <v>0</v>
@@ -6123,34 +6129,34 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1">
-        <v>10836</v>
+        <v>5462328</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H34" s="2">
         <v>45526</v>
       </c>
       <c r="I34" s="1">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -6181,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="1">
         <v>0</v>
@@ -6223,13 +6229,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34" s="1">
         <v>0</v>
@@ -6291,34 +6297,34 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H35" s="2">
         <v>45526</v>
       </c>
       <c r="I35" s="1">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6331,10 +6337,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -6391,10 +6397,10 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>1</v>
@@ -6442,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB35" s="1">
         <v>0</v>
@@ -6459,34 +6465,34 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H36" s="2">
         <v>45526</v>
       </c>
       <c r="I36" s="1">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6520,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -6559,13 +6565,13 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="AK36" s="1">
         <v>0</v>
       </c>
       <c r="AL36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36" s="1">
         <v>0</v>
@@ -6610,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB36" s="1">
         <v>0</v>
@@ -6627,34 +6633,34 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1">
-        <v>10836</v>
+        <v>446220</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H37" s="2">
         <v>45526</v>
       </c>
       <c r="I37" s="1">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
@@ -6685,13 +6691,13 @@
         <v>0</v>
       </c>
       <c r="V37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -6727,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AK37" s="1">
         <v>0</v>
@@ -6795,28 +6801,28 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1">
         <v>527015</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H38" s="2">
         <v>45526</v>
       </c>
       <c r="I38" s="1">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -6963,28 +6969,28 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
         <v>88890</v>
       </c>
       <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" t="s">
         <v>65</v>
       </c>
-      <c r="E39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" t="s">
-        <v>68</v>
-      </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H39" s="2">
         <v>45526</v>
       </c>
       <c r="I39" s="1">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -7131,28 +7137,28 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1">
         <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H40" s="2">
         <v>45526</v>
       </c>
       <c r="I40" s="1">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7299,28 +7305,28 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C41" s="1">
-        <v>165365057</v>
+        <v>10836</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H41" s="2">
         <v>45526</v>
       </c>
       <c r="I41" s="1">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -7357,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="1">
         <v>0</v>
@@ -7399,13 +7405,13 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="AK41" s="1">
         <v>0</v>
       </c>
       <c r="AL41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="1">
         <v>0</v>
@@ -7450,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="1">
         <v>0</v>
@@ -7467,28 +7473,28 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" s="1">
         <v>10836</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G42" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H42" s="2">
         <v>45525</v>
       </c>
       <c r="I42" s="1">
-        <v>2290</v>
+        <v>2294</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -7635,28 +7641,28 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1">
         <v>448223</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H43" s="2">
         <v>45525</v>
       </c>
       <c r="I43" s="1">
-        <v>2333</v>
+        <v>2337</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
@@ -7801,28 +7807,28 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1">
         <v>446220</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H44" s="2">
         <v>45525</v>
       </c>
       <c r="I44" s="1">
-        <v>2333</v>
+        <v>2337</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -7969,28 +7975,28 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1">
         <v>119478</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H45" s="2">
         <v>45525</v>
       </c>
       <c r="I45" s="1">
-        <v>2333</v>
+        <v>2337</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
@@ -8135,28 +8141,28 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H46" s="2">
         <v>45446</v>
       </c>
       <c r="I46" s="1">
-        <v>2335</v>
+        <v>2339</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -8175,10 +8181,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="1">
         <v>0</v>
@@ -8235,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK46" s="1">
         <v>1</v>
@@ -8286,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB46" s="1">
         <v>0</v>
@@ -8303,28 +8309,28 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C47" s="1">
-        <v>88890</v>
+        <v>2519</v>
       </c>
       <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" t="s">
         <v>65</v>
       </c>
-      <c r="E47" t="s">
-        <v>95</v>
-      </c>
-      <c r="F47" t="s">
-        <v>68</v>
-      </c>
       <c r="G47" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H47" s="2">
         <v>45446</v>
       </c>
       <c r="I47" s="1">
-        <v>2335</v>
+        <v>2339</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -8370,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z47" s="1">
         <v>0</v>
@@ -8403,13 +8409,13 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AK47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -8445,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="AX47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY47" s="1">
         <v>0</v>
@@ -8454,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="BA47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="1">
         <v>0</v>
@@ -8471,28 +8477,28 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1">
-        <v>5707</v>
+        <v>3345</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H48" s="2">
         <v>45446</v>
       </c>
       <c r="I48" s="1">
-        <v>2335</v>
+        <v>2339</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8511,16 +8517,16 @@
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="1">
         <v>0</v>
@@ -8571,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="AK48" s="1">
         <v>1</v>
@@ -8639,28 +8645,28 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1">
-        <v>2519</v>
+        <v>5707</v>
       </c>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H49" s="2">
         <v>45446</v>
       </c>
       <c r="I49" s="1">
-        <v>2335</v>
+        <v>2339</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -8685,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -8706,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
         <v>0</v>
@@ -8739,13 +8745,13 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="AK49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM49" s="1">
         <v>0</v>
@@ -8781,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="1">
         <v>0</v>
@@ -8807,28 +8813,28 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C50" s="1">
-        <v>66924</v>
+        <v>10836</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H50" s="2">
         <v>45649</v>
       </c>
       <c r="I50" s="1">
-        <v>2754</v>
+        <v>2761</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8862,10 +8868,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -8907,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="AK50" s="1">
         <v>0</v>
@@ -8975,28 +8981,28 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C51" s="1">
-        <v>10836</v>
+        <v>66924</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G51" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H51" s="2">
         <v>45649</v>
       </c>
       <c r="I51" s="1">
-        <v>2754</v>
+        <v>2761</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -9030,10 +9036,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -9075,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="AK51" s="1">
         <v>0</v>
@@ -9143,28 +9149,28 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" s="1">
         <v>6213</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G52" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H52" s="2">
         <v>45649</v>
       </c>
       <c r="I52" s="1">
-        <v>2754</v>
+        <v>2761</v>
       </c>
       <c r="J52" s="1">
         <v>0</v>
@@ -9309,28 +9315,26 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="1">
-        <v>62300</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C53" s="1"/>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G53" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H53" s="2">
         <v>45664</v>
       </c>
       <c r="I53" s="1">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
@@ -9403,19 +9407,19 @@
         <v>0</v>
       </c>
       <c r="AH53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI53" s="1">
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>275</v>
+        <v>135</v>
       </c>
       <c r="AK53" s="1">
         <v>0</v>
       </c>
       <c r="AL53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="1">
         <v>0</v>
@@ -9477,26 +9481,28 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C54" s="1">
+        <v>10836</v>
+      </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E54" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F54" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G54" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H54" s="2">
         <v>45664</v>
       </c>
       <c r="I54" s="1">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="J54" s="1">
         <v>0</v>
@@ -9533,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54" s="1">
         <v>0</v>
@@ -9569,13 +9575,13 @@
         <v>0</v>
       </c>
       <c r="AH54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="1">
         <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="AK54" s="1">
         <v>0</v>
@@ -9643,28 +9649,28 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C55" s="1">
-        <v>10836</v>
+        <v>12562546</v>
       </c>
       <c r="D55" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G55" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H55" s="2">
         <v>45664</v>
       </c>
       <c r="I55" s="1">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
@@ -9701,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55" s="1">
         <v>0</v>
@@ -9743,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -9761,13 +9767,13 @@
         <v>0</v>
       </c>
       <c r="AP55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ55" s="1">
         <v>0</v>
       </c>
       <c r="AR55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS55" s="1">
         <v>0</v>
@@ -9811,28 +9817,28 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C56" s="1">
-        <v>5707</v>
+        <v>4914</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H56" s="2">
         <v>45664</v>
       </c>
       <c r="I56" s="1">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -9857,10 +9863,10 @@
         <v>0</v>
       </c>
       <c r="R56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" s="1">
         <v>0</v>
@@ -9911,13 +9917,13 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="AK56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="1">
         <v>0</v>
@@ -9953,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="AX56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY56" s="1">
         <v>0</v>
@@ -9979,28 +9985,28 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C57" s="1">
-        <v>4914</v>
+        <v>68602</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G57" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H57" s="2">
         <v>45664</v>
       </c>
       <c r="I57" s="1">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="J57" s="1">
         <v>0</v>
@@ -10079,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="AK57" s="1">
         <v>0</v>
@@ -10121,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="AX57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY57" s="1">
         <v>0</v>
@@ -10147,34 +10153,34 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C58" s="1">
-        <v>12562546</v>
+        <v>88890</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F58" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G58" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H58" s="2">
         <v>45664</v>
       </c>
       <c r="I58" s="1">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -10247,13 +10253,13 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM58" s="1">
         <v>0</v>
@@ -10265,13 +10271,13 @@
         <v>0</v>
       </c>
       <c r="AP58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ58" s="1">
         <v>0</v>
       </c>
       <c r="AR58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS58" s="1">
         <v>0</v>
@@ -10298,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB58" s="1">
         <v>0</v>
@@ -10315,28 +10321,28 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C59" s="1">
-        <v>6213</v>
+        <v>21812144</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H59" s="2">
         <v>45664</v>
       </c>
       <c r="I59" s="1">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -10414,12 +10420,14 @@
       <c r="AI59" s="1">
         <v>0</v>
       </c>
-      <c r="AJ59" s="1"/>
+      <c r="AJ59" s="1">
+        <v>167</v>
+      </c>
       <c r="AK59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -10467,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="BB59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC59" s="1">
         <v>0</v>
@@ -10481,28 +10489,28 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C60" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" t="s">
         <v>65</v>
       </c>
-      <c r="E60" t="s">
-        <v>95</v>
-      </c>
-      <c r="F60" t="s">
-        <v>68</v>
-      </c>
       <c r="G60" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H60" s="2">
         <v>45664</v>
       </c>
       <c r="I60" s="1">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -10581,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="AK60" s="1">
         <v>1</v>
@@ -10632,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="BA60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="1">
         <v>0</v>
@@ -10649,34 +10657,34 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C61" s="1">
-        <v>3345</v>
+        <v>4914</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G61" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H61" s="2">
         <v>45664</v>
       </c>
       <c r="I61" s="1">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -10689,10 +10697,10 @@
         <v>0</v>
       </c>
       <c r="P61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
         <v>0</v>
@@ -10749,13 +10757,13 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="AK61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="1">
         <v>0</v>
@@ -10791,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="AX61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY61" s="1">
         <v>0</v>
@@ -10817,34 +10825,34 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C62" s="1">
-        <v>68602</v>
+        <v>6213</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G62" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H62" s="2">
         <v>45664</v>
       </c>
       <c r="I62" s="1">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -10916,9 +10924,7 @@
       <c r="AI62" s="1">
         <v>0</v>
       </c>
-      <c r="AJ62" s="1">
-        <v>224</v>
-      </c>
+      <c r="AJ62" s="1"/>
       <c r="AK62" s="1">
         <v>0</v>
       </c>
@@ -10985,28 +10991,28 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C63" s="1">
-        <v>21812144</v>
+        <v>3345</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H63" s="2">
         <v>45664</v>
       </c>
       <c r="I63" s="1">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -11025,10 +11031,10 @@
         <v>0</v>
       </c>
       <c r="P63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
@@ -11085,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK63" s="1">
         <v>1</v>
@@ -11139,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="BB63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC63" s="1">
         <v>0</v>
@@ -11153,28 +11159,28 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C64" s="1">
-        <v>4914</v>
+        <v>5707</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G64" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H64" s="2">
         <v>45664</v>
       </c>
       <c r="I64" s="1">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -11199,10 +11205,10 @@
         <v>0</v>
       </c>
       <c r="R64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
@@ -11253,13 +11259,13 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11295,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="AX64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY64" s="1">
         <v>0</v>
@@ -11321,34 +11327,34 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C65" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G65" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H65" s="2">
         <v>45664</v>
       </c>
       <c r="I65" s="1">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11421,10 +11427,10 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>1</v>
@@ -11489,28 +11495,28 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66" s="1">
         <v>10836</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G66" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H66" s="2">
         <v>45664</v>
       </c>
       <c r="I66" s="1">
-        <v>2756</v>
+        <v>2763</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -11657,28 +11663,28 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C67" s="1">
-        <v>1983</v>
+        <v>10836</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G67" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H67" s="2">
         <v>45665</v>
       </c>
       <c r="I67" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -11715,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W67" s="1">
         <v>0</v>
@@ -11757,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="AK67" s="1">
         <v>0</v>
@@ -11825,26 +11831,28 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5486550</v>
+      </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E68" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="F68" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G68" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H68" s="2">
         <v>45665</v>
       </c>
       <c r="I68" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -11917,19 +11925,19 @@
         <v>0</v>
       </c>
       <c r="AH68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI68" s="1">
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="AK68" s="1">
         <v>0</v>
       </c>
       <c r="AL68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM68" s="1">
         <v>0</v>
@@ -11968,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ68" s="1">
         <v>0</v>
@@ -11991,28 +11999,28 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C69" s="1">
-        <v>88890</v>
+        <v>3676</v>
       </c>
       <c r="D69" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="E69" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G69" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H69" s="2">
         <v>45665</v>
       </c>
       <c r="I69" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
@@ -12091,13 +12099,13 @@
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="AK69" s="1">
         <v>0</v>
       </c>
       <c r="AL69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69" s="1">
         <v>0</v>
@@ -12133,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="AX69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY69" s="1">
         <v>0</v>
@@ -12142,7 +12150,7 @@
         <v>0</v>
       </c>
       <c r="BA69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB69" s="1">
         <v>0</v>
@@ -12159,34 +12167,34 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C70" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E70" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F70" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G70" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H70" s="2">
         <v>45665</v>
       </c>
       <c r="I70" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
@@ -12205,10 +12213,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -12223,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y70" s="1">
         <v>0</v>
@@ -12259,13 +12267,13 @@
         <v>0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70" s="1">
         <v>0</v>
@@ -12327,10 +12335,10 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" s="1">
-        <v>33741</v>
+        <v>21812144</v>
       </c>
       <c r="D71" t="s">
         <v>85</v>
@@ -12339,16 +12347,16 @@
         <v>114</v>
       </c>
       <c r="F71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H71" s="2">
         <v>45665</v>
       </c>
       <c r="I71" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -12406,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD71" s="1">
         <v>0</v>
@@ -12427,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="AK71" s="1">
         <v>0</v>
@@ -12481,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="BB71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC71" s="1">
         <v>0</v>
@@ -12495,28 +12503,26 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" s="1">
-        <v>5486550</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C72" s="1"/>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="F72" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G72" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H72" s="2">
         <v>45665</v>
       </c>
       <c r="I72" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -12589,19 +12595,19 @@
         <v>0</v>
       </c>
       <c r="AH72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI72" s="1">
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="AK72" s="1">
         <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -12640,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="AY72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ72" s="1">
         <v>0</v>
@@ -12663,34 +12669,34 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C73" s="1">
-        <v>21812144</v>
+        <v>3345</v>
       </c>
       <c r="D73" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F73" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G73" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H73" s="2">
         <v>45665</v>
       </c>
       <c r="I73" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -12703,10 +12709,10 @@
         <v>0</v>
       </c>
       <c r="P73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="1">
         <v>0</v>
@@ -12763,10 +12769,10 @@
         <v>0</v>
       </c>
       <c r="AJ73" s="1">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AK73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL73" s="1">
         <v>1</v>
@@ -12817,7 +12823,7 @@
         <v>0</v>
       </c>
       <c r="BB73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC73" s="1">
         <v>0</v>
@@ -12831,28 +12837,28 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C74" s="1">
-        <v>3345</v>
+        <v>12562546</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G74" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H74" s="2">
         <v>45665</v>
       </c>
       <c r="I74" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -12871,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="P74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -12931,13 +12937,13 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="1">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="AK74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74" s="1">
         <v>0</v>
@@ -12946,16 +12952,16 @@
         <v>0</v>
       </c>
       <c r="AO74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS74" s="1">
         <v>0</v>
@@ -12999,28 +13005,28 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C75" s="1">
         <v>68602</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E75" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F75" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G75" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H75" s="2">
         <v>45665</v>
       </c>
       <c r="I75" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -13167,34 +13173,34 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C76" s="1">
-        <v>12562546</v>
+        <v>33741</v>
       </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E76" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F76" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G76" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H76" s="2">
         <v>45665</v>
       </c>
       <c r="I76" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -13246,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD76" s="1">
         <v>0</v>
@@ -13267,13 +13273,13 @@
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="AK76" s="1">
         <v>0</v>
       </c>
       <c r="AL76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM76" s="1">
         <v>0</v>
@@ -13282,16 +13288,16 @@
         <v>0</v>
       </c>
       <c r="AO76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS76" s="1">
         <v>0</v>
@@ -13335,28 +13341,28 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C77" s="1">
-        <v>10836</v>
+        <v>1983</v>
       </c>
       <c r="D77" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E77" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="F77" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G77" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H77" s="2">
         <v>45665</v>
       </c>
       <c r="I77" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -13393,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="V77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W77" s="1">
         <v>0</v>
@@ -13435,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="AJ77" s="1">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="AK77" s="1">
         <v>0</v>
@@ -13503,34 +13509,34 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C78" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F78" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G78" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H78" s="2">
         <v>45665</v>
       </c>
       <c r="I78" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -13549,10 +13555,10 @@
         <v>0</v>
       </c>
       <c r="R78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -13603,10 +13609,10 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="1">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="AK78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL78" s="1">
         <v>1</v>
@@ -13671,34 +13677,34 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C79" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D79" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E79" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F79" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G79" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H79" s="2">
         <v>45665</v>
       </c>
       <c r="I79" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1">
@@ -13770,14 +13776,12 @@
       <c r="AI79" s="1">
         <v>0</v>
       </c>
-      <c r="AJ79" s="1">
-        <v>201</v>
-      </c>
+      <c r="AJ79" s="1"/>
       <c r="AK79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -13839,10 +13843,10 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C80" s="1">
-        <v>446220</v>
+        <v>5462328</v>
       </c>
       <c r="D80" t="s">
         <v>63</v>
@@ -13851,22 +13855,22 @@
         <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G80" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H80" s="2">
         <v>45665</v>
       </c>
       <c r="I80" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1">
@@ -13903,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y80" s="1">
         <v>0</v>
@@ -13939,13 +13943,13 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="AK80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -14007,28 +14011,28 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C81" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D81" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E81" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G81" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H81" s="2">
         <v>45665</v>
       </c>
       <c r="I81" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J81" s="1">
         <v>0</v>
@@ -14106,12 +14110,14 @@
       <c r="AI81" s="1">
         <v>0</v>
       </c>
-      <c r="AJ81" s="1"/>
+      <c r="AJ81" s="1">
+        <v>44</v>
+      </c>
       <c r="AK81" s="1">
         <v>0</v>
       </c>
       <c r="AL81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM81" s="1">
         <v>0</v>
@@ -14156,7 +14162,7 @@
         <v>0</v>
       </c>
       <c r="BA81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB81" s="1">
         <v>0</v>
@@ -14173,28 +14179,28 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C82" s="1">
-        <v>3676</v>
+        <v>62300</v>
       </c>
       <c r="D82" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E82" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="F82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G82" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H82" s="2">
         <v>45665</v>
       </c>
       <c r="I82" s="1">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="J82" s="1">
         <v>0</v>
@@ -14273,13 +14279,13 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="AK82" s="1">
         <v>0</v>
       </c>
       <c r="AL82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM82" s="1">
         <v>0</v>
@@ -14315,7 +14321,7 @@
         <v>0</v>
       </c>
       <c r="AX82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY82" s="1">
         <v>0</v>
@@ -14341,28 +14347,28 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C83" s="1">
         <v>10836</v>
       </c>
       <c r="D83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E83" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F83" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G83" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H83" s="2">
         <v>45649</v>
       </c>
       <c r="I83" s="1">
-        <v>2758</v>
+        <v>2765</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -14509,34 +14515,34 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C84" s="1">
-        <v>1983</v>
+        <v>88890</v>
       </c>
       <c r="D84" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E84" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F84" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H84" s="2">
         <v>45602</v>
       </c>
       <c r="I84" s="1">
-        <v>2759</v>
+        <v>2766</v>
       </c>
       <c r="J84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
@@ -14609,13 +14615,13 @@
         <v>0</v>
       </c>
       <c r="AJ84" s="1">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="AK84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -14660,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="BA84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB84" s="1">
         <v>0</v>
@@ -14677,34 +14683,32 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="1">
-        <v>5707</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C85" s="1"/>
       <c r="D85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E85" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="F85" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G85" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H85" s="2">
         <v>45602</v>
       </c>
       <c r="I85" s="1">
-        <v>2759</v>
+        <v>2766</v>
       </c>
       <c r="J85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -14726,10 +14730,10 @@
         <v>0</v>
       </c>
       <c r="S85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85" s="1">
         <v>0</v>
@@ -14771,19 +14775,19 @@
         <v>0</v>
       </c>
       <c r="AH85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ85" s="1">
-        <v>324</v>
+        <v>135</v>
       </c>
       <c r="AK85" s="1">
         <v>0</v>
       </c>
       <c r="AL85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -14845,34 +14849,34 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C86" s="1">
-        <v>3676</v>
+        <v>5707</v>
       </c>
       <c r="D86" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E86" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F86" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G86" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H86" s="2">
         <v>45602</v>
       </c>
       <c r="I86" s="1">
-        <v>2759</v>
+        <v>2766</v>
       </c>
       <c r="J86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
@@ -14894,10 +14898,10 @@
         <v>0</v>
       </c>
       <c r="S86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86" s="1">
         <v>0</v>
@@ -14945,13 +14949,13 @@
         <v>0</v>
       </c>
       <c r="AJ86" s="1">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="AK86" s="1">
         <v>0</v>
       </c>
       <c r="AL86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM86" s="1">
         <v>0</v>
@@ -14987,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="AX86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY86" s="1">
         <v>0</v>
@@ -15013,28 +15017,28 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C87" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D87" t="s">
+        <v>71</v>
+      </c>
+      <c r="E87" t="s">
+        <v>100</v>
+      </c>
+      <c r="F87" t="s">
         <v>65</v>
       </c>
-      <c r="E87" t="s">
-        <v>95</v>
-      </c>
-      <c r="F87" t="s">
-        <v>68</v>
-      </c>
       <c r="G87" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H87" s="2">
         <v>45602</v>
       </c>
       <c r="I87" s="1">
-        <v>2759</v>
+        <v>2766</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -15053,10 +15057,10 @@
         <v>0</v>
       </c>
       <c r="P87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87" s="1">
         <v>0</v>
@@ -15113,7 +15117,7 @@
         <v>0</v>
       </c>
       <c r="AJ87" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK87" s="1">
         <v>1</v>
@@ -15164,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="BA87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB87" s="1">
         <v>0</v>
@@ -15181,34 +15185,34 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C88" s="1">
-        <v>68602</v>
+        <v>1983</v>
       </c>
       <c r="D88" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E88" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F88" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G88" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H88" s="2">
         <v>45602</v>
       </c>
       <c r="I88" s="1">
-        <v>2759</v>
+        <v>2766</v>
       </c>
       <c r="J88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1">
@@ -15281,7 +15285,7 @@
         <v>0</v>
       </c>
       <c r="AJ88" s="1">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="AK88" s="1">
         <v>0</v>
@@ -15349,26 +15353,28 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
-      </c>
-      <c r="C89" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C89" s="1">
+        <v>68602</v>
+      </c>
       <c r="D89" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E89" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="F89" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G89" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H89" s="2">
         <v>45602</v>
       </c>
       <c r="I89" s="1">
-        <v>2759</v>
+        <v>2766</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -15441,13 +15447,13 @@
         <v>0</v>
       </c>
       <c r="AH89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ89" s="1">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c r="AK89" s="1">
         <v>0</v>
@@ -15515,28 +15521,28 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C90" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D90" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E90" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F90" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G90" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H90" s="2">
         <v>45602</v>
       </c>
       <c r="I90" s="1">
-        <v>2759</v>
+        <v>2766</v>
       </c>
       <c r="J90" s="1">
         <v>1</v>
@@ -15555,10 +15561,10 @@
         <v>0</v>
       </c>
       <c r="P90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R90" s="1">
         <v>0</v>
@@ -15615,13 +15621,13 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="1">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="AK90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -15657,7 +15663,7 @@
         <v>0</v>
       </c>
       <c r="AX90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY90" s="1">
         <v>0</v>
@@ -15683,28 +15689,28 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C91" s="1">
         <v>6213</v>
       </c>
       <c r="D91" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E91" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F91" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G91" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H91" s="2">
         <v>45602</v>
       </c>
       <c r="I91" s="1">
-        <v>2759</v>
+        <v>2766</v>
       </c>
       <c r="J91" s="1">
         <v>1</v>
@@ -15849,28 +15855,28 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C92" s="1">
         <v>2118</v>
       </c>
       <c r="D92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E92" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F92" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G92" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H92" s="2">
         <v>45611</v>
       </c>
       <c r="I92" s="1">
-        <v>2760</v>
+        <v>2767</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
@@ -16017,28 +16023,28 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C93" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D93" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F93" t="s">
         <v>65</v>
       </c>
-      <c r="E93" t="s">
-        <v>95</v>
-      </c>
-      <c r="F93" t="s">
-        <v>68</v>
-      </c>
       <c r="G93" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H93" s="2">
         <v>45666</v>
       </c>
       <c r="I93" s="1">
-        <v>2761</v>
+        <v>2768</v>
       </c>
       <c r="J93" s="1">
         <v>1</v>
@@ -16117,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="AJ93" s="1">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="AK93" s="1">
         <v>1</v>
@@ -16168,7 +16174,7 @@
         <v>0</v>
       </c>
       <c r="BA93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB93" s="1">
         <v>0</v>
@@ -16185,34 +16191,34 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C94" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D94" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E94" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F94" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G94" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H94" s="2">
         <v>45666</v>
       </c>
       <c r="I94" s="1">
-        <v>2761</v>
+        <v>2768</v>
       </c>
       <c r="J94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
@@ -16284,14 +16290,12 @@
       <c r="AI94" s="1">
         <v>0</v>
       </c>
-      <c r="AJ94" s="1">
-        <v>201</v>
-      </c>
+      <c r="AJ94" s="1"/>
       <c r="AK94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM94" s="1">
         <v>0</v>
@@ -16353,28 +16357,28 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C95" s="1">
-        <v>26879</v>
+        <v>10836</v>
       </c>
       <c r="D95" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="E95" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F95" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G95" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H95" s="2">
         <v>45666</v>
       </c>
       <c r="I95" s="1">
-        <v>2761</v>
+        <v>2768</v>
       </c>
       <c r="J95" s="1">
         <v>0</v>
@@ -16411,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="V95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W95" s="1">
         <v>0</v>
@@ -16426,7 +16430,7 @@
         <v>0</v>
       </c>
       <c r="AA95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB95" s="1">
         <v>0</v>
@@ -16453,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="AJ95" s="1">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="AK95" s="1">
         <v>0</v>
@@ -16495,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="AX95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY95" s="1">
         <v>0</v>
@@ -16521,28 +16525,28 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C96" s="1">
-        <v>10836</v>
+        <v>5486550</v>
       </c>
       <c r="D96" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E96" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F96" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G96" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H96" s="2">
         <v>45666</v>
       </c>
       <c r="I96" s="1">
-        <v>2761</v>
+        <v>2768</v>
       </c>
       <c r="J96" s="1">
         <v>0</v>
@@ -16579,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W96" s="1">
         <v>0</v>
@@ -16621,13 +16625,13 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="1">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="AK96" s="1">
         <v>0</v>
       </c>
       <c r="AL96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM96" s="1">
         <v>0</v>
@@ -16666,7 +16670,7 @@
         <v>0</v>
       </c>
       <c r="AY96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ96" s="1">
         <v>0</v>
@@ -16689,28 +16693,28 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C97" s="1">
-        <v>5486550</v>
+        <v>26879</v>
       </c>
       <c r="D97" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F97" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G97" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H97" s="2">
         <v>45666</v>
       </c>
       <c r="I97" s="1">
-        <v>2761</v>
+        <v>2768</v>
       </c>
       <c r="J97" s="1">
         <v>0</v>
@@ -16762,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="AA97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB97" s="1">
         <v>0</v>
@@ -16789,13 +16793,13 @@
         <v>0</v>
       </c>
       <c r="AJ97" s="1">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="AK97" s="1">
         <v>0</v>
       </c>
       <c r="AL97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM97" s="1">
         <v>0</v>
@@ -16831,10 +16835,10 @@
         <v>0</v>
       </c>
       <c r="AX97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ97" s="1">
         <v>0</v>
@@ -16857,28 +16861,28 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D98" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F98" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G98" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H98" s="2">
         <v>45666</v>
       </c>
       <c r="I98" s="1">
-        <v>2761</v>
+        <v>2768</v>
       </c>
       <c r="J98" s="1">
         <v>1</v>
@@ -16897,10 +16901,10 @@
         <v>0</v>
       </c>
       <c r="P98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98" s="1">
         <v>0</v>
@@ -16957,7 +16961,7 @@
         <v>0</v>
       </c>
       <c r="AJ98" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK98" s="1">
         <v>1</v>
@@ -17008,7 +17012,7 @@
         <v>0</v>
       </c>
       <c r="BA98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB98" s="1">
         <v>0</v>
@@ -17025,34 +17029,34 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C99" s="1">
-        <v>5462507</v>
+        <v>3345</v>
       </c>
       <c r="D99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F99" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G99" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H99" s="2">
         <v>45666</v>
       </c>
       <c r="I99" s="1">
-        <v>2761</v>
+        <v>2768</v>
       </c>
       <c r="J99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1">
@@ -17065,10 +17069,10 @@
         <v>0</v>
       </c>
       <c r="P99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99" s="1">
         <v>0</v>
@@ -17124,12 +17128,14 @@
       <c r="AI99" s="1">
         <v>0</v>
       </c>
-      <c r="AJ99" s="1"/>
+      <c r="AJ99" s="1">
+        <v>191</v>
+      </c>
       <c r="AK99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM99" s="1">
         <v>0</v>
@@ -17191,28 +17197,28 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C100" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E100" t="s">
+        <v>100</v>
+      </c>
+      <c r="F100" t="s">
         <v>65</v>
       </c>
-      <c r="E100" t="s">
-        <v>95</v>
-      </c>
-      <c r="F100" t="s">
-        <v>68</v>
-      </c>
       <c r="G100" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H100" s="2">
         <v>45666</v>
       </c>
       <c r="I100" s="1">
-        <v>2762</v>
+        <v>2769</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -17231,10 +17237,10 @@
         <v>0</v>
       </c>
       <c r="P100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" s="1">
         <v>0</v>
@@ -17291,7 +17297,7 @@
         <v>0</v>
       </c>
       <c r="AJ100" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="AK100" s="1">
         <v>1</v>
@@ -17342,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="BA100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB100" s="1">
         <v>0</v>
@@ -17359,28 +17365,28 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D101" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F101" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H101" s="2">
         <v>45666</v>
       </c>
       <c r="I101" s="1">
-        <v>2762</v>
+        <v>2769</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -17399,10 +17405,10 @@
         <v>0</v>
       </c>
       <c r="P101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R101" s="1">
         <v>0</v>
@@ -17459,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="AJ101" s="1">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK101" s="1">
         <v>1</v>
@@ -17510,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="BA101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB101" s="1">
         <v>0</v>
@@ -17527,28 +17533,28 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C102" s="1">
-        <v>5462328</v>
+        <v>88890</v>
       </c>
       <c r="D102" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E102" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F102" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G102" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H102" s="2">
         <v>45666</v>
       </c>
       <c r="I102" s="1">
-        <v>2763</v>
+        <v>2770</v>
       </c>
       <c r="J102" s="1">
         <v>1</v>
@@ -17627,7 +17633,7 @@
         <v>0</v>
       </c>
       <c r="AJ102" s="1">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AK102" s="1">
         <v>1</v>
@@ -17678,7 +17684,7 @@
         <v>0</v>
       </c>
       <c r="BA102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB102" s="1">
         <v>0</v>
@@ -17695,34 +17701,34 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C103" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D103" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E103" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F103" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G103" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H103" s="2">
         <v>45666</v>
       </c>
       <c r="I103" s="1">
-        <v>2763</v>
+        <v>2770</v>
       </c>
       <c r="J103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1">
@@ -17795,10 +17801,10 @@
         <v>0</v>
       </c>
       <c r="AJ103" s="1">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="AK103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL103" s="1">
         <v>1</v>
@@ -17840,13 +17846,13 @@
         <v>0</v>
       </c>
       <c r="AY103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ103" s="1">
         <v>0</v>
       </c>
       <c r="BA103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB103" s="1">
         <v>0</v>
@@ -17863,7 +17869,7 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C104" s="1">
         <v>5462507</v>
@@ -17875,16 +17881,16 @@
         <v>101</v>
       </c>
       <c r="F104" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G104" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H104" s="2">
         <v>45666</v>
       </c>
       <c r="I104" s="1">
-        <v>2763</v>
+        <v>2770</v>
       </c>
       <c r="J104" s="1">
         <v>0</v>
@@ -18029,34 +18035,34 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C105" s="1">
-        <v>3345</v>
+        <v>26879</v>
       </c>
       <c r="D105" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="E105" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="F105" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="G105" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H105" s="2">
         <v>45666</v>
       </c>
       <c r="I105" s="1">
-        <v>2763</v>
+        <v>2770</v>
       </c>
       <c r="J105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1">
@@ -18069,10 +18075,10 @@
         <v>0</v>
       </c>
       <c r="P105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R105" s="1">
         <v>0</v>
@@ -18102,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="AA105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB105" s="1">
         <v>0</v>
@@ -18129,13 +18135,13 @@
         <v>0</v>
       </c>
       <c r="AJ105" s="1">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="AK105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM105" s="1">
         <v>0</v>
@@ -18171,7 +18177,7 @@
         <v>0</v>
       </c>
       <c r="AX105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY105" s="1">
         <v>0</v>
@@ -18197,34 +18203,34 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C106" s="1">
-        <v>26879</v>
+        <v>5462328</v>
       </c>
       <c r="D106" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E106" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F106" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G106" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H106" s="2">
         <v>45666</v>
       </c>
       <c r="I106" s="1">
-        <v>2763</v>
+        <v>2770</v>
       </c>
       <c r="J106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1">
@@ -18270,7 +18276,7 @@
         <v>0</v>
       </c>
       <c r="AA106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB106" s="1">
         <v>0</v>
@@ -18297,13 +18303,13 @@
         <v>0</v>
       </c>
       <c r="AJ106" s="1">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AK106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -18339,7 +18345,7 @@
         <v>0</v>
       </c>
       <c r="AX106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY106" s="1">
         <v>0</v>
@@ -18368,31 +18374,31 @@
         <v>37</v>
       </c>
       <c r="C107" s="1">
-        <v>5486550</v>
+        <v>3345</v>
       </c>
       <c r="D107" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E107" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="G107" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H107" s="2">
         <v>45666</v>
       </c>
       <c r="I107" s="1">
-        <v>2763</v>
+        <v>2770</v>
       </c>
       <c r="J107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
@@ -18405,10 +18411,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -18465,10 +18471,10 @@
         <v>0</v>
       </c>
       <c r="AJ107" s="1">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="AK107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL107" s="1">
         <v>1</v>
@@ -18510,7 +18516,7 @@
         <v>0</v>
       </c>
       <c r="AY107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ107" s="1">
         <v>0</v>
@@ -18533,28 +18539,28 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C108" s="1">
         <v>10836</v>
       </c>
       <c r="D108" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E108" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G108" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H108" s="2">
         <v>45687</v>
       </c>
       <c r="I108" s="1">
-        <v>2820</v>
+        <v>2827</v>
       </c>
       <c r="J108" s="1">
         <v>1</v>
@@ -18701,28 +18707,28 @@
         <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C109" s="1">
         <v>10836</v>
       </c>
       <c r="D109" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E109" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F109" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G109" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H109" s="2">
         <v>45687</v>
       </c>
       <c r="I109" s="1">
-        <v>2821</v>
+        <v>2828</v>
       </c>
       <c r="J109" s="1">
         <v>1</v>
@@ -18869,28 +18875,28 @@
         <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C110" s="1">
         <v>10836</v>
       </c>
       <c r="D110" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E110" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F110" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G110" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H110" s="2">
         <v>45666</v>
       </c>
       <c r="I110" s="1">
-        <v>2822</v>
+        <v>2829</v>
       </c>
       <c r="J110" s="1">
         <v>1</v>
@@ -19037,28 +19043,28 @@
         <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C111" s="1">
         <v>10836</v>
       </c>
       <c r="D111" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E111" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F111" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G111" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H111" s="2">
         <v>45687</v>
       </c>
       <c r="I111" s="1">
-        <v>2823</v>
+        <v>2830</v>
       </c>
       <c r="J111" s="1">
         <v>1</v>
@@ -19205,166 +19211,334 @@
         <v>25</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
-      </c>
-      <c r="C112" s="1">
+        <v>59</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" t="s">
+        <v>65</v>
+      </c>
+      <c r="E112" t="s">
+        <v>65</v>
+      </c>
+      <c r="F112" t="s">
+        <v>65</v>
+      </c>
+      <c r="G112" t="s">
+        <v>123</v>
+      </c>
+      <c r="H112" s="2">
+        <v>45688</v>
+      </c>
+      <c r="I112" s="1">
+        <v>2831</v>
+      </c>
+      <c r="J112" s="1">
+        <v>1</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+      <c r="L112" s="1">
+        <v>1</v>
+      </c>
+      <c r="M112" s="1">
+        <v>1</v>
+      </c>
+      <c r="N112" s="1">
+        <v>1</v>
+      </c>
+      <c r="O112" s="1">
+        <v>0</v>
+      </c>
+      <c r="P112" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>0</v>
+      </c>
+      <c r="R112" s="1">
+        <v>0</v>
+      </c>
+      <c r="S112" s="1">
+        <v>0</v>
+      </c>
+      <c r="T112" s="1">
+        <v>0</v>
+      </c>
+      <c r="U112" s="1">
+        <v>0</v>
+      </c>
+      <c r="V112" s="1">
+        <v>0</v>
+      </c>
+      <c r="W112" s="1">
+        <v>0</v>
+      </c>
+      <c r="X112" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="1">
+        <v>253</v>
+      </c>
+      <c r="AK112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD112" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="1">
         <v>10836</v>
       </c>
-      <c r="D112" t="s">
-        <v>60</v>
-      </c>
-      <c r="E112" t="s">
-        <v>90</v>
-      </c>
-      <c r="F112" t="s">
-        <v>68</v>
-      </c>
-      <c r="G112" t="s">
-        <v>121</v>
-      </c>
-      <c r="H112" s="2">
+      <c r="D113" t="s">
+        <v>62</v>
+      </c>
+      <c r="E113" t="s">
+        <v>92</v>
+      </c>
+      <c r="F113" t="s">
+        <v>65</v>
+      </c>
+      <c r="G113" t="s">
+        <v>123</v>
+      </c>
+      <c r="H113" s="2">
         <v>45687</v>
       </c>
-      <c r="I112" s="1">
-        <v>2824</v>
-      </c>
-      <c r="J112" s="1">
-        <v>1</v>
-      </c>
-      <c r="K112" s="1">
-        <v>0</v>
-      </c>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1">
-        <v>1</v>
-      </c>
-      <c r="N112" s="1">
-        <v>1</v>
-      </c>
-      <c r="O112" s="1">
-        <v>0</v>
-      </c>
-      <c r="P112" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="1">
-        <v>0</v>
-      </c>
-      <c r="R112" s="1">
-        <v>0</v>
-      </c>
-      <c r="S112" s="1">
-        <v>0</v>
-      </c>
-      <c r="T112" s="1">
-        <v>0</v>
-      </c>
-      <c r="U112" s="1">
-        <v>1</v>
-      </c>
-      <c r="V112" s="1">
-        <v>1</v>
-      </c>
-      <c r="W112" s="1">
-        <v>0</v>
-      </c>
-      <c r="X112" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y112" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ112" s="1">
+      <c r="I113" s="1">
+        <v>2832</v>
+      </c>
+      <c r="J113" s="1">
+        <v>1</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1">
+        <v>1</v>
+      </c>
+      <c r="N113" s="1">
+        <v>1</v>
+      </c>
+      <c r="O113" s="1">
+        <v>0</v>
+      </c>
+      <c r="P113" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>0</v>
+      </c>
+      <c r="R113" s="1">
+        <v>0</v>
+      </c>
+      <c r="S113" s="1">
+        <v>0</v>
+      </c>
+      <c r="T113" s="1">
+        <v>0</v>
+      </c>
+      <c r="U113" s="1">
+        <v>1</v>
+      </c>
+      <c r="V113" s="1">
+        <v>1</v>
+      </c>
+      <c r="W113" s="1">
+        <v>0</v>
+      </c>
+      <c r="X113" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ113" s="1">
         <v>231</v>
       </c>
-      <c r="AK112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY112" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ112" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA112" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB112" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC112" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD112" s="1">
+      <c r="AK113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC113" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD113" s="1">
         <v>3</v>
       </c>
     </row>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -102,13 +102,10 @@
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>heroin</t>
+    <t>xylazine</t>
   </si>
   <si>
-    <t>caffeine</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
+    <t>4-ANPP</t>
   </si>
   <si>
     <t>p-fluorofentanyl</t>
@@ -117,19 +114,25 @@
     <t>quinine</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
-    <t>4-ANPP</t>
+    <t>fentanyl</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>heroin</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>acetylcodeine</t>
+  </si>
+  <si>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
     <t>papaverine</t>
@@ -138,10 +141,7 @@
     <t>1-phenethyl-4-hydroxypiperidine</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
-    <t>acetylcodeine</t>
+    <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
@@ -162,28 +162,28 @@
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+    <t>bromazolam</t>
   </si>
   <si>
-    <t>bromazolam</t>
+    <t>despropionyl p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>medetomidine</t>
   </si>
   <si>
     <t>procaine</t>
   </si>
   <si>
-    <t>medetomidine</t>
-  </si>
-  <si>
-    <t>despropionyl p-fluorofentanyl</t>
-  </si>
-  <si>
-    <t>lidocaine</t>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
     <t>tramadol</t>
   </si>
   <si>
     <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>lidocaine</t>
   </si>
   <si>
     <t>alprazolam</t>
@@ -204,13 +204,10 @@
     <t>537-46-2</t>
   </si>
   <si>
-    <t>561-27-3</t>
+    <t>7361-61-7</t>
   </si>
   <si>
-    <t>58-08-2</t>
-  </si>
-  <si>
-    <t/>
+    <t>21409-26-7</t>
   </si>
   <si>
     <t>90736-23-5</t>
@@ -219,28 +216,31 @@
     <t>72402-53-0</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
-    <t>21409-26-7</t>
+    <t>437-38-7</t>
   </si>
   <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t>437-38-7</t>
+    <t>561-27-3</t>
   </si>
   <si>
-    <t>2784-73-8</t>
+    <t/>
+  </si>
+  <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
+    <t>6703-27-1</t>
+  </si>
+  <si>
+    <t>1462260-87-2</t>
   </si>
   <si>
     <t>58-74-2</t>
   </si>
   <si>
-    <t>1462260-87-2</t>
-  </si>
-  <si>
-    <t>6703-27-1</t>
+    <t>2784-73-8</t>
   </si>
   <si>
     <t>620-71-3</t>
@@ -264,22 +264,22 @@
     <t>71368-80-4</t>
   </si>
   <si>
-    <t>59-46-1</t>
+    <t>122861-41-0</t>
   </si>
   <si>
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>122861-41-0</t>
-  </si>
-  <si>
-    <t>137-58-6</t>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>123154-38-1</t>
   </si>
   <si>
     <t>103-90-2</t>
+  </si>
+  <si>
+    <t>137-58-6</t>
   </si>
   <si>
     <t>28981-97-7</t>
@@ -294,10 +294,10 @@
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>70D95007SX</t>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>3G6A5W338E</t>
+    <t>Q88EHD0U8G</t>
   </si>
   <si>
     <t>I45R05QM0Z</t>
@@ -306,28 +306,28 @@
     <t>A7V27PHC7A</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
-    <t>Q88EHD0U8G</t>
+    <t>UF599785JZ</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
+    <t>70D95007SX</t>
   </si>
   <si>
-    <t>M5E47P1ZCH</t>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>U59401ETXH</t>
+  </si>
+  <si>
+    <t>3D9E9KK5K5</t>
   </si>
   <si>
     <t>DAA13NKG2Q</t>
   </si>
   <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
-    <t>U59401ETXH</t>
+    <t>M5E47P1ZCH</t>
   </si>
   <si>
     <t>UYP5ZQI00T</t>
@@ -351,22 +351,22 @@
     <t>YMC9OT97Z1</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
+    <t>R8ZH1EQ95Y</t>
   </si>
   <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
-    <t>R8ZH1EQ95Y</t>
-  </si>
-  <si>
-    <t>98PI200987</t>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>39J1LGJ30J</t>
   </si>
   <si>
     <t>362O9ITL9D</t>
+  </si>
+  <si>
+    <t>98PI200987</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -769,7 +769,7 @@
         <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
         <v>123</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="AK2" s="1">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1">
-        <v>5462328</v>
+        <v>5707</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>201</v>
+        <v>377</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>2519</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
@@ -1105,7 +1105,7 @@
         <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
         <v>123</v>
@@ -1117,10 +1117,10 @@
         <v>1316</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1264,13 +1264,13 @@
         <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>165365057</v>
+        <v>62300</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
         <v>121</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="1">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>62300</v>
+        <v>3034034</v>
       </c>
       <c r="D6" t="s">
         <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
         <v>123</v>
@@ -1453,10 +1453,10 @@
         <v>1316</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1600,16 +1600,16 @@
         <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>3034034</v>
+        <v>3345</v>
       </c>
       <c r="D7" t="s">
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
         <v>123</v>
@@ -1637,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>34</v>
       </c>
       <c r="C8" s="1">
-        <v>5707</v>
+        <v>446220</v>
       </c>
       <c r="D8" t="s">
         <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
         <v>123</v>
@@ -1789,10 +1789,10 @@
         <v>1316</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1814,10 +1814,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -1865,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>324</v>
+        <v>175</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -1936,16 +1936,16 @@
         <v>35</v>
       </c>
       <c r="C9" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D9" t="s">
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
         <v>123</v>
@@ -1957,10 +1957,10 @@
         <v>1316</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -2033,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="AK9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="1">
         <v>1</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
@@ -2104,16 +2104,16 @@
         <v>36</v>
       </c>
       <c r="C10" s="1">
-        <v>446220</v>
+        <v>165365057</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
         <v>123</v>
@@ -2125,10 +2125,10 @@
         <v>1316</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
@@ -2201,13 +2201,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>150</v>
+        <v>322</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" s="1">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="1">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D11" t="s">
         <v>71</v>
@@ -2281,7 +2281,7 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
         <v>123</v>
@@ -2293,10 +2293,10 @@
         <v>1316</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -2309,10 +2309,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="1">
         <v>0</v>
@@ -2437,19 +2437,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
         <v>123</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>281</v>
+        <v>49</v>
       </c>
       <c r="AK12" s="1">
         <v>1</v>
@@ -2605,16 +2605,16 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>2519</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
         <v>121</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="AK13" s="1">
         <v>0</v>
@@ -2773,19 +2773,19 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1">
-        <v>3345</v>
+        <v>165365057</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
         <v>123</v>
@@ -2813,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>191</v>
+        <v>322</v>
       </c>
       <c r="AK14" s="1">
         <v>1</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2941,19 +2941,19 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
-        <v>3034034</v>
+        <v>5462328</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
         <v>123</v>
@@ -2965,10 +2965,10 @@
         <v>1459</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -3041,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="AK15" s="1">
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>0</v>
@@ -3109,19 +3109,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
-        <v>5462328</v>
+        <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
         <v>123</v>
@@ -3133,10 +3133,10 @@
         <v>1459</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3149,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
@@ -3209,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="1">
         <v>1</v>
@@ -3277,19 +3277,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1">
-        <v>5707</v>
+        <v>3034034</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
         <v>123</v>
@@ -3301,10 +3301,10 @@
         <v>1459</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -3377,13 +3377,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="1">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="AX17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="1">
         <v>0</v>
@@ -3445,16 +3445,16 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
-        <v>62300</v>
+        <v>5707</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
         <v>121</v>
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="1">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>275</v>
+        <v>377</v>
       </c>
       <c r="AK18" s="1">
         <v>0</v>
@@ -3613,19 +3613,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s">
         <v>123</v>
@@ -3637,10 +3637,10 @@
         <v>1459</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3713,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>1</v>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="1">
         <v>0</v>
@@ -3781,16 +3781,16 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AK20" s="1">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
         <v>3034034</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
         <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
         <v>123</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
@@ -4117,19 +4117,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1">
         <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
         <v>123</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="AK22" s="1">
         <v>1</v>
@@ -4297,7 +4297,7 @@
         <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
         <v>123</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="AK23" s="1">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
@@ -4465,7 +4465,7 @@
         <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
         <v>123</v>
@@ -4552,12 +4552,14 @@
       <c r="AI24" s="1">
         <v>0</v>
       </c>
-      <c r="AJ24" s="1"/>
+      <c r="AJ24" s="1">
+        <v>138</v>
+      </c>
       <c r="AK24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -4596,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="1">
         <v>0</v>
@@ -4619,19 +4621,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
         <v>123</v>
@@ -4659,16 +4661,16 @@
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1">
         <v>0</v>
@@ -4719,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>191</v>
+        <v>377</v>
       </c>
       <c r="AK25" s="1">
         <v>1</v>
@@ -4787,19 +4789,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1">
-        <v>5707</v>
+        <v>91725431</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G26" t="s">
         <v>123</v>
@@ -4811,10 +4813,10 @@
         <v>2221</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4833,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -4887,13 +4889,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="1">
         <v>0</v>
@@ -4955,16 +4957,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
-        <v>4680</v>
+        <v>165365057</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
         <v>121</v>
@@ -5055,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="AK27" s="1">
         <v>0</v>
@@ -5100,13 +5102,13 @@
         <v>0</v>
       </c>
       <c r="AY27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="1">
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="1">
         <v>0</v>
@@ -5123,17 +5125,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3345</v>
+      </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
         <v>123</v>
@@ -5161,10 +5165,10 @@
         <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -5221,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="AK28" s="1">
         <v>1</v>
@@ -5289,16 +5293,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
-        <v>91725431</v>
+        <v>10836</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
         <v>121</v>
@@ -5347,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="1">
         <v>0</v>
@@ -5389,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="AK29" s="1">
         <v>0</v>
@@ -5457,19 +5461,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
         <v>123</v>
@@ -5557,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="AK30" s="1">
         <v>1</v>
@@ -5602,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="AY30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="1">
         <v>0</v>
@@ -5625,16 +5629,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1">
-        <v>12107</v>
+        <v>4680</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
         <v>121</v>
@@ -5725,13 +5729,13 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="AK31" s="1">
         <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -5770,13 +5774,13 @@
         <v>0</v>
       </c>
       <c r="AY31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ31" s="1">
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5793,19 +5797,17 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="1">
-        <v>88890</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
         <v>123</v>
@@ -5893,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="AK32" s="1">
         <v>1</v>
@@ -5944,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5961,19 +5963,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1">
-        <v>10836</v>
+        <v>5462507</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G33" t="s">
         <v>123</v>
@@ -5985,10 +5987,10 @@
         <v>2221</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
@@ -6019,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="1">
         <v>0</v>
@@ -6060,9 +6062,7 @@
       <c r="AI33" s="1">
         <v>0</v>
       </c>
-      <c r="AJ33" s="1">
-        <v>231</v>
-      </c>
+      <c r="AJ33" s="1"/>
       <c r="AK33" s="1">
         <v>0</v>
       </c>
@@ -6129,19 +6129,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1">
-        <v>5462328</v>
+        <v>12107</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G34" t="s">
         <v>123</v>
@@ -6153,10 +6153,10 @@
         <v>2221</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -6229,13 +6229,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="1">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="BA34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB34" s="1">
         <v>0</v>
@@ -6297,19 +6297,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
         <v>123</v>
@@ -6321,10 +6321,10 @@
         <v>2221</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6397,10 +6397,10 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>281</v>
+        <v>49</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
         <v>1</v>
@@ -6465,19 +6465,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G36" t="s">
         <v>123</v>
@@ -6489,10 +6489,10 @@
         <v>2284</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6565,10 +6565,10 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>281</v>
+        <v>49</v>
       </c>
       <c r="AK36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1">
         <v>1</v>
@@ -6633,19 +6633,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <v>446220</v>
       </c>
       <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" t="s">
         <v>70</v>
-      </c>
-      <c r="E37" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" t="s">
-        <v>65</v>
       </c>
       <c r="G37" t="s">
         <v>123</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AK37" s="1">
         <v>0</v>
@@ -6901,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="AK38" s="1">
         <v>0</v>
@@ -6969,19 +6969,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C39" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G39" t="s">
         <v>123</v>
@@ -6993,10 +6993,10 @@
         <v>2284</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" s="1">
         <v>0</v>
@@ -7069,13 +7069,13 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="1">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="1">
         <v>0</v>
@@ -7137,19 +7137,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1">
         <v>3345</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G40" t="s">
         <v>123</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="AK40" s="1">
         <v>1</v>
@@ -7305,16 +7305,16 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
-        <v>10836</v>
+        <v>165365057</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F41" t="s">
         <v>121</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="1">
         <v>0</v>
@@ -7405,13 +7405,13 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="AK41" s="1">
         <v>0</v>
       </c>
       <c r="AL41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41" s="1">
         <v>0</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="BA41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB41" s="1">
         <v>0</v>
@@ -7485,7 +7485,7 @@
         <v>92</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G42" t="s">
         <v>123</v>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="AK42" s="1">
         <v>0</v>
@@ -7641,19 +7641,19 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1">
-        <v>448223</v>
+        <v>446220</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G43" t="s">
         <v>123</v>
@@ -7665,10 +7665,10 @@
         <v>2337</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7702,10 +7702,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -7740,7 +7740,9 @@
       <c r="AI43" s="1">
         <v>0</v>
       </c>
-      <c r="AJ43" s="1"/>
+      <c r="AJ43" s="1">
+        <v>175</v>
+      </c>
       <c r="AK43" s="1">
         <v>0</v>
       </c>
@@ -7807,19 +7809,19 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1">
-        <v>446220</v>
+        <v>448223</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G44" t="s">
         <v>123</v>
@@ -7831,10 +7833,10 @@
         <v>2337</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
@@ -7868,10 +7870,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="1">
         <v>0</v>
@@ -7906,9 +7908,7 @@
       <c r="AI44" s="1">
         <v>0</v>
       </c>
-      <c r="AJ44" s="1">
-        <v>150</v>
-      </c>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1">
         <v>0</v>
       </c>
@@ -8141,19 +8141,19 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C46" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
         <v>123</v>
@@ -8187,10 +8187,10 @@
         <v>0</v>
       </c>
       <c r="R46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="1">
         <v>0</v>
@@ -8241,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="AK46" s="1">
         <v>1</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB46" s="1">
         <v>0</v>
@@ -8309,19 +8309,19 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C47" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G47" t="s">
         <v>123</v>
@@ -8349,10 +8349,10 @@
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="1">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1">
         <v>0</v>
@@ -8409,13 +8409,13 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="AK47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47" s="1">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="AX47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY47" s="1">
         <v>0</v>
@@ -8480,7 +8480,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="1">
-        <v>3345</v>
+        <v>2519</v>
       </c>
       <c r="D48" t="s">
         <v>71</v>
@@ -8489,7 +8489,7 @@
         <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
         <v>123</v>
@@ -8517,10 +8517,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48" s="1">
         <v>0</v>
@@ -8577,13 +8577,13 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="1">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY48" s="1">
         <v>0</v>
@@ -8645,19 +8645,19 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C49" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G49" t="s">
         <v>123</v>
@@ -8691,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="AK49" s="1">
         <v>1</v>
@@ -8796,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="BA49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB49" s="1">
         <v>0</v>
@@ -8813,19 +8813,19 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1">
-        <v>10836</v>
+        <v>66924</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E50" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s">
         <v>123</v>
@@ -8834,7 +8834,7 @@
         <v>45649</v>
       </c>
       <c r="I50" s="1">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8868,10 +8868,10 @@
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -8913,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="AK50" s="1">
         <v>0</v>
@@ -8981,19 +8981,19 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1">
-        <v>66924</v>
+        <v>6213</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G51" t="s">
         <v>123</v>
@@ -9002,13 +9002,13 @@
         <v>45649</v>
       </c>
       <c r="I51" s="1">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -9080,9 +9080,7 @@
       <c r="AI51" s="1">
         <v>0</v>
       </c>
-      <c r="AJ51" s="1">
-        <v>2</v>
-      </c>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1">
         <v>0</v>
       </c>
@@ -9149,19 +9147,19 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G52" t="s">
         <v>123</v>
@@ -9170,13 +9168,13 @@
         <v>45649</v>
       </c>
       <c r="I52" s="1">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -9204,10 +9202,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -9248,7 +9246,9 @@
       <c r="AI52" s="1">
         <v>0</v>
       </c>
-      <c r="AJ52" s="1"/>
+      <c r="AJ52" s="1">
+        <v>274</v>
+      </c>
       <c r="AK52" s="1">
         <v>0</v>
       </c>
@@ -9317,12 +9317,14 @@
       <c r="B53" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1">
+        <v>12562546</v>
+      </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="F53" t="s">
         <v>121</v>
@@ -9334,7 +9336,7 @@
         <v>45664</v>
       </c>
       <c r="I53" s="1">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
@@ -9407,13 +9409,13 @@
         <v>0</v>
       </c>
       <c r="AH53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="1">
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AK53" s="1">
         <v>0</v>
@@ -9431,13 +9433,13 @@
         <v>0</v>
       </c>
       <c r="AP53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ53" s="1">
         <v>0</v>
       </c>
       <c r="AR53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS53" s="1">
         <v>0</v>
@@ -9481,19 +9483,19 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C54" s="1">
-        <v>10836</v>
+        <v>21812144</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="E54" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F54" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G54" t="s">
         <v>123</v>
@@ -9502,13 +9504,13 @@
         <v>45664</v>
       </c>
       <c r="I54" s="1">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -9539,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" s="1">
         <v>0</v>
@@ -9581,13 +9583,13 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="AK54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM54" s="1">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="BB54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC54" s="1">
         <v>0</v>
@@ -9649,16 +9651,16 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" s="1">
-        <v>12562546</v>
+        <v>68602</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
         <v>121</v>
@@ -9670,7 +9672,7 @@
         <v>45664</v>
       </c>
       <c r="I55" s="1">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
@@ -9749,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -9767,13 +9769,13 @@
         <v>0</v>
       </c>
       <c r="AP55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="1">
         <v>0</v>
       </c>
       <c r="AR55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="1">
         <v>0</v>
@@ -9817,19 +9819,19 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C56" s="1">
-        <v>4914</v>
+        <v>5707</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G56" t="s">
         <v>123</v>
@@ -9838,7 +9840,7 @@
         <v>45664</v>
       </c>
       <c r="I56" s="1">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -9863,10 +9865,10 @@
         <v>0</v>
       </c>
       <c r="R56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="1">
         <v>0</v>
@@ -9917,13 +9919,13 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>287</v>
+        <v>377</v>
       </c>
       <c r="AK56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM56" s="1">
         <v>0</v>
@@ -9959,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="AX56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY56" s="1">
         <v>0</v>
@@ -9985,19 +9987,19 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C57" s="1">
-        <v>68602</v>
+        <v>5462328</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F57" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G57" t="s">
         <v>123</v>
@@ -10006,13 +10008,13 @@
         <v>45664</v>
       </c>
       <c r="I57" s="1">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
@@ -10085,13 +10087,13 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="AK57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -10153,19 +10155,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C58" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G58" t="s">
         <v>123</v>
@@ -10174,13 +10176,13 @@
         <v>45664</v>
       </c>
       <c r="I58" s="1">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -10211,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58" s="1">
         <v>0</v>
@@ -10253,13 +10255,13 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="AK58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="1">
         <v>0</v>
@@ -10304,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="1">
         <v>0</v>
@@ -10321,19 +10323,19 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C59" s="1">
-        <v>21812144</v>
+        <v>6213</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G59" t="s">
         <v>123</v>
@@ -10342,7 +10344,7 @@
         <v>45664</v>
       </c>
       <c r="I59" s="1">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -10420,14 +10422,12 @@
       <c r="AI59" s="1">
         <v>0</v>
       </c>
-      <c r="AJ59" s="1">
-        <v>167</v>
-      </c>
+      <c r="AJ59" s="1"/>
       <c r="AK59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="BB59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC59" s="1">
         <v>0</v>
@@ -10489,19 +10489,19 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C60" s="1">
-        <v>5462328</v>
+        <v>62300</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G60" t="s">
         <v>123</v>
@@ -10510,13 +10510,13 @@
         <v>45664</v>
       </c>
       <c r="I60" s="1">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -10589,10 +10589,10 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>201</v>
+        <v>315</v>
       </c>
       <c r="AK60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="1">
         <v>1</v>
@@ -10657,19 +10657,19 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C61" s="1">
         <v>4914</v>
       </c>
       <c r="D61" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G61" t="s">
         <v>123</v>
@@ -10678,13 +10678,13 @@
         <v>45664</v>
       </c>
       <c r="I61" s="1">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="AK61" s="1">
         <v>0</v>
@@ -10825,19 +10825,17 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="1">
-        <v>6213</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C62" s="1"/>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G62" t="s">
         <v>123</v>
@@ -10846,13 +10844,13 @@
         <v>45664</v>
       </c>
       <c r="I62" s="1">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="J62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -10919,12 +10917,14 @@
         <v>0</v>
       </c>
       <c r="AH62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI62" s="1">
         <v>0</v>
       </c>
-      <c r="AJ62" s="1"/>
+      <c r="AJ62" s="1">
+        <v>156</v>
+      </c>
       <c r="AK62" s="1">
         <v>0</v>
       </c>
@@ -10991,19 +10991,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C63" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G63" t="s">
         <v>123</v>
@@ -11012,7 +11012,7 @@
         <v>45664</v>
       </c>
       <c r="I63" s="1">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -11031,10 +11031,10 @@
         <v>0</v>
       </c>
       <c r="P63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="AK63" s="1">
         <v>1</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB63" s="1">
         <v>0</v>
@@ -11159,19 +11159,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C64" s="1">
-        <v>5707</v>
+        <v>4914</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G64" t="s">
         <v>123</v>
@@ -11180,13 +11180,13 @@
         <v>45664</v>
       </c>
       <c r="I64" s="1">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -11205,10 +11205,10 @@
         <v>0</v>
       </c>
       <c r="R64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
@@ -11259,13 +11259,13 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AK64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="AX64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY64" s="1">
         <v>0</v>
@@ -11327,19 +11327,19 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C65" s="1">
-        <v>62300</v>
+        <v>3345</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F65" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G65" t="s">
         <v>123</v>
@@ -11348,13 +11348,13 @@
         <v>45664</v>
       </c>
       <c r="I65" s="1">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11367,10 +11367,10 @@
         <v>0</v>
       </c>
       <c r="P65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="1">
         <v>0</v>
@@ -11427,10 +11427,10 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="AK65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="1">
         <v>1</v>
@@ -11507,7 +11507,7 @@
         <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G66" t="s">
         <v>123</v>
@@ -11516,7 +11516,7 @@
         <v>45664</v>
       </c>
       <c r="I66" s="1">
-        <v>2763</v>
+        <v>2765</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="1">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="AK66" s="1">
         <v>0</v>
@@ -11663,16 +11663,16 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C67" s="1">
-        <v>10836</v>
+        <v>5486550</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F67" t="s">
         <v>121</v>
@@ -11684,7 +11684,7 @@
         <v>45665</v>
       </c>
       <c r="I67" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" s="1">
         <v>0</v>
@@ -11763,13 +11763,13 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>231</v>
+        <v>138</v>
       </c>
       <c r="AK67" s="1">
         <v>0</v>
       </c>
       <c r="AL67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM67" s="1">
         <v>0</v>
@@ -11808,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="AY67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ67" s="1">
         <v>0</v>
@@ -11831,16 +11831,16 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C68" s="1">
-        <v>5486550</v>
+        <v>33741</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F68" t="s">
         <v>121</v>
@@ -11852,7 +11852,7 @@
         <v>45665</v>
       </c>
       <c r="I68" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -11910,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68" s="1">
         <v>0</v>
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>119</v>
+        <v>364</v>
       </c>
       <c r="AK68" s="1">
         <v>0</v>
@@ -11976,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ68" s="1">
         <v>0</v>
@@ -11999,16 +11999,14 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="1">
-        <v>3676</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C69" s="1"/>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="F69" t="s">
         <v>121</v>
@@ -12020,7 +12018,7 @@
         <v>45665</v>
       </c>
       <c r="I69" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
@@ -12093,13 +12091,13 @@
         <v>0</v>
       </c>
       <c r="AH69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI69" s="1">
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="AK69" s="1">
         <v>0</v>
@@ -12141,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="AX69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY69" s="1">
         <v>0</v>
@@ -12167,16 +12165,16 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C70" s="1">
-        <v>446220</v>
+        <v>21812144</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F70" t="s">
         <v>121</v>
@@ -12188,7 +12186,7 @@
         <v>45665</v>
       </c>
       <c r="I70" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -12231,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="1">
         <v>0</v>
@@ -12267,13 +12265,13 @@
         <v>0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="AK70" s="1">
         <v>0</v>
       </c>
       <c r="AL70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM70" s="1">
         <v>0</v>
@@ -12321,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="BB70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC70" s="1">
         <v>0</v>
@@ -12335,16 +12333,16 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C71" s="1">
-        <v>21812144</v>
+        <v>1983</v>
       </c>
       <c r="D71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E71" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F71" t="s">
         <v>121</v>
@@ -12356,7 +12354,7 @@
         <v>45665</v>
       </c>
       <c r="I71" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -12435,13 +12433,13 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="AK71" s="1">
         <v>0</v>
       </c>
       <c r="AL71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71" s="1">
         <v>0</v>
@@ -12489,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="BB71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC71" s="1">
         <v>0</v>
@@ -12505,15 +12503,17 @@
       <c r="B72" t="s">
         <v>49</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="1">
+        <v>12562546</v>
+      </c>
       <c r="D72" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E72" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="F72" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G72" t="s">
         <v>123</v>
@@ -12522,13 +12522,13 @@
         <v>45665</v>
       </c>
       <c r="I72" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -12595,13 +12595,13 @@
         <v>0</v>
       </c>
       <c r="AH72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI72" s="1">
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AK72" s="1">
         <v>0</v>
@@ -12616,16 +12616,16 @@
         <v>0</v>
       </c>
       <c r="AO72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS72" s="1">
         <v>0</v>
@@ -12669,19 +12669,19 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C73" s="1">
-        <v>3345</v>
+        <v>5462507</v>
       </c>
       <c r="D73" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E73" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G73" t="s">
         <v>123</v>
@@ -12690,13 +12690,13 @@
         <v>45665</v>
       </c>
       <c r="I73" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
@@ -12709,10 +12709,10 @@
         <v>0</v>
       </c>
       <c r="P73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" s="1">
         <v>0</v>
@@ -12768,14 +12768,12 @@
       <c r="AI73" s="1">
         <v>0</v>
       </c>
-      <c r="AJ73" s="1">
-        <v>191</v>
-      </c>
+      <c r="AJ73" s="1"/>
       <c r="AK73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73" s="1">
         <v>0</v>
@@ -12837,19 +12835,19 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C74" s="1">
-        <v>12562546</v>
+        <v>10836</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E74" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G74" t="s">
         <v>123</v>
@@ -12858,13 +12856,13 @@
         <v>45665</v>
       </c>
       <c r="I74" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
@@ -12895,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="V74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W74" s="1">
         <v>0</v>
@@ -12937,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="1">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="AK74" s="1">
         <v>0</v>
@@ -12952,16 +12950,16 @@
         <v>0</v>
       </c>
       <c r="AO74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS74" s="1">
         <v>0</v>
@@ -13005,16 +13003,16 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C75" s="1">
-        <v>68602</v>
+        <v>88890</v>
       </c>
       <c r="D75" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E75" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F75" t="s">
         <v>121</v>
@@ -13026,7 +13024,7 @@
         <v>45665</v>
       </c>
       <c r="I75" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -13105,13 +13103,13 @@
         <v>0</v>
       </c>
       <c r="AJ75" s="1">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="AK75" s="1">
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -13156,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="BA75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB75" s="1">
         <v>0</v>
@@ -13173,19 +13171,19 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C76" s="1">
-        <v>33741</v>
+        <v>3345</v>
       </c>
       <c r="D76" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F76" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G76" t="s">
         <v>123</v>
@@ -13194,13 +13192,13 @@
         <v>45665</v>
       </c>
       <c r="I76" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -13213,10 +13211,10 @@
         <v>0</v>
       </c>
       <c r="P76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -13252,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD76" s="1">
         <v>0</v>
@@ -13273,10 +13271,10 @@
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>313</v>
+        <v>227</v>
       </c>
       <c r="AK76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL76" s="1">
         <v>1</v>
@@ -13344,7 +13342,7 @@
         <v>56</v>
       </c>
       <c r="C77" s="1">
-        <v>1983</v>
+        <v>3676</v>
       </c>
       <c r="D77" t="s">
         <v>88</v>
@@ -13362,7 +13360,7 @@
         <v>45665</v>
       </c>
       <c r="I77" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -13441,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="AJ77" s="1">
-        <v>114</v>
+        <v>258</v>
       </c>
       <c r="AK77" s="1">
         <v>0</v>
@@ -13483,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="AX77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY77" s="1">
         <v>0</v>
@@ -13509,19 +13507,19 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C78" s="1">
-        <v>5707</v>
+        <v>62300</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E78" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F78" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G78" t="s">
         <v>123</v>
@@ -13530,13 +13528,13 @@
         <v>45665</v>
       </c>
       <c r="I78" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -13555,10 +13553,10 @@
         <v>0</v>
       </c>
       <c r="R78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="1">
         <v>0</v>
@@ -13609,10 +13607,10 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="1">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="AK78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78" s="1">
         <v>1</v>
@@ -13677,16 +13675,16 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C79" s="1">
-        <v>5462507</v>
+        <v>68602</v>
       </c>
       <c r="D79" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E79" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F79" t="s">
         <v>121</v>
@@ -13698,7 +13696,7 @@
         <v>45665</v>
       </c>
       <c r="I79" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
@@ -13776,7 +13774,9 @@
       <c r="AI79" s="1">
         <v>0</v>
       </c>
-      <c r="AJ79" s="1"/>
+      <c r="AJ79" s="1">
+        <v>267</v>
+      </c>
       <c r="AK79" s="1">
         <v>0</v>
       </c>
@@ -13843,19 +13843,19 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C80" s="1">
-        <v>5462328</v>
+        <v>446220</v>
       </c>
       <c r="D80" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E80" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F80" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G80" t="s">
         <v>123</v>
@@ -13864,13 +13864,13 @@
         <v>45665</v>
       </c>
       <c r="I80" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1">
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y80" s="1">
         <v>0</v>
@@ -13943,13 +13943,13 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="AK80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -14011,19 +14011,19 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C81" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F81" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G81" t="s">
         <v>123</v>
@@ -14032,13 +14032,13 @@
         <v>45665</v>
       </c>
       <c r="I81" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
@@ -14057,10 +14057,10 @@
         <v>0</v>
       </c>
       <c r="R81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81" s="1">
         <v>0</v>
@@ -14111,10 +14111,10 @@
         <v>0</v>
       </c>
       <c r="AJ81" s="1">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="AK81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL81" s="1">
         <v>1</v>
@@ -14162,7 +14162,7 @@
         <v>0</v>
       </c>
       <c r="BA81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB81" s="1">
         <v>0</v>
@@ -14179,19 +14179,19 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C82" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E82" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F82" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G82" t="s">
         <v>123</v>
@@ -14200,13 +14200,13 @@
         <v>45665</v>
       </c>
       <c r="I82" s="1">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="J82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
@@ -14279,10 +14279,10 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="AK82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL82" s="1">
         <v>1</v>
@@ -14359,7 +14359,7 @@
         <v>92</v>
       </c>
       <c r="F83" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G83" t="s">
         <v>123</v>
@@ -14368,7 +14368,7 @@
         <v>45649</v>
       </c>
       <c r="I83" s="1">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="AJ83" s="1">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="AK83" s="1">
         <v>0</v>
@@ -14515,19 +14515,17 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" s="1">
-        <v>88890</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C84" s="1"/>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E84" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F84" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G84" t="s">
         <v>123</v>
@@ -14536,7 +14534,7 @@
         <v>45602</v>
       </c>
       <c r="I84" s="1">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="J84" s="1">
         <v>1</v>
@@ -14609,19 +14607,19 @@
         <v>0</v>
       </c>
       <c r="AH84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ84" s="1">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="AK84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84" s="1">
         <v>0</v>
@@ -14666,7 +14664,7 @@
         <v>0</v>
       </c>
       <c r="BA84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB84" s="1">
         <v>0</v>
@@ -14683,17 +14681,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C85" s="1">
+        <v>6213</v>
+      </c>
       <c r="D85" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E85" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G85" t="s">
         <v>123</v>
@@ -14702,7 +14702,7 @@
         <v>45602</v>
       </c>
       <c r="I85" s="1">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -14775,14 +14775,12 @@
         <v>0</v>
       </c>
       <c r="AH85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI85" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ85" s="1">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="1"/>
       <c r="AK85" s="1">
         <v>0</v>
       </c>
@@ -14849,19 +14847,19 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C86" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D86" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E86" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F86" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G86" t="s">
         <v>123</v>
@@ -14870,13 +14868,13 @@
         <v>45602</v>
       </c>
       <c r="I86" s="1">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="J86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
@@ -14898,10 +14896,10 @@
         <v>0</v>
       </c>
       <c r="S86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U86" s="1">
         <v>0</v>
@@ -14949,10 +14947,10 @@
         <v>0</v>
       </c>
       <c r="AJ86" s="1">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="AK86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL86" s="1">
         <v>1</v>
@@ -15000,7 +14998,7 @@
         <v>0</v>
       </c>
       <c r="BA86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB86" s="1">
         <v>0</v>
@@ -15017,19 +15015,19 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C87" s="1">
-        <v>3345</v>
+        <v>3676</v>
       </c>
       <c r="D87" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F87" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G87" t="s">
         <v>123</v>
@@ -15038,7 +15036,7 @@
         <v>45602</v>
       </c>
       <c r="I87" s="1">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -15057,10 +15055,10 @@
         <v>0</v>
       </c>
       <c r="P87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87" s="1">
         <v>0</v>
@@ -15117,13 +15115,13 @@
         <v>0</v>
       </c>
       <c r="AJ87" s="1">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="AK87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87" s="1">
         <v>0</v>
@@ -15159,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="AX87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY87" s="1">
         <v>0</v>
@@ -15185,16 +15183,16 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C88" s="1">
         <v>1983</v>
       </c>
       <c r="D88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F88" t="s">
         <v>121</v>
@@ -15206,7 +15204,7 @@
         <v>45602</v>
       </c>
       <c r="I88" s="1">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="J88" s="1">
         <v>0</v>
@@ -15285,7 +15283,7 @@
         <v>0</v>
       </c>
       <c r="AJ88" s="1">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="AK88" s="1">
         <v>0</v>
@@ -15353,19 +15351,19 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C89" s="1">
-        <v>68602</v>
+        <v>5707</v>
       </c>
       <c r="D89" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E89" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F89" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G89" t="s">
         <v>123</v>
@@ -15374,13 +15372,13 @@
         <v>45602</v>
       </c>
       <c r="I89" s="1">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="J89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1">
@@ -15402,10 +15400,10 @@
         <v>0</v>
       </c>
       <c r="S89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89" s="1">
         <v>0</v>
@@ -15453,13 +15451,13 @@
         <v>0</v>
       </c>
       <c r="AJ89" s="1">
-        <v>224</v>
+        <v>377</v>
       </c>
       <c r="AK89" s="1">
         <v>0</v>
       </c>
       <c r="AL89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM89" s="1">
         <v>0</v>
@@ -15521,19 +15519,19 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C90" s="1">
-        <v>3676</v>
+        <v>3345</v>
       </c>
       <c r="D90" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E90" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F90" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G90" t="s">
         <v>123</v>
@@ -15542,7 +15540,7 @@
         <v>45602</v>
       </c>
       <c r="I90" s="1">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="J90" s="1">
         <v>1</v>
@@ -15561,10 +15559,10 @@
         <v>0</v>
       </c>
       <c r="P90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90" s="1">
         <v>0</v>
@@ -15621,13 +15619,13 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="1">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="AK90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM90" s="1">
         <v>0</v>
@@ -15663,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="AX90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY90" s="1">
         <v>0</v>
@@ -15689,19 +15687,19 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C91" s="1">
-        <v>6213</v>
+        <v>68602</v>
       </c>
       <c r="D91" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E91" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F91" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G91" t="s">
         <v>123</v>
@@ -15710,7 +15708,7 @@
         <v>45602</v>
       </c>
       <c r="I91" s="1">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="J91" s="1">
         <v>1</v>
@@ -15788,7 +15786,9 @@
       <c r="AI91" s="1">
         <v>0</v>
       </c>
-      <c r="AJ91" s="1"/>
+      <c r="AJ91" s="1">
+        <v>267</v>
+      </c>
       <c r="AK91" s="1">
         <v>0</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>45611</v>
       </c>
       <c r="I92" s="1">
-        <v>2767</v>
+        <v>2769</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
@@ -15955,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="AJ92" s="1">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AK92" s="1">
         <v>0</v>
@@ -16023,19 +16023,19 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C93" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D93" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E93" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F93" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G93" t="s">
         <v>123</v>
@@ -16044,13 +16044,13 @@
         <v>45666</v>
       </c>
       <c r="I93" s="1">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="J93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -16122,14 +16122,12 @@
       <c r="AI93" s="1">
         <v>0</v>
       </c>
-      <c r="AJ93" s="1">
-        <v>201</v>
-      </c>
+      <c r="AJ93" s="1"/>
       <c r="AK93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM93" s="1">
         <v>0</v>
@@ -16191,19 +16189,19 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C94" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D94" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E94" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F94" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G94" t="s">
         <v>123</v>
@@ -16212,13 +16210,13 @@
         <v>45666</v>
       </c>
       <c r="I94" s="1">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="J94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
@@ -16290,12 +16288,14 @@
       <c r="AI94" s="1">
         <v>0</v>
       </c>
-      <c r="AJ94" s="1"/>
+      <c r="AJ94" s="1">
+        <v>242</v>
+      </c>
       <c r="AK94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM94" s="1">
         <v>0</v>
@@ -16357,19 +16357,19 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C95" s="1">
-        <v>10836</v>
+        <v>3345</v>
       </c>
       <c r="D95" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E95" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F95" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G95" t="s">
         <v>123</v>
@@ -16378,13 +16378,13 @@
         <v>45666</v>
       </c>
       <c r="I95" s="1">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="J95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
@@ -16397,10 +16397,10 @@
         <v>0</v>
       </c>
       <c r="P95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R95" s="1">
         <v>0</v>
@@ -16415,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="V95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W95" s="1">
         <v>0</v>
@@ -16457,13 +16457,13 @@
         <v>0</v>
       </c>
       <c r="AJ95" s="1">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AK95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM95" s="1">
         <v>0</v>
@@ -16525,16 +16525,16 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C96" s="1">
         <v>5486550</v>
       </c>
       <c r="D96" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E96" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F96" t="s">
         <v>121</v>
@@ -16546,7 +16546,7 @@
         <v>45666</v>
       </c>
       <c r="I96" s="1">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="J96" s="1">
         <v>0</v>
@@ -16625,7 +16625,7 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="1">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="AK96" s="1">
         <v>0</v>
@@ -16693,16 +16693,16 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C97" s="1">
-        <v>26879</v>
+        <v>10836</v>
       </c>
       <c r="D97" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E97" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F97" t="s">
         <v>121</v>
@@ -16714,7 +16714,7 @@
         <v>45666</v>
       </c>
       <c r="I97" s="1">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="J97" s="1">
         <v>0</v>
@@ -16751,7 +16751,7 @@
         <v>0</v>
       </c>
       <c r="V97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W97" s="1">
         <v>0</v>
@@ -16766,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="AA97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB97" s="1">
         <v>0</v>
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="AJ97" s="1">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="AK97" s="1">
         <v>0</v>
@@ -16835,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="AX97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY97" s="1">
         <v>0</v>
@@ -16861,19 +16861,19 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C98" s="1">
         <v>88890</v>
       </c>
       <c r="D98" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E98" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F98" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G98" t="s">
         <v>123</v>
@@ -16882,7 +16882,7 @@
         <v>45666</v>
       </c>
       <c r="I98" s="1">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="J98" s="1">
         <v>1</v>
@@ -16961,7 +16961,7 @@
         <v>0</v>
       </c>
       <c r="AJ98" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AK98" s="1">
         <v>1</v>
@@ -17029,19 +17029,19 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C99" s="1">
-        <v>3345</v>
+        <v>26879</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E99" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F99" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G99" t="s">
         <v>123</v>
@@ -17050,13 +17050,13 @@
         <v>45666</v>
       </c>
       <c r="I99" s="1">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="J99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1">
@@ -17069,10 +17069,10 @@
         <v>0</v>
       </c>
       <c r="P99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R99" s="1">
         <v>0</v>
@@ -17102,7 +17102,7 @@
         <v>0</v>
       </c>
       <c r="AA99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB99" s="1">
         <v>0</v>
@@ -17129,13 +17129,13 @@
         <v>0</v>
       </c>
       <c r="AJ99" s="1">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="AK99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99" s="1">
         <v>0</v>
@@ -17171,7 +17171,7 @@
         <v>0</v>
       </c>
       <c r="AX99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY99" s="1">
         <v>0</v>
@@ -17197,19 +17197,19 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C100" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D100" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E100" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F100" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G100" t="s">
         <v>123</v>
@@ -17218,7 +17218,7 @@
         <v>45666</v>
       </c>
       <c r="I100" s="1">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -17237,10 +17237,10 @@
         <v>0</v>
       </c>
       <c r="P100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100" s="1">
         <v>0</v>
@@ -17297,7 +17297,7 @@
         <v>0</v>
       </c>
       <c r="AJ100" s="1">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="AK100" s="1">
         <v>1</v>
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="BA100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB100" s="1">
         <v>0</v>
@@ -17365,19 +17365,19 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C101" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D101" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F101" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G101" t="s">
         <v>123</v>
@@ -17386,7 +17386,7 @@
         <v>45666</v>
       </c>
       <c r="I101" s="1">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -17405,10 +17405,10 @@
         <v>0</v>
       </c>
       <c r="P101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101" s="1">
         <v>0</v>
@@ -17465,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="AJ101" s="1">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="AK101" s="1">
         <v>1</v>
@@ -17516,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="BA101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB101" s="1">
         <v>0</v>
@@ -17533,19 +17533,19 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C102" s="1">
-        <v>88890</v>
+        <v>5486550</v>
       </c>
       <c r="D102" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E102" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G102" t="s">
         <v>123</v>
@@ -17554,13 +17554,13 @@
         <v>45666</v>
       </c>
       <c r="I102" s="1">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="J102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1">
@@ -17633,10 +17633,10 @@
         <v>0</v>
       </c>
       <c r="AJ102" s="1">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="AK102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL102" s="1">
         <v>1</v>
@@ -17678,13 +17678,13 @@
         <v>0</v>
       </c>
       <c r="AY102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ102" s="1">
         <v>0</v>
       </c>
       <c r="BA102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB102" s="1">
         <v>0</v>
@@ -17701,19 +17701,19 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C103" s="1">
-        <v>5486550</v>
+        <v>3345</v>
       </c>
       <c r="D103" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F103" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G103" t="s">
         <v>123</v>
@@ -17722,13 +17722,13 @@
         <v>45666</v>
       </c>
       <c r="I103" s="1">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="J103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1">
@@ -17741,10 +17741,10 @@
         <v>0</v>
       </c>
       <c r="P103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R103" s="1">
         <v>0</v>
@@ -17801,10 +17801,10 @@
         <v>0</v>
       </c>
       <c r="AJ103" s="1">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="AK103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL103" s="1">
         <v>1</v>
@@ -17846,7 +17846,7 @@
         <v>0</v>
       </c>
       <c r="AY103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ103" s="1">
         <v>0</v>
@@ -17869,19 +17869,19 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C104" s="1">
-        <v>5462507</v>
+        <v>88890</v>
       </c>
       <c r="D104" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E104" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F104" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G104" t="s">
         <v>123</v>
@@ -17890,13 +17890,13 @@
         <v>45666</v>
       </c>
       <c r="I104" s="1">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="J104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1">
@@ -17968,12 +17968,14 @@
       <c r="AI104" s="1">
         <v>0</v>
       </c>
-      <c r="AJ104" s="1"/>
+      <c r="AJ104" s="1">
+        <v>49</v>
+      </c>
       <c r="AK104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM104" s="1">
         <v>0</v>
@@ -18018,7 +18020,7 @@
         <v>0</v>
       </c>
       <c r="BA104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB104" s="1">
         <v>0</v>
@@ -18035,19 +18037,19 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C105" s="1">
-        <v>26879</v>
+        <v>5462328</v>
       </c>
       <c r="D105" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E105" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F105" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G105" t="s">
         <v>123</v>
@@ -18056,13 +18058,13 @@
         <v>45666</v>
       </c>
       <c r="I105" s="1">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="J105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1">
@@ -18108,7 +18110,7 @@
         <v>0</v>
       </c>
       <c r="AA105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB105" s="1">
         <v>0</v>
@@ -18135,13 +18137,13 @@
         <v>0</v>
       </c>
       <c r="AJ105" s="1">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="AK105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM105" s="1">
         <v>0</v>
@@ -18177,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="AX105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY105" s="1">
         <v>0</v>
@@ -18203,19 +18205,19 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C106" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D106" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E106" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F106" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G106" t="s">
         <v>123</v>
@@ -18224,13 +18226,13 @@
         <v>45666</v>
       </c>
       <c r="I106" s="1">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="J106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1">
@@ -18302,14 +18304,12 @@
       <c r="AI106" s="1">
         <v>0</v>
       </c>
-      <c r="AJ106" s="1">
-        <v>201</v>
-      </c>
+      <c r="AJ106" s="1"/>
       <c r="AK106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -18371,19 +18371,19 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C107" s="1">
-        <v>3345</v>
+        <v>26879</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E107" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F107" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="G107" t="s">
         <v>123</v>
@@ -18392,13 +18392,13 @@
         <v>45666</v>
       </c>
       <c r="I107" s="1">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="J107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
@@ -18411,10 +18411,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -18444,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="AA107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB107" s="1">
         <v>0</v>
@@ -18471,13 +18471,13 @@
         <v>0</v>
       </c>
       <c r="AJ107" s="1">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="AK107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -18513,7 +18513,7 @@
         <v>0</v>
       </c>
       <c r="AX107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY107" s="1">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>92</v>
       </c>
       <c r="F108" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G108" t="s">
         <v>123</v>
@@ -18560,7 +18560,7 @@
         <v>45687</v>
       </c>
       <c r="I108" s="1">
-        <v>2827</v>
+        <v>2837</v>
       </c>
       <c r="J108" s="1">
         <v>1</v>
@@ -18639,7 +18639,7 @@
         <v>0</v>
       </c>
       <c r="AJ108" s="1">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="AK108" s="1">
         <v>0</v>
@@ -18719,7 +18719,7 @@
         <v>92</v>
       </c>
       <c r="F109" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G109" t="s">
         <v>123</v>
@@ -18728,7 +18728,7 @@
         <v>45687</v>
       </c>
       <c r="I109" s="1">
-        <v>2828</v>
+        <v>2838</v>
       </c>
       <c r="J109" s="1">
         <v>1</v>
@@ -18807,7 +18807,7 @@
         <v>0</v>
       </c>
       <c r="AJ109" s="1">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="AK109" s="1">
         <v>0</v>
@@ -18887,7 +18887,7 @@
         <v>92</v>
       </c>
       <c r="F110" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G110" t="s">
         <v>123</v>
@@ -18896,7 +18896,7 @@
         <v>45666</v>
       </c>
       <c r="I110" s="1">
-        <v>2829</v>
+        <v>2839</v>
       </c>
       <c r="J110" s="1">
         <v>1</v>
@@ -18975,7 +18975,7 @@
         <v>0</v>
       </c>
       <c r="AJ110" s="1">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="AK110" s="1">
         <v>0</v>
@@ -19055,7 +19055,7 @@
         <v>92</v>
       </c>
       <c r="F111" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G111" t="s">
         <v>123</v>
@@ -19064,7 +19064,7 @@
         <v>45687</v>
       </c>
       <c r="I111" s="1">
-        <v>2830</v>
+        <v>2840</v>
       </c>
       <c r="J111" s="1">
         <v>1</v>
@@ -19143,7 +19143,7 @@
         <v>0</v>
       </c>
       <c r="AJ111" s="1">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="AK111" s="1">
         <v>0</v>
@@ -19215,13 +19215,13 @@
       </c>
       <c r="C112" s="1"/>
       <c r="D112" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E112" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F112" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G112" t="s">
         <v>123</v>
@@ -19230,7 +19230,7 @@
         <v>45688</v>
       </c>
       <c r="I112" s="1">
-        <v>2831</v>
+        <v>2841</v>
       </c>
       <c r="J112" s="1">
         <v>1</v>
@@ -19310,9 +19310,7 @@
       <c r="AI112" s="1">
         <v>0</v>
       </c>
-      <c r="AJ112" s="1">
-        <v>253</v>
-      </c>
+      <c r="AJ112" s="1"/>
       <c r="AK112" s="1">
         <v>0</v>
       </c>
@@ -19391,7 +19389,7 @@
         <v>92</v>
       </c>
       <c r="F113" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G113" t="s">
         <v>123</v>
@@ -19400,7 +19398,7 @@
         <v>45687</v>
       </c>
       <c r="I113" s="1">
-        <v>2832</v>
+        <v>2842</v>
       </c>
       <c r="J113" s="1">
         <v>1</v>
@@ -19479,7 +19477,7 @@
         <v>0</v>
       </c>
       <c r="AJ113" s="1">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="AK113" s="1">
         <v>0</v>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -102,13 +102,22 @@
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>xylazine</t>
-  </si>
-  <si>
     <t>4-ANPP</t>
   </si>
   <si>
+    <t>phenethyl 4-ANPP</t>
+  </si>
+  <si>
+    <t>caffeine</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
     <t>p-fluorofentanyl</t>
+  </si>
+  <si>
+    <t>xylazine</t>
   </si>
   <si>
     <t>quinine</t>
@@ -120,19 +129,10 @@
     <t>cocaine</t>
   </si>
   <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
-    <t>caffeine</t>
-  </si>
-  <si>
     <t>acetylcodeine</t>
   </si>
   <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
+    <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
     <t>papaverine</t>
@@ -141,19 +141,19 @@
     <t>1-phenethyl-4-hydroxypiperidine</t>
   </si>
   <si>
-    <t>6-monoacetylmorphine (6-MAM)</t>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
-    <t>N-phenylpropanamide</t>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
   </si>
   <si>
     <t>acetyl fentanyl</t>
   </si>
   <si>
-    <t>benzoylecgonine (BZ)</t>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
+    <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
     <t>1,3-Diacetin</t>
@@ -162,25 +162,25 @@
     <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>bromazolam</t>
+    <t>medetomidine</t>
+  </si>
+  <si>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+  </si>
+  <si>
+    <t>procaine</t>
   </si>
   <si>
     <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
-    <t>medetomidine</t>
+    <t>bromazolam</t>
   </si>
   <si>
-    <t>procaine</t>
-  </si>
-  <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+    <t>acetaminophen</t>
   </si>
   <si>
     <t>tramadol</t>
-  </si>
-  <si>
-    <t>acetaminophen</t>
   </si>
   <si>
     <t>lidocaine</t>
@@ -204,13 +204,22 @@
     <t>537-46-2</t>
   </si>
   <si>
-    <t>7361-61-7</t>
-  </si>
-  <si>
     <t>21409-26-7</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>58-08-2</t>
+  </si>
+  <si>
+    <t>561-27-3</t>
+  </si>
+  <si>
     <t>90736-23-5</t>
+  </si>
+  <si>
+    <t>7361-61-7</t>
   </si>
   <si>
     <t>72402-53-0</t>
@@ -222,37 +231,28 @@
     <t>50-36-2</t>
   </si>
   <si>
-    <t>561-27-3</t>
+    <t>6703-27-1</t>
   </si>
   <si>
-    <t/>
+    <t>2784-73-8</t>
   </si>
   <si>
-    <t>58-08-2</t>
+    <t>58-74-2</t>
   </si>
   <si>
-    <t>6703-27-1</t>
+    <t>620-71-3</t>
   </si>
   <si>
     <t>1462260-87-2</t>
   </si>
   <si>
-    <t>58-74-2</t>
-  </si>
-  <si>
-    <t>2784-73-8</t>
-  </si>
-  <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
     <t>3258-84-2</t>
   </si>
   <si>
-    <t>519-09-5</t>
+    <t>43021-26-7</t>
   </si>
   <si>
-    <t>43021-26-7</t>
+    <t>519-09-5</t>
   </si>
   <si>
     <t>105-70-4</t>
@@ -261,22 +261,22 @@
     <t>67-71-0</t>
   </si>
   <si>
-    <t>71368-80-4</t>
-  </si>
-  <si>
-    <t>122861-41-0</t>
-  </si>
-  <si>
     <t>86347-14-0</t>
   </si>
   <si>
     <t>59-46-1</t>
   </si>
   <si>
-    <t>123154-38-1</t>
+    <t>122861-41-0</t>
+  </si>
+  <si>
+    <t>71368-80-4</t>
   </si>
   <si>
     <t>103-90-2</t>
+  </si>
+  <si>
+    <t>123154-38-1</t>
   </si>
   <si>
     <t>137-58-6</t>
@@ -294,13 +294,19 @@
     <t>44RAL3456C</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
-  </si>
-  <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
+    <t>3G6A5W338E</t>
+  </si>
+  <si>
+    <t>70D95007SX</t>
+  </si>
+  <si>
     <t>I45R05QM0Z</t>
+  </si>
+  <si>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
     <t>A7V27PHC7A</t>
@@ -312,34 +318,28 @@
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>70D95007SX</t>
+    <t>U59401ETXH</t>
   </si>
   <si>
-    <t>3G6A5W338E</t>
+    <t>M5E47P1ZCH</t>
   </si>
   <si>
-    <t>U59401ETXH</t>
+    <t>DAA13NKG2Q</t>
+  </si>
+  <si>
+    <t>UYP5ZQI00T</t>
   </si>
   <si>
     <t>3D9E9KK5K5</t>
   </si>
   <si>
-    <t>DAA13NKG2Q</t>
-  </si>
-  <si>
-    <t>M5E47P1ZCH</t>
-  </si>
-  <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
     <t>6DZ28538KS</t>
   </si>
   <si>
-    <t>5353I8I6YS</t>
+    <t>58C337KP3E</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
+    <t>5353I8I6YS</t>
   </si>
   <si>
     <t>G45CU3Z186</t>
@@ -348,22 +348,22 @@
     <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>YMC9OT97Z1</t>
-  </si>
-  <si>
-    <t>R8ZH1EQ95Y</t>
-  </si>
-  <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
     <t>4Z8Y51M438</t>
   </si>
   <si>
-    <t>39J1LGJ30J</t>
+    <t>R8ZH1EQ95Y</t>
+  </si>
+  <si>
+    <t>YMC9OT97Z1</t>
   </si>
   <si>
     <t>362O9ITL9D</t>
+  </si>
+  <si>
+    <t>39J1LGJ30J</t>
   </si>
   <si>
     <t>98PI200987</t>
@@ -769,7 +769,7 @@
         <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
         <v>123</v>
@@ -928,7 +928,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
@@ -937,7 +937,7 @@
         <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
         <v>123</v>
@@ -949,10 +949,10 @@
         <v>1316</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>377</v>
+        <v>49</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>88890</v>
+        <v>165365057</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
         <v>123</v>
@@ -1117,10 +1117,10 @@
         <v>1316</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
         <v>1</v>
@@ -1264,13 +1264,13 @@
         <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>62300</v>
+        <v>2519</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
         <v>121</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>315</v>
+        <v>162</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>3034034</v>
+        <v>5462328</v>
       </c>
       <c r="D6" t="s">
         <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
         <v>123</v>
@@ -1453,10 +1453,10 @@
         <v>1316</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1600,16 +1600,16 @@
         <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D7" t="s">
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
         <v>123</v>
@@ -1621,10 +1621,10 @@
         <v>1316</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -1637,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>227</v>
+        <v>315</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
         <v>1</v>
@@ -1768,16 +1768,16 @@
         <v>34</v>
       </c>
       <c r="C8" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D8" t="s">
         <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
         <v>123</v>
@@ -1789,10 +1789,10 @@
         <v>1316</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -1814,10 +1814,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -1865,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>175</v>
+        <v>377</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -1936,16 +1936,16 @@
         <v>35</v>
       </c>
       <c r="C9" s="1">
-        <v>5462328</v>
+        <v>3034034</v>
       </c>
       <c r="D9" t="s">
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
         <v>123</v>
@@ -1957,10 +1957,10 @@
         <v>1316</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -2033,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>242</v>
+        <v>340</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
       </c>
       <c r="AL9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="1">
         <v>0</v>
@@ -2104,16 +2104,16 @@
         <v>36</v>
       </c>
       <c r="C10" s="1">
-        <v>165365057</v>
+        <v>3345</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
         <v>123</v>
@@ -2125,10 +2125,10 @@
         <v>1316</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -2201,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="AK10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="1">
         <v>1</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="1">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="1">
-        <v>2519</v>
+        <v>446220</v>
       </c>
       <c r="D11" t="s">
         <v>71</v>
@@ -2281,7 +2281,7 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
         <v>123</v>
@@ -2293,10 +2293,10 @@
         <v>1316</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -2330,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="AK11" s="1">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>0</v>
@@ -2437,19 +2437,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
-        <v>88890</v>
+        <v>5462328</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
         <v>123</v>
@@ -2461,10 +2461,10 @@
         <v>1459</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -2537,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="BA12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="1">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
-        <v>2519</v>
+        <v>3034034</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
         <v>123</v>
@@ -2629,10 +2629,10 @@
         <v>1459</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>162</v>
+        <v>340</v>
       </c>
       <c r="AK13" s="1">
         <v>0</v>
@@ -2773,19 +2773,19 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
-        <v>165365057</v>
+        <v>5707</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
         <v>123</v>
@@ -2797,10 +2797,10 @@
         <v>1459</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2822,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="1">
         <v>0</v>
@@ -2941,19 +2941,19 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
-        <v>5462328</v>
+        <v>165365057</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
         <v>123</v>
@@ -2965,10 +2965,10 @@
         <v>1459</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -3041,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>242</v>
+        <v>322</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
         <v>1</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -3109,19 +3109,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1">
         <v>3345</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
         <v>123</v>
@@ -3277,19 +3277,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
-        <v>3034034</v>
+        <v>62300</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
         <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s">
         <v>123</v>
@@ -3301,10 +3301,10 @@
         <v>1459</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3377,13 +3377,13 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="AK17" s="1">
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17" s="1">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="AX17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>0</v>
@@ -3445,16 +3445,16 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
-        <v>5707</v>
+        <v>2519</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
         <v>121</v>
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>0</v>
@@ -3545,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>377</v>
+        <v>162</v>
       </c>
       <c r="AK18" s="1">
         <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="AX18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="1">
         <v>0</v>
@@ -3613,19 +3613,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
-        <v>62300</v>
+        <v>88890</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
         <v>123</v>
@@ -3637,10 +3637,10 @@
         <v>1459</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
@@ -3713,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>315</v>
+        <v>49</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>1</v>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="1">
         <v>0</v>
@@ -3781,16 +3781,16 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
         <v>88890</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -3949,19 +3949,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1">
         <v>3034034</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
         <v>123</v>
@@ -4117,19 +4117,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1">
         <v>3345</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
         <v>123</v>
@@ -4297,7 +4297,7 @@
         <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
         <v>123</v>
@@ -4453,19 +4453,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
-        <v>5486550</v>
+        <v>5707</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
         <v>123</v>
@@ -4474,7 +4474,7 @@
         <v>45526</v>
       </c>
       <c r="I24" s="1">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -4499,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="R24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="1">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>138</v>
+        <v>377</v>
       </c>
       <c r="AK24" s="1">
         <v>1</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="1">
         <v>0</v>
@@ -4621,19 +4621,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1">
-        <v>5707</v>
+        <v>5486550</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
         <v>123</v>
@@ -4642,7 +4642,7 @@
         <v>45526</v>
       </c>
       <c r="I25" s="1">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4667,10 +4667,10 @@
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="1">
         <v>0</v>
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>377</v>
+        <v>138</v>
       </c>
       <c r="AK25" s="1">
         <v>1</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="1">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>39</v>
       </c>
       <c r="C26" s="1">
-        <v>91725431</v>
+        <v>5462507</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
@@ -4801,7 +4801,7 @@
         <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s">
         <v>123</v>
@@ -4810,13 +4810,13 @@
         <v>45526</v>
       </c>
       <c r="I26" s="1">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1">
@@ -4888,9 +4888,7 @@
       <c r="AI26" s="1">
         <v>0</v>
       </c>
-      <c r="AJ26" s="1">
-        <v>12</v>
-      </c>
+      <c r="AJ26" s="1"/>
       <c r="AK26" s="1">
         <v>0</v>
       </c>
@@ -4957,16 +4955,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1">
-        <v>165365057</v>
+        <v>4680</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
         <v>121</v>
@@ -4978,7 +4976,7 @@
         <v>45526</v>
       </c>
       <c r="I27" s="1">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -5057,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AK27" s="1">
         <v>0</v>
@@ -5102,13 +5100,13 @@
         <v>0</v>
       </c>
       <c r="AY27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27" s="1">
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="1">
         <v>0</v>
@@ -5125,19 +5123,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
         <v>123</v>
@@ -5146,7 +5144,7 @@
         <v>45526</v>
       </c>
       <c r="I28" s="1">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -5165,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -5225,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK28" s="1">
         <v>1</v>
@@ -5276,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB28" s="1">
         <v>0</v>
@@ -5293,19 +5291,17 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1">
-        <v>10836</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
         <v>123</v>
@@ -5314,13 +5310,13 @@
         <v>45526</v>
       </c>
       <c r="I29" s="1">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
@@ -5351,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1">
         <v>0</v>
@@ -5393,13 +5389,13 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="AK29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5461,19 +5457,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
-        <v>5462328</v>
+        <v>10836</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G30" t="s">
         <v>123</v>
@@ -5482,13 +5478,13 @@
         <v>45526</v>
       </c>
       <c r="I30" s="1">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -5519,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="1">
         <v>0</v>
@@ -5561,13 +5557,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -5629,16 +5625,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1">
-        <v>4680</v>
+        <v>12107</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F31" t="s">
         <v>121</v>
@@ -5650,7 +5646,7 @@
         <v>45526</v>
       </c>
       <c r="I31" s="1">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -5729,13 +5725,13 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="AK31" s="1">
         <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="1">
         <v>0</v>
@@ -5774,13 +5770,13 @@
         <v>0</v>
       </c>
       <c r="AY31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="1">
         <v>0</v>
       </c>
       <c r="BA31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB31" s="1">
         <v>0</v>
@@ -5797,17 +5793,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>165365057</v>
+      </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G32" t="s">
         <v>123</v>
@@ -5816,13 +5814,13 @@
         <v>45526</v>
       </c>
       <c r="I32" s="1">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1">
@@ -5895,10 +5893,10 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
         <v>1</v>
@@ -5946,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32" s="1">
         <v>0</v>
@@ -5963,19 +5961,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
         <v>123</v>
@@ -5984,7 +5982,7 @@
         <v>45526</v>
       </c>
       <c r="I33" s="1">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -6062,12 +6060,14 @@
       <c r="AI33" s="1">
         <v>0</v>
       </c>
-      <c r="AJ33" s="1"/>
+      <c r="AJ33" s="1">
+        <v>242</v>
+      </c>
       <c r="AK33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" s="1">
         <v>0</v>
@@ -6129,19 +6129,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
-        <v>12107</v>
+        <v>3345</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
         <v>123</v>
@@ -6150,13 +6150,13 @@
         <v>45526</v>
       </c>
       <c r="I34" s="1">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
@@ -6169,10 +6169,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -6229,13 +6229,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="AK34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34" s="1">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="BA34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="1">
         <v>0</v>
@@ -6297,19 +6297,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1">
-        <v>88890</v>
+        <v>91725431</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G35" t="s">
         <v>123</v>
@@ -6318,13 +6318,13 @@
         <v>45526</v>
       </c>
       <c r="I35" s="1">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
@@ -6397,13 +6397,13 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="1">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="1">
         <v>0</v>
@@ -6465,19 +6465,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1">
-        <v>88890</v>
+        <v>527015</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s">
         <v>123</v>
@@ -6486,13 +6486,13 @@
         <v>45526</v>
       </c>
       <c r="I36" s="1">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
@@ -6565,10 +6565,10 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="AK36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1">
         <v>1</v>
@@ -6633,19 +6633,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1">
-        <v>446220</v>
+        <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
         <v>123</v>
@@ -6654,7 +6654,7 @@
         <v>45526</v>
       </c>
       <c r="I37" s="1">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -6694,10 +6694,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
         <v>0</v>
@@ -6733,13 +6733,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="AK37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" s="1">
         <v>0</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="BA37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB37" s="1">
         <v>0</v>
@@ -6801,19 +6801,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
-        <v>527015</v>
+        <v>3345</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
         <v>123</v>
@@ -6822,13 +6822,13 @@
         <v>45526</v>
       </c>
       <c r="I38" s="1">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6841,10 +6841,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -6901,10 +6901,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="AK38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1">
         <v>1</v>
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="1">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>45526</v>
       </c>
       <c r="I39" s="1">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -7137,19 +7137,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1">
-        <v>3345</v>
+        <v>446220</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G40" t="s">
         <v>123</v>
@@ -7158,7 +7158,7 @@
         <v>45526</v>
       </c>
       <c r="I40" s="1">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -7177,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
         <v>0</v>
@@ -7198,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="W40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" s="1">
         <v>0</v>
@@ -7237,13 +7237,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="1">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="AK40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="1">
         <v>0</v>
@@ -7305,16 +7305,16 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>165365057</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
         <v>121</v>
@@ -7326,7 +7326,7 @@
         <v>45526</v>
       </c>
       <c r="I41" s="1">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -7485,7 +7485,7 @@
         <v>92</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G42" t="s">
         <v>123</v>
@@ -7494,7 +7494,7 @@
         <v>45525</v>
       </c>
       <c r="I42" s="1">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -7641,19 +7641,19 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1">
         <v>446220</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G43" t="s">
         <v>123</v>
@@ -7662,7 +7662,7 @@
         <v>45525</v>
       </c>
       <c r="I43" s="1">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -7812,7 +7812,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="1">
-        <v>448223</v>
+        <v>119478</v>
       </c>
       <c r="D44" t="s">
         <v>78</v>
@@ -7830,7 +7830,7 @@
         <v>45525</v>
       </c>
       <c r="I44" s="1">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -7978,7 +7978,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="1">
-        <v>119478</v>
+        <v>448223</v>
       </c>
       <c r="D45" t="s">
         <v>79</v>
@@ -7996,7 +7996,7 @@
         <v>45525</v>
       </c>
       <c r="I45" s="1">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
@@ -8144,7 +8144,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="1">
-        <v>5707</v>
+        <v>88890</v>
       </c>
       <c r="D46" t="s">
         <v>63</v>
@@ -8153,7 +8153,7 @@
         <v>93</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G46" t="s">
         <v>123</v>
@@ -8162,7 +8162,7 @@
         <v>45446</v>
       </c>
       <c r="I46" s="1">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -8187,10 +8187,10 @@
         <v>0</v>
       </c>
       <c r="R46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="1">
         <v>0</v>
@@ -8241,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>377</v>
+        <v>49</v>
       </c>
       <c r="AK46" s="1">
         <v>1</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB46" s="1">
         <v>0</v>
@@ -8309,19 +8309,19 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C47" s="1">
         <v>3345</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G47" t="s">
         <v>123</v>
@@ -8330,7 +8330,7 @@
         <v>45446</v>
       </c>
       <c r="I47" s="1">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -8477,19 +8477,19 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C48" s="1">
         <v>2519</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G48" t="s">
         <v>123</v>
@@ -8498,7 +8498,7 @@
         <v>45446</v>
       </c>
       <c r="I48" s="1">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -8645,19 +8645,19 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D49" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" t="s">
         <v>64</v>
-      </c>
-      <c r="E49" t="s">
-        <v>94</v>
-      </c>
-      <c r="F49" t="s">
-        <v>70</v>
       </c>
       <c r="G49" t="s">
         <v>123</v>
@@ -8666,7 +8666,7 @@
         <v>45446</v>
       </c>
       <c r="I49" s="1">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -8691,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="1">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>49</v>
+        <v>377</v>
       </c>
       <c r="AK49" s="1">
         <v>1</v>
@@ -8796,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="BA49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="1">
         <v>0</v>
@@ -8825,7 +8825,7 @@
         <v>109</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G50" t="s">
         <v>123</v>
@@ -8834,7 +8834,7 @@
         <v>45649</v>
       </c>
       <c r="I50" s="1">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8981,19 +8981,19 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C51" s="1">
-        <v>6213</v>
+        <v>10836</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G51" t="s">
         <v>123</v>
@@ -9002,13 +9002,13 @@
         <v>45649</v>
       </c>
       <c r="I51" s="1">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -9036,10 +9036,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -9080,7 +9080,9 @@
       <c r="AI51" s="1">
         <v>0</v>
       </c>
-      <c r="AJ51" s="1"/>
+      <c r="AJ51" s="1">
+        <v>274</v>
+      </c>
       <c r="AK51" s="1">
         <v>0</v>
       </c>
@@ -9147,19 +9149,19 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C52" s="1">
-        <v>10836</v>
+        <v>6213</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G52" t="s">
         <v>123</v>
@@ -9168,13 +9170,13 @@
         <v>45649</v>
       </c>
       <c r="I52" s="1">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
@@ -9202,10 +9204,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -9246,9 +9248,7 @@
       <c r="AI52" s="1">
         <v>0</v>
       </c>
-      <c r="AJ52" s="1">
-        <v>274</v>
-      </c>
+      <c r="AJ52" s="1"/>
       <c r="AK52" s="1">
         <v>0</v>
       </c>
@@ -9315,19 +9315,19 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1">
-        <v>12562546</v>
+        <v>88890</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G53" t="s">
         <v>123</v>
@@ -9336,13 +9336,13 @@
         <v>45664</v>
       </c>
       <c r="I53" s="1">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="AK53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM53" s="1">
         <v>0</v>
@@ -9433,13 +9433,13 @@
         <v>0</v>
       </c>
       <c r="AP53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="1">
         <v>0</v>
       </c>
       <c r="AR53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="1">
         <v>0</v>
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="BA53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB53" s="1">
         <v>0</v>
@@ -9483,19 +9483,19 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="1">
-        <v>21812144</v>
+        <v>68602</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G54" t="s">
         <v>123</v>
@@ -9504,13 +9504,13 @@
         <v>45664</v>
       </c>
       <c r="I54" s="1">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
@@ -9583,13 +9583,13 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="AK54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="1">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="BB54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC54" s="1">
         <v>0</v>
@@ -9651,16 +9651,14 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="1">
-        <v>68602</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C55" s="1"/>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="F55" t="s">
         <v>121</v>
@@ -9672,7 +9670,7 @@
         <v>45664</v>
       </c>
       <c r="I55" s="1">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
@@ -9745,13 +9743,13 @@
         <v>0</v>
       </c>
       <c r="AH55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55" s="1">
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="AK55" s="1">
         <v>0</v>
@@ -9819,19 +9817,19 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" s="1">
-        <v>5707</v>
+        <v>10836</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G56" t="s">
         <v>123</v>
@@ -9840,13 +9838,13 @@
         <v>45664</v>
       </c>
       <c r="I56" s="1">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
@@ -9865,10 +9863,10 @@
         <v>0</v>
       </c>
       <c r="R56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" s="1">
         <v>0</v>
@@ -9877,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56" s="1">
         <v>0</v>
@@ -9919,13 +9917,13 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>377</v>
+        <v>274</v>
       </c>
       <c r="AK56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="1">
         <v>0</v>
@@ -9987,19 +9985,19 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C57" s="1">
-        <v>5462328</v>
+        <v>4914</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G57" t="s">
         <v>123</v>
@@ -10008,7 +10006,7 @@
         <v>45664</v>
       </c>
       <c r="I57" s="1">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -10087,13 +10085,13 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="AK57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
@@ -10129,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="AX57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY57" s="1">
         <v>0</v>
@@ -10155,19 +10153,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C58" s="1">
-        <v>10836</v>
+        <v>21812144</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G58" t="s">
         <v>123</v>
@@ -10176,13 +10174,13 @@
         <v>45664</v>
       </c>
       <c r="I58" s="1">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
@@ -10213,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58" s="1">
         <v>0</v>
@@ -10255,13 +10253,13 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM58" s="1">
         <v>0</v>
@@ -10309,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="BB58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC58" s="1">
         <v>0</v>
@@ -10335,7 +10333,7 @@
         <v>110</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G59" t="s">
         <v>123</v>
@@ -10344,7 +10342,7 @@
         <v>45664</v>
       </c>
       <c r="I59" s="1">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -10489,16 +10487,16 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C60" s="1">
-        <v>62300</v>
+        <v>12562546</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
         <v>121</v>
@@ -10510,7 +10508,7 @@
         <v>45664</v>
       </c>
       <c r="I60" s="1">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="J60" s="1">
         <v>0</v>
@@ -10589,13 +10587,13 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>315</v>
+        <v>157</v>
       </c>
       <c r="AK60" s="1">
         <v>0</v>
       </c>
       <c r="AL60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="1">
         <v>0</v>
@@ -10607,13 +10605,13 @@
         <v>0</v>
       </c>
       <c r="AP60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ60" s="1">
         <v>0</v>
       </c>
       <c r="AR60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS60" s="1">
         <v>0</v>
@@ -10657,19 +10655,19 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="1">
         <v>4914</v>
       </c>
       <c r="D61" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G61" t="s">
         <v>123</v>
@@ -10678,13 +10676,13 @@
         <v>45664</v>
       </c>
       <c r="I61" s="1">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
@@ -10825,17 +10823,19 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5462328</v>
+      </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G62" t="s">
         <v>123</v>
@@ -10844,13 +10844,13 @@
         <v>45664</v>
       </c>
       <c r="I62" s="1">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -10917,19 +10917,19 @@
         <v>0</v>
       </c>
       <c r="AH62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="1">
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="AK62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM62" s="1">
         <v>0</v>
@@ -10991,19 +10991,19 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C63" s="1">
-        <v>88890</v>
+        <v>5707</v>
       </c>
       <c r="D63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63" t="s">
         <v>64</v>
-      </c>
-      <c r="E63" t="s">
-        <v>94</v>
-      </c>
-      <c r="F63" t="s">
-        <v>70</v>
       </c>
       <c r="G63" t="s">
         <v>123</v>
@@ -11012,7 +11012,7 @@
         <v>45664</v>
       </c>
       <c r="I63" s="1">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -11037,10 +11037,10 @@
         <v>0</v>
       </c>
       <c r="R63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" s="1">
         <v>0</v>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>49</v>
+        <v>377</v>
       </c>
       <c r="AK63" s="1">
         <v>1</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB63" s="1">
         <v>0</v>
@@ -11159,19 +11159,19 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C64" s="1">
-        <v>4914</v>
+        <v>3345</v>
       </c>
       <c r="D64" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F64" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G64" t="s">
         <v>123</v>
@@ -11180,13 +11180,13 @@
         <v>45664</v>
       </c>
       <c r="I64" s="1">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
@@ -11199,10 +11199,10 @@
         <v>0</v>
       </c>
       <c r="P64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="1">
         <v>0</v>
@@ -11259,13 +11259,13 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>331</v>
+        <v>227</v>
       </c>
       <c r="AK64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM64" s="1">
         <v>0</v>
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="AX64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY64" s="1">
         <v>0</v>
@@ -11330,16 +11330,16 @@
         <v>33</v>
       </c>
       <c r="C65" s="1">
-        <v>3345</v>
+        <v>62300</v>
       </c>
       <c r="D65" t="s">
         <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F65" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G65" t="s">
         <v>123</v>
@@ -11348,13 +11348,13 @@
         <v>45664</v>
       </c>
       <c r="I65" s="1">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
@@ -11367,10 +11367,10 @@
         <v>0</v>
       </c>
       <c r="P65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="1">
         <v>0</v>
@@ -11427,10 +11427,10 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>227</v>
+        <v>315</v>
       </c>
       <c r="AK65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>1</v>
@@ -11507,7 +11507,7 @@
         <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G66" t="s">
         <v>123</v>
@@ -11516,7 +11516,7 @@
         <v>45664</v>
       </c>
       <c r="I66" s="1">
-        <v>2765</v>
+        <v>2768</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -11663,16 +11663,16 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C67" s="1">
-        <v>5486550</v>
+        <v>5462507</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F67" t="s">
         <v>121</v>
@@ -11684,7 +11684,7 @@
         <v>45665</v>
       </c>
       <c r="I67" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -11762,14 +11762,12 @@
       <c r="AI67" s="1">
         <v>0</v>
       </c>
-      <c r="AJ67" s="1">
-        <v>138</v>
-      </c>
+      <c r="AJ67" s="1"/>
       <c r="AK67" s="1">
         <v>0</v>
       </c>
       <c r="AL67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="1">
         <v>0</v>
@@ -11808,7 +11806,7 @@
         <v>0</v>
       </c>
       <c r="AY67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ67" s="1">
         <v>0</v>
@@ -11831,19 +11829,19 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C68" s="1">
-        <v>33741</v>
+        <v>3345</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F68" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G68" t="s">
         <v>123</v>
@@ -11852,13 +11850,13 @@
         <v>45665</v>
       </c>
       <c r="I68" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
@@ -11871,10 +11869,10 @@
         <v>0</v>
       </c>
       <c r="P68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="1">
         <v>0</v>
@@ -11910,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="1">
         <v>0</v>
@@ -11931,10 +11929,10 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>364</v>
+        <v>227</v>
       </c>
       <c r="AK68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="1">
         <v>1</v>
@@ -11999,14 +11997,16 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C69" s="1">
+        <v>10836</v>
+      </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E69" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F69" t="s">
         <v>121</v>
@@ -12018,7 +12018,7 @@
         <v>45665</v>
       </c>
       <c r="I69" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="V69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69" s="1">
         <v>0</v>
@@ -12091,13 +12091,13 @@
         <v>0</v>
       </c>
       <c r="AH69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI69" s="1">
         <v>0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>156</v>
+        <v>274</v>
       </c>
       <c r="AK69" s="1">
         <v>0</v>
@@ -12165,16 +12165,16 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C70" s="1">
-        <v>21812144</v>
+        <v>1983</v>
       </c>
       <c r="D70" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E70" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F70" t="s">
         <v>121</v>
@@ -12186,7 +12186,7 @@
         <v>45665</v>
       </c>
       <c r="I70" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -12265,13 +12265,13 @@
         <v>0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="AK70" s="1">
         <v>0</v>
       </c>
       <c r="AL70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70" s="1">
         <v>0</v>
@@ -12319,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="BB70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC70" s="1">
         <v>0</v>
@@ -12333,16 +12333,16 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1">
-        <v>1983</v>
+        <v>446220</v>
       </c>
       <c r="D71" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E71" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F71" t="s">
         <v>121</v>
@@ -12354,7 +12354,7 @@
         <v>45665</v>
       </c>
       <c r="I71" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y71" s="1">
         <v>0</v>
@@ -12433,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="AK71" s="1">
         <v>0</v>
@@ -12501,19 +12501,19 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C72" s="1">
-        <v>12562546</v>
+        <v>21812144</v>
       </c>
       <c r="D72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F72" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G72" t="s">
         <v>123</v>
@@ -12522,13 +12522,13 @@
         <v>45665</v>
       </c>
       <c r="I72" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -12601,13 +12601,13 @@
         <v>0</v>
       </c>
       <c r="AJ72" s="1">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="AK72" s="1">
         <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM72" s="1">
         <v>0</v>
@@ -12616,16 +12616,16 @@
         <v>0</v>
       </c>
       <c r="AO72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS72" s="1">
         <v>0</v>
@@ -12655,7 +12655,7 @@
         <v>0</v>
       </c>
       <c r="BB72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC72" s="1">
         <v>0</v>
@@ -12669,16 +12669,16 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C73" s="1">
-        <v>5462507</v>
+        <v>33741</v>
       </c>
       <c r="D73" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F73" t="s">
         <v>121</v>
@@ -12690,7 +12690,7 @@
         <v>45665</v>
       </c>
       <c r="I73" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" s="1">
         <v>0</v>
@@ -12768,12 +12768,14 @@
       <c r="AI73" s="1">
         <v>0</v>
       </c>
-      <c r="AJ73" s="1"/>
+      <c r="AJ73" s="1">
+        <v>364</v>
+      </c>
       <c r="AK73" s="1">
         <v>0</v>
       </c>
       <c r="AL73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM73" s="1">
         <v>0</v>
@@ -12835,16 +12837,16 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C74" s="1">
-        <v>10836</v>
+        <v>62300</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E74" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F74" t="s">
         <v>121</v>
@@ -12856,7 +12858,7 @@
         <v>45665</v>
       </c>
       <c r="I74" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -12893,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="V74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W74" s="1">
         <v>0</v>
@@ -12935,13 +12937,13 @@
         <v>0</v>
       </c>
       <c r="AJ74" s="1">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="AK74" s="1">
         <v>0</v>
       </c>
       <c r="AL74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM74" s="1">
         <v>0</v>
@@ -13003,16 +13005,14 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" s="1">
-        <v>88890</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C75" s="1"/>
       <c r="D75" t="s">
         <v>64</v>
       </c>
       <c r="E75" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F75" t="s">
         <v>121</v>
@@ -13024,7 +13024,7 @@
         <v>45665</v>
       </c>
       <c r="I75" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -13097,19 +13097,19 @@
         <v>0</v>
       </c>
       <c r="AH75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI75" s="1">
         <v>0</v>
       </c>
       <c r="AJ75" s="1">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="AK75" s="1">
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75" s="1">
         <v>0</v>
@@ -13154,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="BA75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB75" s="1">
         <v>0</v>
@@ -13171,19 +13171,19 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C76" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F76" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G76" t="s">
         <v>123</v>
@@ -13192,13 +13192,13 @@
         <v>45665</v>
       </c>
       <c r="I76" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -13211,10 +13211,10 @@
         <v>0</v>
       </c>
       <c r="P76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -13271,10 +13271,10 @@
         <v>0</v>
       </c>
       <c r="AJ76" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76" s="1">
         <v>1</v>
@@ -13322,7 +13322,7 @@
         <v>0</v>
       </c>
       <c r="BA76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB76" s="1">
         <v>0</v>
@@ -13360,7 +13360,7 @@
         <v>45665</v>
       </c>
       <c r="I77" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -13507,19 +13507,19 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C78" s="1">
-        <v>62300</v>
+        <v>12562546</v>
       </c>
       <c r="D78" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="F78" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G78" t="s">
         <v>123</v>
@@ -13528,13 +13528,13 @@
         <v>45665</v>
       </c>
       <c r="I78" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
@@ -13607,13 +13607,13 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="1">
-        <v>315</v>
+        <v>157</v>
       </c>
       <c r="AK78" s="1">
         <v>0</v>
       </c>
       <c r="AL78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78" s="1">
         <v>0</v>
@@ -13622,16 +13622,16 @@
         <v>0</v>
       </c>
       <c r="AO78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS78" s="1">
         <v>0</v>
@@ -13675,19 +13675,19 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C79" s="1">
-        <v>68602</v>
+        <v>5462328</v>
       </c>
       <c r="D79" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E79" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F79" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G79" t="s">
         <v>123</v>
@@ -13696,13 +13696,13 @@
         <v>45665</v>
       </c>
       <c r="I79" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1">
@@ -13775,13 +13775,13 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="1">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="AK79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM79" s="1">
         <v>0</v>
@@ -13846,16 +13846,16 @@
         <v>34</v>
       </c>
       <c r="C80" s="1">
-        <v>446220</v>
+        <v>5707</v>
       </c>
       <c r="D80" t="s">
         <v>68</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F80" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G80" t="s">
         <v>123</v>
@@ -13864,13 +13864,13 @@
         <v>45665</v>
       </c>
       <c r="I80" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1">
@@ -13889,10 +13889,10 @@
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" s="1">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y80" s="1">
         <v>0</v>
@@ -13943,13 +13943,13 @@
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <v>175</v>
+        <v>377</v>
       </c>
       <c r="AK80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM80" s="1">
         <v>0</v>
@@ -14011,19 +14011,19 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C81" s="1">
-        <v>5707</v>
+        <v>68602</v>
       </c>
       <c r="D81" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F81" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G81" t="s">
         <v>123</v>
@@ -14032,13 +14032,13 @@
         <v>45665</v>
       </c>
       <c r="I81" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
@@ -14057,10 +14057,10 @@
         <v>0</v>
       </c>
       <c r="R81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T81" s="1">
         <v>0</v>
@@ -14111,13 +14111,13 @@
         <v>0</v>
       </c>
       <c r="AJ81" s="1">
-        <v>377</v>
+        <v>267</v>
       </c>
       <c r="AK81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81" s="1">
         <v>0</v>
@@ -14179,19 +14179,19 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C82" s="1">
-        <v>5462328</v>
+        <v>5486550</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E82" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F82" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G82" t="s">
         <v>123</v>
@@ -14200,13 +14200,13 @@
         <v>45665</v>
       </c>
       <c r="I82" s="1">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
@@ -14279,10 +14279,10 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="1">
-        <v>242</v>
+        <v>138</v>
       </c>
       <c r="AK82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82" s="1">
         <v>1</v>
@@ -14324,7 +14324,7 @@
         <v>0</v>
       </c>
       <c r="AY82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ82" s="1">
         <v>0</v>
@@ -14359,7 +14359,7 @@
         <v>92</v>
       </c>
       <c r="F83" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G83" t="s">
         <v>123</v>
@@ -14368,7 +14368,7 @@
         <v>45649</v>
       </c>
       <c r="I83" s="1">
-        <v>2767</v>
+        <v>2770</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -14515,17 +14515,19 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C84" s="1">
+        <v>6213</v>
+      </c>
       <c r="D84" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E84" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F84" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G84" t="s">
         <v>123</v>
@@ -14534,7 +14536,7 @@
         <v>45602</v>
       </c>
       <c r="I84" s="1">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="J84" s="1">
         <v>1</v>
@@ -14607,14 +14609,12 @@
         <v>0</v>
       </c>
       <c r="AH84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI84" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ84" s="1">
-        <v>156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="1"/>
       <c r="AK84" s="1">
         <v>0</v>
       </c>
@@ -14681,19 +14681,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C85" s="1">
-        <v>6213</v>
+        <v>3345</v>
       </c>
       <c r="D85" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E85" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F85" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G85" t="s">
         <v>123</v>
@@ -14702,7 +14702,7 @@
         <v>45602</v>
       </c>
       <c r="I85" s="1">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -14721,10 +14721,10 @@
         <v>0</v>
       </c>
       <c r="P85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" s="1">
         <v>0</v>
@@ -14780,12 +14780,14 @@
       <c r="AI85" s="1">
         <v>0</v>
       </c>
-      <c r="AJ85" s="1"/>
+      <c r="AJ85" s="1">
+        <v>227</v>
+      </c>
       <c r="AK85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM85" s="1">
         <v>0</v>
@@ -14847,19 +14849,19 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86" s="1">
         <v>88890</v>
       </c>
       <c r="D86" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" t="s">
+        <v>93</v>
+      </c>
+      <c r="F86" t="s">
         <v>64</v>
-      </c>
-      <c r="E86" t="s">
-        <v>94</v>
-      </c>
-      <c r="F86" t="s">
-        <v>70</v>
       </c>
       <c r="G86" t="s">
         <v>123</v>
@@ -14868,7 +14870,7 @@
         <v>45602</v>
       </c>
       <c r="I86" s="1">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="J86" s="1">
         <v>1</v>
@@ -15015,19 +15017,17 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
-      </c>
-      <c r="C87" s="1">
-        <v>3676</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C87" s="1"/>
       <c r="D87" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E87" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="F87" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G87" t="s">
         <v>123</v>
@@ -15036,7 +15036,7 @@
         <v>45602</v>
       </c>
       <c r="I87" s="1">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -15109,13 +15109,13 @@
         <v>0</v>
       </c>
       <c r="AH87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ87" s="1">
-        <v>258</v>
+        <v>156</v>
       </c>
       <c r="AK87" s="1">
         <v>0</v>
@@ -15157,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="AX87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY87" s="1">
         <v>0</v>
@@ -15183,19 +15183,19 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C88" s="1">
-        <v>1983</v>
+        <v>3676</v>
       </c>
       <c r="D88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F88" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G88" t="s">
         <v>123</v>
@@ -15204,13 +15204,13 @@
         <v>45602</v>
       </c>
       <c r="I88" s="1">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="J88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1">
@@ -15283,7 +15283,7 @@
         <v>0</v>
       </c>
       <c r="AJ88" s="1">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="AK88" s="1">
         <v>0</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="AX88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY88" s="1">
         <v>0</v>
@@ -15351,19 +15351,19 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C89" s="1">
-        <v>5707</v>
+        <v>68602</v>
       </c>
       <c r="D89" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E89" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G89" t="s">
         <v>123</v>
@@ -15372,13 +15372,13 @@
         <v>45602</v>
       </c>
       <c r="I89" s="1">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="J89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1">
@@ -15400,10 +15400,10 @@
         <v>0</v>
       </c>
       <c r="S89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U89" s="1">
         <v>0</v>
@@ -15451,13 +15451,13 @@
         <v>0</v>
       </c>
       <c r="AJ89" s="1">
-        <v>377</v>
+        <v>267</v>
       </c>
       <c r="AK89" s="1">
         <v>0</v>
       </c>
       <c r="AL89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89" s="1">
         <v>0</v>
@@ -15519,19 +15519,19 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C90" s="1">
-        <v>3345</v>
+        <v>5707</v>
       </c>
       <c r="D90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E90" t="s">
         <v>97</v>
       </c>
       <c r="F90" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G90" t="s">
         <v>123</v>
@@ -15540,13 +15540,13 @@
         <v>45602</v>
       </c>
       <c r="I90" s="1">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="J90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1">
@@ -15559,19 +15559,19 @@
         <v>0</v>
       </c>
       <c r="P90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R90" s="1">
         <v>0</v>
       </c>
       <c r="S90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U90" s="1">
         <v>0</v>
@@ -15619,10 +15619,10 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="1">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="AK90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90" s="1">
         <v>1</v>
@@ -15687,19 +15687,19 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C91" s="1">
-        <v>68602</v>
+        <v>1983</v>
       </c>
       <c r="D91" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E91" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F91" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G91" t="s">
         <v>123</v>
@@ -15708,13 +15708,13 @@
         <v>45602</v>
       </c>
       <c r="I91" s="1">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="J91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1">
@@ -15787,7 +15787,7 @@
         <v>0</v>
       </c>
       <c r="AJ91" s="1">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="AK91" s="1">
         <v>0</v>
@@ -15876,7 +15876,7 @@
         <v>45611</v>
       </c>
       <c r="I92" s="1">
-        <v>2769</v>
+        <v>2772</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
@@ -16023,16 +16023,16 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C93" s="1">
-        <v>5462507</v>
+        <v>26879</v>
       </c>
       <c r="D93" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F93" t="s">
         <v>121</v>
@@ -16044,7 +16044,7 @@
         <v>45666</v>
       </c>
       <c r="I93" s="1">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="J93" s="1">
         <v>0</v>
@@ -16096,7 +16096,7 @@
         <v>0</v>
       </c>
       <c r="AA93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB93" s="1">
         <v>0</v>
@@ -16122,7 +16122,9 @@
       <c r="AI93" s="1">
         <v>0</v>
       </c>
-      <c r="AJ93" s="1"/>
+      <c r="AJ93" s="1">
+        <v>256</v>
+      </c>
       <c r="AK93" s="1">
         <v>0</v>
       </c>
@@ -16163,7 +16165,7 @@
         <v>0</v>
       </c>
       <c r="AX93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY93" s="1">
         <v>0</v>
@@ -16189,19 +16191,19 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C94" s="1">
-        <v>5462328</v>
+        <v>10836</v>
       </c>
       <c r="D94" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E94" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F94" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G94" t="s">
         <v>123</v>
@@ -16210,13 +16212,13 @@
         <v>45666</v>
       </c>
       <c r="I94" s="1">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="J94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
@@ -16247,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="V94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W94" s="1">
         <v>0</v>
@@ -16289,13 +16291,13 @@
         <v>0</v>
       </c>
       <c r="AJ94" s="1">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="AK94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM94" s="1">
         <v>0</v>
@@ -16357,19 +16359,19 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C95" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D95" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E95" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F95" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G95" t="s">
         <v>123</v>
@@ -16378,7 +16380,7 @@
         <v>45666</v>
       </c>
       <c r="I95" s="1">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="J95" s="1">
         <v>1</v>
@@ -16397,10 +16399,10 @@
         <v>0</v>
       </c>
       <c r="P95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95" s="1">
         <v>0</v>
@@ -16457,7 +16459,7 @@
         <v>0</v>
       </c>
       <c r="AJ95" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK95" s="1">
         <v>1</v>
@@ -16508,7 +16510,7 @@
         <v>0</v>
       </c>
       <c r="BA95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB95" s="1">
         <v>0</v>
@@ -16546,7 +16548,7 @@
         <v>45666</v>
       </c>
       <c r="I96" s="1">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="J96" s="1">
         <v>0</v>
@@ -16693,19 +16695,19 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C97" s="1">
-        <v>10836</v>
+        <v>5462328</v>
       </c>
       <c r="D97" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E97" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F97" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G97" t="s">
         <v>123</v>
@@ -16714,13 +16716,13 @@
         <v>45666</v>
       </c>
       <c r="I97" s="1">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="J97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1">
@@ -16751,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="V97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W97" s="1">
         <v>0</v>
@@ -16793,13 +16795,13 @@
         <v>0</v>
       </c>
       <c r="AJ97" s="1">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="AK97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM97" s="1">
         <v>0</v>
@@ -16861,19 +16863,19 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C98" s="1">
-        <v>88890</v>
+        <v>5462507</v>
       </c>
       <c r="D98" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E98" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F98" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G98" t="s">
         <v>123</v>
@@ -16882,13 +16884,13 @@
         <v>45666</v>
       </c>
       <c r="I98" s="1">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="J98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1">
@@ -16960,14 +16962,12 @@
       <c r="AI98" s="1">
         <v>0</v>
       </c>
-      <c r="AJ98" s="1">
-        <v>49</v>
-      </c>
+      <c r="AJ98" s="1"/>
       <c r="AK98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM98" s="1">
         <v>0</v>
@@ -17012,7 +17012,7 @@
         <v>0</v>
       </c>
       <c r="BA98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB98" s="1">
         <v>0</v>
@@ -17029,19 +17029,19 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C99" s="1">
-        <v>26879</v>
+        <v>3345</v>
       </c>
       <c r="D99" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E99" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F99" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G99" t="s">
         <v>123</v>
@@ -17050,13 +17050,13 @@
         <v>45666</v>
       </c>
       <c r="I99" s="1">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="J99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1">
@@ -17069,10 +17069,10 @@
         <v>0</v>
       </c>
       <c r="P99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99" s="1">
         <v>0</v>
@@ -17102,7 +17102,7 @@
         <v>0</v>
       </c>
       <c r="AA99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB99" s="1">
         <v>0</v>
@@ -17129,13 +17129,13 @@
         <v>0</v>
       </c>
       <c r="AJ99" s="1">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="AK99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM99" s="1">
         <v>0</v>
@@ -17171,7 +17171,7 @@
         <v>0</v>
       </c>
       <c r="AX99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY99" s="1">
         <v>0</v>
@@ -17197,19 +17197,19 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C100" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D100" t="s">
+        <v>70</v>
+      </c>
+      <c r="E100" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" t="s">
         <v>64</v>
-      </c>
-      <c r="E100" t="s">
-        <v>94</v>
-      </c>
-      <c r="F100" t="s">
-        <v>70</v>
       </c>
       <c r="G100" t="s">
         <v>123</v>
@@ -17218,7 +17218,7 @@
         <v>45666</v>
       </c>
       <c r="I100" s="1">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -17237,10 +17237,10 @@
         <v>0</v>
       </c>
       <c r="P100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" s="1">
         <v>0</v>
@@ -17297,7 +17297,7 @@
         <v>0</v>
       </c>
       <c r="AJ100" s="1">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="AK100" s="1">
         <v>1</v>
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="BA100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB100" s="1">
         <v>0</v>
@@ -17365,19 +17365,19 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C101" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D101" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E101" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F101" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G101" t="s">
         <v>123</v>
@@ -17386,7 +17386,7 @@
         <v>45666</v>
       </c>
       <c r="I101" s="1">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -17405,10 +17405,10 @@
         <v>0</v>
       </c>
       <c r="P101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R101" s="1">
         <v>0</v>
@@ -17465,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="AJ101" s="1">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="AK101" s="1">
         <v>1</v>
@@ -17516,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="BA101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB101" s="1">
         <v>0</v>
@@ -17533,16 +17533,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C102" s="1">
-        <v>5486550</v>
+        <v>5462507</v>
       </c>
       <c r="D102" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F102" t="s">
         <v>121</v>
@@ -17554,7 +17554,7 @@
         <v>45666</v>
       </c>
       <c r="I102" s="1">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="J102" s="1">
         <v>0</v>
@@ -17632,14 +17632,12 @@
       <c r="AI102" s="1">
         <v>0</v>
       </c>
-      <c r="AJ102" s="1">
-        <v>138</v>
-      </c>
+      <c r="AJ102" s="1"/>
       <c r="AK102" s="1">
         <v>0</v>
       </c>
       <c r="AL102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM102" s="1">
         <v>0</v>
@@ -17678,7 +17676,7 @@
         <v>0</v>
       </c>
       <c r="AY102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ102" s="1">
         <v>0</v>
@@ -17701,19 +17699,19 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C103" s="1">
-        <v>3345</v>
+        <v>5486550</v>
       </c>
       <c r="D103" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E103" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F103" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G103" t="s">
         <v>123</v>
@@ -17722,13 +17720,13 @@
         <v>45666</v>
       </c>
       <c r="I103" s="1">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="J103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1">
@@ -17741,10 +17739,10 @@
         <v>0</v>
       </c>
       <c r="P103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R103" s="1">
         <v>0</v>
@@ -17801,10 +17799,10 @@
         <v>0</v>
       </c>
       <c r="AJ103" s="1">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="AK103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL103" s="1">
         <v>1</v>
@@ -17846,7 +17844,7 @@
         <v>0</v>
       </c>
       <c r="AY103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ103" s="1">
         <v>0</v>
@@ -17869,19 +17867,19 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C104" s="1">
         <v>88890</v>
       </c>
       <c r="D104" t="s">
+        <v>63</v>
+      </c>
+      <c r="E104" t="s">
+        <v>93</v>
+      </c>
+      <c r="F104" t="s">
         <v>64</v>
-      </c>
-      <c r="E104" t="s">
-        <v>94</v>
-      </c>
-      <c r="F104" t="s">
-        <v>70</v>
       </c>
       <c r="G104" t="s">
         <v>123</v>
@@ -17890,7 +17888,7 @@
         <v>45666</v>
       </c>
       <c r="I104" s="1">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="J104" s="1">
         <v>1</v>
@@ -18037,19 +18035,19 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C105" s="1">
-        <v>5462328</v>
+        <v>26879</v>
       </c>
       <c r="D105" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E105" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F105" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="G105" t="s">
         <v>123</v>
@@ -18058,13 +18056,13 @@
         <v>45666</v>
       </c>
       <c r="I105" s="1">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="J105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1">
@@ -18110,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="AA105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB105" s="1">
         <v>0</v>
@@ -18137,13 +18135,13 @@
         <v>0</v>
       </c>
       <c r="AJ105" s="1">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="AK105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM105" s="1">
         <v>0</v>
@@ -18179,7 +18177,7 @@
         <v>0</v>
       </c>
       <c r="AX105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY105" s="1">
         <v>0</v>
@@ -18205,19 +18203,19 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C106" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D106" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E106" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F106" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G106" t="s">
         <v>123</v>
@@ -18226,13 +18224,13 @@
         <v>45666</v>
       </c>
       <c r="I106" s="1">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="J106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1">
@@ -18304,12 +18302,14 @@
       <c r="AI106" s="1">
         <v>0</v>
       </c>
-      <c r="AJ106" s="1"/>
+      <c r="AJ106" s="1">
+        <v>242</v>
+      </c>
       <c r="AK106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM106" s="1">
         <v>0</v>
@@ -18371,19 +18371,19 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C107" s="1">
-        <v>26879</v>
+        <v>3345</v>
       </c>
       <c r="D107" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E107" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F107" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G107" t="s">
         <v>123</v>
@@ -18392,13 +18392,13 @@
         <v>45666</v>
       </c>
       <c r="I107" s="1">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="J107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
@@ -18411,10 +18411,10 @@
         <v>0</v>
       </c>
       <c r="P107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -18444,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="AA107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB107" s="1">
         <v>0</v>
@@ -18471,13 +18471,13 @@
         <v>0</v>
       </c>
       <c r="AJ107" s="1">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="AK107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM107" s="1">
         <v>0</v>
@@ -18513,7 +18513,7 @@
         <v>0</v>
       </c>
       <c r="AX107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY107" s="1">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>92</v>
       </c>
       <c r="F108" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G108" t="s">
         <v>123</v>
@@ -18560,7 +18560,7 @@
         <v>45687</v>
       </c>
       <c r="I108" s="1">
-        <v>2837</v>
+        <v>2845</v>
       </c>
       <c r="J108" s="1">
         <v>1</v>
@@ -18719,7 +18719,7 @@
         <v>92</v>
       </c>
       <c r="F109" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G109" t="s">
         <v>123</v>
@@ -18728,7 +18728,7 @@
         <v>45687</v>
       </c>
       <c r="I109" s="1">
-        <v>2838</v>
+        <v>2846</v>
       </c>
       <c r="J109" s="1">
         <v>1</v>
@@ -18887,7 +18887,7 @@
         <v>92</v>
       </c>
       <c r="F110" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G110" t="s">
         <v>123</v>
@@ -18896,7 +18896,7 @@
         <v>45666</v>
       </c>
       <c r="I110" s="1">
-        <v>2839</v>
+        <v>2847</v>
       </c>
       <c r="J110" s="1">
         <v>1</v>
@@ -19055,7 +19055,7 @@
         <v>92</v>
       </c>
       <c r="F111" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G111" t="s">
         <v>123</v>
@@ -19064,7 +19064,7 @@
         <v>45687</v>
       </c>
       <c r="I111" s="1">
-        <v>2840</v>
+        <v>2848</v>
       </c>
       <c r="J111" s="1">
         <v>1</v>
@@ -19215,13 +19215,13 @@
       </c>
       <c r="C112" s="1"/>
       <c r="D112" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E112" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F112" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G112" t="s">
         <v>123</v>
@@ -19230,7 +19230,7 @@
         <v>45688</v>
       </c>
       <c r="I112" s="1">
-        <v>2841</v>
+        <v>2849</v>
       </c>
       <c r="J112" s="1">
         <v>1</v>
@@ -19389,7 +19389,7 @@
         <v>92</v>
       </c>
       <c r="F113" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G113" t="s">
         <v>123</v>
@@ -19398,7 +19398,7 @@
         <v>45687</v>
       </c>
       <c r="I113" s="1">
-        <v>2842</v>
+        <v>2850</v>
       </c>
       <c r="J113" s="1">
         <v>1</v>

--- a/datasets/selfservice/RV/lab_detail.xlsx
+++ b/datasets/selfservice/RV/lab_detail.xlsx
@@ -102,10 +102,13 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>p-fluorofentanyl</t>
+  </si>
+  <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
+    <t>fentanyl</t>
   </si>
   <si>
     <t>caffeine</t>
@@ -114,19 +117,25 @@
     <t>heroin</t>
   </si>
   <si>
-    <t>p-fluorofentanyl</t>
+    <t>phenethyl 4-ANPP</t>
   </si>
   <si>
     <t>xylazine</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>quinine</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>1-phenethyl-4-hydroxypiperidine</t>
   </si>
   <si>
-    <t>cocaine</t>
+    <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
+    <t>N-phenylpropanamide</t>
   </si>
   <si>
     <t>acetylcodeine</t>
@@ -138,15 +147,6 @@
     <t>papaverine</t>
   </si>
   <si>
-    <t>1-phenethyl-4-hydroxypiperidine</t>
-  </si>
-  <si>
-    <t>N-phenylpropanamide</t>
-  </si>
-  <si>
-    <t>1-phenethyl-4-propionyloxypiperidine</t>
-  </si>
-  <si>
     <t>acetyl fentanyl</t>
   </si>
   <si>
@@ -156,34 +156,34 @@
     <t>benzoylecgonine (BZ)</t>
   </si>
   <si>
-    <t>1,3-Diacetin</t>
+    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
   </si>
   <si>
-    <t>dimethyl sulfone (methylsulfonylmethane MSM)</t>
+    <t>1,3-Diacetin</t>
   </si>
   <si>
     <t>medetomidine</t>
   </si>
   <si>
-    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
+    <t>despropionyl p-fluorofentanyl</t>
   </si>
   <si>
     <t>procaine</t>
   </si>
   <si>
-    <t>despropionyl p-fluorofentanyl</t>
+    <t>bromazolam</t>
   </si>
   <si>
-    <t>bromazolam</t>
+    <t>bis(2,2,6,6-tetramethyl-4-piperidyl) sebacate</t>
   </si>
   <si>
     <t>acetaminophen</t>
   </si>
   <si>
-    <t>tramadol</t>
+    <t>lidocaine</t>
   </si>
   <si>
-    <t>lidocaine</t>
+    <t>tramadol</t>
   </si>
   <si>
     <t>alprazolam</t>
@@ -204,10 +204,13 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t>90736-23-5</t>
+  </si>
+  <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t/>
+    <t>437-38-7</t>
   </si>
   <si>
     <t>58-08-2</t>
@@ -216,19 +219,22 @@
     <t>561-27-3</t>
   </si>
   <si>
-    <t>90736-23-5</t>
+    <t/>
   </si>
   <si>
     <t>7361-61-7</t>
   </si>
   <si>
+    <t>50-36-2</t>
+  </si>
+  <si>
     <t>72402-53-0</t>
   </si>
   <si>
-    <t>437-38-7</t>
+    <t>1462260-87-2</t>
   </si>
   <si>
-    <t>50-36-2</t>
+    <t>620-71-3</t>
   </si>
   <si>
     <t>6703-27-1</t>
@@ -240,12 +246,6 @@
     <t>58-74-2</t>
   </si>
   <si>
-    <t>620-71-3</t>
-  </si>
-  <si>
-    <t>1462260-87-2</t>
-  </si>
-  <si>
     <t>3258-84-2</t>
   </si>
   <si>
@@ -255,19 +255,19 @@
     <t>519-09-5</t>
   </si>
   <si>
-    <t>105-70-4</t>
+    <t>67-71-0</t>
   </si>
   <si>
-    <t>67-71-0</t>
+    <t>105-70-4</t>
   </si>
   <si>
     <t>86347-14-0</t>
   </si>
   <si>
-    <t>59-46-1</t>
+    <t>122861-41-0</t>
   </si>
   <si>
-    <t>122861-41-0</t>
+    <t>59-46-1</t>
   </si>
   <si>
     <t>71368-80-4</t>
@@ -276,10 +276,10 @@
     <t>103-90-2</t>
   </si>
   <si>
-    <t>123154-38-1</t>
+    <t>137-58-6</t>
   </si>
   <si>
-    <t>137-58-6</t>
+    <t>123154-38-1</t>
   </si>
   <si>
     <t>28981-97-7</t>
@@ -294,7 +294,13 @@
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>I45R05QM0Z</t>
+  </si>
+  <si>
     <t>Q88EHD0U8G</t>
+  </si>
+  <si>
+    <t>UF599785JZ</t>
   </si>
   <si>
     <t>3G6A5W338E</t>
@@ -303,19 +309,19 @@
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>I45R05QM0Z</t>
+    <t>2KFG9TP5V8</t>
   </si>
   <si>
-    <t>2KFG9TP5V8</t>
+    <t>I5Y540LHVR</t>
   </si>
   <si>
     <t>A7V27PHC7A</t>
   </si>
   <si>
-    <t>UF599785JZ</t>
+    <t>3D9E9KK5K5</t>
   </si>
   <si>
-    <t>I5Y540LHVR</t>
+    <t>UYP5ZQI00T</t>
   </si>
   <si>
     <t>U59401ETXH</t>
@@ -327,12 +333,6 @@
     <t>DAA13NKG2Q</t>
   </si>
   <si>
-    <t>UYP5ZQI00T</t>
-  </si>
-  <si>
-    <t>3D9E9KK5K5</t>
-  </si>
-  <si>
     <t>6DZ28538KS</t>
   </si>
   <si>
@@ -342,19 +342,19 @@
     <t>5353I8I6YS</t>
   </si>
   <si>
-    <t>G45CU3Z186</t>
+    <t>9H4PO4Z4FT</t>
   </si>
   <si>
-    <t>9H4PO4Z4FT</t>
+    <t>G45CU3Z186</t>
   </si>
   <si>
     <t>MR15E85MQM</t>
   </si>
   <si>
-    <t>4Z8Y51M438</t>
+    <t>R8ZH1EQ95Y</t>
   </si>
   <si>
-    <t>R8ZH1EQ95Y</t>
+    <t>4Z8Y51M438</t>
   </si>
   <si>
     <t>YMC9OT97Z1</t>
@@ -363,10 +363,10 @@
     <t>362O9ITL9D</t>
   </si>
   <si>
-    <t>39J1LGJ30J</t>
+    <t>98PI200987</t>
   </si>
   <si>
-    <t>98PI200987</t>
+    <t>39J1LGJ30J</t>
   </si>
   <si>
     <t>YU55MQ3IZY</t>
@@ -769,7 +769,7 @@
         <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
         <v>123</v>
@@ -928,7 +928,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1">
-        <v>88890</v>
+        <v>62300</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
@@ -937,7 +937,7 @@
         <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
         <v>123</v>
@@ -949,10 +949,10 @@
         <v>1316</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>49</v>
+        <v>315</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>123</v>
@@ -1117,10 +1117,10 @@
         <v>1316</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>322</v>
+        <v>49</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <v>1</v>
@@ -1264,16 +1264,16 @@
         <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>2519</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>123</v>
@@ -1285,10 +1285,10 @@
         <v>1316</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>5462328</v>
+        <v>2519</v>
       </c>
       <c r="D6" t="s">
         <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
         <v>121</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1600,13 +1600,13 @@
         <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>62300</v>
+        <v>5462328</v>
       </c>
       <c r="D7" t="s">
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
         <v>121</v>
@@ -